--- a/Scripts/Python Script Versions/Data/cleanedArticles.xlsx
+++ b/Scripts/Python Script Versions/Data/cleanedArticles.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="755">
   <si>
     <t>article_id</t>
   </si>
@@ -40,303 +40,276 @@
     <t>origContent</t>
   </si>
   <si>
-    <t>IAB &amp; IAB Tech Lab Recognize Outstanding Digital Marketing Leaders with 2019 Sales and Service Excellence Awards - Associated Press</t>
-  </si>
-  <si>
-    <t>Save up to 60% on last-minute Valentine's Day flowers and gifts — and more of today's best deals from around the web</t>
-  </si>
-  <si>
-    <t>I've been living with the Google Home Max and Apple's HomePod side by side for almost 6 months, and they both have one major problem (GOOG, GOOGL, AAPL)</t>
-  </si>
-  <si>
-    <t>Elon Musk: Moving to Mars will cost less than $500,000, 'maybe even below $100,000'</t>
-  </si>
-  <si>
-    <t>Get extra storage on your Nintendo Switch or camera with big savings on Samsung and SanDisk SD cards</t>
-  </si>
-  <si>
-    <t>Walmart chasing Amazon’s success with internal advertising business</t>
-  </si>
-  <si>
-    <t>The best espresso machines you can buy</t>
+    <t>Kyler Murray chose football right after A's exec Billy Beane said no decision had been made</t>
+  </si>
+  <si>
+    <t>This Quadriga client lost his entire life savings in $560,000 mistake</t>
+  </si>
+  <si>
+    <t>How Bad Is the China Slowdown? U.S. Companies Offer Some Answers - The Wall Street Journal</t>
+  </si>
+  <si>
+    <t>National Enquirer Publisher Asked Justice Department for Advice on Saudi Connection - The Wall Street Journal</t>
+  </si>
+  <si>
+    <t>'This is a union town' — NYC councilman says Amazon's HQ2 is 'antithetical' to our values</t>
+  </si>
+  <si>
+    <t>Staples Canada jumps on the co-working trend, heralding a new era of shared workspaces</t>
+  </si>
+  <si>
+    <t>Tesla's biggest non-Musk shareholder just cut its stake in half — but the stock is still soaring (TSLA)</t>
+  </si>
+  <si>
+    <t>How the sports world reacted to Kyler Murray choosing the NFL over MLB</t>
+  </si>
+  <si>
+    <t>One of Snap's former top execs is going to take on Amazon with his new start-up</t>
+  </si>
+  <si>
+    <t>Apple's new MacBook Air is up to $150 off at Best Buy right now — and it's a great deal at this price</t>
+  </si>
+  <si>
+    <t>‘Flesh and blood robots for Amazon’: They raid clearance aisles and resell it all online for a profit</t>
+  </si>
+  <si>
+    <t>Under Armour Analysts Eye Margins for Proof Efforts Paying Off</t>
+  </si>
+  <si>
+    <t>How to sign out of Amazon from various devices</t>
+  </si>
+  <si>
+    <t>Jeff Bezos and the National Enquirer</t>
+  </si>
+  <si>
+    <t>Maher pits a real Bezos against a fake Trump in Best of Late Night</t>
+  </si>
+  <si>
+    <t>Whole Foods again has best online prices for Valentine's roses</t>
+  </si>
+  <si>
+    <t>Vaccines are often stored improperly, reducing their effectiveness</t>
+  </si>
+  <si>
+    <t>Katy Perry's shoe collection pulls two pairs over blackface controversy</t>
+  </si>
+  <si>
+    <t>CNBC'S JULIA BOORSTIN: REDDIT RAISED $300 MILLION AT A $3 BILLION VALUATION - NOW IT'S READY TO TAKE ON FACEBOOK AND GOOGLE</t>
+  </si>
+  <si>
+    <t>Kyler Murray is the only QB in the 2019 NFL draft class worthy of the No. 1 pick</t>
+  </si>
+  <si>
+    <t>Will Tech Be the Death of Creative Marketing?</t>
+  </si>
+  <si>
+    <t>Plunge in crypto sets stage for Facebook and other tech giants to hire blockchain experts</t>
+  </si>
+  <si>
+    <t>Paul Tudor Jones says 'mania' in share buybacks is threatening to have 'social consequences'</t>
+  </si>
+  <si>
+    <t>Bezos probe concludes mistress' brother was Enquirer source</t>
+  </si>
+  <si>
+    <t>These $25 boxer briefs are the most supportive I've ever found — here's what makes them different</t>
+  </si>
+  <si>
+    <t>Toys R US plans second act under new name</t>
+  </si>
+  <si>
+    <t>Investigators in Bezos probe conclude his mistress’s brother was National Enquirer source - The Globe and Mail</t>
+  </si>
+  <si>
+    <t>Home services site Handy has furniture assembly deal with Crate and Barrel</t>
+  </si>
+  <si>
+    <t>How to properly clean an iPad screen without damaging your device</t>
+  </si>
+  <si>
+    <t>‘De-risking must be priority’: Embattled SNC-Lavalin stock has value, but asset sale advised</t>
+  </si>
+  <si>
+    <t>The house where Jeff Bezos founded Amazon is on sale for a bargain price</t>
+  </si>
+  <si>
+    <t>Facebook and Twitter are following in Apple’s footsteps by hiding some of their most important numbers. Here’s why investors should be concerned (AAPL, TWTR, FB)</t>
+  </si>
+  <si>
+    <t>PM Update: Some ice is a risk through early Tuesday, especially north and west, then more rain follows</t>
+  </si>
+  <si>
+    <t>Amazon is acquiring home WiFi start-up Eero</t>
+  </si>
+  <si>
+    <t>Amazon is acquiring WiFi router company Eero (AMZN)</t>
+  </si>
+  <si>
+    <t>Athletes bond after spinal injury</t>
+  </si>
+  <si>
+    <t>Amazon to buy wi-fi startup eero</t>
+  </si>
+  <si>
+    <t>Katy Perry Shoes Pulled From Online Stores After Blackface Controversy</t>
+  </si>
+  <si>
+    <t>Cost of Economic Incentives in New York Placed at $9.9 Billion</t>
+  </si>
+  <si>
+    <t>CNBC Exclusive: CNBC Transcript: Billionaire Investor Paul Tudor Jones Speaks with CNBC's Bob Pisani Today</t>
+  </si>
+  <si>
+    <t>National Enquirer publisher asked if it needed to register as foreign agent for Saudis</t>
+  </si>
+  <si>
+    <t>Amazon to buy Wi-Fi device maker Eero</t>
+  </si>
+  <si>
+    <t>Toys ‘R’ Us Plans a United States Comeback</t>
+  </si>
+  <si>
+    <t>New Rules Could Ease Patients' Access to Health Records</t>
+  </si>
+  <si>
+    <t>9 cheap products that solve some of life's everyday annoyances</t>
+  </si>
+  <si>
+    <t>Cramer: This earnings period revealed 'brutal truths' about US-China trade</t>
+  </si>
+  <si>
+    <t>Americans can’t decide how much to tax the rich -- but they want to tax the rich</t>
+  </si>
+  <si>
+    <t>Sears' controversial ex-chairman closes deal to buy the company, keeping 425 stores open</t>
+  </si>
+  <si>
+    <t>Omar smashed over sneers at Jewish money in politics - Fox News</t>
+  </si>
+  <si>
+    <t>'Friends' won't always be there for Netflix: How Warner streaming could affect your shows</t>
+  </si>
+  <si>
+    <t>Amazon buys eero: What does it mean for the price of Wi-Fi routers?</t>
+  </si>
+  <si>
+    <t>Katy Perry shoes criticized for resembling blackface apparently pulled</t>
+  </si>
+  <si>
+    <t>Move Over Echo, Amazon to Acquire Alexa-Compatible Wi-Fi Mesh Router Company Eero</t>
+  </si>
+  <si>
+    <t>Cramer's lightning round: Sell some Cronos shares tomorrow</t>
+  </si>
+  <si>
+    <t>10 beautiful flower bouquets you can get in time for Valentine's Day thanks to Amazon Prime</t>
+  </si>
+  <si>
+    <t>Here's why investors are throwing money at startups that give away their software for free</t>
+  </si>
+  <si>
+    <t>Newark Tells Amazon the Web Retailing Giant Still Has a Local HQ2 Option if NYC Backs Out</t>
+  </si>
+  <si>
+    <t>Washington Post Finds Itself in the Middle of the Jeff Bezos Story</t>
+  </si>
+  <si>
+    <t>On His Visit to Albany, de Blasio Gets a (Mostly) Hearty Embrace</t>
+  </si>
+  <si>
+    <t>How Trump Has Hurt the Gun Lobby</t>
+  </si>
+  <si>
+    <t>The Wall Street Journal: Amazon bolsters smart-home offerings with Eero acquisition</t>
+  </si>
+  <si>
+    <t>Bezos' girlfriend shared his texts, photos with friends before Enquirer leak</t>
+  </si>
+  <si>
+    <t>So long, blooming flowers: Vancouverites react to 'snowmaggedon'</t>
+  </si>
+  <si>
+    <t>Healthy Rose, Teague lead Timberwolves past Clippers 130-120</t>
+  </si>
+  <si>
+    <t>Virgin plans an ambitious American adventure</t>
+  </si>
+  <si>
+    <t>Maybe men will not be the winners from AI after all</t>
+  </si>
+  <si>
+    <t>Glenn Greenwald: Amazon one of the world's biggest threats to privacy</t>
+  </si>
+  <si>
+    <t>Exclusive: Walmart, Google-backed Deliv end online grocery partnership</t>
+  </si>
+  <si>
+    <t>Katy Perry enfrenta críticas por zapatos que evocan el ‘blackface’</t>
+  </si>
+  <si>
+    <t>10 things in tech you need to know today</t>
+  </si>
+  <si>
+    <t>The 10 most important things in the world right now</t>
+  </si>
+  <si>
+    <t>Billionaire investor Ray Dalio sat down with his idol, Paul Volcker, who laid out the 3 principles that guide his legendary worldview</t>
+  </si>
+  <si>
+    <t>Debt guarantee tangle: China's private firms hit by default contagion</t>
+  </si>
+  <si>
+    <t>1 year into code critical campaign, N.S. paramedics union say nothing has changed</t>
+  </si>
+  <si>
+    <t>D.C.-area forecast: Cold rain for another day, with some slick spots early. Drying out Wednesday.</t>
+  </si>
+  <si>
+    <t>Big businesses promised wage hikes from Trump's tax cuts. What actually happened?</t>
+  </si>
+  <si>
+    <t>Pakistan set to secure funding from Saudi Arabia and IMF</t>
+  </si>
+  <si>
+    <t>Majority of New Yorkers Support Amazon Project in Queens, New Poll Shows - The Wall Street Journal</t>
+  </si>
+  <si>
+    <t>Higher Prices Are Back at Whole Foods - The Wall Street Journal</t>
+  </si>
+  <si>
+    <t>BRIEF-Leone Film Group Signs Agreement With Amazon Prime Video</t>
+  </si>
+  <si>
+    <t>Border Agreement, Nissan Forecast, China Talks: CEO Daily for February 12, 2019</t>
+  </si>
+  <si>
+    <t>Fyre Festival to fashion week, how Instagram influencers make money (and LOTS of it)</t>
+  </si>
+  <si>
+    <t>Can the middle-class revival under Trump last?</t>
+  </si>
+  <si>
+    <t>'A new era on guns:' Gun-safety groups set sights on 2020 a year after Parkland</t>
+  </si>
+  <si>
+    <t>EU smaller states say no to end of veto on tax reforms</t>
+  </si>
+  <si>
+    <t>A lawyer at the heart of the National Enquirer's war with Jeff Bezos used to work for Amazon for 9 years</t>
+  </si>
+  <si>
+    <t>Stocks to open higher | Tentative border compromise | Rubio's buyback crackdown</t>
+  </si>
+  <si>
+    <t>This start-up is bringing fast home equity loans to your smartphone bank app</t>
+  </si>
+  <si>
+    <t>PRESS DIGEST - Canada - Feb 12</t>
   </si>
   <si>
     <t>Brian Hoyer's Amazon and ESPN+ subscriptions helped the Patriots win Super Bowl 53</t>
   </si>
   <si>
-    <t>Everything we know so far about Verishop, former Snap chief strategy officer Imran Khan's new e-commerce startup that aims to take on Amazon</t>
-  </si>
-  <si>
-    <t>The 10 best cities to buy your first home</t>
-  </si>
-  <si>
-    <t>Kyler Murray chose football right after A's exec Billy Beane said no decision had been made</t>
-  </si>
-  <si>
-    <t>This Quadriga client lost his entire life savings in $560,000 mistake</t>
-  </si>
-  <si>
-    <t>How Bad Is the China Slowdown? U.S. Companies Offer Some Answers - The Wall Street Journal</t>
-  </si>
-  <si>
-    <t>National Enquirer Publisher Asked Justice Department for Advice on Saudi Connection - The Wall Street Journal</t>
-  </si>
-  <si>
-    <t>'This is a union town' — NYC councilman says Amazon's HQ2 is 'antithetical' to our values</t>
-  </si>
-  <si>
-    <t>Staples Canada jumps on the co-working trend, heralding a new era of shared workspaces</t>
-  </si>
-  <si>
-    <t>Tesla's biggest non-Musk shareholder just cut its stake in half — but the stock is still soaring (TSLA)</t>
-  </si>
-  <si>
-    <t>How the sports world reacted to Kyler Murray choosing the NFL over MLB</t>
-  </si>
-  <si>
-    <t>One of Snap's former top execs is going to take on Amazon with his new start-up</t>
-  </si>
-  <si>
-    <t>Apple's new MacBook Air is up to $150 off at Best Buy right now — and it's a great deal at this price</t>
-  </si>
-  <si>
-    <t>‘Flesh and blood robots for Amazon’: They raid clearance aisles and resell it all online for a profit</t>
-  </si>
-  <si>
-    <t>Under Armour Analysts Eye Margins for Proof Efforts Paying Off</t>
-  </si>
-  <si>
-    <t>How to sign out of Amazon from various devices</t>
-  </si>
-  <si>
-    <t>Jeff Bezos and the National Enquirer</t>
-  </si>
-  <si>
-    <t>Maher pits a real Bezos against a fake Trump in Best of Late Night</t>
-  </si>
-  <si>
-    <t>Whole Foods again has best online prices for Valentine's roses</t>
-  </si>
-  <si>
-    <t>Vaccines are often stored improperly, reducing their effectiveness</t>
-  </si>
-  <si>
-    <t>Katy Perry's shoe collection pulls two pairs over blackface controversy</t>
-  </si>
-  <si>
-    <t>CNBC'S JULIA BOORSTIN: REDDIT RAISED $300 MILLION AT A $3 BILLION VALUATION - NOW IT'S READY TO TAKE ON FACEBOOK AND GOOGLE</t>
-  </si>
-  <si>
-    <t>Kyler Murray is the only QB in the 2019 NFL draft class worthy of the No. 1 pick</t>
-  </si>
-  <si>
-    <t>Will Tech Be the Death of Creative Marketing?</t>
-  </si>
-  <si>
-    <t>Plunge in crypto sets stage for Facebook and other tech giants to hire blockchain experts</t>
-  </si>
-  <si>
-    <t>Paul Tudor Jones says 'mania' in share buybacks is threatening to have 'social consequences'</t>
-  </si>
-  <si>
-    <t>Bezos probe concludes mistress' brother was Enquirer source</t>
-  </si>
-  <si>
-    <t>These $25 boxer briefs are the most supportive I've ever found — here's what makes them different</t>
-  </si>
-  <si>
-    <t>Toys R US plans second act under new name</t>
-  </si>
-  <si>
-    <t>Investigators in Bezos probe conclude his mistress’s brother was National Enquirer source - The Globe and Mail</t>
-  </si>
-  <si>
-    <t>Home services site Handy has furniture assembly deal with Crate and Barrel</t>
-  </si>
-  <si>
-    <t>How to properly clean an iPad screen without damaging your device</t>
-  </si>
-  <si>
-    <t>‘De-risking must be priority’: Embattled SNC-Lavalin stock has value, but asset sale advised</t>
-  </si>
-  <si>
-    <t>The house where Jeff Bezos founded Amazon is on sale for a bargain price</t>
-  </si>
-  <si>
-    <t>Facebook and Twitter are following in Apple’s footsteps by hiding some of their most important numbers. Here’s why investors should be concerned (AAPL, TWTR, FB)</t>
-  </si>
-  <si>
-    <t>PM Update: Some ice is a risk through early Tuesday, especially north and west, then more rain follows</t>
-  </si>
-  <si>
-    <t>Amazon is acquiring home WiFi start-up Eero</t>
-  </si>
-  <si>
-    <t>Amazon is acquiring WiFi router company Eero (AMZN)</t>
-  </si>
-  <si>
-    <t>Athletes bond after spinal injury</t>
-  </si>
-  <si>
-    <t>Amazon to buy wi-fi startup eero</t>
-  </si>
-  <si>
-    <t>Katy Perry Shoes Pulled From Online Stores After Blackface Controversy</t>
-  </si>
-  <si>
-    <t>Cost of Economic Incentives in New York Placed at $9.9 Billion</t>
-  </si>
-  <si>
-    <t>CNBC Exclusive: CNBC Transcript: Billionaire Investor Paul Tudor Jones Speaks with CNBC's Bob Pisani Today</t>
-  </si>
-  <si>
-    <t>National Enquirer publisher asked if it needed to register as foreign agent for Saudis</t>
-  </si>
-  <si>
-    <t>Amazon to buy Wi-Fi device maker Eero</t>
-  </si>
-  <si>
-    <t>Toys ‘R’ Us Plans a United States Comeback</t>
-  </si>
-  <si>
-    <t>New Rules Could Ease Patients' Access to Health Records</t>
-  </si>
-  <si>
-    <t>9 cheap products that solve some of life's everyday annoyances</t>
-  </si>
-  <si>
-    <t>Cramer: This earnings period revealed 'brutal truths' about US-China trade</t>
-  </si>
-  <si>
-    <t>Americans can’t decide how much to tax the rich -- but they want to tax the rich</t>
-  </si>
-  <si>
-    <t>Sears' controversial ex-chairman closes deal to buy the company, keeping 425 stores open</t>
-  </si>
-  <si>
-    <t>Omar smashed over sneers at Jewish money in politics - Fox News</t>
-  </si>
-  <si>
-    <t>'Friends' won't always be there for Netflix: How Warner streaming could affect your shows</t>
-  </si>
-  <si>
-    <t>Amazon buys eero: What does it mean for the price of Wi-Fi routers?</t>
-  </si>
-  <si>
-    <t>Katy Perry shoes criticized for resembling blackface apparently pulled</t>
-  </si>
-  <si>
-    <t>Move Over Echo, Amazon to Acquire Alexa-Compatible Wi-Fi Mesh Router Company Eero</t>
-  </si>
-  <si>
-    <t>Cramer's lightning round: Sell some Cronos shares tomorrow</t>
-  </si>
-  <si>
-    <t>10 beautiful flower bouquets you can get in time for Valentine's Day thanks to Amazon Prime</t>
-  </si>
-  <si>
-    <t>Here's why investors are throwing money at startups that give away their software for free</t>
-  </si>
-  <si>
-    <t>Newark Tells Amazon the Web Retailing Giant Still Has a Local HQ2 Option if NYC Backs Out</t>
-  </si>
-  <si>
-    <t>Washington Post Finds Itself in the Middle of the Jeff Bezos Story</t>
-  </si>
-  <si>
-    <t>On His Visit to Albany, de Blasio Gets a (Mostly) Hearty Embrace</t>
-  </si>
-  <si>
-    <t>How Trump Has Hurt the Gun Lobby</t>
-  </si>
-  <si>
-    <t>Amazon bolsters smart-home offerings with Eero acquisition</t>
-  </si>
-  <si>
-    <t>Bezos' girlfriend shared his texts, photos with friends before Enquirer leak</t>
-  </si>
-  <si>
-    <t>So long, blooming flowers: Vancouverites react to 'snowmaggedon'</t>
-  </si>
-  <si>
-    <t>Healthy Rose, Teague lead Timberwolves past Clippers 130-120</t>
-  </si>
-  <si>
-    <t>Virgin plans an ambitious American adventure</t>
-  </si>
-  <si>
-    <t>Maybe men will not be the winners from AI after all</t>
-  </si>
-  <si>
-    <t>Glenn Greenwald: Amazon one of the world's biggest threats to privacy</t>
-  </si>
-  <si>
-    <t>Exclusive: Walmart, Google-backed Deliv end online grocery partnership</t>
-  </si>
-  <si>
-    <t>Katy Perry enfrenta críticas por zapatos que evocan el ‘blackface’</t>
-  </si>
-  <si>
-    <t>10 things in tech you need to know today</t>
-  </si>
-  <si>
-    <t>The 10 most important things in the world right now</t>
-  </si>
-  <si>
-    <t>Billionaire investor Ray Dalio sat down with his idol, Paul Volcker, who laid out the 3 principles that guide his legendary worldview</t>
-  </si>
-  <si>
-    <t>Debt guarantee tangle: China's private firms hit by default contagion</t>
-  </si>
-  <si>
-    <t>1 year into code critical campaign, N.S. paramedics union say nothing has changed</t>
-  </si>
-  <si>
-    <t>D.C.-area forecast: Cold rain for another day, with some slick spots early. Drying out Wednesday.</t>
-  </si>
-  <si>
-    <t>Big businesses promised wage hikes from Trump's tax cuts. What actually happened?</t>
-  </si>
-  <si>
-    <t>Pakistan set to secure funding from Saudi Arabia and IMF</t>
-  </si>
-  <si>
-    <t>Majority of New Yorkers Support Amazon Project in Queens, New Poll Shows - The Wall Street Journal</t>
-  </si>
-  <si>
-    <t>Higher Prices Are Back at Whole Foods - The Wall Street Journal</t>
-  </si>
-  <si>
-    <t>BRIEF-Leone Film Group Signs Agreement With Amazon Prime Video</t>
-  </si>
-  <si>
-    <t>Border Agreement, Nissan Forecast, China Talks: CEO Daily for February 12, 2019</t>
-  </si>
-  <si>
-    <t>Fyre Festival to fashion week, how Instagram influencers make money (and LOTS of it)</t>
-  </si>
-  <si>
-    <t>Can the middle-class revival under Trump last?</t>
-  </si>
-  <si>
-    <t>'A new era on guns:' Gun-safety groups set sights on 2020 a year after Parkland</t>
-  </si>
-  <si>
-    <t>EU smaller states say no to end of veto on tax reforms</t>
-  </si>
-  <si>
-    <t>A lawyer at the heart of the National Enquirer's war with Jeff Bezos used to work for Amazon for 9 years</t>
-  </si>
-  <si>
-    <t>Stocks to open higher | Tentative border compromise | Rubio's buyback crackdown</t>
-  </si>
-  <si>
-    <t>This start-up is bringing fast home equity loans to your smartphone bank app</t>
-  </si>
-  <si>
-    <t>PRESS DIGEST - Canada - Feb 12</t>
-  </si>
-  <si>
     <t>The Wall Street Journal: Majority of New Yorkers back Amazon HQ2 in Queens, this poll shows</t>
   </si>
   <si>
@@ -472,466 +445,448 @@
     <t>Whole Foods is raising prices on some items and discontinuing others as it gets ravaged by rising costs (AMZN)</t>
   </si>
   <si>
-    <t>PHOENIX--(BUSINESS WIRE)--Feb 11, 2019--IAB , the national trade organization for the digital media and marketing industries, was joined today by the IAB Tech Lab in honoring outstanding digital marketers in a variety of categories; sales excellence, service …</t>
+    <t>New York Needs Amazon</t>
+  </si>
+  <si>
+    <t>Save up to 25% on last-minute Valentine's Day experiences on Groupon — and more of today's best deals from around the web</t>
+  </si>
+  <si>
+    <t>At 64, PEN winner Sandra Cisneros is just getting started</t>
+  </si>
+  <si>
+    <t>Amazon's streamlined packaging wreaks havoc in recycling centers</t>
+  </si>
+  <si>
+    <t>OSCARS ON LIFE SUPPORT: Academy insiders describe the problems plaguing Hollywood's biggest night, and how it could rebound</t>
+  </si>
+  <si>
+    <t>Brazil environment minister blasted for calling murdered Amazon defender 'irrelevant'</t>
+  </si>
+  <si>
+    <t>Seattle Area Home Where Jeff Bezos Started Amazon Can Be Yours</t>
+  </si>
+  <si>
+    <t>Interesting timing.</t>
+  </si>
+  <si>
+    <t>'I wasn't using it for trading — I just wanted to move my money over to my Canadian bank account'</t>
+  </si>
+  <si>
+    <t>How Bad Is the China Slowdown? U.S. Companies Offer Some Answers The Wall Street Journal Fourth-quarter results from U.S. companies indicate that slowing growth in China is modest, but broad. Retailers and other companies catering to Chinese... View full cove…</t>
+  </si>
+  <si>
+    <t>National Enquirer Publisher Asked Justice Department for Advice on Saudi Connection The Wall Street Journal Investigators zero in on Amazon CEO leaker as National Enquirer denies extortion ABC News National Enquirer did blackmail Jeff Bezos: Napolitano Fox Bu…</t>
+  </si>
+  <si>
+    <t>New York City Councilman Jimmy Van Bramer also says he is against Amazon's plans for HQ2 in Queens because of the company's stances on immigration control.</t>
+  </si>
+  <si>
+    <t>The future of co-working might not be in minimalist loft spaces with bottomless espresso bars. It might be in big box stores.</t>
+  </si>
+  <si>
+    <t>Tesla shareholder T. Rowe Price cut its stake in half in the fourth quarter, a regulatory filing showed on Monday. As of September, prior to the divestiture, T. Rowe was the automaker's second-largest shareholder, trailing only CEO Elon Musk. Now, Baillie Gif…</t>
+  </si>
+  <si>
+    <t>Decision made.</t>
+  </si>
+  <si>
+    <t>Imran Khan's new retail venture, Verishop, takes direct aim at Amazon.</t>
+  </si>
+  <si>
+    <t>The Insider Picks team writes about stuff we think you'll like. Business Insider has affiliate partnerships, so we get a share of the revenue from your purchase. Apple's MacBook Air is on sale at Best Buy for up to $150 off its original price as part of the "…</t>
+  </si>
+  <si>
+    <t>For some, retail arbitrage is a lucrative side hustle, but for others it's how they earn a living, with the potential to make thousands a year</t>
+  </si>
+  <si>
+    <t>Under Armour Inc. will report fourth-quarter financial results pre-market Tuesday. Analysts largely expect the quarterly report and the 2019 forecast to be inline with the forecasts provided at the company’s December 12 investor day. Particular interest will …</t>
+  </si>
+  <si>
+    <t>Once you sign in to your Amazon account, you will remain signed in unless you specifically sign out even if you close an app or turn off a device. If you use a computer or other device that may be shared with other people, it can be critical that you properly…</t>
+  </si>
+  <si>
+    <t>A billionaire, a scandal and what it says about America</t>
+  </si>
+  <si>
+    <t>Comics give the latest on the National Enquirer scandal</t>
+  </si>
+  <si>
+    <t>Amazon Prime deal is $19.99, or $25 with local delivery, a good two-thirds less than $79.90 for 1-800-Flowers. In-store pickup is best deal.</t>
+  </si>
+  <si>
+    <t>Officials regulate the handling of vaccines by participants in the Vaccines for Children program. But there's no similar oversight for other providers.</t>
+  </si>
+  <si>
+    <t>Are Katy Perry's shoes with faces examples of racist "blackface" imagery? Her label pulled two pairs from website but they're still on sale elsewhere.</t>
+  </si>
+  <si>
+    <t>Kyler Murray isn’t the surest thing, but he’s the only special QB prospect in this class.</t>
+  </si>
+  <si>
+    <t>Today’s marketers can be challenged to incorporate the latest technologies while protecting creativity and innovative ideas. Ben Grossman, senior VP, group strategy director at IPG global brand experience agency Jack Morton, discusses ways to merge the analyt…</t>
+  </si>
+  <si>
+    <t>As blockchain start-ups wind down and the crypto market mania fades, engineers are becoming free agents for technology giants.</t>
+  </si>
+  <si>
+    <t>Jones is  noted for making broad market calls and predicted the 1987 stock market crash.</t>
+  </si>
+  <si>
+    <t>WASHINGTON (AP) — Private investigators working for Jeff Bezos have determined the brother of the Amazon CEO's mistress leaked the couple's intimate text messages to the National Enquirer.</t>
+  </si>
+  <si>
+    <t>The Insider Picks team writes about stuff we think you'll like. Business Insider has affiliate partnerships, so we get a share of the revenue from your purchase. Saxx Underwear Co. makes boxer briefs designed for all-day comfort thanks to myriad thoughtful de…</t>
+  </si>
+  <si>
+    <t>NEW YORK (AP) — Toys R Us fans in the U.S. should see the iconic brand re-emerge in some form by this holiday season.</t>
+  </si>
+  <si>
+    <t>Investigators in Bezos probe conclude his mistress’s brother was National Enquirer source The Globe and Mail Jeff Bezos probe concludes mistress' brother was Enquirer source CP24 Toronto's Breaking News Is this man the National Enquirer’s source? Five things …</t>
+  </si>
+  <si>
+    <t>Home furnishings retailer Crate and Barrel will partner with home services platform Handy to offer furniture assembly and home decor installation across the United States, joining a growing list of big box retailers seeking to win over shoppers with handyman …</t>
+  </si>
+  <si>
+    <t>You'll want to avoid using sprays or any semi-abrasive materials when cleaning your iPad screen. It's important that you don't have any power sources attached to your iPad when cleaning it. It's best to avoid all household cleaners on your iPad screen. You ca…</t>
+  </si>
+  <si>
+    <t>Controversy-ridden company should sell or wind down underperforming segments, such as mining, says one analyst</t>
+  </si>
+  <si>
+    <t>According to Zillow, the 1,540 square-foot house located at 10704 NE 28th street is listed for just nearly $1.5 million. It features 3 bedrooms,1.75 baths and a hot tub on the back porch. It was last sold in 2009 for $620,000.</t>
+  </si>
+  <si>
+    <t>Apple, Facebook, and Twitter each announced recently that they would stop disclosing some important data to investors. Each said other figures better depict the health of their business. But when companies cease reporting certain figures, it's often a sign th…</t>
+  </si>
+  <si>
+    <t>Iciness will be most common outside the immediate area. Then we'll have a rainy Tuesday.</t>
+  </si>
+  <si>
+    <t>Amazon said it's acquiring Eero for an undisclosed sum</t>
+  </si>
+  <si>
+    <t>Amazon is acquiring the home mesh wi-fi router company Eero, the companies announced in a press release Monday. Eero was last valued at $215 million in a Series D in 2017, according to PitchBook. It's backed by venture capital firms including Qualcomm and Sha…</t>
+  </si>
+  <si>
+    <t>UPTON, Mass. (AP) — It has been almost four years since former Valley Tech softball star Bella Picard fractured her neck diving into second base in the first inning of a game at Fordham during her sophomore season at St.…</t>
+  </si>
+  <si>
+    <t>Amazon.com Inc said on Monday it has signed an agreement to buy eero, a startup company that makes home routers, to help customers better connect smart home devices.</t>
+  </si>
+  <si>
+    <t>Social media roars after blackface controversy, prompting Katy Perry to withdraw two designs from her footwear line from online retailers.</t>
+  </si>
+  <si>
+    <t>Spending on economic-development incentives in New York state increased 17% over two years, according to a report released Monday by an independent watchdog, which comes amid the dispute over giving Amazon tax breaks to place a site in Queens.</t>
+  </si>
+  <si>
+    <t>Communications between the Justice Department and American Media Inc. offer the fullest picture yet of interaction between the tabloid publisher and the Saudis.</t>
+  </si>
+  <si>
+    <t>NEW YORK (AP) — Amazon is buying Wi-Fi device maker Eero, helping the online retailer expand its line of smart home gadgets.</t>
+  </si>
+  <si>
+    <t>A company that owns the old retailer’s brands is aiming to re-emerge with new stores and e-commerce by the holiday season.</t>
+  </si>
+  <si>
+    <t>The Trump administration is proposing steps aimed at improving patients’ access to their own health data, bolstering efforts to bring information including insurance claims, hospital and doctor records to digital devices such as smartphones.</t>
+  </si>
+  <si>
+    <t>The Insider Picks team writes about stuff we think you'll like. Business Insider has affiliate partnerships, so we get a share of the revenue from your purchase. Your outlet is too far away to charge your phone and text while you're laying in bed. Your headph…</t>
+  </si>
+  <si>
+    <t>Jim Cramer guides investors on how to approach developments in U.S.-China trade talks.</t>
+  </si>
+  <si>
+    <t>A number of new polls offer slightly different guidance.</t>
+  </si>
+  <si>
+    <t>Sears' controversial ex-CEO has closed the deal to buy the beleaguered company for $5.2 billion. 425 Sears and Kmart stores will remain open.</t>
+  </si>
+  <si>
+    <t>Omar smashed over sneers at Jewish money in politics Fox News **Want FOX News Halftime Report in your inbox every day? Sign up here.** On the roster: Omar smashed over sneers at Jewish money in politics - Fairfax... View full coverage on Google News</t>
+  </si>
+  <si>
+    <t>The latest entrant will seek to appeal to all age groups with a range of existing programming, including 'Friends,' and original series, too.</t>
+  </si>
+  <si>
+    <t>Eero was the first notable company to solve poky Wi-Fi issues at home through “mesh” technology. Now Amazon and eero are meshing together.</t>
+  </si>
+  <si>
+    <t>Two designs from Katy Perry's shoe line that were criticized for resembling blackface were pulled from Dillard's and Walmart websites on Monday.</t>
+  </si>
+  <si>
+    <t>Amazon is acquiring wifi startup Eero, which makes mesh routers, works with smart home network devices such as Amazon Echo, powered by Alexa</t>
+  </si>
+  <si>
+    <t>Jim Cramer flies through his responses to callers' stock questions, including one on a popular pot play.</t>
+  </si>
+  <si>
+    <t>The Insider Picks team writes about stuff we think you'll like. Business Insider has affiliate partnerships, so we get a share of the revenue from your purchase. The benefits of Amazon Prime go far beyond free two-day shipping, but the fast delivery times are…</t>
+  </si>
+  <si>
+    <t>From mergers and acquisitions to massive amounts of funding, commercial open source software companies made a splash last year. Confluent, Neo4j, HashiCorp and GitLab are just a few examples of commercial open source software startups that raised major rounds…</t>
+  </si>
+  <si>
+    <t>Newark, N.J. sent reminders to Amazon that the company is still welcome to build one of two HQ2 locations in the New Jersey city.</t>
+  </si>
+  <si>
+    <t>Since Jeff Bezos bought The Washington Post in 2013, it has added more than 200 people to its newsroom, for a total of 900 journalists.</t>
+  </si>
+  <si>
+    <t>With Democrats now controlling both chambers of the Legislature, Mayor Bill de Blasio, a Democrat, received an unusually kind reception on Monday during his annual appearance at a state budget hearing.</t>
+  </si>
+  <si>
+    <t>His presidency hasn’t been the boon for gun-rights supporters that they might have hoped.</t>
+  </si>
+  <si>
+    <t>Amazon.com Inc. on Monday disclosed its latest bet to control the so-called smart home, adding to its fold a company that offers a Wi-Fi system that ditches the traditional router.</t>
+  </si>
+  <si>
+    <t>Jeff Bezos' girlfriend has privately acknowledged that she shared some photos and texts from the Amazon founder with several female friends, adding to the mystery of who leaked salacious material to the National Enquirer.</t>
+  </si>
+  <si>
+    <t>Like the grass turning green when it rains, there are some things you should expect when it snows in Vancouver. Here's what some people had to say online.</t>
+  </si>
+  <si>
+    <t>Derrick Rose and Jeff Teague gave a beleaguered backcourt a needed boost and lifted the Minnesota Timberwolves to a 130-120 victory over the Los Angeles Clippers on Monday night</t>
+  </si>
+  <si>
+    <t>MINNEAPOLIS (AP) — Derrick Rose and Jeff Teague gave a beleaguered backcourt a needed boost and lifted the Minnesota Timberwolves to a 130-120 victory over the Los Angeles Clippers on Monday night.</t>
+  </si>
+  <si>
+    <t>Chief executive Josh Bayliss plots US expansion with a dizzying wish list of ventures</t>
+  </si>
+  <si>
+    <t>The well-paid jobs of the future may involve skills based on emotional intelligence</t>
+  </si>
+  <si>
+    <t>After Amazon founder and CEO Jeff Bezos went on the offensive against the National Enquirer and its parent company AMI, saying they threatened to release intimate photos of himself and his girlfriend, Lauren Sanchez, many in the media lauded the billionaire f…</t>
+  </si>
+  <si>
+    <t>Walmart Inc and logistics firm Deliv pulled the plug on a key same-day grocery delivery partnership, dealing a setback in the retailer's race against rival Amazon.com Inc to deliver groceries to customers' homes.</t>
+  </si>
+  <si>
+    <t>rimero fue Prada. Luego, Gucci. Ahora, Katy Perry está siendo criticada por crear moda que evoca un rostro pintado de negro o "blackface".</t>
+  </si>
+  <si>
+    <t>Good morning! This is the tech news you need to know this Tuesday. Amazon is acquiring WiFi router company Eero. Eero makes "mesh" Wi-Fi routers, which help blanket even the largest spaces with a strong wireless internet signal. The terms of the deal were not…</t>
+  </si>
+  <si>
+    <t>Hello! Here's everything you need to know on Tuesday, February 12. 1. SpaceX founder Elon Musk is 'confident' people could afford to 'sell their home on Earth.' And then move to Mars on board a SpaceX rocket. 2. The White House has completely ignored the US i…</t>
+  </si>
+  <si>
+    <t>In an exclusive interview conducted by Bridgewater Associates and seen by Business Insider, Ray Dalio chatted with legendary economist and former Federal Reserve chair Paul Volcker. Volcker laid out three main principles that have shaped his worldview and hel…</t>
+  </si>
+  <si>
+    <t>The collapse in China of a complex web of debt guarantees involving several private firms highlights risks in its financial system and opens up a potentially hazardous front for an economy in the grip of its slowest growth in nearly three decades.</t>
+  </si>
+  <si>
+    <t>It's been one year since the union representing Nova Scotia's paramedics started pressuring the province to improve ambulance availability and launched a social media campaign to bring attention to the issue.</t>
+  </si>
+  <si>
+    <t>Mild weather offers a brief visit by Thursday.</t>
+  </si>
+  <si>
+    <t>Corporations are using savings from the 2017 tax law to continue to buy back billions in stock after trumpeting employee bonuses and benefits.</t>
+  </si>
+  <si>
+    <t>News of Mohammed bin Salman’s visit comes as minister announces progress on IMF deal</t>
+  </si>
+  <si>
+    <t>Majority of New Yorkers Support Amazon Project in Queens, New Poll Shows The Wall Street Journal Ocasio-Cortez celebrates as Amazon reportedly reconsiders HQ2 deal Fox Business 3 cities Amazon should consider for HQ2 if it scraps NYC Yahoo Finance Phil Murphy…</t>
+  </si>
+  <si>
+    <t>Higher Prices Are Back at Whole Foods The Wall Street Journal Whole Foods is raising prices again. Amazon slashed prices at Whole Foods after acquiring the natural grocer in 2017, aiming to counter its reputation for high...</t>
+  </si>
+  <si>
+    <t>* SAID ON MONDAY IT HAD SIGNED MULTI-YEAR CONTRACT WITH AMAZON PRIME VIDEO</t>
+  </si>
+  <si>
+    <t>Must-read business news, delivered every morning.</t>
+  </si>
+  <si>
+    <t>YouTube and Instagram influencers make hundreds or millions of dollars touting everything from Fyre Festival to fashion week to makeup. Here's how.</t>
+  </si>
+  <si>
+    <t>In his State of the Union, Trump said the middle class can become "more prosperous than ever." While some of his policies helped, others may hurt.</t>
+  </si>
+  <si>
+    <t>Finance ministers from smaller European Union states on Tuesday opposed a plan to limit governments' power to block EU reforms on tax matters, in a move that further reduces the chances of introducing an EU levy on large digital firms.</t>
+  </si>
+  <si>
+    <t>A lawyer at the heart of the National Enquirer's war with Jeff Bezos used to be a loyal servant of the billionaire at Amazon, The Wall Street Journal reports. American Media Inc's Deputy General Counsel Jon Fine worked at Amazon from 2006 to 2015, and was foc…</t>
+  </si>
+  <si>
+    <t>A tentative government funding deal and optimism over China trade talks are helping boost futures this morning.</t>
+  </si>
+  <si>
+    <t>Blend's service is the latest example of a tech start-up working with banks, rather than competing against them, to bring easier-to-use digital services to the financial industry.</t>
+  </si>
+  <si>
+    <t>The following are the top stories from selected Canadian newspapers. Reuters has not verified these stories and does not vouch for their accuracy.</t>
+  </si>
+  <si>
+    <t>Brian Hoyer's tips on Sean McVay's offense helped the Patriots defense make the biggest play of the game. And he can thank ESPN+ and Amazon for that.</t>
+  </si>
+  <si>
+    <t>Despite vocal opposition by some legislators, a majority of voters in both New York City and the state support the deal to bring Amazon.com Inc. to Queens, a poll released Tuesday shows.</t>
+  </si>
+  <si>
+    <t>Amazon reduced prices across Whole Foods stores when they took over in 2017, but inflation and expiring contracts are pushing them back up.</t>
+  </si>
+  <si>
+    <t>These are the stocks posting the largest moves before the bell.</t>
+  </si>
+  <si>
+    <t>OPEC significantly reduced its crude-oil production in January, making good on its latest deal to curb output and rebalance an oversupplied market, the oil cartel said Tuesday.</t>
+  </si>
+  <si>
+    <t>Here is what you need to know. Lawmakers have reached a tentative deal to avoid another US government shutdown. The provisional deal would provide $1.375 billion for border fortification, made from vertical steel slats rather than a solid wall, according to m…</t>
+  </si>
+  <si>
+    <t>Software company SAP unveiled its Runway App at Christian Siriano's show during New York Fashion Week on Sat., Feb. 9. The app offers in-person showgoers and at-home viewers the ability to "like" and "love" looks as they debut down the runway, while also givi…</t>
+  </si>
+  <si>
+    <t>The leading sportswear retailer and secondary market will combine retail and digital expertise to bring "a lot of synergies" to the sneaker industry, Goat CEO Eddy Lu says.</t>
+  </si>
+  <si>
+    <t>If a near-term pullback strikes stocks, BTIG's Julian Emanuel says buy it.</t>
+  </si>
+  <si>
+    <t>LONDON, Feb 12- U.S. sanctions on Venezuela's state-owned oil company are tightening the global oil market and sending refiners around the world scrambling to find replacements for the country's diesel-rich heavy and extra heavy crudes. Venezuela's heavy crud…</t>
+  </si>
+  <si>
+    <t>U.S. sanctions on Venezuela's state-owned oil company are tightening the global oil market and sending refiners around the world scrambling to find replacements for the country's diesel-rich heavy and extra heavy crudes.</t>
+  </si>
+  <si>
+    <t>Sweethearts are gone but Valentine's Day isn't ruined. It wasn't the only conversation heart in town. Here are some of the alternatives.</t>
+  </si>
+  <si>
+    <t>Save on your Valentine's Day meals with these deals, which include free champagne, buy-one-get-one free offers and more.</t>
+  </si>
+  <si>
+    <t>Costco offers great deals for members, but there are some groceries that, for the average person, it doesn't pay to buy in bulk. As one expert puts it: "Just because Costco has it doesn't mean it's a bargain."</t>
+  </si>
+  <si>
+    <t>A new Washington Post-Schar School poll finds Mueller is more trusted than Ken Starr was.</t>
+  </si>
+  <si>
+    <t>Rep. Jackie Speier is reintroducing legislation.</t>
+  </si>
+  <si>
+    <t>Banks and the Trump Tower condo board have staked claims to the $26.7 million fortune Paul Manafort must give up after his Russia-probe convictions.</t>
+  </si>
+  <si>
+    <t>Microsoft co-founder Bill Gates, who has a net worth approaching $100 billion, has slammed tax policies like the one put forth by Alexandria Ocasio-Cortez, saying they miss the larger picture and could create tax dodging.</t>
+  </si>
+  <si>
+    <t>This story was delivered to Business Insider Intelligence " E-Commerce Briefing " subscribers hours before appearing on Business Insider. To be the first to know, please click here. Multiple former Toys “R” Us executives are working for a new company called T…</t>
+  </si>
+  <si>
+    <t>The "Fast Money" traders share their first moves for the market open.</t>
+  </si>
+  <si>
+    <t>The chain Choong Man specializes in tikkudak, but some outlets in the area can’t seem to nail it.</t>
+  </si>
+  <si>
+    <t>As more people look for love on dating apps and social media, there's a steady spike in scammers trying to warm their way into hearts and wallets.</t>
+  </si>
+  <si>
+    <t>Reader revenue has been the big growth story at The New York Times, which hit 4.3 million subscriptions at the end of 2018. After a Trump bump, the Times is doubling down on investigative reporting to maintain subscription growth, COO Meredith Levien told Bus…</t>
+  </si>
+  <si>
+    <t>Many Americans are delaying investing until their financial situation improves. Yet the decision to postpone investing is likely to become a regret, experts say.</t>
+  </si>
+  <si>
+    <t>I tried the second-generation mesh WiFi system from Eero, a startup that Amazon recently bought. The system I tried included a primary Eero router and two smaller routers called "Beacons." Eero's second-generation mesh WiFi system delivered stronger WiFi sign…</t>
+  </si>
+  <si>
+    <t>Bill Gates supports a "more progressive" tax policy on the rich,  but he thinks proposals targeting high income brackets, like the policy proposed by freshman liberal Rep. Alexandria Ocasio-Cortez, D-N.Y., are missing the point.</t>
+  </si>
+  <si>
+    <t>Tesla opened a store on Amazon last week that sells branded merchandise like hats and diecast versions of Tesla vehicles. The move was a small gesture, but a smart one that illustrates the difference between Tesla's retail philosophy and those of its competit…</t>
+  </si>
+  <si>
+    <t>Get what you actually want at an amazing price.</t>
+  </si>
+  <si>
+    <t>This story was delivered to Business Insider Intelligence " Digital Media Briefing " subscribers hours before appearing on Business Insider. To be the first to know, please click here. Amazon is launching a live-streaming video version of a home shopping netw…</t>
+  </si>
+  <si>
+    <t>Man accused of pouring bleach on eggs, spreading white powder on bus Fox News David Lohr, 48, has been arrested for allegedly pouring bleach on food at various Safeway grocery stores across California. View full coverage on Google News</t>
+  </si>
+  <si>
+    <t>The Insider Picks team writes about stuff we think you'll like. Business Insider has affiliate partnerships, so we get a share of the revenue from your purchase. From flat-top kabuki brushes to silicone sponges, there are almost too many tools to apply founda…</t>
+  </si>
+  <si>
+    <t>The Sony PlayStation 4 has been a monumental success over the last five years, selling more than 91 million consoles. The biggest driver of the PlayStation 4's boom has been the steady cadence of exclusive games, many of which have been released to positive r…</t>
+  </si>
+  <si>
+    <t>Here's why Amazon acquired Eero, the maker of a mesh networking system.</t>
+  </si>
+  <si>
+    <t>Investors should view tyremaker as offering protection on a precarious road</t>
+  </si>
+  <si>
+    <t>In an effort to expand Watson's reach, IBM is also making it available on competing cloud services like Amazon's AWS and Microsoft's Azure.</t>
+  </si>
+  <si>
+    <t>This year, Coachella attendees will be able to ship essentials they purchase — like sunglasses, phone chargers, and sunscreen — to an Amazon Locker located inside the California-based festival. There's no additional charge to use the Amazon Lockers, which wil…</t>
+  </si>
+  <si>
+    <t>Investors with $515 billion in assets under management are hoarding the most cash since the Great Recession 10 years ago, according to Bank of America Merrill Lynch. This rotation, combined with their withdrawal from the stock market, might suggest to some th…</t>
+  </si>
+  <si>
+    <t>Europe's second-highest court will rule on Thursday whether a Belgian tax break which benefited some 35 large companies is illegal state aid, a judgment which could provide clues to other tax cases involving Apple, Starbucks and Fiat Chrysler.</t>
+  </si>
+  <si>
+    <t>Customers’ bad bets are flattering profits with implications for business stability</t>
+  </si>
+  <si>
+    <t>Former admirers are losing patience with Saudi Arabia’s crown prince</t>
+  </si>
+  <si>
+    <t>Stream the Champions League action today with Manchester United vs PSG. Stream the match your mobile device or computer.</t>
+  </si>
+  <si>
+    <t>An Air New Zealand flight from Auckland to Shanghai was unexpected forced to turn back three hours into its 11-hour journey on Saturday. Airline authorities said it was because the particular aircraft wasn't certified to enter China. But sources told Stuff ne…</t>
+  </si>
+  <si>
+    <t>Google's new cloud chief is looking to invest all the more in sales as it looks to challenge Amazon and Microsoft.</t>
+  </si>
+  <si>
+    <t>The first futures market for trucking freight will open on March 29. Companies like Kellogg's, Amazon, ExxonMobil, and more aren't able to reliably understand the long-term costs for transportation, but a trucking futures market could help that. Due to the vo…</t>
+  </si>
+  <si>
+    <t>The Insider Picks team writes about stuff we think you'll like. Business Insider has affiliate partnerships, so we get a share of the revenue from your purchase. Your home has a big impact on your quality of life, and mitigating those small daily annoyances y…</t>
+  </si>
+  <si>
+    <t>Valentine's Day can get lonely for those who don't have a special someone to celebrate with, but there are plenty of ways to enjoy it on your own.</t>
+  </si>
+  <si>
+    <t>Whole Foods has raised prices on some items while discontinuing others, according to a leaked email reported by the Wall Street Journal. Of about 700 items with expiring contracts, the grocer says it has decided to stop selling about half and raise prices on …</t>
+  </si>
+  <si>
+    <t>History is clear: A city that rejects economic opportunity will lose its status as the center of the business world.</t>
   </si>
   <si>
     <t>The Insider Picks team writes about stuff we think you'll like. Business Insider has affiliate partnerships, so we get a share of the revenue from your purchase. Since you don't have all day to scour the web for noteworthy sales and discounts, we rounded up t…</t>
   </si>
   <si>
-    <t>I've been testing the Google Home Max and Apple's HomePod side by side for nearly six months. Both devices have their pros and cons, but they share a larger issue: They both listen in and speak out of turn constantly. At this point, I like both devices equall…</t>
-  </si>
-  <si>
-    <t>SpaceX CEO Elon Musk says the cost of moving to Mars will be low enough that Americans could "sell their home on Earth &amp; move to Mars if they want."</t>
-  </si>
-  <si>
-    <t>With this Samsung SD card sale on Amazon right now, you can greatly expand internal storage on many consoles, phones, laptops and cameras.</t>
-  </si>
-  <si>
-    <t>Ad dollars moving to retailers' own ecosystems and away from agencies</t>
-  </si>
-  <si>
-    <t>The Insider Picks team writes about stuff we think you'll like. Business Insider has affiliate partnerships, so we get a share of the revenue from your purchase. True espresso only comes from high-end machines, but now you can have your very own espresso mach…</t>
-  </si>
-  <si>
-    <t>Hoyer’s tips on Sean McVay’s offense helped the Patriots defense make the biggest play of the game.</t>
-  </si>
-  <si>
-    <t>Former Snap chief strategy officer Imran Khan's new company will be called Verishop, he announced in a Medium post Monday. It aims to create an online retailer that serves customers and brands better than existing e-commerce alternatives. Verishop has signed …</t>
-  </si>
-  <si>
-    <t>New data from LendingTree ranked the best cities for first-time home buyers, where down payments are typically low and mortgages can be easier to secure.</t>
-  </si>
-  <si>
-    <t>Interesting timing.</t>
-  </si>
-  <si>
-    <t>'I wasn't using it for trading — I just wanted to move my money over to my Canadian bank account'</t>
-  </si>
-  <si>
-    <t>How Bad Is the China Slowdown? U.S. Companies Offer Some Answers The Wall Street Journal Fourth-quarter results from U.S. companies indicate that slowing growth in China is modest, but broad. Retailers and other companies catering to Chinese... View full cove…</t>
-  </si>
-  <si>
-    <t>National Enquirer Publisher Asked Justice Department for Advice on Saudi Connection The Wall Street Journal Investigators zero in on Amazon CEO leaker as National Enquirer denies extortion ABC News National Enquirer did blackmail Jeff Bezos: Napolitano Fox Bu…</t>
-  </si>
-  <si>
-    <t>New York City Councilman Jimmy Van Bramer also says he is against Amazon's plans for HQ2 in Queens because of the company's stances on immigration control.</t>
-  </si>
-  <si>
-    <t>The future of co-working might not be in minimalist loft spaces with bottomless espresso bars. It might be in big box stores.</t>
-  </si>
-  <si>
-    <t>Tesla shareholder T. Rowe Price cut its stake in half in the fourth quarter, a regulatory filing showed on Monday. As of September, prior to the divestiture, T. Rowe was the automaker's second-largest shareholder, trailing only CEO Elon Musk. Now, Baillie Gif…</t>
-  </si>
-  <si>
-    <t>Decision made.</t>
-  </si>
-  <si>
-    <t>Imran Khan's new retail venture, Verishop, takes direct aim at Amazon.</t>
-  </si>
-  <si>
-    <t>The Insider Picks team writes about stuff we think you'll like. Business Insider has affiliate partnerships, so we get a share of the revenue from your purchase. Apple's MacBook Air is on sale at Best Buy for up to $150 off its original price as part of the "…</t>
-  </si>
-  <si>
-    <t>For some, retail arbitrage is a lucrative side hustle, but for others it's how they earn a living, with the potential to make thousands a year</t>
-  </si>
-  <si>
-    <t>Under Armour Inc. will report fourth-quarter financial results pre-market Tuesday. Analysts largely expect the quarterly report and the 2019 forecast to be inline with the forecasts provided at the company’s December 12 investor day. Particular interest will …</t>
-  </si>
-  <si>
-    <t>Once you sign in to your Amazon account, you will remain signed in unless you specifically sign out even if you close an app or turn off a device. If you use a computer or other device that may be shared with other people, it can be critical that you properly…</t>
-  </si>
-  <si>
-    <t>A billionaire, a scandal and what it says about America</t>
-  </si>
-  <si>
-    <t>Comics give the latest on the National Enquirer scandal</t>
-  </si>
-  <si>
-    <t>Amazon Prime deal is $19.99, or $25 with local delivery, a good two-thirds less than $79.90 for 1-800-Flowers. In-store pickup is best deal.</t>
-  </si>
-  <si>
-    <t>Officials regulate the handling of vaccines by participants in the Vaccines for Children program. But there's no similar oversight for other providers.</t>
-  </si>
-  <si>
-    <t>Are Katy Perry's shoes with faces examples of racist "blackface" imagery? Her label pulled two pairs from website but they're still on sale elsewhere.</t>
-  </si>
-  <si>
-    <t>Kyler Murray isn’t the surest thing, but he’s the only special QB prospect in this class.</t>
-  </si>
-  <si>
-    <t>Today’s marketers can be challenged to incorporate the latest technologies while protecting creativity and innovative ideas. Ben Grossman, senior VP, group strategy director at IPG global brand experience agency Jack Morton, discusses ways to merge the analyt…</t>
-  </si>
-  <si>
-    <t>As blockchain start-ups wind down and the crypto market mania fades, engineers are becoming free agents for technology giants.</t>
-  </si>
-  <si>
-    <t>Jones is  noted for making broad market calls and predicted the 1987 stock market crash.</t>
-  </si>
-  <si>
-    <t>WASHINGTON (AP) — Private investigators working for Jeff Bezos have determined the brother of the Amazon CEO's mistress leaked the couple's intimate text messages to the National Enquirer.</t>
-  </si>
-  <si>
-    <t>The Insider Picks team writes about stuff we think you'll like. Business Insider has affiliate partnerships, so we get a share of the revenue from your purchase. Saxx Underwear Co. makes boxer briefs designed for all-day comfort thanks to myriad thoughtful de…</t>
-  </si>
-  <si>
-    <t>NEW YORK (AP) — Toys R Us fans in the U.S. should see the iconic brand re-emerge in some form by this holiday season.</t>
-  </si>
-  <si>
-    <t>Investigators in Bezos probe conclude his mistress’s brother was National Enquirer source The Globe and Mail Jeff Bezos probe concludes mistress' brother was Enquirer source CP24 Toronto's Breaking News Is this man the National Enquirer’s source? Five things …</t>
-  </si>
-  <si>
-    <t>Home furnishings retailer Crate and Barrel will partner with home services platform Handy to offer furniture assembly and home decor installation across the United States, joining a growing list of big box retailers seeking to win over shoppers with handyman …</t>
-  </si>
-  <si>
-    <t>You'll want to avoid using sprays or any semi-abrasive materials when cleaning your iPad screen. It's important that you don't have any power sources attached to your iPad when cleaning it. It's best to avoid all household cleaners on your iPad screen. You ca…</t>
-  </si>
-  <si>
-    <t>Controversy-ridden company should sell or wind down underperforming segments, such as mining, says one analyst</t>
-  </si>
-  <si>
-    <t>According to Zillow, the 1,540 square-foot house located at 10704 NE 28th street is listed for just nearly $1.5 million. It features 3 bedrooms,1.75 baths and a hot tub on the back porch. It was last sold in 2009 for $620,000.</t>
-  </si>
-  <si>
-    <t>Apple, Facebook, and Twitter each announced recently that they would stop disclosing some important data to investors. Each said other figures better depict the health of their business. But when companies cease reporting certain figures, it's often a sign th…</t>
-  </si>
-  <si>
-    <t>Iciness will be most common outside the immediate area. Then we'll have a rainy Tuesday.</t>
-  </si>
-  <si>
-    <t>Amazon said it's acquiring Eero for an undisclosed sum</t>
-  </si>
-  <si>
-    <t>Amazon is acquiring the home mesh wi-fi router company Eero, the companies announced in a press release Monday. Eero was last valued at $215 million in a Series D in 2017, according to PitchBook. It's backed by venture capital firms including Qualcomm and Sha…</t>
-  </si>
-  <si>
-    <t>UPTON, Mass. (AP) — It has been almost four years since former Valley Tech softball star Bella Picard fractured her neck diving into second base in the first inning of a game at Fordham during her sophomore season at St.…</t>
-  </si>
-  <si>
-    <t>Amazon.com Inc said on Monday it has signed an agreement to buy eero, a startup company that makes home routers, to help customers better connect smart home devices.</t>
-  </si>
-  <si>
-    <t>Social media roars after blackface controversy, prompting Katy Perry to withdraw two designs from her footwear line from online retailers.</t>
-  </si>
-  <si>
-    <t>Spending on economic-development incentives in New York state increased 17% over two years, according to a report released Monday by an independent watchdog, which comes amid the dispute over giving Amazon tax breaks to place a site in Queens.</t>
-  </si>
-  <si>
-    <t>Communications between the Justice Department and American Media Inc. offer the fullest picture yet of interaction between the tabloid publisher and the Saudis.</t>
-  </si>
-  <si>
-    <t>NEW YORK (AP) — Amazon is buying Wi-Fi device maker Eero, helping the online retailer expand its line of smart home gadgets.</t>
-  </si>
-  <si>
-    <t>A company that owns the old retailer’s brands is aiming to re-emerge with new stores and e-commerce by the holiday season.</t>
-  </si>
-  <si>
-    <t>The Trump administration is proposing steps aimed at improving patients’ access to their own health data, bolstering efforts to bring information including insurance claims, hospital and doctor records to digital devices such as smartphones.</t>
-  </si>
-  <si>
-    <t>The Insider Picks team writes about stuff we think you'll like. Business Insider has affiliate partnerships, so we get a share of the revenue from your purchase. Your outlet is too far away to charge your phone and text while you're laying in bed. Your headph…</t>
-  </si>
-  <si>
-    <t>Jim Cramer guides investors on how to approach developments in U.S.-China trade talks.</t>
-  </si>
-  <si>
-    <t>A number of new polls offer slightly different guidance.</t>
-  </si>
-  <si>
-    <t>Sears' controversial ex-CEO has closed the deal to buy the beleaguered company for $5.2 billion. 425 Sears and Kmart stores will remain open.</t>
-  </si>
-  <si>
-    <t>Omar smashed over sneers at Jewish money in politics Fox News **Want FOX News Halftime Report in your inbox every day? Sign up here.** On the roster: Omar smashed over sneers at Jewish money in politics - Fairfax... View full coverage on Google News</t>
-  </si>
-  <si>
-    <t>The latest entrant will seek to appeal to all age groups with a range of existing programming, including 'Friends,' and original series, too.</t>
-  </si>
-  <si>
-    <t>Eero was the first notable company to solve poky Wi-Fi issues at home through “mesh” technology. Now Amazon and eero are meshing together.</t>
-  </si>
-  <si>
-    <t>Two designs from Katy Perry's shoe line that were criticized for resembling blackface were pulled from Dillard's and Walmart websites on Monday.</t>
-  </si>
-  <si>
-    <t>Amazon is acquiring wifi startup Eero, which makes mesh routers, works with smart home network devices such as Amazon Echo, powered by Alexa</t>
-  </si>
-  <si>
-    <t>Jim Cramer flies through his responses to callers' stock questions, including one on a popular pot play.</t>
-  </si>
-  <si>
-    <t>The Insider Picks team writes about stuff we think you'll like. Business Insider has affiliate partnerships, so we get a share of the revenue from your purchase. The benefits of Amazon Prime go far beyond free two-day shipping, but the fast delivery times are…</t>
-  </si>
-  <si>
-    <t>From mergers and acquisitions to massive amounts of funding, commercial open source software companies made a splash last year. Confluent, Neo4j, HashiCorp and GitLab are just a few examples of commercial open source software startups that raised major rounds…</t>
-  </si>
-  <si>
-    <t>Newark, N.J. sent reminders to Amazon that the company is still welcome to build one of two HQ2 locations in the New Jersey city.</t>
-  </si>
-  <si>
-    <t>Since Jeff Bezos bought The Washington Post in 2013, it has added more than 200 people to its newsroom, for a total of 900 journalists.</t>
-  </si>
-  <si>
-    <t>With Democrats now controlling both chambers of the Legislature, Mayor Bill de Blasio, a Democrat, received an unusually kind reception on Monday during his annual appearance at a state budget hearing.</t>
-  </si>
-  <si>
-    <t>His presidency hasn’t been the boon for gun-rights supporters that they might have hoped.</t>
-  </si>
-  <si>
-    <t>Amazon.com Inc. on Monday disclosed its latest bet to control the so-called smart home, adding to its fold a company that offers a Wi-Fi system that ditches the traditional router.</t>
-  </si>
-  <si>
-    <t>Jeff Bezos' girlfriend has privately acknowledged that she shared some photos and texts from the Amazon founder with several female friends, adding to the mystery of who leaked salacious material to the National Enquirer.</t>
-  </si>
-  <si>
-    <t>Like the grass turning green when it rains, there are some things you should expect when it snows in Vancouver. Here's what some people had to say online.</t>
-  </si>
-  <si>
-    <t>Derrick Rose and Jeff Teague gave a beleaguered backcourt a needed boost and lifted the Minnesota Timberwolves to a 130-120 victory over the Los Angeles Clippers on Monday night</t>
-  </si>
-  <si>
-    <t>MINNEAPOLIS (AP) — Derrick Rose and Jeff Teague gave a beleaguered backcourt a needed boost and lifted the Minnesota Timberwolves to a 130-120 victory over the Los Angeles Clippers on Monday night.</t>
-  </si>
-  <si>
-    <t>Chief executive Josh Bayliss plots US expansion with a dizzying wish list of ventures</t>
-  </si>
-  <si>
-    <t>The well-paid jobs of the future may involve skills based on emotional intelligence</t>
-  </si>
-  <si>
-    <t>After Amazon founder and CEO Jeff Bezos went on the offensive against the National Enquirer and its parent company AMI, saying they threatened to release intimate photos of himself and his girlfriend, Lauren Sanchez, many in the media lauded the billionaire f…</t>
-  </si>
-  <si>
-    <t>Walmart Inc and logistics firm Deliv pulled the plug on a key same-day grocery delivery partnership, dealing a setback in the retailer's race against rival Amazon.com Inc to deliver groceries to customers' homes.</t>
-  </si>
-  <si>
-    <t>rimero fue Prada. Luego, Gucci. Ahora, Katy Perry está siendo criticada por crear moda que evoca un rostro pintado de negro o "blackface".</t>
-  </si>
-  <si>
-    <t>Good morning! This is the tech news you need to know this Tuesday. Amazon is acquiring WiFi router company Eero. Eero makes "mesh" Wi-Fi routers, which help blanket even the largest spaces with a strong wireless internet signal. The terms of the deal were not…</t>
-  </si>
-  <si>
-    <t>Hello! Here's everything you need to know on Tuesday, February 12. 1. SpaceX founder Elon Musk is 'confident' people could afford to 'sell their home on Earth.' And then move to Mars on board a SpaceX rocket. 2. The White House has completely ignored the US i…</t>
-  </si>
-  <si>
-    <t>In an exclusive interview conducted by Bridgewater Associates and seen by Business Insider, Ray Dalio chatted with legendary economist and former Federal Reserve chair Paul Volcker. Volcker laid out three main principles that have shaped his worldview and hel…</t>
-  </si>
-  <si>
-    <t>The collapse in China of a complex web of debt guarantees involving several private firms highlights risks in its financial system and opens up a potentially hazardous front for an economy in the grip of its slowest growth in nearly three decades.</t>
-  </si>
-  <si>
-    <t>It's been one year since the union representing Nova Scotia's paramedics started pressuring the province to improve ambulance availability and launched a social media campaign to bring attention to the issue.</t>
-  </si>
-  <si>
-    <t>Mild weather offers a brief visit by Thursday.</t>
-  </si>
-  <si>
-    <t>Corporations are using savings from the 2017 tax law to continue to buy back billions in stock after trumpeting employee bonuses and benefits.</t>
-  </si>
-  <si>
-    <t>News of Mohammed bin Salman’s visit comes as minister announces progress on IMF deal</t>
-  </si>
-  <si>
-    <t>Majority of New Yorkers Support Amazon Project in Queens, New Poll Shows The Wall Street Journal Ocasio-Cortez celebrates as Amazon reportedly reconsiders HQ2 deal Fox Business 3 cities Amazon should consider for HQ2 if it scraps NYC Yahoo Finance Phil Murphy…</t>
-  </si>
-  <si>
-    <t>Higher Prices Are Back at Whole Foods The Wall Street Journal Whole Foods is raising prices again. Amazon slashed prices at Whole Foods after acquiring the natural grocer in 2017, aiming to counter its reputation for high...</t>
-  </si>
-  <si>
-    <t>* SAID ON MONDAY IT HAD SIGNED MULTI-YEAR CONTRACT WITH AMAZON PRIME VIDEO</t>
-  </si>
-  <si>
-    <t>Must-read business news, delivered every morning.</t>
-  </si>
-  <si>
-    <t>YouTube and Instagram influencers make hundreds or millions of dollars touting everything from Fyre Festival to fashion week to makeup. Here's how.</t>
-  </si>
-  <si>
-    <t>In his State of the Union, Trump said the middle class can become "more prosperous than ever." While some of his policies helped, others may hurt.</t>
-  </si>
-  <si>
-    <t>Finance ministers from smaller European Union states on Tuesday opposed a plan to limit governments' power to block EU reforms on tax matters, in a move that further reduces the chances of introducing an EU levy on large digital firms.</t>
-  </si>
-  <si>
-    <t>A lawyer at the heart of the National Enquirer's war with Jeff Bezos used to be a loyal servant of the billionaire at Amazon, The Wall Street Journal reports. American Media Inc's Deputy General Counsel Jon Fine worked at Amazon from 2006 to 2015, and was foc…</t>
-  </si>
-  <si>
-    <t>A tentative government funding deal and optimism over China trade talks are helping boost futures this morning.</t>
-  </si>
-  <si>
-    <t>Blend's service is the latest example of a tech start-up working with banks, rather than competing against them, to bring easier-to-use digital services to the financial industry.</t>
-  </si>
-  <si>
-    <t>The following are the top stories from selected Canadian newspapers. Reuters has not verified these stories and does not vouch for their accuracy.</t>
-  </si>
-  <si>
-    <t>Brian Hoyer's tips on Sean McVay's offense helped the Patriots defense make the biggest play of the game. And he can thank ESPN+ and Amazon for that.</t>
-  </si>
-  <si>
-    <t>Despite vocal opposition by some legislators, a majority of voters in both New York City and the state support the deal to bring Amazon.com Inc. to Queens, a poll released Tuesday shows.</t>
-  </si>
-  <si>
-    <t>Amazon reduced prices across Whole Foods stores when they took over in 2017, but inflation and expiring contracts are pushing them back up.</t>
-  </si>
-  <si>
-    <t>These are the stocks posting the largest moves before the bell.</t>
-  </si>
-  <si>
-    <t>OPEC significantly reduced its crude-oil production in January, making good on its latest deal to curb output and rebalance an oversupplied market, the oil cartel said Tuesday.</t>
-  </si>
-  <si>
-    <t>Here is what you need to know. Lawmakers have reached a tentative deal to avoid another US government shutdown. The provisional deal would provide $1.375 billion for border fortification, made from vertical steel slats rather than a solid wall, according to m…</t>
-  </si>
-  <si>
-    <t>Software company SAP unveiled its Runway App at Christian Siriano's show during New York Fashion Week on Sat., Feb. 9. The app offers in-person showgoers and at-home viewers the ability to "like" and "love" looks as they debut down the runway, while also givi…</t>
-  </si>
-  <si>
-    <t>The leading sportswear retailer and secondary market will combine retail and digital expertise to bring "a lot of synergies" to the sneaker industry, Goat CEO Eddy Lu says.</t>
-  </si>
-  <si>
-    <t>If a near-term pullback strikes stocks, BTIG's Julian Emanuel says buy it.</t>
-  </si>
-  <si>
-    <t>LONDON, Feb 12- U.S. sanctions on Venezuela's state-owned oil company are tightening the global oil market and sending refiners around the world scrambling to find replacements for the country's diesel-rich heavy and extra heavy crudes. Venezuela's heavy crud…</t>
-  </si>
-  <si>
-    <t>U.S. sanctions on Venezuela's state-owned oil company are tightening the global oil market and sending refiners around the world scrambling to find replacements for the country's diesel-rich heavy and extra heavy crudes.</t>
-  </si>
-  <si>
-    <t>Sweethearts are gone but Valentine's Day isn't ruined. It wasn't the only conversation heart in town. Here are some of the alternatives.</t>
-  </si>
-  <si>
-    <t>Save on your Valentine's Day meals with these deals, which include free champagne, buy-one-get-one free offers and more.</t>
-  </si>
-  <si>
-    <t>Costco offers great deals for members, but there are some groceries that, for the average person, it doesn't pay to buy in bulk. As one expert puts it: "Just because Costco has it doesn't mean it's a bargain."</t>
-  </si>
-  <si>
-    <t>A new Washington Post-Schar School poll finds Mueller is more trusted than Ken Starr was.</t>
-  </si>
-  <si>
-    <t>Rep. Jackie Speier is reintroducing legislation.</t>
-  </si>
-  <si>
-    <t>Banks and the Trump Tower condo board have staked claims to the $26.7 million fortune Paul Manafort must give up after his Russia-probe convictions.</t>
-  </si>
-  <si>
-    <t>Microsoft co-founder Bill Gates, who has a net worth approaching $100 billion, has slammed tax policies like the one put forth by Alexandria Ocasio-Cortez, saying they miss the larger picture and could create tax dodging.</t>
-  </si>
-  <si>
-    <t>This story was delivered to Business Insider Intelligence " E-Commerce Briefing " subscribers hours before appearing on Business Insider. To be the first to know, please click here. Multiple former Toys “R” Us executives are working for a new company called T…</t>
-  </si>
-  <si>
-    <t>The "Fast Money" traders share their first moves for the market open.</t>
-  </si>
-  <si>
-    <t>The chain Choong Man specializes in tikkudak, but some outlets in the area can’t seem to nail it.</t>
-  </si>
-  <si>
-    <t>As more people look for love on dating apps and social media, there's a steady spike in scammers trying to warm their way into hearts and wallets.</t>
-  </si>
-  <si>
-    <t>Reader revenue has been the big growth story at The New York Times, which hit 4.3 million subscriptions at the end of 2018. After a Trump bump, the Times is doubling down on investigative reporting to maintain subscription growth, COO Meredith Levien told Bus…</t>
-  </si>
-  <si>
-    <t>Many Americans are delaying investing until their financial situation improves. Yet the decision to postpone investing is likely to become a regret, experts say.</t>
-  </si>
-  <si>
-    <t>I tried the second-generation mesh WiFi system from Eero, a startup that Amazon recently bought. The system I tried included a primary Eero router and two smaller routers called "Beacons." Eero's second-generation mesh WiFi system delivered stronger WiFi sign…</t>
-  </si>
-  <si>
-    <t>Bill Gates supports a "more progressive" tax policy on the rich,  but he thinks proposals targeting high income brackets, like the policy proposed by freshman liberal Rep. Alexandria Ocasio-Cortez, D-N.Y., are missing the point.</t>
-  </si>
-  <si>
-    <t>Tesla opened a store on Amazon last week that sells branded merchandise like hats and diecast versions of Tesla vehicles. The move was a small gesture, but a smart one that illustrates the difference between Tesla's retail philosophy and those of its competit…</t>
-  </si>
-  <si>
-    <t>Get what you actually want at an amazing price.</t>
-  </si>
-  <si>
-    <t>This story was delivered to Business Insider Intelligence " Digital Media Briefing " subscribers hours before appearing on Business Insider. To be the first to know, please click here. Amazon is launching a live-streaming video version of a home shopping netw…</t>
-  </si>
-  <si>
-    <t>Man accused of pouring bleach on eggs, spreading white powder on bus Fox News David Lohr, 48, has been arrested for allegedly pouring bleach on food at various Safeway grocery stores across California. View full coverage on Google News</t>
-  </si>
-  <si>
-    <t>The Insider Picks team writes about stuff we think you'll like. Business Insider has affiliate partnerships, so we get a share of the revenue from your purchase. From flat-top kabuki brushes to silicone sponges, there are almost too many tools to apply founda…</t>
-  </si>
-  <si>
-    <t>The Sony PlayStation 4 has been a monumental success over the last five years, selling more than 91 million consoles. The biggest driver of the PlayStation 4's boom has been the steady cadence of exclusive games, many of which have been released to positive r…</t>
-  </si>
-  <si>
-    <t>Here's why Amazon acquired Eero, the maker of a mesh networking system.</t>
-  </si>
-  <si>
-    <t>Investors should view tyremaker as offering protection on a precarious road</t>
-  </si>
-  <si>
-    <t>In an effort to expand Watson's reach, IBM is also making it available on competing cloud services like Amazon's AWS and Microsoft's Azure.</t>
-  </si>
-  <si>
-    <t>This year, Coachella attendees will be able to ship essentials they purchase — like sunglasses, phone chargers, and sunscreen — to an Amazon Locker located inside the California-based festival. There's no additional charge to use the Amazon Lockers, which wil…</t>
-  </si>
-  <si>
-    <t>Investors with $515 billion in assets under management are hoarding the most cash since the Great Recession 10 years ago, according to Bank of America Merrill Lynch. This rotation, combined with their withdrawal from the stock market, might suggest to some th…</t>
-  </si>
-  <si>
-    <t>Europe's second-highest court will rule on Thursday whether a Belgian tax break which benefited some 35 large companies is illegal state aid, a judgment which could provide clues to other tax cases involving Apple, Starbucks and Fiat Chrysler.</t>
-  </si>
-  <si>
-    <t>Customers’ bad bets are flattering profits with implications for business stability</t>
-  </si>
-  <si>
-    <t>Former admirers are losing patience with Saudi Arabia’s crown prince</t>
-  </si>
-  <si>
-    <t>Stream the Champions League action today with Manchester United vs PSG. Stream the match your mobile device or computer.</t>
-  </si>
-  <si>
-    <t>An Air New Zealand flight from Auckland to Shanghai was unexpected forced to turn back three hours into its 11-hour journey on Saturday. Airline authorities said it was because the particular aircraft wasn't certified to enter China. But sources told Stuff ne…</t>
-  </si>
-  <si>
-    <t>Google's new cloud chief is looking to invest all the more in sales as it looks to challenge Amazon and Microsoft.</t>
-  </si>
-  <si>
-    <t>The first futures market for trucking freight will open on March 29. Companies like Kellogg's, Amazon, ExxonMobil, and more aren't able to reliably understand the long-term costs for transportation, but a trucking futures market could help that. Due to the vo…</t>
-  </si>
-  <si>
-    <t>The Insider Picks team writes about stuff we think you'll like. Business Insider has affiliate partnerships, so we get a share of the revenue from your purchase. Your home has a big impact on your quality of life, and mitigating those small daily annoyances y…</t>
-  </si>
-  <si>
-    <t>Valentine's Day can get lonely for those who don't have a special someone to celebrate with, but there are plenty of ways to enjoy it on your own.</t>
-  </si>
-  <si>
-    <t>Whole Foods has raised prices on some items while discontinuing others, according to a leaked email reported by the Wall Street Journal. Of about 700 items with expiring contracts, the grocer says it has decided to stop selling about half and raise prices on …</t>
-  </si>
-  <si>
-    <t>https://www.apnews.com/cdd3aea6e99e4ddf8e71f99422eb97b1</t>
-  </si>
-  <si>
-    <t>https://www.businessinsider.com/deal-of-the-day-valentines-flowers-last-minute-gifts-sale-2019-2</t>
-  </si>
-  <si>
-    <t>https://www.businessinsider.com/google-home-max-vs-apple-homepod-2019-1</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/2019/02/11/elon-musk-how-much-it-will-cost-to-move-to-mars.html</t>
-  </si>
-  <si>
-    <t>https://www.cnn.com/2019/02/11/cnn-underscored/samsung-sandisk-sd-card-sale/index.html</t>
-  </si>
-  <si>
-    <t>https://business.financialpost.com/news/retail-marketing/walmart-chasing-amazons-success-with-internal-advertising-business</t>
-  </si>
-  <si>
-    <t>https://www.businessinsider.com/best-espresso-machine</t>
-  </si>
-  <si>
-    <t>https://ftw.usatoday.com/2019/02/super-bowl-53-brian-hoyer-streaming-subscriptions-patriots-rams</t>
-  </si>
-  <si>
-    <t>https://www.businessinsider.com/everything-you-need-to-know-about-ex-snap-cso-imran-khans-new-venture-2019-2</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/2019/02/11/best-cities-for-first-time-home-buyers.html</t>
+    <t>Sandra Cisneros won the PEN/Nabokov award, one of literature's top honors. The prolific Mexican-American author, poet and essayist says she's far from done.</t>
+  </si>
+  <si>
+    <t>Amazon, which has disrupted a host of industries and garnered controversy with its facial recognition software, is now causing problems for recycling centers.</t>
+  </si>
+  <si>
+    <t>The Academy Awards are more polarizing than ever, after suffering their worst ratings in recorded history last year, and battling controversies ranging from #OscarsSoWhite, to the popular Oscar category, to the drama surrounding Kevin Hart. And that's not jus…</t>
+  </si>
+  <si>
+    <t>Brazilian environmental groups on Tuesday blasted President Jair Bolsonaro's environment minister after he dismissed the murdered Amazon rain forest defender Chico Mendes as "irrelevant."</t>
+  </si>
+  <si>
+    <t>The Bellevue home that served as the original Amazon HQ is now for sale for a mere $1.49 million.</t>
   </si>
   <si>
     <t>https://ftw.usatoday.com/2019/02/kyler-murray-billy-beane-football-baseball-nfl</t>
@@ -952,12 +907,12 @@
     <t>https://www.cbc.ca/news/canada/toronto/staples-canada-coworking-space-1.5012904</t>
   </si>
   <si>
+    <t>https://markets.businessinsider.com/news/stocks/tesla-stock-price-t-rowe-price-large-shareholder-just-cut-stake-in-half-2019-2-1027942200</t>
+  </si>
+  <si>
     <t>https://www.businessinsider.com/tesla-stock-price-t-rowe-price-large-shareholder-just-cut-stake-in-half-2019-2</t>
   </si>
   <si>
-    <t>https://markets.businessinsider.com/news/stocks/tesla-stock-price-t-rowe-price-large-shareholder-just-cut-stake-in-half-2019-2-1027942200</t>
-  </si>
-  <si>
     <t>https://ftw.usatoday.com/2019/02/kyler-murray-mlb-nfl-decision-reaction</t>
   </si>
   <si>
@@ -1354,90 +1309,87 @@
     <t>https://www.businessinsider.com/whole-foods-raising-prices-increasing-costs-2019-2</t>
   </si>
   <si>
+    <t>https://www.nytimes.com/2019/02/12/opinion/amazon-hq2-new-york.html</t>
+  </si>
+  <si>
+    <t>https://www.businessinsider.com/deal-of-the-day-groupon-valentines-day-sale-2019-2</t>
+  </si>
+  <si>
+    <t>https://www.nbcnews.com/news/latino/64-pen-winner-sandra-cisneros-just-getting-started-n970076</t>
+  </si>
+  <si>
+    <t>https://in.reuters.com/article/eu-taxavoidance-idINKCN1Q1246</t>
+  </si>
+  <si>
+    <t>https://www.foxnews.com/tech/amazons-streamlined-packaging-wreaks-havoc-in-recycling-centers</t>
+  </si>
+  <si>
+    <t>https://www.businessinsider.com/academy-award-insiders-describe-big-problems-plaguing-the-oscars-2019-2</t>
+  </si>
+  <si>
+    <t>https://www.reuters.com/article/us-brazil-environment-idUSKCN1Q1289</t>
+  </si>
+  <si>
+    <t>https://af.reuters.com/article/worldNews/idAFKCN1Q127Z</t>
+  </si>
+  <si>
+    <t>http://fortune.com/2019/02/12/bezos-bellevue-home-original-amazon-hq-for-sale/</t>
+  </si>
+  <si>
+    <t>usa-today</t>
+  </si>
+  <si>
+    <t>financial-post</t>
+  </si>
+  <si>
+    <t>the-wall-street-journal</t>
+  </si>
+  <si>
+    <t>cnbc</t>
+  </si>
+  <si>
+    <t>cbc-news</t>
+  </si>
+  <si>
+    <t>business-insider</t>
+  </si>
+  <si>
+    <t>bloomberg</t>
+  </si>
+  <si>
+    <t>the-economist</t>
+  </si>
+  <si>
     <t>associated-press</t>
   </si>
   <si>
-    <t>business-insider</t>
-  </si>
-  <si>
-    <t>cnbc</t>
+    <t>the-globe-and-mail</t>
+  </si>
+  <si>
+    <t>reuters</t>
+  </si>
+  <si>
+    <t>the-washington-post</t>
+  </si>
+  <si>
+    <t>fortune</t>
+  </si>
+  <si>
+    <t>nbc-news</t>
+  </si>
+  <si>
+    <t>the-new-york-times</t>
+  </si>
+  <si>
+    <t>fox-news</t>
+  </si>
+  <si>
+    <t>financial-times</t>
   </si>
   <si>
     <t>cnn</t>
   </si>
   <si>
-    <t>financial-post</t>
-  </si>
-  <si>
-    <t>usa-today</t>
-  </si>
-  <si>
-    <t>the-wall-street-journal</t>
-  </si>
-  <si>
-    <t>cbc-news</t>
-  </si>
-  <si>
-    <t>bloomberg</t>
-  </si>
-  <si>
-    <t>the-economist</t>
-  </si>
-  <si>
-    <t>the-globe-and-mail</t>
-  </si>
-  <si>
-    <t>reuters</t>
-  </si>
-  <si>
-    <t>the-washington-post</t>
-  </si>
-  <si>
-    <t>fortune</t>
-  </si>
-  <si>
-    <t>nbc-news</t>
-  </si>
-  <si>
-    <t>the-new-york-times</t>
-  </si>
-  <si>
-    <t>fox-news</t>
-  </si>
-  <si>
-    <t>financial-times</t>
-  </si>
-  <si>
-    <t>PHOENIXBUSINESS WIREFeb 11 2019IAB the national trade organization for the digital media and marketing industries was joined today by the IAB Tech Lab in honoring outstanding digital marketers in a variety of categories sales excellence service excellence and for the first time educational excellence Winners of the 2019 awards were announced during the IAB Annual Leadership Meeting at the JW Marriott Phoenix Desert Ridge Resort and Spa in Phoenix ArizonaThis press release features multimedia View the full release here httpswwwbusinesswirecomnewshome20190211005222en2019 IAB Sales Excellence AwardsThe IAB Sales Excellence Awards recognize individuals and IABmember companies that show exceptional client service digital advertising expertise and innovation in digital advertising salesAs in years prior Advertising Perceptions the researchbased business intelligence company and IAB leadership created a survey to measure key digital advertising skills and award individuals that excelled in these areas over the past yearOver 500 leaders from the ad buying community answered the questionnaire nominating and then voting on the best sales teams and individuals across four main categories large organization smalltomedium sales organization leadership through mentoring and sales person of the year in four key US regions Respondents represented companies that spent at least 1 million on interactive advertising during the last yearThe 2019 IAB Sales Excellence Awards Winners areOverall Sales Excellence for a Large Sales Organization YouTube Overall Sales Excellence for a SmalltoMedium Sales Organization MediaMath Leadership through Mentoring David Cristini Sales Leader Amazon Web Services Sales Person of the Year East Coast Donna Bourke Eastern Sales Manager PandoraWest Coast Shankar Raswa Marketing Science Lead eCommerce FacebookCentral Erin Figenholtz Account Executive Discovery IncSouth Matt Ross Account Executive Government Team LinkedInExcellence in advertising sales is driven by creativity proactivity curiosity and partnership said Sue Hogan Senior Vice President Research and Measurement IAB These individuals exemplify these characteristics and are moving the industry forward through their daily contributions By recognizing their achievements IAB hopes to inspire the continued advancement of the industry2019 IAB Service Excellence AwardsThe IAB Service Awards honor individuals at IABmember companies who have gone above and beyond to make standout contributions to IAB initiatives in the past yearDedication and commitment are two long words for time and energy The winners of the IAB Service Excellence Awards have chosen to donate many hours and ideas to accomplishing industrychanging work through IAB initiatives said Anna Bager Executive Vice President Industry Initiatives IAB The future of digital advertising will be shaped by their work on the most complex and challenging issues facing us today including brand safety attribution Digital Out of Home DOOH and more I applaud and thank them for their serviceThe 2019 IAB Service Excellence Awards winners areTusar Barik Marketing Lead Agency and Channel Partnership LinkedIn for passionately spearheading The Changing Face of Digital for the B2B Marketer Town Hall which highlighted the most important topics for B2B digital advertising according to the committee Gina Garrubbo President and CEO National Public Media for delivering support that was essential to the success of the Audio Committees Audio Day this fall in Boston More than 100 brands and marketers attended this afternoon of programming about digital audio Les Hollander Global Head of Products and Partner Sales Spotify for initiating the idea of exploring brand safety in digital audio and then leading a working group that produced the paper Digital Audios Role in the Brand Safety Conversation Protecting Marketers Investments The report received strong press coverage and offered an overview of digital audios brand safety advantages Deng KaiChen Vice President Product Management Verizon Media Group formerly Oath for serving as cochair of the Mobile Committee and being instrumental in the development of the Ad Quality Measurement Guide The guide provides helpful examples of the nuances and tradeoffs for viewability brand safety and fraud and includes a checklist to help facilitate discussions that can help eliminate churn during flight Paul Lenhart Senior Director Strategic Partnerships OUTFRONT Media for advancing the development of the Digital Out of Home Metrics Glossary by unifying discussions and helping solidify definitions of essential terms Valentina MarastoniBieser Senior Vice President Marketing Cuebiq for serving as cochair of the Data Benchmarks amp Activation working group Valentinas creativity and expertise were instrumental in the development of the Defining the Data Stack project Sable Mi Senior Vice President Research and Insights NinthDecimal for developing a project to investigate industry opinions about the value application and future of mix media modeling MMM and multitouch attribution MTA Under Sables leadership the MTA Committee has embarked on a multiphase initiative that has sparked great enthusiasm Chris Murdough TV Advertising Analytics LiveRamp for his valuable and consistent assistance on the Advanced TV Buyers Guide He offered insights ideas and solutions and helped the group come to consensus on the centerpiece of the document Floriana Nicastro Director Mobile Product Strategy MediaMath for helping IAB establish a common framework for 5 Questions to Evaluate Your Identity Partners She advanced the industry toward a common ground related to identity from which everyone involved in the buying and selling process can work Nicole Pace Vice President Marketing Rakuten Marketing for providing valuable insight on the Influencer Marketing for Publishers Guide and writing much of the text in the disclosure section that provided helpful perspective on FTC guidance Nicole Pike Managing Director Nielsen Esports for contributing expertise and industry data about esports to the Marketers Guide to Esports How to Get in the Game and sharing the guide with the larger esports marketing community Ryan Pogy Sales Director BroadSign for actively contributing to the development of the Digital Out of Home Metrics Glossary Ryans background in media measurement and analytics as well as his ability to articulate historical context around terms proved invaluable to the creation of the glossary Chris Rooke Senior Vice President Strategy and Operations Nativo for his contribution to the strategy and execution of the Branded Content Creation and Distribution Guide while serving as a cochair of the working group This document is dedicated to helping marketers and their agencies identify the various branded content creation and distribution options available today2019 IAB Tech Lab Service Excellence AwardsThe IAB Tech Lab Service Excellence Awards recognize the important contributions of members of IAB Tech Labs commit groups working groups and task forces Recipients are determined through staff recommendations and member affirmationThese people have been central to defining and developing solutions to address some of the industrys biggest challenges and opportunities said Dennis Buchheim Senior Vice President and General Manager IAB Tech Lab We all benefit from their tremendous commitment to establishing a safer and more effective supply chain advancing new technologies and enabling the growth of new media channelsWinners of the 2019 IAB Tech Lab Service Excellence Awards areGDPR Commit GroupThe industry experts in the IAB Tech Labs GDPR Commit Group contributed to code bases specifications and implementation support resources that led to a successful launch of the IAB Europe Transparency and Consent Framework IAB Tech Lab appreciates this groups strong technical governanceHeinz Baumann Group Manager Publisher EngineeringQuantcast Glenn Berntson Technical LeadManagerGoogle Alex Cone Senior Product Manager Xandr Vytautas Jaktys Technical Product Director AdForm Joshua Koran Managing Director DMPSizmek Chris Paterson Senior Software Engineer Conversant Andreas Pohl Chief ArchitectVerizon Media Group Charlie Simon Director Data Policy and GovernanceMediaMathTV Convergence Task ForceThe TV Convergence Task Force made great strides in 2018 thanks in part to Harold Geller Harold has been the driving force in gaining consensus around the roadmap for media file formats and embedded metadata to support crossplatform digital and broadcast video advertisingHarold Geller Executive Director AdIDVideo Technical Working GroupThe Digital Video Technical Working Group released VAST 41 in November 2018 and this group was key to this achievement While each of them contributed to the whole specification Michael drove the concept of interactive templates Pieter propelled the workflow updates Jon contributed to the verification updates and Jonathan helped advance the audiorelated updatesJonathan Eccles Director Product Management Pandora Jon Guarino Software Engineer Google Pieter Mees CTO Zentrick Michael Tuminello Vice President Solutions and Partnerships Integral Ad ScienceOTT Technical Working GroupThe OTT Technical Working Group released the Guidelines for IFA on OTT Platforms in December 2018 Chris Gordon has been a key pillar of this effort from the start all the way to setting the guiding principles for the IFA guidelinesChris Gordon Vice President Business Development XumoBlockchain Working GroupIn 2018 the Blockchain Working Group released a technology primer and wiki launched network pilots and initiated efforts to address transparency in supply chain and privacy using blockchain Michael and Richard were the driving force behind these deliverablesRichard Bush President NYIAX Michael Palmer Global Vice President GroupM2019 IAB Education Excellence AwardsA central tenet of IAB is education professional development and demystifying the digital media and marketing ecosystem said Michael Texidor Vice President Learning and Development IAB With the IAB Education Excellence Awards we recognize both the importance of talent development and members that are leading the efforts to expand their teams and clients understanding of this complex and rapidly evolving industryThe 2019 IAB Education Excellence Award winners areMediaMath New Marketing Institute NMI  For the past 7 years this organization has consistently demonstrated excellence in developing customerfacing training programs that meet client learning needs In addition it has built awardwinning education initiatives that are available to the general public and elevate the industrys readiness for and awareness of programmatic technology Cox Enterprises Cox Media Groups Parent company  This organization has been a leader in supporting the personal development and learning ambitions of its employees even as this everchanging industry adopts new policies practices and trends Its industry knowledge goes beyond its own organizational walls and has been instrumental to the development of IAB certification examsTo follow the latest news and debates emerging out of the 2019 IAB Annual Leadership Meeting go to wwwannualleadershipmeetingcomAbout IABThe Interactive Advertising Bureau IAB empowers the media and marketing industries to thrive in the digital economy Its membership is comprised of more than 650 leading media and technology companies that are responsible for selling delivering and optimizing digital advertising or marketing campaigns The trade group fields critical research on interactive advertising while also educating brands agencies and the wider business community on the importance of digital marketing In affiliation with the IAB Tech Lab it develops technical practices IAB and the IAB Education Foundation are committed to professional development and elevating the knowledge skills expertise and diversity of the workforce across the industry Through the work of its public policy office in Washington DC IAB advocates for its members and promotes the value of the interactive advertising industry to legislators and policymakers Founded in 1996 the IAB is headquartered in New York City and has a San Francisco officeAbout IAB Technology LaboratoryThe IAB Technology Laboratory Tech Lab is a nonprofit consortium that develops and provides technical standards software and services to drive the growth of an effective and sustainable global digital media ecosystem that benefits consumers Comprised of digital publishers ad technology firms agencies marketers and other member companies IAB Tech Lab focuses on improving the digital advertising supply chain measurement and consumer experiences while promoting responsible use of data Its work includes the OpenRTB realtime bidding protocol adstxt antifraud specification Open Measurement SDK for viewability and verification VAST video specification and DigiTrust identity service Board members include AppNexus ExtremeReach Google GroupM Hearst Digital Media Index Exchange Integral Ad Science LinkedIn MediaMath Microsoft Oath Oracles Moat Pandora PubMatic Quantcast Rakuten Marketing Telaria The Trade Desk and Yahoo Japan Established in 2014 the IAB Tech Lab is headquartered in New York City with staff in San Francisco Seattle and London Learn more at httpswwwiabtechlabcomView source version on businesswirecomhttpswwwbusinesswirecomnewshome20190211005222en CONTACT IAB MediaLaura Goldberg3476831859 lauragoldbergiabcomKEYWORD UNITED STATES NORTH AMERICA ARIZONA INDUSTRY KEYWORD SEARCH ENGINE MARKETING RETAIL COMMUNICATIONS ADVERTISING MARKETING SPECIALTY SOURCE Interactive Advertising BureauCopyright Business Wire 2019PUB 02112019 1200 PMDISC 02112019 1200 PMhttpwwwbusinesswirecomnewshome20190211005222en</t>
-  </si>
-  <si>
-    <t>The Insider Picks team writes about stuff we think youll like Business Insider has affiliate partnerships so we get a share of the revenue from your purchase Since you dont have all day to scour the web for noteworthy sales and discounts we rounded up the best bargains for you to shop in one convenient place For even more deals and savings across the web check out our coupons page Cole Haan Whether youre shopping for dress shoes for the office casual sneakers or boots Cole Haan is the place to head if comfort is your first priority Now through February 15 you can save an extra 40 on sale styles by using the promo code EXTRA40 at checkout In addition to shoes for men and women the sale also includes outerwear bags and other accessories Helzberg Diamonds Valentines Day is just a few days away and if youre still strapped for a gift youll need to act fast Luckily Amazon has a nice selection of Primeeligible jewelry gifts from Helzberg Diamonds at prices up to 60 off The sale includes diamond earrings rings and heartshaped necklaces Bouqs You dont want to end up buying shriveled up flowers from a gas station convenience store because you waited until the last minute The Bouqs Co has beautiful assortments of flowers and right now you can save 25 on them and get them in time for Valentines Day Simply use the promo code VDAY25 at checkout to take advantage of the offer Coop Home Goods As the maker of the best overall memory foam pillow weve tested Coop Home Goods knows a thing or two about comfort Now through February 15 you can save 10 on fullprice items by using the promo code XOXOCOOP at checkout The sale includes the brands popular pillows along with seat cushions mattress protectors pillowcases and more Mott amp Bow This Valentines Day premium denim startup Mott amp Bow is helping you get dressed in style and comfort In addition to denim the brand also sells tops but from now until February 14 you can get a free longsleeve or shortsleeve Tshirt with the purchase of any pair of jeans Simply use the promo code PERFECTPAIR at checkout to take advantage of the offer Amazon If youre looking to improve the security of your home the Ring Doorbell Pro is a smart way to do so The device lets you see hear and speak to visitors from your phone tablet or computer and if you have an Echo device youll also get notifications there when motion is detected With this device youll always know whos at the door before opening it For a limited time you can save 50 on Amazon when purchasing the Ring LLBean LLBean has sales every now and then but right now the brand is holding one of its biggest sales of the year with up to 70 off Whether youre shopping for specific apparel and outdoor gear or you just cant pass up a good deal youll want to take a look at this sale It ends in just two days on February 13 so dont wait too long For more deals and coupons on LLBean check out our coupons page Bear Mattress In celebration of Presidents Day online mattress startup Bear is having its biggest sale ever Now through February 19 you can save 150 on any purchase of 500 or more by using the promo code PRES150 or get 300 off any purchase of 1200 or more by using the promo code PRES300 at checkout Wayfair Wayfair can help you furnish and decorate your entire home on a budget While there are pretty much always deals happening on everything you need around the house the ongoing kitchen sale is particularly great Right now you can save up to 70 on top kitchen brands like Rachel Ray Cuisinart Fiesta KitchenAid and more You can find everything from small kitchen appliances to dinnerware included in the sale For more deals and coupons on Wayfair check out our coupons page</t>
-  </si>
-  <si>
-    <t>I have been a proponent of smart speakers for a while now Ive never been overly concerned about them listening to me or spying on me or recording my conversations and sending them to people in my contacts Those fears are valid but theyre not my fears  Lately though Ive been growing more concerned  Both the HomePod and the Google Home Max have been randomly speaking  or lighting up and listening in without being prompted  several times a week Both devices will listen in when anything is said that remotely resembles their wake words or theyll just jump in on conversations uninvited  A prime example A few weeks ago my boyfriend and I were sitting on the couch watching a new episode of True Detective In one scene the main characters are poking around the yard of a murder suspect while he isnt home It was a tense  and more importantly quiet  scene if not a particularly scary one  All of a sudden without warning Siri quietly said Hi  It took my boyfriend and I a full beat to realize it didnt come from the show itself Siri had just made her presence known for no reason at all  This isnt unusual Siri will speak unprompted all the time One time she literally spoke in tongues while my sister and I were chatting across the room Other times Siri will suddenly say things like Im listening which I know is standard when Siri is activated and then you dont say anything but is not exactly reassuring to hear especially when I didnt prompt her in the first place  If you think Google Assistant is any better though youd be wrong The Google Home Max listens in all the time It doesnt wait for a pesky wake word  in fact it appears to have totally emancipated itself and it now listens in whenever it feels like it at strange and sometimes inopportune moments  For example in that same episode of True Detective a few weeks back Mahershala Alis character says something truly heinous that I cannot repeat here if youve seen season 3 episode 2 you may know what Im talking about For some reason Google Assistant chose that particular moment to tune in I can promise you what he said definitely didnt resemble Hey Google  After that weve become deeply concerned about what sort of information Google has tied to my account and Im a little worried about what my search results may start looking like  This happens all the time About 50 of the time someone says Hey or OK in my apartment the Google Home Max starts listening While its supposed to wait for the full phrase  Hey Google or OK Google  it often ignores that mandate in favor of listening in on what were saying The device doesnt talk out of turn as often as the HomePod does but the Google Home Max has a major eavesdropping problem</t>
-  </si>
-  <si>
-    <t>Elon Musk says he is confident moving to Mars will one day cost less than 500000 and maybe even cost below 100000div gt divgroup gt pfirstchildgtWhile the final cost is very dependent on the volume of travelers Musk said the cost of moving to Mars will be low enough that most people in advanced economies could sell their home on Earth and move to Mars if they want The median home price in the US is 223900 according to ZillowVery dependent on volume but Im confident moving to Mars return ticket is free will one day cost less than 500k amp maybe even below 100k Low enough that most people in advanced economies could sell their home on Earth amp move to Mars if they wantThe comment was part of a Twitter thread announcing the Raptor engine the engine which will power the rockets travels to Mars has achieved the power level needed for Starship and Super HeavyRaptor just achieved power level needed for Starship amp Super HeavyThe Starship is the rocket formerly called the BFR rocket that SpaceX is building to go to Mars The Raptor is the rocket engine that SpaceX is making to power the Starship The Starship will have seven Raptor engines and the booster that launches the rocketship called Super Heavy will have 31 Raptor engines a SpaceX spokesperson tells CNBC Make ItThe aspirational goal for SpaceX is to send the first rocket to Mars with cargo only in 2022 according to SpaceXs website The second mission which will take more cargo and crew is aiming to go in 2024The objectives for the first mission will be to confirm water resources identify hazards and put in place initial power mining and life support infrastructure SpaceX website says The second mission has primary objectives of building a propellant depot and preparing for future crew flights The ships from these initial missions will also serve as the beginnings of the first Mars base from which we can build a thriving city and eventually a selfsustaining civilization on MarsIn an article published in academic journal New Space in 2017 Musk also compared the price of trip to Mars to buying a house At the time he estimated trips to Mars would cost about 140000 per ton taking into account transporting things like luggage food and life support But he said at the time he believed the cost could potentially drop to below 100000 a tonIt gets to the point where almost anyone if they saved up and this was their goal could buy a ticket and move to Mars and given that Mars would have a labor shortage for a long time jobs would not be in short supply he saidMusk has said there is a 70 percent chance he himself will go to Mars once SpaceX gets the price per ticket to maybe around a couple hundred thousand dollars he told Axios in a November interview</t>
-  </si>
-  <si>
-    <t>Maybe you picked up a Nintendo Switch DSLR camera laptop or new phone over the holiday season And unless its an iPhone it probably has a micro SD card or SD card slot for easy storage expansion Youve likely been filling up the internal storage  and now is the time to expandThe good news is that it wont cost you an arm and a leg Samsung and SanDisk are cutting the prices on their micro SD cards on Amazoncom These micro SD cards offer fast read and write speeds and full size SD card adapters in the box  not to mention these prices are super lowFrom Samsung the 64GB model is 43 off at just 1299 while the 128GB is 2123 and 256GB is 4799 These get up to 100Mbps of read speeds and up to 90Mbps of write speeds This is quite fast for external storage and should mean almost no lag time And if youre the outdoors type these SD cards can handle water and extreme temperatures and are safe to go through Xray machines SanDisk is offering its massive 400GB micro SD card for just 7989 The 32GB card is just 741 and the 64GB goes for 1185 These also get 100Mbps transfer speeds for a fast experience SanDisk offers a 10year limited manufacturers warranty on all these cardsThese deals wont last forever so act fast on the chance to get storage for cheapSamsung 64GB micro SD EVO select memory card 1299 originally 2299 amazoncom Samsung 128GB micro SD EVO select memory card 2123 originally 2499 amazoncomSamsung 256GB micro SD EVO select memory card 4799 originally 11999 amazoncomSanDisk Ultra 32GB micro SD card with adapter 741 originally 1499 amazoncomSanDisk Ultra 64GB micro SD card with adapter 1185 originally 2499 amazoncomSanDisk Ultra 400GB micro SD card with adapter 7989 originally 10498 amazoncomNote The prices above reflect the retailers listed prices at the time of publication</t>
-  </si>
-  <si>
-    <t>Walmart Inc is big in almost every way  4755 stores 15 million employees and US380 billion in revenue in the US alone But one part of the worlds largest retailer remains minusculeWe have a tiny ad business Chief Executive Officer Doug McMillontold investors in October It could be biggerWith about 300 millionshoppers visiting its stores each month according toForrester Research and millions more on its websites Walmart draws in more people than Google Facebook orAmazon That audience and the purchase data they generate are catnip for big advertisers like CocaCola Co and Kraft Heinz CoBut Walmart and other retailers historically havent done enough to convert that data into dollars particularly onlineHaving watchedAmazoncom Incbuild a massive advertising businessbrick and mortar stores are looking to do the same Walmart Target Corp and grocery chains Kroger Co and Ahold Delhaize are quietly courting big brands with a sales pitch that goes something like this Facebook might know what your customers like and Google might know what they want but only we know what they actually buyThey have a nice story to tell advertisers saysDavid Tiltman head of content at WARC anadvertising analysis firm What we see now is a more sophisticated approach to ad sales than retailers have had in the pastThat push comes at a critical moment as mainstream retailers are under attack like never before from the likes of Amazon deepdiscount chainsand digital upstarts embraced by coveted millennial shoppers Walmart and othershave responded by spendingbillions to jazz up theirown websites and build out such services as home deliverybut those investmentscrimpearnings The tailwinds retailers enjoyed last year from tax cuts and brisk consumer demand will dissipate in 2019 and looming Chinese tariffs could muddle the outlook furtherAll that uncertaintymakes alternative revenue streams crucial especially for grocers which generatemuch skimpier margins than say fashion or luxury retailersKroger wants to generate US400 million in additional profit by 2020 with some of that coming from a new marketing unitthat places web ads forthe likes ofUnilever and General Mills Inc Targetsinhouse media network has hundreds of clients including Oreo cookiemaker Mondelez International Walmarthas hired executives fromNBC Universal and CBSto help boostits advertising businessAmazon remains dominant in the online market but WalMart is spending billions to catch up and its paying offThe potentialis vast Last year US ad sales hit a record US208 billion according to researcher Magna and for the first time ever50 per cent ofthat spending was online Facebook and Google combined gobble up more than half of those digital dollars according to data tracker eMarketer while Amazon gets only 55per centThats an opportunity for retailers which already have longstanding relationships with the big consumer brands that quietly pay them millions every year for prime shelf space Those brands are also shifting marketing dollars away from traditional ad agencies showcased by last weeks surprise sales decline from French ad giantPublicis Groupe SA But Walmart and its ilk will have to move fast Amazons ad business doubled in size last year and 97 per cent of brands that advertise on Amazon find it valuable according to a survey by Feedvisor which sells advertising and pricing software used by Amazon sellersRetailers have tried to capitalize on advertising before About 20 years ago Walmart unveiled its own instore television network that showed product ads movie trailers and music videos By 2004 Walmart TV had 180 million monthly viewers butthe advent of digital media upended its channel in the same way it disrupted traditional networksAmazoncom Inc is locked in a margincrushing price war with WalmartCanadian PressNow retailers are pairing data harvested from purchases and loyalty with analytical tools that promise advertisersbigger bang for their buck Take CocaCola which is running two campaigns right now with Peapod Digital Labs a new entity formed by Stop amp Shop owner Ahold Delhaizelast year to boost its online growthBefore Coke would have worked with a digital media company that relies on thirdparty datawhich would get us close to the pin but not close enoughsays Jim DIsidoro director of shopper marketing for CocaCola North America Now with Aholds data he knowswhether the adtranslated into a sale among the customers he targetedIts always been elusive to tease out the impact of the digital media weve runhe says With Aholdwe will have a better idea of what our return on investment is and that gives us encouragement to invest moreThe path forward for many retailers will depend on creativity and realizing profits in other waysUBS analyst Michael LasserCokes not alone Many consumer product companies are looking at their marketing spending and thinking the retailers ecosystem might be a better place to spend it saysBryan Gildenberg chief knowledge officer at Kantar Consulting Those inhouse media networks will become a vital piece of retailersbusiness models Forrester predicts as they lure clientsaway from established ad agenciesIf that sounds farfetched consider Alibaba The Chinese ecommerce giant already generates more than 60 per cent of its revenue from advertisingand last year acquired a stake in a digital ad firm The path forward for many retailers will depend on creativity and realizing profits in other ways UBS analyst Michael Lasser saysAs they pursue that path Amazons ad network will continue to blossom howeverExecutives at the online giant ominously said in January that theysee potential for advertising not only on Amazons sites but also potentially beyondmeaning across the entire web in Whole Foods Market storesand even on their ubiquitousdelivery boxes For traditional retailers advertising is yet another front in their battle with the online giantIn an Amazon world says Tory Gundelach a former Target and Kroger exec whos now at Kantar Consulting retailers have to make money beyond just selling productsBloombergcom</t>
-  </si>
-  <si>
-    <t>Why youll love it The semiautomatic Breville BES870XL Barista Express Espresso Machine makes topnotch espresso and it includes a burr grinder tamper and frothing pitcher  Most espresso machines dont come with everything you need so you end up buying a bunch of accessories to actually make your coffee Not so with the Breville BES870XL Barista Express Espresso Machine  It comes with a stainless steel conical burr grinder a 12 pound sealed bean hopper a 54mm tamper a steaming wand for frothing your milk and a frothing pitcher The only thing you need to buy is the espresso beans The user manual is very detailed so you should be able to follow its instructions without too much trouble  Based on our testing learning how to use the machine is well worth the effort and the result is absolutely beautiful tasting coffee Its actually really easy to use and youll have the process down after two or three attempts  The Barista Express espresso machine uses a 15 Bar Italian Pump and a 1600W Thermocoil heating system to make rich espresso Since its a semiautomatic machine the Breville automatically adjusts water temperature after steam to extract the most flavor out of your beans The machine also has a 67 floz 2L water tank with a nice handle for easy removal and it comes with a replaceable water filter  The builtin burr grinder is high quality and you can easily adjust the grind size and amount with a dial on the front of the machine You can choose to use either a single or doublewall filter basket and the grinder will automatically adjust to give you the right about of coffee grounds for your brew Reviewers love that it comes with the grinder and praise its quality  If you push the 54mm stainless steel portafilter into the handsfree grinding cradle the grounds will go right into the filter The grinder shuts off when its done too so you dont have to worry about figuring out if youve got the right amount Finally the included 54mm tamper ensures that your grounds are evenly pressed so you get the most out of your beans  When it comes to deciding how much espresso you want to make you can choose between two presets for 1 and 2 cup volumes Alternatively you can manually override the settings and choose your own amount of espresso  The Thermocoil heating system controls the water temperature and you can watch the espresso machines pressure gauge If you want frothy milk on top of your espresso you can use the 360degree swivel steam wand to whip up some foam in the included milk pitcher  A removable drip tray catches any excess so you dont end up with a huge mess on your hands You do have to clean that part every day Brevilles machine will also tell you when it needs a thorough cleaning and it comes with a special cleaning kit Follow Brevilles very detailed care and maintenance guide to keep your machine in working order  The machine comes with a oneyear warranty in case of issues User reviews on Amazon are very positive and most people had a very easy time making highend espresso with the machine  Across the web expert reviewers from Best Products Digital Trends Coffee Lounge Coffee Maker Picks and Espresso Perfecto all highly recommend this machine  If youre inexperienced its a good machine to learn with and if youre interested in fiddling around with settings you can do that too Its an allaround great espresso machine according to several reviews by experts and everyday users  The best part about this machine is that it comes with everything you need except the beans You dont have to spend an extra 100 on a good grinder or 25100 on a milk frothing pitcher and tamper You will pay a bit more for it than other machines on this list but its well worth it  especially now that this machine costs 55994 instead of 99999 Pros Builtin burr grinder and frother makes great crema on your espresso its relatively easy to use lovely design and a oneyear warranty Cons Expensive but its on sale</t>
-  </si>
-  <si>
-    <t>The biggest play of Super Bowl 53 was made possible by Patriots backup QB Brian Hoyer The play was actually made by Stephon Gilmore who corralled a duck from Jared Goff for an interception that all but wrapped up a 133 win for the PatriotsBut if not for Hoyer New England defensive coordinator Brian Flores may have never called the blitz that forced Goff to just throw it up for grabs and Gilmore may have never used the technique that helped him make the playThe MMQBs Albert Breer explained how Hoyers experience with Sean McVays offense and his streaming subscriptions helped the Patriots defense make the gamechanging playHoyer began his career in New England but he got his first shot as a starter in Cleveland In 2014 his second year there he started 11 games for coordinator Kyle Shanahan then played for Shanahan again in San Francisco in 17 Rams coach Sean McVay coached tight ends for Mike and Kyle Shanahan in Washington from 201013 which led Hoyer to believe hed have some institutional knowledge of McVays offenseBefore the Super Bowl he watched an episode of Peyton Mannings Detail series on ESPNPlus on Goff and it hit him right awaythe offense is the same Looking at the Rams tape confirmed it  Then Hoyer went back to AmazonsAll or Nothingseries on the Rams it was about the 2016 season but had footage of OTAs from McVays first spring there Hoyer recognized the languageHaving played in the McVayShanahan system Hoyer knew all the dirty little secrets of the offense including its fatal flawHaving played in that offense they dont have an answer for allout pressure Hoyer says Their answer is for the quarterback to make a playHoyers contribution did not end there While acting as the scoutteam QB he gave the New England secondary a tip regarding those allout pressures that would lead directly to Gilmores interceptionWe were all up there showing an allout blitzthe way everyones been seeing us moving around Devin McCourty says And Hoyer said If Im the quarterback Im just going to catch the ball and throw it deepall of you are close so Im throwing it deep Sure enough that week we started seeing it more Kansas City did it Green Bay hit us with itThe adjustment as Jason explained it was for those in coverage at the snap to play off and read the quarterbackFastforward to the fourth quarter of Super Bowl 53 The Patriots dial up the type of allout blitz that Hoyer said would give the Rams problems Gilmore at the bottom of the screen is playing off coverage with his eyes fixed on Goff right from the snapGoffs reacted to the pressure by just lobbing up a backfoot throw Gilmore saw it all the way and made one of the easier interceptions of his career He can thank Hoyer for thatYou can read Breers entire piece over at The MMQBNFL power rankings heading into the offseason Its the Patriots then everybody elseHow Bill Belichick outclassed the NFLs latest genius in Super Bowl 53The Grammys need to stop bringing out athletes as presentersThe last thing football needs is for its new league to celebrate old violence</t>
-  </si>
-  <si>
-    <t>Former Snap chief strategy officer Imran Khans new ecommerce company has a name Verishop the startup announced in a Medium post Monday  The new venture is a new kind of onlineshopping company and its aim is to create an online retailer that better serves both customers and brands  Khan is trying to build an alternative to Amazon or Jet for brands to sell their goods with a focus on particular product categories Recode has reported Ecommerce has made shopping more efficient but in doing so has lost much of the joy of discovery according to the post Verishop hopes to bring that joy back to online shopping at scale and with the ease of online purchasing and fast delivery that consumers have come to expect  The company also seeks to elevate brands identities while helping them reach millennial shoppers Verishop claims it will not ask brands to pay for better placement or leave brands to battle unvetted thirdparty sellers and counterfeit products as other ecommerce platforms do  Verishop has signed partnerships with a number of brands already Business Insider has learned including beauty brands Ursa Major and Indie Lee home goods brands such as Primary Goods and Indego Africa and fashion brands including IRO and Finders Keepers  In addition to Imran Khan Verishops leadership includes his wife cofounder and chief strategy officer Cate Khan who spent eight years at Amazon where she was most recently SVP of retail for the Quidsi business  The startup also recently hired talent agent Paul Cazers as its vice president of strategic partnerships as Business Insider first reported and named Mark Schwartz Goldman Sachs former AsiaPacific chairman and a WeWork board member to its board  Other recent hires include Jason Bosco Dollar Shave Clubs vice president of engineering who was tapped in November to run engineering The startups headcount is about 20  Khan sees socialmedia influencers in addition to Google as being an important source of traffic to the platform Cazers role will be to build partnerships with influencers and brands including directtoconsumer ones a source familiar with the plans told Business Insider last week Read More Snaps former chief strategy officer Imran Khan makes a key hire for his onlineshopping startup Khan raised 175 million for the startup with Lightspeed Venture Partners as the lead investor in November</t>
-  </si>
-  <si>
-    <t>Breaking into the housing market can be difficult especially for beginners But in some places its more possible and less stressful than others div gt divgroup gt pfirstchildgtA recent LendingTree study identified the best cities for firsttime homebuyers where down payments are typically lower and mortgages can be easier to secureThe study ranked the 50 largest metropolitan areas in the US taking into account six factors average down payment amount average down payment percentage number of buyers using an FHA mortgage how much buyers are saving by using FHA loans percentage of buyers with low credit scores and percentage of homes that are affordable for middleincome buyersMajority of the top cities are clustered in the Midwest including Detroit Michigan and Columbus Ohio Thats mostly due to the fact that the region is relatively affordable says Tendayi Kapfidze chief economist at LendingTreeFirsttime buyers are at a disadvantage to buyers who currently own a home as firsttimers have no equity to assist with the down payment he tells CNBC Make It Thus lower priced areas such as those in the Midwest that require a smaller down payment in dollar terms afford firsttime buyers more opportunity</t>
-  </si>
-  <si>
     <t>Heisman Trophy winner Kyler Murray has made his decision Hes choosing football over baseballSomeone should tell team vice president Billy BeaneWith pitchers and catchers reporting to Oakland As camp on Monday Beane understandably had to field questions about Murray Beane said that no decision had been made by the Murray camp an hour before Murray announced his decisionBilly Beane wouldnt get too much into detail on Kyler Murray only saying As continue to have private conversations with Murray and his team Wouldnt comment on report of Murray attending combine saying report didnt come from Murray or his representatives pictwittercomZ4iM4vBeMZ Martn Gallegos MartinJGallegos February 11 2019That timing was  interestingBeane saidThings have certainly changed since the draft A Heisman Trophy Hes projected to be an early firstround pick  Weve had ongoing conversations as it relates to the situation and as it relates to Kylers future period Not just with baseball but also potentially other sports So I dont have any answers for you and I probably wont until weve decided on the process All I can tell you is that it hasnt been decided And the conversations will continueThe former Oklahoma quarterback was a firstround pick by the Oakland As in 2018 but was permitted to play his final season of football in Norman The As had the full expectation that hed be back with the team Murray just went on to put up historic numbers and played himself into a likely firstround pick in the NFLIf Murray follows through with this announcement to choose a career in the NFL he would have to pay back and forfeit his 46 million signing bonus to the AsKyler Murray will return 129 million of the 15 million signing bonus money the Oakland As gave him last year He forfeits the remaining 316 million due March 1 The As will put him on the restricted list and retain Murrays rights but they dont get a comp draft pick Jeff Passan JeffPassan February 11 2019Brian Hoyers Amazon and ESPN subscriptions helped the Patriots win Super Bowl 53How Bill Belichick outclassed the NFLs latest genius in Super Bowl 53The Grammys need to stop bringing out athletes as presenters</t>
   </si>
   <si>
@@ -1456,12 +1408,12 @@
     <t>The future of coworking spaces may not be in hip openconcept loftsCoworking in which entrepreneurs and freelancers rent outdesks at a shared workspaceis growing rapidly and big companies are looking to get in on the action as a way tomonetize empty spaceLast month Staples Canada openedStaples Studio at its University Avenue location in downtown Toronto The venture isdescribed by the company as a combination ofcoworking space retail and servicesWhy did we go into coworking Quite frankly our customers were telling us the way they work is changing saidStaples Canada CEO David BooneWith competitors like Amazon and Walmart cutting intoStaples retail business and with its online sales growing faster than instore purchases Boone said repurposing extra space in stores is keyClearly the retail industry is going through a lot of changehe saidAnd those retailers that adapt are going to winGlobal growth of shared workspacesAs workers become more nomadic coworking spaces are an increasingly popular optionAccording to the Global Coworking Unconference Conference a company which produces conferences on coworking there were around 14000 coworking spaces around the world in 2017They expect thatnumber to climb to 30000 spaces by 2022In Toronto a variety of spotshave popped up to fill the need including a parentfriendly coworking spacea space just for female entrepeneurs and a business thatconnects freelancers to empty restaurants where they can sit and workAs of this past December even the federal government is considering gettingin on the actionStaples Studiocoming to a city near youToronto startup Healthy Pets a telemedicine company that connects pet owners and vets relocated its team to Staples Studio after a strenuous search for the right spaceIt was actually a very difficult process because a lot of coworking spaces in the city are either full or very expensive the companys lead software engineer Dennis Turko saidTurko said being at Staples Studio saves his company time because the office was ready to go when they moved inPreviously we havepurchased all of our supplies whether its hardware whether its computers whether its stationary he saidIn that sense having an office with a Staples store so close at hand has been convenient he said the team never wants for office suppliesThats what Boone means when he says Staples Studio offers a complete experience thats unlike other coworking spacesBoone says he plans to take the coworking model to other cities later this yearU of T space now for rentThe push towards coworkingis happening in universities as wellIn 2017 The University of Torontolaunched ONRamp a 15000 square foot office space thats sponsored by RBC and is free to student entrepreneurs and recent alumniU of T Entrepreneurship managing director Keri Damen told CBC Toronto the university also rents out space at a competitive priceWe wanted to create a central space where all these entrepreneurs from engineering or medicine or business or Scarborough or Mississauga they could come together to share and work together in a space Damen said</t>
   </si>
   <si>
+    <t>Joe SkipperReutersTesla shareholder T Rowe Price cut its stake in half in the fourth quarter a regulatory filing showed on MondayAs of September prior to the divestitureT Rowe was the automakers secondlargest shareholder trailing only CEO Elon MuskNow Baillie Gifford is Teslas biggest institutional stakeholderWatch Tesla trade liveT Rowe Price formerly Teslas largest institutional shareholdercut its stake in half in the fourth quarter a regulatory filing showed on MondayThe filing showed that T Rowe had reduced its stake to 52 as of the end of December down from the 1012 stake it held in September Prior to the divestiture T Rowe was Teslas secondlargest overall shareholder trailing only CEO Elon MuskThe move makes Scottish investing giant Baillie Gifford Teslas biggest institutional stakeholderTesla investors didnt seem particularly perturbed by the development The companys stock climbed 359 on Monday trading near 31677 per shareT Rowes withdrawal of investment could be reflective of broader concerns about the companys ability to selffund its growth ambitions On January 30 the tech company reported worsethanexpected profits for the fourth quarter despiteachieving two consecutive profitable quarters for the first timeAnd while Tesla swore it would be profitable in all quarters going forward Morgan Stanley says the company will still need to raise more external capitalWe forecast Tesla 1Q19 free cash flow to be negative 600 million driven by a sequential decline in profit and working capital leakage Adam Jonas an analyst at Morgan Stanley said recently He pushed out his forecast of a 25 billion equity capital raise to the third quarter of the yearTesla is up 31 so far this yearMI</t>
+  </si>
+  <si>
     <t>T Rowe Price formerly Teslas largest institutional shareholder cut its stake in half in the fourth quarter a regulatory filing showed on Monday  The filing showed that T Rowe had reduced its stake to 52 as of the end of December down from the 1012 stake it held in September Prior to the divestiture T Rowe was Teslas secondlargest overall shareholder trailing only CEO Elon Musk  The move makes Scottish investing giant Baillie Gifford Teslas biggest institutional stakeholder  Tesla investors didnt seem particularly perturbed by the development The companys stock climbed 359 on Monday trading near 31677 per share  T Rowes withdrawal of investment could be reflective of broader concerns about the companys ability to selffund its growth ambitions On January 30 the tech company reported worsethanexpected profits for the fourth quarter despite achieving two consecutive profitable quarters for the first time  And while Tesla swore it would be profitable in all quarters going forward Morgan Stanley says the company will still need to raise more external capital  We forecast Tesla 1Q19 free cash flow to be negative 600 million driven by a sequential decline in profit and working capital leakage Adam Jonas an analyst at Morgan Stanley said recently He pushed out his forecast of a 25 billion equity capital raise to the third quarter of the year  Tesla is up 31 so far this year MI</t>
   </si>
   <si>
-    <t>Joe SkipperReutersTesla shareholder T Rowe Price cut its stake in half in the fourth quarter a regulatory filing showed on MondayAs of September prior to the divestitureT Rowe was the automakers secondlargest shareholder trailing only CEO Elon MuskNow Baillie Gifford is Teslas biggest institutional stakeholderWatch Tesla trade liveT Rowe Price formerly Teslas largest institutional shareholdercut its stake in half in the fourth quarter a regulatory filing showed on MondayThe filing showed that T Rowe had reduced its stake to 52 as of the end of December down from the 1012 stake it held in September Prior to the divestiture T Rowe was Teslas secondlargest overall shareholder trailing only CEO Elon MuskThe move makes Scottish investing giant Baillie Gifford Teslas biggest institutional stakeholderTesla investors didnt seem particularly perturbed by the development The companys stock climbed 359 on Monday trading near 31677 per shareT Rowes withdrawal of investment could be reflective of broader concerns about the companys ability to selffund its growth ambitions On January 30 the tech company reported worsethanexpected profits for the fourth quarter despiteachieving two consecutive profitable quarters for the first timeAnd while Tesla swore it would be profitable in all quarters going forward Morgan Stanley says the company will still need to raise more external capitalWe forecast Tesla 1Q19 free cash flow to be negative 600 million driven by a sequential decline in profit and working capital leakage Adam Jonas an analyst at Morgan Stanley said recently He pushed out his forecast of a 25 billion equity capital raise to the third quarter of the yearTesla is up 31 so far this yearMI</t>
-  </si>
-  <si>
     <t>The Oakland As had hoped that 2018 firstround pick Kyler Murray would report to spring training but thats clearly not going to happenMurray is choosing footballThe Heisman Trophy winner announced Monday that he will pursue a career as an NFL quarterback over playing baseball for the AsMurray is a projected firstround pick in Aprils draft and will almost certainly become the first athlete to be drafted in the first round of both the NFL and MLBThe former Oklahoma quarterback had been leaning towards football but his announcement  which came right after As exec Billy Beane said no decision had been made  got the sports world buzzingKyler Murray Why Im leaving The Athletics Tom Fornelli TomFornelli February 11 2019Kyler Murray had a choice stay relevant and follow your passion or play baseball and notHe picked the NFL Dov Kleiman NFLDovKleiman February 11 2019From the moment Kyler Murray looked like a Heisman Trophycaliber quarterback the Oakland As knew they were longshots to keep him playing baseball This is a bummer for MLB but it was the likeliest outcome httpstconzhFEJeU3T Jeff Passan JeffPassan February 11 2019I just cant believe Kyler Murray would choose a first round contract and signing bonus in the NFL over letting the notoriously cheap Oakland As manipulate his free agency eligibility for the next half decade Chase Ruttig ChaseRuttig February 11 2019MLB was willing to bend rules to convince a kid who did not have any guarantee of being a star of choosing baseball over football and failed Not a great look for a sport whose narrative is that young people dont want to sit through a game anymore httpstcozUaXutOOG0 Joon Lee joonlee February 11 2019Read more from USA TODAY Sports Kyler Murray chose football right after As exec Billy Beane said no decision had been madeBrian Hoyers Amazon and ESPN subscriptions helped the Patriots win Super Bowl 53How Bill Belichick outclassed the NFLs latest genius in Super Bowl 53</t>
   </si>
   <si>
@@ -1510,7 +1462,7 @@
     <t>Hedge fund manager Paul Tudor Jones issued a call for more responsible investing saying that the craze over stock buybacks is causing troubling social illsdiv gt divgroup gt pfirstchildgtI think weve got a mania going on in buybacks and a mania going on terms of shareholder primacy Jones told CNBCs Bob Pisani on the sidelines Monday of the Inside ETFs conference in Hollywood Florida He added that the focus solely on shareholder profits has helped cause major wealth disparity and is a departure from the way corporate boards used to behaveThings have been different and can be different again and if theyre not Im really nervous about what the ultimate social consequences are in this country he saidUS companies bought back more than 1 trillion of their own shares in 2018 helping to keep afloat a market that turned in an otherwise lackluster performance as the SampP 500 was off more than 6 percent for the year However the propensity of companies to use the trillions in cash they are holding has caused controversy and calls for legislators to limit the practiceSpecifically Sens Charles Schumer and Bernie Sanders recently proposed requiring companies to meet certain requirements before being allowed to do repurchases Among the standards would be minimum employee pay of 15 an hour along with paid time off and health benefitsJones said he wasnt sure if wanted to go that far He said he has been speaking with Schumer a New York Democrat for over a year on his ideas about socially responsible investingI dont know if I want to see a legislative outcome for this Jones said Id love to see this happen organicallyBefore companies make buybacks board members should ask whether their employees are making living wages and should look into how much the companies are contributing to charity he saidAs part of his push for more ethics in boardrooms Jones touted the Goldman Sachs JUST US Large Cap ETF which focuses on companies that comply with environmental social and governance standards or the socalled ESG investing philosophyThe fund is up more than 8 percent so far in 2019 about in line with the broader stock market performance The fund administrators rank Russell 1000 companies on how they stand regarding ESG metrics then take the top companies and include them in the ETF The top holdings include tech giants Amazon Microsoft and AppleJones is noted for making broad market calls and predicted the 1987 stock market crash More recently he warned at an investor forum in November of a global debt bubble that would be very challenging In June he told CNBC that the stock market could go a lot higher at the end of the year but the opposite happened Stocks fell into a nearbear market to end the year as investors recoiled on fears that the Federal Reserve was going to make a policy mistake and raise rates too aggressively</t>
   </si>
   <si>
-    <t>WASHINGTON AP Private investigators working for Jeff Bezos have determined the brother of the Amazon CEOs mistress leaked the couples intimate text messages to the National EnquirerThats according to a person familiar with the matter who spoke Monday to The Associated Press The person wasnt authorized to discuss the matter publicly and spoke to AP on condition of anonymityThe new cost for doing business in TulsaFor those who care about business and this community we have a deal for you Start a digital subscription for only 099 Sign up now at tulsaworldcomsubscribeThe Enquirer published a story last month that included racy texts between Bezos and former TV anchor Lauren Sanchez Bezos said the tabloid later threatened to expose his revealing photos if he didnt have his private investigators back offThe person says those investigators identified Michael Sanchez a California talent manager as the person who leaked the textsSanchez didnt immediately respond to a message seeking comment on MondayCopyright 2019 The Associated Press All rights reserved This material may not be published broadcast rewritten or redistributed</t>
+    <t>WASHINGTON AP Private investigators working for Jeff Bezos have determined the brother of the Amazon CEOs mistress leaked the couples intimate text messages to the National EnquirerThats according to a person familiar with the matter who spoke Monday to The Associated Press The person wasnt authorized to discuss the matter publicly and spoke to AP on condition of anonymityThe Enquirer published a story last month that included racy texts between Bezos and former TV anchor Lauren Sanchez Bezos said the tabloid later threatened to expose his revealing photos if he didnt have his private investigators back offThe person says those investigators identified Michael Sanchez a California talent manager as the person who leaked the textsSanchez didnt immediately respond to a message seeking comment on MondayCopyright 2019 The Associated Press All rights reserved This material may not be published broadcast rewritten or redistributed</t>
   </si>
   <si>
     <t>The Insider Picks team writes about stuff we think youll like Business Insider has affiliate partnerships so we get a share of the revenue from your purchase When it comes to underwear men get the short end of the stick We have basically three choices for this most intimate piece of apparel  the brief the boxer and the boxer brief  none of which is particularly exciting While womens underwear can be functional fetching or both mens underwear is more or less stuck at function  Recently I found a company that makes boxer briefs that function so well Ive tossed out many of my older pairs  Once you wear Saxx Underwear Co boxer briefs you too will probably thin the ranks in your underwear drawer making room for new favorites The only catch The cheapest pair out there still costs about 25 SAXX Underwear Why the Ballpark Pouch makes all the difference Cleverly albeit crassly named the Ballpark Pouch is the most notable design element of a pair of Saxx boxer briefs so lets start there This is one of those why didnt they think of it before innovations two little flaps of fabric keep a mans legs and his business separated and offer extra support to the latter  The Ballpark Pouch prevents skinonskin contact and reduces friction whether youre playing a heated game of ball out for a jog or just going about your daily routine The pouch also helps prevent the buildup of moisture down there reducing irritation odor and general annoyance You guys know all about this  you probably shifted a bit in your chair just now right  And finally the pouch adds just a bit more lift and support which youll appreciate during athletic activity and leisure time alike SAXX Underwear The fabric blend perfected Lots of boxer briefs are snug and supportive Boxer briefs from Saxx are snug and supportive but also comfortable and nonrestrictive Youll forget youre wearing them after a few seconds thanks to how well the blend of nylon polyester and spandex threads gently adhere to your body The fourway stretch material moves with you staying in place no matter how active you get And it wicks away plenty of sweat too keeping you dry  Flat seams and a wide 14inch waist band finish off the fit securing the underwear and ensuring your comfort  And speaking of fabric I know earlier I said that mens underwear arent that exciting since in terms of styles and cuts and such we really dont have as many options as women But Saxx is at least ensuring that things down there are exciting as far as prints go They offer boxer briefs in wild styles from prints depicting a vibrant coral reef to tiedye to jungle scenes But dont worry you can get striped or monochrome pairs too Read more The best underwear for menBottom line I looked around and cheapest pair of Saxx boxer briefs I could find cost more than 20 And many sell for just over 55  But Ive been wearing my several pairs almost exclusively for months and they are still in perfect shape So for my money theyre worth it You spend all day in these things treat yourself right down there</t>
@@ -1858,231 +1810,31 @@
     <t>Prices are fluctuating at Whole Foods  The organic grocer has raised prices on some items while discontinuing others according to a leaked email reported by the Wall Street Journal  A Whole Foods spokesperson said in a statement to Business Insider that the higher prices were due to rising material packaging and transportation costs  The increase is due to some itemspecific contracts expiring Of about 700 items with expiring contracts the grocer says it has decided to stop selling about half and raise prices on less than 50  Like all grocers Whole Foods Market has experienced increased costs from suppliers due to materials labor and transportation and weve absorbed much of the inflation a Whole Foods spokeswoman said in a statement Many prices have also decreased and we continue to expand the number of promotions we offer to give our customers better value Read more Amazons earnings included a negative number but the company said it doesnt matter Of new contracts more than 100 items are also seeing net price reductions the spokesperson said The items are chosen for renewal or promotion based on customer buying habits  These new price changes come after the highly publicized price reductions Amazon made when it purchased Whole Foods in 2017 The price cuts were made to ease the grocers Whole Paycheck image  in other words that its too expensive for the average consumer  Whole Foods says it isnt pulling away from that initiative  We remain committed to continuing to lower prices with Amazon as we deliver on our mission to make highquality natural and organic food more affordable and accessible a Whole Foods spokeswoman said in a statement  Rising food prices are not a retailerspecific problem Higher transportation costs fueled by a truck driver shortage have been steadily affecting the price of consumer goods for years now That forces retailers to either absorb the increased costs or pass them on the consumer</t>
   </si>
   <si>
-    <t>PHOENIX--(BUSINESS WIRE)--Feb 11, 2019--IAB, the national trade organization for the digital media and marketing industries, was joined today by the IAB Tech Lab in honoring outstanding digital marketers in a variety of categories; sales excellence, service excellence, and for the first time educational excellence. Winners of the 2019 awards were announced during the IAB Annual Leadership Meeting at the JW Marriott Phoenix Desert Ridge Resort and Spa in Phoenix, Arizona._x000D_
-This press release features multimedia. View the full release here: https://www.businesswire.com/news/home/20190211005222/en/_x000D_
-2019 IAB Sales Excellence Awards_x000D_
-The IAB Sales Excellence Awards recognize individuals and IAB-member companies that show exceptional client service, digital advertising expertise, and innovation in digital advertising sales._x000D_
-As in years prior, Advertising Perceptions, the research-based business intelligence company, and IAB leadership created a survey to measure key digital advertising skills and award individuals that excelled in these areas over the past year._x000D_
-Over 500 leaders from the ad buying community answered the questionnaire, nominating, and then voting on the best sales teams and individuals across four main categories: large organization, small-to-medium sales organization, leadership through mentoring, and sales person of the year in four key U.S. regions. Respondents represented companies that spent at least $1 million on interactive advertising during the last year._x000D_
-The 2019 IAB Sales Excellence Awards Winners are:_x000D_
-Overall Sales Excellence for a Large Sales Organization: YouTube_x000D_
- Overall Sales Excellence for a Small-to-Medium Sales Organization: MediaMath_x000D_
- Leadership through Mentoring: David Cristini, Sales Leader, Amazon Web Services_x000D_
- Sales Person of the Year: East Coast: Donna Bourke, Eastern Sales Manager, PandoraWest Coast: Shankar Raswa, Marketing Science Lead, eCommerce, FacebookCentral: Erin Figenholtz, Account Executive, Discovery Inc.South: Matt Ross, Account Executive Government Team, LinkedIn_x000D_
-Excellence in advertising sales is driven by creativity, proactivity, curiosity, and partnership, said Sue Hogan, Senior Vice President, Research and Measurement, IAB. These individuals exemplify these characteristics and are moving the industry forward through their daily contributions. By recognizing their achievements, IAB hopes to inspire the continued advancement of the industry._x000D_
-2019 IAB Service Excellence Awards_x000D_
-The IAB Service Awards honor individuals at IAB-member companies who have gone above and beyond to make standout contributions to IAB initiatives in the past year._x000D_
-Dedication and commitment are two long words for time and energy. The winners of the IAB Service Excellence Awards have chosen to donate many hours and ideas to accomplishing industry-changing work through IAB initiatives, said Anna Bager, Executive Vice President, Industry Initiatives, IAB. The future of digital advertising will be shaped by their work on the most complex and challenging issues facing us today including brand safety, attribution, Digital Out of Home (DOOH), and more. I applaud and thank them for their service._x000D_
-The 2019 IAB Service Excellence Awards winners are:_x000D_
-Tusar Barik, Marketing Lead: Agency and Channel Partnership, LinkedIn, for passionately spearheading The Changing Face of Digital for the B2B Marketer Town Hall, which highlighted the most important topics for B2B digital advertising, according to the committee._x000D_
- Gina Garrubbo, President and CEO, National Public Media, for delivering support that was essential to the success of the Audio Committees Audio Day this fall in Boston. More than 100 brands and marketers attended this afternoon of programming about digital audio._x000D_
- Les Hollander, Global Head of Products and Partner Sales, Spotify, for initiating the idea of exploring brand safety in digital audio, and then leading a working group that produced the paper, Digital Audios Role in the Brand Safety Conversation: Protecting Marketers Investments. The report received strong press coverage and offered an overview of digital audios brand safety advantages._x000D_
- Deng Kai-Chen, Vice President, Product Management, Verizon Media Group (formerly Oath), for serving as co-chair of the Mobile Committee, and being instrumental in the development of the Ad Quality Measurement Guide. The guide provides helpful examples of the nuances and tradeoffs for viewability, brand safety, and fraud, and includes a checklist to help facilitate discussions that can help eliminate churn during flight._x000D_
- Paul Lenhart, Senior Director Strategic Partnerships, OUTFRONT Media, for advancing the development of the Digital Out of Home Metrics Glossary by unifying discussions and helping solidify definitions of essential terms._x000D_
- Valentina Marastoni-Bieser, Senior Vice President, Marketing, Cuebiq, for serving as co-chair of the Data Benchmarks &amp;amp; Activation working group. Valentinas creativity and expertise were instrumental in the development of the Defining the Data Stack project._x000D_
- Sable Mi, Senior Vice President, Research and Insights, NinthDecimal, for developing a project to investigate industry opinions about the value, application, and future of mix media modeling (MMM) and multi-touch attribution (MTA). Under Sables leadership, the MTA Committee has embarked on a multi-phase initiative that has sparked great enthusiasm._x000D_
- Chris Murdough, TV Advertising Analytics, LiveRamp, for his valuable and consistent assistance on the Advanced TV Buyers Guide. He offered insights, ideas, and solutions, and helped the group come to consensus on the centerpiece of the document._x000D_
- Floriana Nicastro, Director, Mobile Product Strategy, MediaMath, for helping IAB establish a common framework for 5 Questions to Evaluate Your Identity Partners. She advanced the industry toward a common ground, related to identity, from which everyone involved in the buying and selling process can work._x000D_
- Nicole Pace, Vice President, Marketing, Rakuten Marketing, for providing valuable insight on the Influencer Marketing for Publishers Guide, and writing much of the text in the disclosure section that provided helpful perspective on FTC guidance._x000D_
- Nicole Pike, Managing Director, Nielsen (Esports), for contributing expertise and industry data about esports to the Marketers Guide to Esports: How to Get in the Game, and sharing the guide with the larger esports marketing community._x000D_
- Ryan Pogy, Sales Director, BroadSign, for actively contributing to the development of the Digital Out of Home Metrics Glossary. Ryans background in media measurement and analytics, as well as his ability to articulate historical context around terms, proved invaluable to the creation of the glossary._x000D_
- Chris Rooke, Senior Vice President, Strategy and Operations, Nativo, for his contribution to the strategy and execution of the Branded Content Creation and Distribution Guide while serving as a co-chair of the working group. This document is dedicated to helping marketers and their agencies identify the various branded content creation and distribution options available today._x000D_
-2019 IAB Tech Lab Service Excellence Awards_x000D_
-The IAB Tech Lab Service Excellence Awards recognize the important contributions of members of IAB Tech Labs commit groups, working groups, and task forces. Recipients are determined through staff recommendations and member affirmation._x000D_
-These people have been central to defining and developing solutions to address some of the industrys biggest challenges and opportunities, said Dennis Buchheim, Senior Vice President and General Manager, IAB Tech Lab. We all benefit from their tremendous commitment to establishing a safer and more effective supply chain, advancing new technologies, and enabling the growth of new media channels._x000D_
-Winners of the 2019 IAB Tech Lab Service Excellence Awards are:_x000D_
-GDPR Commit Group_x000D_
-The industry experts in the IAB Tech Labs GDPR Commit Group contributed to code bases, specifications, and implementation support resources that led to a successful launch of the IAB Europe Transparency and Consent Framework. IAB Tech Lab appreciates this groups strong technical governance._x000D_
-Heinz Baumann, Group Manager Publisher Engineering, Quantcast_x000D_
- Glenn Berntson, Technical Lead/Manager, Google_x000D_
- Alex Cone, Senior Product Manager, Xandr_x000D_
- Vytautas Jaktys, Technical Product Director, AdForm_x000D_
- Joshua Koran, Managing Director, DMP, Sizmek_x000D_
- Chris Paterson, Senior Software Engineer, Conversant_x000D_
- Andreas Pohl, Chief Architect, Verizon Media Group_x000D_
- Charlie Simon, Director, Data Policy and Governance, MediaMath_x000D_
-TV Convergence Task Force_x000D_
-The TV Convergence Task Force made great strides in 2018, thanks in part to Harold Geller. Harold has been the driving force in gaining consensus around the roadmap for media file formats and embedded meta-data to support cross-platform (digital and broadcast) video advertising._x000D_
-Harold Geller, Executive Director, Ad-ID_x000D_
-Video Technical Working Group_x000D_
-The Digital Video Technical Working Group released VAST 4.1 in November 2018, and this group was key to this achievement. While each of them contributed to the whole specification, Michael drove the concept of interactive templates, Pieter propelled the workflow updates, Jon contributed to the verification updates, and Jonathan helped advance the audio-related updates._x000D_
-Jonathan Eccles, Director, Product Management, Pandora_x000D_
- Jon Guarino, Software Engineer, Google_x000D_
- Pieter Mees, CTO, Zentrick_x000D_
- Michael Tuminello, Vice President, Solutions and Partnerships, Integral Ad Science_x000D_
-OTT Technical Working Group_x000D_
-The OTT Technical Working Group released the Guidelines for IFA on OTT Platforms in December 2018. Chris Gordon has been a key pillar of this effort from the start all the way to setting the guiding principles for the IFA guidelines._x000D_
-Chris Gordon, Vice President, Business Development, Xumo_x000D_
-Blockchain Working Group_x000D_
-In 2018, the Blockchain Working Group released a technology primer and wiki, launched network pilots, and initiated efforts to address transparency in supply chain and privacy using blockchain. Michael and Richard were the driving force behind these deliverables._x000D_
-Richard Bush, President, NYIAX_x000D_
- Michael Palmer, Global Vice President, GroupM_x000D_
-2019 IAB Education Excellence Awards_x000D_
-A central tenet of IAB is education, professional development, and demystifying the digital media and marketing ecosystem, said Michael Texidor, Vice President, Learning and Development, IAB. With the IAB Education Excellence Awards we recognize both the importance of talent development and members that are leading the efforts to expand their teams and clients understanding of this complex and rapidly evolving industry._x000D_
-The 2019 IAB Education Excellence Award winners are:_x000D_
-MediaMath New Marketing Institute (NMI) - For the past 7 years, this organization has consistently demonstrated excellence in developing customer-facing training programs that meet client learning needs. In addition, it has built award-winning education initiatives that are available to the general public and elevate the industrys readiness for and awareness of programmatic technology._x000D_
- Cox Enterprises (Cox Media Groups Parent company) - This organization has been a leader in supporting the personal development and learning ambitions of its employees, even as this ever-changing industry adopts new policies, practices and trends. Its industry knowledge goes beyond its own organizational walls and has been instrumental to the development of IAB certification exams._x000D_
-To follow the latest news and debates emerging out of the 2019 IAB Annual Leadership Meeting, go to www.annualleadershipmeeting.com._x000D_
-About IAB_x000D_
-The Interactive Advertising Bureau (IAB) empowers the media and marketing industries to thrive in the digital economy. Its membership is comprised of more than 650 leading media and technology companies that are responsible for selling, delivering, and optimizing digital advertising or marketing campaigns. The trade group fields critical research on interactive advertising, while also educating brands, agencies, and the wider business community on the importance of digital marketing. In affiliation with the IAB Tech Lab, it develops technical practices. IAB and the IAB Education Foundation are committed to professional development and elevating the knowledge, skills, expertise, and diversity of the workforce across the industry. Through the work of its public policy office in Washington, D.C., IAB advocates for its members and promotes the value of the interactive advertising industry to legislators and policymakers. Founded in 1996, the IAB is headquartered in New York City and has a San Francisco office._x000D_
-About IAB Technology Laboratory_x000D_
-The IAB Technology Laboratory (Tech Lab) is a non-profit consortium that develops and provides technical standards, software, and services to drive the growth of an effective and sustainable global digital media ecosystem that benefits consumers. Comprised of digital publishers, ad technology firms, agencies, marketers, and other member companies, IAB Tech Lab focuses on improving the digital advertising supply chain, measurement, and consumer experiences, while promoting responsible use of data. Its work includes the OpenRTB real-time bidding protocol, ads.txt anti-fraud specification, Open Measurement SDK for viewability and verification, VAST video specification, and DigiTrust identity service. Board members include AppNexus, ExtremeReach, Google, GroupM, Hearst Digital Media, Index Exchange, Integral Ad Science, LinkedIn, MediaMath, Microsoft, Oath, Oracles Moat, Pandora, PubMatic, Quantcast, Rakuten Marketing, Telaria, The Trade Desk, and Yahoo! Japan. Established in 2014, the IAB Tech Lab is headquartered in New York City with staff in San Francisco, Seattle, and London. Learn more at https://www.iabtechlab.com._x000D_
-View source version on businesswire.com:https://www.businesswire.com/news/home/20190211005222/en/_x000D_
- CONTACT: IAB Media_x000D_
-Laura Goldberg_x000D_
-347.683.1859_x000D_
- laura.goldberg@iab.com_x000D_
-KEYWORD: UNITED STATES NORTH AMERICA ARIZONA _x000D_
-INDUSTRY KEYWORD: SEARCH ENGINE MARKETING RETAIL COMMUNICATIONS ADVERTISING MARKETING SPECIALTY _x000D_
-SOURCE: Interactive Advertising Bureau_x000D_
-Copyright Business Wire 2019._x000D_
-PUB: 02/11/2019 12:00 PM/DISC: 02/11/2019 12:00 PM_x000D_
-http://www.businesswire.com/news/home/20190211005222/en</t>
-  </si>
-  <si>
-    <t>The Insider Picks team writes about stuff we think you'll like. Business Insider has affiliate partnerships, so we get a share of the revenue from your purchase._x000D_
- Since you don't have all day to scour the web for noteworthy sales and discounts, we rounded up the best bargains for you to shop in one convenient place. For even more deals and savings across the web, check out our coupons page. _x000D_
-Cole Haan _x000D_
-Whether you're shopping for dress shoes for the office, casual sneakers, or boots, Cole Haan is the place to head if comfort is your first priority. Now through February 15, you can save an extra 40% on sale styles by using the promo code "EXTRA40" at checkout. In addition to shoes for men and women, the sale also includes outerwear, bags, and other accessories. _x000D_
-Helzberg Diamonds _x000D_
-Valentine's Day is just a few days away, and if you're still strapped for a gift, you'll need to act fast. Luckily, Amazon has a nice selection of Prime-eligible jewelry gifts from Helzberg Diamonds at prices up to 60% off. The sale includes diamond earrings, rings, and heart-shaped necklaces. _x000D_
-Bouqs _x000D_
-You don't want to end up buying shriveled up flowers from a gas station convenience store because you waited until the last minute. The Bouqs Co. has beautiful assortments of flowers and right now you can save 25% on them and get them in time for Valentine's Day. Simply use the promo code "VDAY25" at checkout to take advantage of the offer. _x000D_
-Coop Home Goods _x000D_
-As the maker of the best overall memory foam pillow we've tested, Coop Home Goods knows a thing or two about comfort. Now through February 15, you can save 10% on full-price items by using the promo code "XOXOCOOP" at checkout. The sale includes the brand's popular pillows, along with seat cushions, mattress protectors, pillowcases, and more. _x000D_
-Mott &amp;amp; Bow _x000D_
-This Valentine's Day, premium denim startup Mott &amp;amp; Bow is helping you get dressed in style and comfort. In addition to denim, the brand also sells tops, but from now until February 14, you can get a free long-sleeve or short-sleeve T-shirt with the purchase of any pair of jeans. Simply use the promo code "PERFECTPAIR" at checkout to take advantage of the offer. _x000D_
-Amazon _x000D_
-If you're looking to improve the security of your home, the Ring Doorbell Pro is a smart way to do so. The device lets you see, hear, and speak to visitors from your phone, tablet, or computer, and if you have an Echo device, you'll also get notifications there when motion is detected. With this device, you'll always know who's at the door before opening it. For a limited time, you can save $50 on Amazon when purchasing the Ring. _x000D_
-L.L.Bean _x000D_
-L.L.Bean has sales every now and then, but right now the brand is holding one of its biggest sales of the year with up to 70% off. Whether you're shopping for specific apparel and outdoor gear or you just can't pass up a good deal, you'll want to take a look at this sale. It ends in just two days (on February 13), so don't wait too long. For more deals and coupons on L.L.Bean, check out our coupons page. _x000D_
-Bear Mattress _x000D_
-In celebration of Presidents Day, online mattress startup Bear is having its biggest sale ever. Now through February 19, you can save $150 on any purchase of $500 or more by using the promo code "PRES150" or get $300 off any purchase of $1,200 or more by using the promo code "PRES300" at checkout. _x000D_
-Wayfair _x000D_
-Wayfair can help you furnish and decorate your entire home on a budget. While there are pretty much always deals happening on everything you need around the house, the ongoing kitchen sale is particularly great. Right now, you can save up to 70% on top kitchen brands like Rachel Ray, Cuisinart, Fiesta, KitchenAid, and more. You can find everything from small kitchen appliances to dinnerware included in the sale. For more deals and coupons on Wayfair, check out our coupons page.</t>
-  </si>
-  <si>
-    <t>I have been a proponent of smart speakers for a while now. I've never been overly concerned about them listening to me, or spying on me, or recording my conversations and sending them to people in my contacts. Those fears are valid, but they're not my fears. _x000D_
- Lately, though, I've been growing more concerned. _x000D_
- Both the HomePod and the Google Home Max have been randomly speaking — or lighting up and listening in without being prompted — several times a week. Both devices will listen in when anything is said that remotely resembles their wake words, or they'll just jump in on conversations, uninvited. _x000D_
- A prime example: A few weeks ago, my boyfriend and I were sitting on the couch watching a new episode of "True Detective." In one scene, the main characters are poking around the yard of a murder suspect while he isn't home. It was a tense — and more importantly, quiet — scene, if not a particularly scary one. _x000D_
- All of a sudden, without warning, Siri quietly said, "Hi." _x000D_
- It took my boyfriend and I a full beat to realize it didn't come from the show itself. Siri had just made her presence known for no reason at all. _x000D_
- This isn't unusual. Siri will speak, unprompted, all the time. One time, she literally spoke in tongues while my sister and I were chatting across the room. Other times, Siri will suddenly say things like, "I'm listening," which I know is standard when Siri is activated and then you don't say anything, but is not exactly reassuring to hear, especially when I didn't prompt her in the first place. _x000D_
- If you think Google Assistant is any better, though, you'd be wrong. The Google Home Max listens in all the time. It doesn't wait for a pesky wake word — in fact, it appears to have totally emancipated itself, and it now listens in whenever it feels like it, at strange and sometimes inopportune moments. _x000D_
- For example, in that same episode of "True Detective" a few weeks back, Mahershala Ali's character says something truly heinous that I cannot repeat here (if you've seen season 3, episode 2, you may know what I'm talking about). For some reason, Google Assistant chose that particular moment to tune in. I can promise you, what he said definitely didn't resemble "Hey Google." _x000D_
- After that, we've become deeply concerned about what sort of information Google has tied to my account, and I'm a little worried about what my search results may start looking like. _x000D_
- This happens all the time. About 50% of the time someone says "Hey" or "OK" in my apartment, the Google Home Max starts listening. While it's supposed to wait for the full phrase — "Hey Google" or "OK Google" — it often ignores that mandate in favor of listening in on what we're saying. The device doesn't talk out of turn as often as the HomePod does, but the Google Home Max has a major eavesdropping problem.</t>
-  </si>
-  <si>
-    <t>Elon Musk says he is "confident" moving to Mars will "one day" cost less than $500,000 and "maybe even" cost below $100,000._x000D_
-div &amp;gt; div.group &amp;gt; p:first-child"&amp;gt;_x000D_
-While the final cost is "very dependent on [the] volume" of travelers, Musk said the cost of moving to Mars will be "low enough that most people in advanced economies could sell their home on Earth [and] move to Mars if they want." (The median home price in the U.S. is $223,900, according to Zillow.)_x000D_
-Very dependent on volume, but I'm confident moving to Mars (return ticket is free) will one day cost less than $500k &amp;amp; maybe even below $100k. Low enough that most people in advanced economies could sell their home on Earth &amp;amp; move to Mars if they want._x000D_
-The comment was part of a Twitter thread announcing the Raptor engine (the engine which will power the rocket's travels to Mars) has achieved the "power level needed for Starship and Super Heavy."_x000D_
-Raptor just achieved power level needed for Starship &amp;amp; Super Heavy_x000D_
-The Starship is the rocket (formerly called the BFR rocket) that SpaceX is building to go to Mars. The Raptor is the rocket engine that SpaceX is making to power the Starship. The Starship will have seven Raptor engines and the booster that launches the rocketship, called Super Heavy, will have 31 Raptor engines, a SpaceX spokesperson tells CNBC Make It._x000D_
-The "aspirational goal" for SpaceX is to send the first rocket to Mars (with cargo only) in 2022, according to SpaceX's website. The second mission, which will take more cargo and crew, is aiming to go in 2024._x000D_
-"The objectives for the first mission will be to confirm water resources, identify hazards, and put in place initial power, mining, and life support infrastructure," SpaceX website says. The second mission has "primary objectives of building a propellant depot and preparing for future crew flights. The ships from these initial missions will also serve as the beginnings of the first Mars base, from which we can build a thriving city and eventually a self-sustaining civilization on Mars."_x000D_
-In an article published in academic journal New Space in 2017, Musk also compared the price of trip to Mars to buying a house. At the time, he estimated trips to Mars would cost about $140,000 per ton (taking into account transporting things like luggage, food and life support). But he said at the time he believed the cost could potentially drop to below $100,000 a ton._x000D_
-"It gets to the point where almost anyone, if they saved up and this was their goal, could buy a ticket and move to Mars and given that Mars would have a labor shortage for a long time, jobs would not be in short supply," he said._x000D_
-Musk has said there is a 70 percent chance he himself will go to Mars, once SpaceX gets "the price per ticket to maybe around a couple hundred thousand dollars," he told Axios in a November interview.</t>
-  </si>
-  <si>
-    <t>Maybe you picked up a Nintendo Switch, DSLR camera, laptop or new phone over the holiday season. And unless it's an iPhone, it probably has a micro SD card or SD card slot for easy storage expansion. You've likely been filling up the internal storage -- and now is the time to expand._x000D_
-The good news is that it won't cost you an arm and a leg. Samsung and SanDisk are cutting the prices on their micro SD cards on Amazon.com. These micro SD cards offer fast read and write speeds and full size SD card adapters in the box -- not to mention these prices are super low._x000D_
-From Samsung, the 64GB model is 43% off at just $12.99, while the 128GB is $21.23 and 256GB is $47.99. These get up to 100Mbps of read speeds and up to 90Mbps of write speeds. This is quite fast for external storage and should mean almost no lag time. And if you're the outdoors type, these SD cards can handle water and extreme temperatures and are safe to go through X-ray machines. _x000D_
-SanDisk is offering its massive 400GB micro SD card for just $79.89. The 32GB card is just $7.41 and the 64GB goes for $11.85. These also get 100Mbps transfer speeds for a fast experience. SanDisk offers a 10-year limited manufacturer's warranty on all these cards._x000D_
-These deals won't last forever, so act fast on the chance to get storage for cheap._x000D_
-Samsung 64GB micro SD EVO select memory card ($12.99, originally $22.99; amazon.com) _x000D_
-Samsung 128GB micro SD EVO select memory card ($21.23, originally $24.99; amazon.com)_x000D_
-Samsung 256GB micro SD EVO select memory card ($47.99, originally $119.99; amazon.com)_x000D_
-SanDisk Ultra 32GB micro SD card with adapter ($7.41, originally $14.99; amazon.com)_x000D_
-SanDisk Ultra 64GB micro SD card with adapter ($11.85, originally $24.99; amazon.com)_x000D_
-SanDisk Ultra 400GB micro SD card with adapter ($79.89, originally $104.98; amazon.com)_x000D_
-Note: The prices above reflect the retailer's listed prices at the time of publication.</t>
-  </si>
-  <si>
-    <t>Walmart Inc. is big in almost every way — 4,755 stores, 1.5 million employees and US$380 billion in revenue in the U.S. alone. But one part of the world’s largest retailer remains minuscule._x000D_
-“We have a tiny ad business,” Chief Executive Officer Doug McMillon told investors in October. “It could be bigger.”_x000D_
-With about 300 million shoppers visiting its stores each month, according to Forrester Research, and millions more on its websites, Walmart draws in more people than Google, Facebook or Amazon. That audience, and the purchase data they generate, are catnip for big advertisers like Coca-Cola Co. and Kraft Heinz Co. But Walmart and other retailers historically haven’t done enough to convert that data into dollars, particularly online._x000D_
-Having watched Amazon.com Inc. build a massive advertising business, brick and mortar stores are looking to do the same. Walmart, Target Corp. and grocery chains Kroger Co. and Ahold Delhaize are quietly courting big brands with a sales pitch that goes something like this: Facebook might know what your customers like, and Google might know what they want, but only we know what they actually buy._x000D_
-“They have a nice story to tell advertisers,” says David Tiltman, head of content at WARC, an advertising analysis firm. “What we see now is a more sophisticated approach to ad sales than retailers have had in the past.”_x000D_
-That push comes at a critical moment, as mainstream retailers are under attack like never before from the likes of Amazon, deep-discount chains and digital upstarts embraced by coveted millennial shoppers. Walmart and others have responded by spending billions to jazz up their own websites and build out such services as home delivery, but those investments crimp earnings. The tailwinds retailers enjoyed last year from tax cuts and brisk consumer demand will dissipate in 2019, and looming Chinese tariffs could muddle the outlook further._x000D_
-All that uncertainty makes alternative revenue streams crucial, especially for grocers, which generate much skimpier margins than, say, fashion or luxury retailers. Kroger wants to generate US$400 million in additional profit by 2020, with some of that coming from a new marketing unit that places web ads for the likes of Unilever and General Mills Inc. Target’s in-house media network has hundreds of clients, including Oreo cookiemaker Mondelez International. Walmart has hired executives from NBC Universal and CBS to help boost its advertising business._x000D_
-Amazon remains dominant in the online market, but Wal-Mart is spending billions to catch up and its paying off._x000D_
-The potential is vast: Last year U.S. ad sales hit a record US$208 billion, according to researcher Magna, and for the first time ever 50 per cent of that spending was online. Facebook and Google combined gobble up more than half of those digital dollars, according to data tracker eMarketer, while Amazon gets only 5.5 per cent._x000D_
-That’s an opportunity for retailers, which already have long-standing relationships with the big consumer brands that quietly pay them millions every year for prime shelf space. Those brands are also shifting marketing dollars away from traditional ad agencies, showcased by last week’s surprise sales decline from French ad giant Publicis Groupe SA. But Walmart and its ilk will have to move fast: Amazon’s ad business doubled in size last year, and 97 per cent of brands that advertise on Amazon find it valuable, according to a survey by Feedvisor, which sells advertising and pricing software used by Amazon sellers._x000D_
-Retailers have tried to capitalize on advertising before. About 20 years ago, Walmart unveiled its own in-store television network that showed product ads, movie trailers and music videos. By 2004, Walmart TV had 180 million monthly viewers, but the advent of digital media upended its channel in the same way it disrupted traditional networks._x000D_
-Amazon.com Inc. is locked in a margin-crushing price war with Walmart.Canadian Press_x000D_
-Now, retailers are pairing data harvested from purchases and loyalty with analytical tools that promise advertisers bigger bang for their buck. Take Coca-Cola, which is running two campaigns right now with Peapod Digital Labs, a new entity formed by Stop &amp;amp; Shop owner Ahold Delhaize last year to boost its online growth._x000D_
-Before, Coke would have worked with a digital media company that relies on third-party data “which would get us close to the pin, but not close enough,” says Jim D’Isidoro, director of shopper marketing for Coca-Cola North America. Now, with Ahold’s data, he knows whether the ad translated into a sale among the customers he targeted.”It’s always been elusive to tease out the impact of the digital media we’ve run,” he says. With Ahold, “we will have a better idea of what our return on investment is, and that gives us encouragement to invest more.”_x000D_
-The path forward for many retailers will depend on creativity and realizing profits in other ways_x000D_
-UBS analyst Michael Lasser_x000D_
-Coke’s not alone. “Many consumer product companies are looking at their marketing spending and thinking the retailers’ ecosystem might be a better place to spend it,” says Bryan Gildenberg, chief knowledge officer at Kantar Consulting. Those in-house media networks will become a vital piece of retailers’ business models, Forrester predicts, as they lure clients away from established ad agencies._x000D_
-If that sounds far-fetched, consider Alibaba. The Chinese e-commerce giant already generates more than 60 per cent of its revenue from advertising and last year acquired a stake in a digital ad firm. “The path forward for many retailers will depend on creativity and realizing profits in other ways,” UBS analyst Michael Lasser says._x000D_
-As they pursue that path, Amazon’s ad network will continue to blossom, however. Executives at the online giant ominously said in January that they see potential for advertising not only on Amazon’s sites “but also potentially beyond,” meaning across the entire web, in Whole Foods Market stores, and even on their ubiquitous delivery boxes. For traditional retailers, advertising is yet another front in their battle with the online giant._x000D_
-“In an Amazon world,” says Tory Gundelach, a former Target and Kroger exec who’s now at Kantar Consulting, “retailers have to make money beyond just selling products.”_x000D_
-Bloomberg.com</t>
-  </si>
-  <si>
-    <t>Why you'll love it: The semi-automatic Breville BES870XL Barista Express Espresso Machine makes top-notch espresso and it includes a burr grinder, tamper, and frothing pitcher. _x000D_
- Most espresso machines don't come with everything you need, so you end up buying a bunch of accessories to actually make your coffee. Not so with the Breville BES870XL Barista Express Espresso Machine. _x000D_
- It comes with a stainless steel conical burr grinder, a 1/2 pound sealed bean hopper, a 54mm tamper, a steaming wand for frothing your milk, and a frothing pitcher. The only thing you need to buy is the espresso beans. The user manual is very detailed, so you should be able to follow its instructions without too much trouble. _x000D_
- Based on our testing, learning how to use the machine is well worth the effort, and the result is absolutely beautiful tasting coffee. It's actually really easy to use, and you'll have the process down after two or three attempts. _x000D_
- The Barista Express espresso machine uses a 15 Bar Italian Pump and a 1600W Thermocoil heating system to make rich espresso. Since it's a semi-automatic machine, the Breville automatically adjusts water temperature after steam to extract the most flavor out of your beans. The machine also has a 67 fl.oz (2L) water tank with a nice handle for easy removal, and it comes with a replaceable water filter. _x000D_
- The built-in burr grinder is high quality, and you can easily adjust the grind size and amount with a dial on the front of the machine. You can choose to use either a single- or double-wall filter basket, and the grinder will automatically adjust to give you the right about of coffee grounds for your brew. Reviewers love that it comes with the grinder and praise its quality. _x000D_
- If you push the 54mm stainless steel portafilter into the hands-free grinding cradle, the grounds will go right into the filter. The grinder shuts off when it's done, too, so you don't have to worry about figuring out if you've got the right amount. Finally, the included 54mm tamper ensures that your grounds are evenly pressed, so you get the most out of your beans. _x000D_
- When it comes to deciding how much espresso you want to make, you can choose between two presets for 1 and 2 cup volumes. Alternatively, you can manually override the settings and choose your own amount of espresso. _x000D_
- The Thermocoil heating system controls the water temperature, and you can watch the espresso machine's pressure gauge. If you want frothy milk on top of your espresso, you can use the 360-degree swivel steam wand to whip up some foam in the included milk pitcher. _x000D_
- A removable drip tray catches any excess, so you don't end up with a huge mess on your hands. You do have to clean that part every day. Breville's machine will also tell you when it needs a thorough cleaning, and it comes with a special cleaning kit. Follow Breville's very detailed care and maintenance guide to keep your machine in working order. _x000D_
- The machine comes with a one-year warranty in case of issues. User reviews on Amazon are very positive, and most people had a very easy time making high-end espresso with the machine. _x000D_
- Across the web, expert reviewers from Best Products, Digital Trends, Coffee Lounge, Coffee Maker Picks, and Espresso Perfecto all highly recommend this machine. _x000D_
- If you're inexperienced, it's a good machine to learn with, and if you're interested in fiddling around with settings, you can do that, too. It's an all-around great espresso machine, according to several reviews by experts and everyday users. _x000D_
- The best part about this machine is that it comes with everything you need (except the beans). You don't have to spend an extra $100+ on a good grinder or $25-$100 on a milk frothing pitcher and tamper. You will pay a bit more for it than other machines on this list, but it's well worth it — especially now that this machine costs $559.94 instead of $999.99. _x000D_
-Pros: Built-in burr grinder and frother, makes great crema on your espresso, it's relatively easy to use, lovely design, and a one-year warranty _x000D_
-Cons: Expensive, but it's on sale!</t>
-  </si>
-  <si>
-    <t>The biggest play of Super Bowl 53 was made possible by Patriots backup QB Brian Hoyer. The play was actually made by Stephon Gilmore, who corralled a duck from Jared Goff for an interception that all but wrapped up a 13-3 win for the Patriots._x000D_
-But, if not for Hoyer, New England defensive coordinator Brian Flores may have never called the blitz that forced Goff to just throw it up for grabs and Gilmore may have never used the technique that helped him make the play._x000D_
-The MMQB’s Albert Breer explained how Hoyer’s experience with Sean McVay’s offense (and his streaming subscriptions) helped the Patriots defense make the game-changing play._x000D_
-Hoyer began his career in New England, but he got his first shot as a starter in Cleveland. In 2014, his second year there, he started 11 games for coordinator Kyle Shanahan, then played for Shanahan again in San Francisco in 17. Rams coach Sean McVay coached tight ends for Mike and Kyle Shanahan in Washington from 2010-13, which led Hoyer to believe hed have some institutional knowledge of McVays offense._x000D_
-Before the Super Bowl, he watched an episode of Peyton Mannings Detail series on ESPN-Plus on Goff, and it hit him right awaythe offense is the same. Looking at the Rams tape confirmed it. … Then, Hoyer went back to Amazons All or Nothing series on the Rams; it was about the 2016 season but had footage of OTAs from McVays first spring there. Hoyer recognized the language._x000D_
-Having played in the McVay/Shanahan system, Hoyer knew all the dirty little secrets of the offense, including its fatal flaw…_x000D_
-Having played in that offense, they dont have an answer for all-out pressure, Hoyer says. Their answer is for the quarterback to make a play._x000D_
-Hoyer’s contribution did not end there. While acting as the scout-team QB, he gave the New England secondary a tip regarding those all-out pressures that would lead directly to Gilmore’s interception._x000D_
-We were all up there [showing an all-out blitz]the way everyones been seeing us, moving around, Devin [McCourty] says. And Hoyer said, If Im the quarterback, Im just going to catch the ball and throw it deepall of you are close, so Im throwing it deep. Sure enough, that week, we started seeing it more. Kansas City did it. Green Bay hit us with it._x000D_
-The adjustment, as Jason explained it, was for those in coverage, at the snap, to play off and read the quarterback._x000D_
-Fast-forward to the fourth quarter of Super Bowl 53. The Patriots dial up the type of all-out blitz that Hoyer said would give the Rams problems. Gilmore, at the bottom of the screen, is playing off coverage with his eyes fixed on Goff right from the snap._x000D_
-Goff’s reacted to the pressure by just lobbing up a backfoot throw. Gilmore saw it all the way and made one of the easier interceptions of his career. He can thank Hoyer for that._x000D_
-You can read Breer’s entire piece over at The MMQB. _x000D_
-NFL power rankings heading into the offseason: It's the Patriots then everybody else_x000D_
-How Bill Belichick outclassed the NFL's latest genius in Super Bowl 53_x000D_
-The Grammys need to stop bringing out athletes as presenters_x000D_
-The last thing football needs is for its new league to celebrate old violence</t>
-  </si>
-  <si>
-    <t>Former Snap chief strategy officer Imran Khan's new e-commerce company has a name, Verishop, the startup announced in a Medium post Monday. _x000D_
- The new venture is "a new kind of online-shopping company," and its aim is to "create an online retailer that better serves both customers and brands." _x000D_
- Khan is trying to build an alternative to Amazon or Jet for brands to sell their goods, with a focus on particular product categories, Recode has reported._x000D_
- E-commerce has made shopping more efficient, but in doing so, has "lost much of the joy" of discovery, according to the post. Verishop hopes to bring that joy back to online shopping, at scale and with the ease of online purchasing and fast delivery that consumers have come to expect. _x000D_
- The company also seeks to elevate brands' identities while helping them reach millennial shoppers. Verishop claims it will not ask brands to pay for better placement or leave brands to battle unvetted third-party sellers and counterfeit products, as other e-commerce platforms do. _x000D_
- Verishop has signed partnerships with a number of brands already, Business Insider has learned, including beauty brands Ursa Major and Indie Lee, home goods brands such as Primary Goods and Indego Africa and fashion brands including IRO and Finders Keepers. _x000D_
- In addition to Imran Khan, Verishop's leadership includes his wife, co-founder and chief strategy officer Cate Khan, who spent eight years at Amazon, where she was most recently SVP of retail for the Quidsi business. _x000D_
- The startup also recently hired talent agent Paul Cazers as its vice president of strategic partnerships, as Business Insider first reported, and named Mark Schwartz, Goldman Sachs' former Asia-Pacific chairman and a WeWork board member, to its board. _x000D_
- Other recent hires include Jason Bosco, Dollar Shave Club's vice president of engineering, who was tapped in November to run engineering. The startup's headcount is about 20. _x000D_
- Khan sees social-media influencers, in addition to Google, as being an important source of traffic to the platform. Cazers' role will be to build partnerships with influencers and brands, including direct-to-consumer ones, a source familiar with the plans told Business Insider last week. _x000D_
-Read More: Snap's former chief strategy officer, Imran Khan, makes a key hire for his online-shopping startup_x000D_
- Khan raised $17.5 million for the startup, with Lightspeed Venture Partners as the lead investor, in November.</t>
-  </si>
-  <si>
-    <t>Breaking into the housing market can be difficult, especially for beginners. But in some places it's more possible, and less stressful, than others. _x000D_
-div &amp;gt; div.group &amp;gt; p:first-child"&amp;gt;_x000D_
-A recent LendingTree study identified the best cities for first-time homebuyers, where down payments are typically lower and mortgages can be easier to secure._x000D_
-The study ranked the 50 largest metropolitan areas in the U.S., taking into account six factors: average down payment amount, average down payment percentage, number of buyers using an FHA mortgage, how much buyers are saving by using FHA loans, percentage of buyers with low credit scores and percentage of homes that are affordable for middle-income buyers._x000D_
-Majority of the top cities are clustered in the Midwest, including Detroit, Michigan, and Columbus, Ohio. That's mostly due to the fact that the region is relatively affordable, says Tendayi Kapfidze, chief economist at LendingTree._x000D_
-"First-time buyers are at a disadvantage to buyers who currently own a home as first-timers have no equity to assist with the down payment," he tells CNBC Make It. "Thus, lower priced areas, such as those in the Midwest, that require a smaller down payment in dollar terms afford first-time buyers more opportunity."</t>
+    <t>The potential loss of the Amazon headquarters would be more akin to a longterm disaster During the 20th century the city lost its two main economic underpinnings its manufacturing base and its role as the busiest seaport on earth In 1955 for example about a million people worked in New York Citys factories and in its crowded harbor tramp steamers ocean liners and tugboats struggled to avoid one another New York was the leading industrial city in the worldAnd yet by 1980 a quartercentury later the major job centers in the five boroughs had essentially collapsed In 1900 New York had 90 breweries and was the beer capital of the nation But by 1976 the last brewery in the city was gone and Milwaukee and St Louis were competing for beer supremacy Similarly in 1950 New Yorks 300000 textile workers made most of the womens clothes sold in the United States The city had no serious rival But by 2017 only about 20000 such workers remained New Yorks job losses were not only bluecollar During the 1970s the city experienced an exodus of Fortune 500 corporations Dozens of them moved their headquarters and took their executives with them Some went to suburbs in Connecticut and New Jersey but many more decamped for Atlanta Dallas or Houston The impact on the city was dramatic Not only did workers laid off from those companies lose their jobs but their spouses and children suffered as well Many of them as demographic statistics reveal had to move to other states to make a living Their departure was hidden by the fact that they were often replaced by millions of newcomers from other countries but those immigrants could not immediately compensate for all those lost jobsThe region now faces a calamity almost as bad as anything that has happened in the past The loss of Amazon would cost 25000 jobs directly and those workers would support up to 82000 more indirect jobs The subsidies New York has offered to Amazon would have been given to any company promising so many jobs And Amazon is expected to pay more than 27 billion in taxes over the next 25 years Amazon will also build four million square feet of office space in Queens providing billions more in construction spending More important a new Amazon headquarters on the East River would signal that the future of this metropolis is as great as its past</t>
+  </si>
+  <si>
+    <t>The Insider Picks team writes about stuff we think youll like Business Insider has affiliate partnerships so we get a share of the revenue from your purchase Since you dont have all day to scour the web for noteworthy sales and discounts we rounded up the best bargains for you to shop in one convenient place For even more deals and savings across the web check out our coupons page Groupon Valentines Day is only two days away and if you dont already have plans set in place youll want to figure that out today Groupon can help you celebrate love however youd like with deals on couples massages dinners chocolate covered strawberries and more Simply use the promo code SAVE at checkout to get up to 25 off Keep in mind that most Groupons are activated and available for use 24 hours after purchase so if you want to use it on Valentines Day buy it now For more deals and coupons on Groupon check out our coupons page here Amazon Compared to the Note 8 the new Samsung Galaxy Note 9 has a longerlasting battery twice as much storage space and faster speeds for streaming Right now you can buy the unlocked phone on Amazon in three colors and two storage sizes As an added bonus for Deal of the Day youll receive a free 105inch Samsung Galaxy Tab A Tablet with your purchase Pluto Everyone has a different definition of comfort which is why Pluto Pillow makes custom pillows to suit your needs Rather than going through the trial and error process with other pillow brands Pluto personalizes your pillow with data collected from a short quiz about your comfort preferences From now until February 18 you can save 10 on a custom Pluto Pillow by using the promo code PRES10 at checkout One Insider Picks reporter tested the Pluto Pillow and found it to be much better than the pillows from other mattress startups shes tried You can read her full review hereSarah Flint Founded in 2013 Sarah Flint quickly found its way into highend stores and became a top favorite among many celebrities Now through February 20 you can automatically save 30 on select styles Sarah Flint only goes on sale twice a year so if youre interested in buying a stylish pair of shoes for yourself or as a gift now is one of your only chances to save One Insider Picks reporter reviewed the Emma heels and was happy with the overall quality Read her full review here REI You probably have all the winter gear you need for the rest season already but REI is having a sale so big you wont want to pass it up To making room for new spring styles the brand is selling outdoor winter gear and apparel for up to 50 off The sale includes clothing outerwear footwear essential camping gear and more Whether you actually do need something for this current season or youre planning to hold it for next winter the deals are worth shopping Brooklyn Bedding Buying a mattress in the store and figuring out how to get it home is not fun Luckily online mattress startup Brooklyn Bedding makes getting a new bed easier than ever  and its surprisingly affordable Today only you can save 20 on any mattress by using the promo code WINTER20 at checkout With a 120night sleep trial and free returns on all of its mattresses youll never get stuck with a bed you dont love Cole Haan In a market where hundreds of footwear brands are vying for your attention Cole Haan has claimed its place at the top by creating goodlooking shoes you actually want to wear without sacrificing comfort They can sometimes be a bit pricey but now through February 15 you can save an extra 40 on sale styles by using the promo code EXTRA40 at checkout In addition to shoes for men and women the sale also includes outerwear bags and other accessories Leesa If youve been putting off buying a new mattress for a while this Presidents Day is the time to buy one Popular online mattress startup Leesa is having an impressive sale with 15 off mattresses The deal takes 160 off the original Leesa mattress and 210 off the newer Sapira Hybrid mattress Regardless of which mattress you choose youll also receive two free pillows valued at 75 each</t>
+  </si>
+  <si>
+    <t>Feb 12 2019 523 PM GMTIts poetically fitting that Sandra Cisneros the Chicana literary trailblazer and bestselling novelist plans to donate the cash prize that comes with winning this years International PENNabokov Award to her assistants so they can buy a homeHome in the physical and metaphorical sense has been a central theme for Cisneros since her literary debut in 1980With money and fame comes responsibility and the amount is exactly what they need she said in a phone interview from her home in San Miguel de Allende the stunning colonial city in central Mexico where she has lived since 2013 Theyve been looking for loans and the interest in Mexico is 39 percent I cant describe how happy it makes me to be able to do this for themFor Cisneros the nature of her success has always been steeped in generosityI believe that there is a law in the universe that all the work we do is in service to those we love and its always going to bring us better rewards and fortune It puts us in a state of grace when you are in service to your community she saidCisneros born in Chicago in 1954 to Mexican immigrants is a writeractivist who came of age in 1970sera of Black Power and the Chicano civil rights movement She says she writes out of a sense of urgency because the world we live in is a house on fire and the people we love are burning Writing for her is not just a political act but also a spiritual oneHer 1984 novel The House on Mango Street catapulted Cisneros to national acclaim The book which she has described as a necklace of stories of workingclass MexicanAmerican girls has sold over 6 million copies been translated into 20 languages and is required reading in many high schools and universitiesThe idea of writing a bestseller was not on my mind when I wrote The House on Mango Street she said I wrote it to stop the swelling in my heart from the stories that I was hearing and witnessingCisneros made her literary debut in 1980 with Bad Boys a book of poems published by Lorna Dee Cervantes and Gary Soto as part of their Chicano Chapbook Series The book is now considered a collectors item selling for thousands of dollarsI used to sell that book for a dollar a copy out my backpack while I was still studying for my MFA she recalls I never thought Id make money writingShe says she doesnt own a copy of the book which is basically pages stapled together but her brother does He has it locked up with a key in a safe somewhere It will probably help pay for my nephews tuition she laughsWhile she now makes a living with her pen it was not always so easy for her or her LatinoChicano contemporariesAuthor Sandra Cisneros is presented with the National Medal of Arts during an East Room ceremony at the White House on Sept 22 2016Alex Wong  Getty Images fileLatino writers were not being published by the mainstream press so we had to publish ourselves she says of the 1980s I feel its our responsibility to support young Latino and Latina writers who are probably being discouraged by their families not to write and who are not being published by the big presses Also not all the good writers get attention and win awards so I feel I need to give backThe New York Times Book Review has said that Cisneros is not only a gifted writer but an absolutely essential one Her books include a 1987 collection of poetry My Wicked Wicked Ways a 1991 shortstory collection Woman Hollering Creek and other stories followed by Loose Woman Poems and in 2002 the novel CarameloIn 2015 she published a memoir A House of My Own Stories from My Life which she said she completed after moving to her familys ancestral Mexico after living in San Antonio for 30 yearsCisneros also writes childrens books and authored an illustrated book for adults Have You Seen Marie which is currently being produced for the stageIm just barely getting startedPast PEN winners include Phillip Roth Mario Vargas Llosa and Edna OBrien In naming Cisneros as this years winner the judges the authors Alexander Chee Edwidge Danticat and Valeria Luiselli wrote that Cisneros brings us astounding and lyrical voices from burning maligned devastated as well as reassembled houses and nationsIts hard to imagine navigating our world today without her stories and her voice guiding us toward much needed reclamation and endurance they wroteCisneros admits she was surprised by the award because it feels prematureAt 64 I am just barely getting started and I say that in all sincerity Cisneros said If its about a lifetime award I feel like I am not done with my lifes work Ive had such great teachers whom she calls her literary ancestorsI am never going to fill their chancletas or sandals she said I have a long way to goIt reminded her of a quote by the Japanese printmaker Hokusai one of her muses who said at 77 that if he could have five more years only then could he call himself an artistMoving to Mexico after living in Texas for three decades continues to transform her art and inform her inner life She describes her time in Mexico as being in a state of joy where she is constantly daydreaming Life in the quaint town surrounded by mountains is quiet with little to no distractionsI am less afraid to say that I listen to the spirits who talk to me I am exploring my spirituality because every piece of art is a spiritual act she saidCisneros is also dipping into other forms of artistic expression Her latest work Puro Amor is a small book of her illustrationsI am exploring and going in directions that I wanted to go all my life I am not where I want to be she said I have seen what I would like to do and I have a long way to goCisneros is collaborating with the composer Derek Bermel for an opera based on The House on Mango Street Mango Suite is set to premiere at Princeton in MayShe is working with the Santa Febased textile designer Nancy Traugott on a series of texts and textiles called Trapitos rags and is collaborating with Jose Rubn de Len who is adapting Have You Seen Marie for the theater Cisneros is thrilled to be making her acting debut by playing the character of the river when the production previews this summer in TexasLast year Cisneros received a Ford Foundation Art of Change fellowship and recently completed more than 50 oral histories of undocumented people a chorus of voices that she hopes will be adapted for the stage She is presently working on an essay about the Academy Awardnominated film Roma told from the gaze of domestic workersIts not that I am consciously doing this art its organic and I am just learning she said This is the path I am onCisneros will receive the PEN award on Feb 26 in New York The comedian Hari Kondabulo will host the eventFOLLOW NBC LATINO ON FACEBOOK TWITTER AND INSTAGRAMSandra Guzman is an Emmyaward winning journalist and author She has written for the New York Post New York Daily News Glamour Womans Day and was editor of Latina and heart amp soul magazines Her work has appeared on HBO PBS CNN and Univision Follow her on Twitter at sandrasepigram</t>
+  </si>
+  <si>
+    <t>BRUSSELS Reuters  Europes secondhighest court will rule on Thursday whether a Belgian tax break which benefited some 35 large companies is illegal state aid a judgment which could provide clues to other tax cases involving Apple Starbucks and Fiat Chrysler As part of its crackdown on tax avoidance the European Commission three years ago ordered Belgium to recover some 700 million euros 790 million from the group saying the companies excess profit tax plan gave them an unfair advantage visavis smaller firms The scheme allowed the companies to claim deductions for economies of scale reducing their corporate tax base by 5090 percent Dutch industrial company Magnetrol and Belgium subsequently challenged the Commissions decision at the Luxembourgbased General Court The largest beneficiaries were Wabco Cellio BP BASF Atlas Copco and Belgacom Judges may also rule whether it qualifies as a scheme or are just individual tax rulings The tax avoidance drive has included orders to Ireland to recover some 13 billion euros from iPhone maker Apple and Luxembourg to claw back up to 30 million euros from Fiat Chrysler 250 million euros from Amazon and about 120 million euros from Engie The Netherlands has to recover between 2030 million euros from Starbucks All the major companies have challenged the EU rulings At stake is whether the Commission is overstretching its powers by using its state aid tool to address tax fairness concerns The United States has criticised the cases against US companies and notably in the Apple ruling it has accused the EU of grabbing revenue intended for US coffers The cases are T13116 Belgium v Commission and T26316 Magnetrol International v Commission 1  08857 euros Reporting by Foo Yun Chee editing by David Evans</t>
+  </si>
+  <si>
+    <t>Amazon which has disrupted a host of industries and garnered controversy with its facial recognition software is now causing problems for recycling centersThe online retail behemoth has reportedly been reducing the portion of shipments it puts in cardboard boxes in favor of lighter plastic mailers over the past year which allows it to pack more packages into trucks and planesHowever according to a Washington Post report environmental activists and waste experts have said the plastic mailers are having a negative effectThat Amazon packaging suffers from the same problems as plastic bags which are not sortable in our recycling system and get caught in the machinery Lisa Sepanski project manager for King County Solid Waste Division which oversees recycling in King County Wash where Amazon is based told the Post It takes labor to cut them out They have to stop the machineryTINDER GRINDR AND OTHER APPS FAILED TO PROTECT CHILDREN FROM SEXUAL EXPLOITATION REPORT CHARGESAmazon now accounts for about half of all ecommerce in the United States according to 2018 analysis by research firm eMarketer so its the primary source of the plasticcontainers Other companies including Target also use themThe plastic mailers are responsible for several problems the Post added In general they should be recycled separately but if they do end up in the normal recycling stream they prevent larger bundles of materials from being recycled by gumming up the system the report saidWaste experts consulted by the publication noted that plastic can be better for the environment since they take up less space thereby making shipping more efficient Fewer greenhouse gases are emitted in the productionand use of plastic film a senior environmental policy analyst told the PostBILL GATES SLAMS OCASIOCORTEZ SAYS HER TAX POLICY IS MISSING THE PICTURESince the plastic mailers also have paper address labels affixed to them that creates a separate issue since the label must be removed before the mailer can be recycledwith other plasticWe are continually working to improve our packaging and recycling options and have reduced packaging waste by more than 20 percent globally in 2018 an Amazon spokesperson told the PostFox News has reached out to Amazon for further comment on this story</t>
+  </si>
+  <si>
+    <t>Since 1929 the Academy Awards ceremony has been the biggest night in Hollywood But do you really care anymore  It feels like the Oscars are at a dire crossroads from the telecasts sagging ratings to its lack of diversity  which was pushed frontandcenter by OscarsSoWhite in 2015  to this years hosting drama and the stripping of categories from the live broadcast  But some within Hollywood believe their big night has been on life support for some time  Business Insider spoke to past Oscar show producers Academy voters and award show pundits to learn about the numerous attempts over the last two decades to make the Oscars telecast more modern Despite these attempts the show always seems to revert back to its more traditional form and many in the industry think thats a terrible trend  The show needs to change Bill Mechanic an Oscarnominated producer who resigned from the Academy of Motion Picture Arts and Sciences board of governors last year told Business Insider But not in a way that its watered down in terms of its artistic measurement in fact that should be preserved  Here we investigate what has gone wrong with the Academy Awards and what needs to be fixed  Where new ideas go to die  The last time the Oscars didnt have a host was in 1989 and that year will forever be known for having the worst opening in the shows history an 11 minuteplus musical number that followed Snow White as she navigated through different eras of Hollywood and all its glamour It ended with her doing a duet with  wait for it  Rob Lowe  The backlash was immediate including Disney suing the Academy for using the likeness of Snow White and changed the course of the Oscar show forever A review committee was formed to audit the show from top to bottom leading to former DGA president Gil Cates producing the show the following year He brought on Billy Crystal to host which led to the Oscars golden years Gates who died in 2011 produced the show a record 14 times including the 70th Academy Awards in 1998 when Titanic won best picture and the show was seen by over 57 million viewers the most watched in history Rob Lowe and actress Eileen Bowman as Snow White performing a song during the opening of the 61st Academy Awards in 1989 marking the last time there has been no Oscar host AP Everything surrounding the 2019 Oscars makes it feel like the show is facing another moment when change is needed But it cant seem to get out of its own way  Following the recordlow ratings of last years show the Academys attempt to rebound has been crippled by bad publicity  When word hit in August that a popular movie category at the Oscars was being considered the outrage came from both the public and the industry Then in early December Kevin Hart walked away from hosting this years show following an uproar over his past homophobic remarks leaving the evening without a host That was followed by a shortlived attempt to control the shows run time by cutting out some of the performances from the best song nominees and a new plan announced Monday to give out some technical awards during commercial breaks  The relegation of some awards to commercial breaks has angered many in Hollywood  To be at the show and your award not to be worthy I think its somewhat insulting Lili Fini Zanuck who produced the 72nd Oscars in 2000 with her husband Richard D Zanuck the two produced best picture winner Driving Miss Daisy told Business Insider regarding the decision to not televise live all 24 award categories  This kind of erratic maneuvering by the Academy is exactly the reason Bill Mechanic resigned from its board of governors last year  In a strongly worded farewell letter that Variety got its hands on Mechanic  a former Fox executive producer of the 82nd Oscars in 2010 and producer of bestpicture nominee Hacksaw Ridge  said they had failed to move the Oscars into the modern age He said the show was long and boring and that over the past decade the Academy had nominated so many smaller independent films that the Oscars feel like they should be handed out in a tent Kevin Hart was named host of the 91st Academy Awards but backed out followed backlash from homophobic tweets and standup material Kevin WinterGetty All my criticisms of when I quit the board are still valid Mechanic told Business Insider recently The simplest thing about the Academy which is what got me riled up is you have the best artists working period and that the membership is not being used to the degree that it should be is to me wrong  Every idea should be considered  And ideas to make the ceremony more appealing to watch are brought up every year they usually just dont stick  Several former Oscar show producers told Business Insider that suggestions for something like a popular Oscar category or limiting the number of awards presented during the live telecast arent new They have been kicked around within the Academy for over a decade But the fact that those ideas are now at the point of serious consideration shows the severity of the situation the telecast is in  Zanuck recalled the effort to make the show look modern in the year she and her husband were at the controls in 2000  I felt that it was a television show and the live audience was somewhat irrelevant because they were there mostly as nominees she said What I wanted to do was make it a broadcast And to do that you had to look at these other shows that were working at the time like the MTV Movie Awards and Video Awards They werent only interesting but had a speed and a pacing to them Garth Brooks performing in front of a giant screens at the 72nd Academy Awards in 2000 AP So the Zanucks ditched the old Hollywood sets of previous Oscars and dressed the stage with 35foot columns consisting of HD monitors stacked atop each other Throughout the night the screens would show clips from previous Oscar shows as the presenters took the stage And instead of a live orchestra playing music through the show the Zanucks had a pop music score They also gave the viewers at home a deeper look inside the show by cutting to shots of what was going on backstage  It seemed to work  The show hosted by Crystal took in close to 47 million viewers a bump from the 46 million that watched it the year before when Shakespeare in Love shocked the world and won best picture over Saving Private Ryan In fact it was the highestrated show in this millennium The Zanucks seemed to have updated the show in a way that still celebrated its history but was more engaging for viewers watching at home  But outside of the brief shots of the backstage many of the things done at the 72nd Oscars were not used again  They needed to continue to build on this idea I had that its a TV show Zanuck said After we did our year they went back to old sets something from the 1920s that was just taking you somewhere you had already been The fact that it became old fashioned again didnt help There was no freshness to it  Mechanic said he had his own popular Oscar idea the year he and producerdirector Adam Shankman What Men Want did the Oscars in 2010 He wanted to have a selection of movies nominated for a viewers choice Oscar People at home would vote during the show But he said it fell on deaf ears  A lot of people in the Academy dont want to change anything and I think they are wrong not from a purist standpoint but from an entertainment standpoint Mechanic said Yutong YuanBusiness Insider No host is the best thing that could have happened Since the Academy is so resistant to change the Oscars not having a host might be great for this years telecast since it forces everyone involved to get out of their comfort zone  If you book presenters properly and they are big enough stars you dont need a host said Jeff Margolis who directed the Oscars telecast eight times many of them in the shows glory days alongside Cates  And Margolis knows a little something about doing the show without a host The first ever Oscars he directed was in 1989 the last time the show didnt have one Though that show was infamous because of the Snow White opening Margolis believes what Allan Carr that years producer did right was booking interesting presenters  Allan called it couples companions and compadres Margolis said about how they put together the presenters And it really worked  The show featured presenters ranging from hot it couples of the time Don Johnson and Melanie Griffith to legendary duos from the movies Vertigo stars Jimmy Stewart and Kim Novak  Shankman who produced the 82nd Oscars with Mechanic pulled off the rare twopersonhosted show with Steve Martin and Alec Baldwin the show was one of the highestrated in the last decade But his favorite moment didnt involve the hosts  My year we had Robert Downey Jr and Tina Fey present original screenplay and I could have watched them all night they werent the hosts he said Tina Fey and Robert Downey Jr with Zero Dark Thirty screenwriter Mark Boal center after presenting him with the best original screenplay Oscar at the 82nd Academy Awards in 2010 AP Producers who have done major live TV shows other than the Oscars agreed that the lack of a host isnt a big deal  People dont like a host doing shtick anymore Ron Basile a producer at AEG Ehrlich the production company of veteran Grammys producer Kenneth Ehrlich told Business Insider  And Ian Stewart  who has worked on everything from the 2012 Olympics opening ceremonies to the Victorias Secret Fashion Show  believes in todays world its less about finding the right host and more about crafting viral content that can spread on social media  I certainly have a check list on my productions of what are the 10 viral moments that we would hope to facilitate he said I think its up to us to create those viral moments  Is it time to disrupt the bloated award season  With some changes coming to this years Oscars and some of the biggest blockbusters of the year nominated for best picture Black Panther Bohemian Rhapsody A Star Is Born the telecast could be headed for a rebound year  But even if the 91st Oscars are produced in a way that keeps viewers engaged theres still the issue of the time of year the ceremony takes place which many believe is hurting the show  Since the start of the Oscars almost a century ago many other award shows have sprung up around it Read more The 21 biggest Oscar upsets of all time ranked There are around 14 award ceremonies before the Oscars from the ones televised Golden Globes Screen Actors Guild Critics Choice Awards Independent Spirit Awards to the many more that arent Gotham Awards National Society of Film Critics Awards Producers Guild Directors Guild Screenwriters Guild And because of social media and the horserace coverage of the Oscars leadup many are burnt out by the time the big night arrives  I love movies and Im in the business and Im even tired of seeing Hollywood pat themselves on the back so many times one Academy voter said  Many in the Academy believe the Oscars need to happen earlier The theory to bring viewer intrigue back to the show it should no longer be the final act of award season  The cannibalization of the specialness of the evening is probably in my opinion been the single worst thing for the Oscars Shankman said Yutong Yuan Business InsiderNielsen And this isnt just a recent issue Shankman recalled how obsessed everyone on the team was about every aspect of all the award shows leading up to their Oscars in 2010 so they wouldnt repeat anything that happened previously in an award show  We had a giant board with all the shows that happened before the Oscars he said We were just staring at it and it looked like we were in a bookies office It had flow charts who was walking out and presenting what We were tracking who was showing up at each awards show I looked at Bill and was like How are we going to make this feel special  In the dogeatdog world that is Hollywood many feel the biggest dog needs to own the turf better And it seems the Academy has finally caught on In 2020 the Oscars will air on February 9 marking the earliest the show has ever been presented But some think it should be in January  The problem with doing that is voters will not have had enough of a chance to see the movies and it would essentially be declaring war on all these other shows The Hollywood Reporter award columnist Scott Feinberg said Read more Heres the complete list of the 2019 Oscar nominations They are going to make everybody else fit in a smaller window Gold Derby managing editor Chris Beachum said These nontelevised events they all rely on that evening being a big moneymaker for themselves  selling programs advertisements tables They cant afford to give up that night So now youre going to cause all of these award shows to fit into a much smaller window  Some arent as compassionate about this potential dilemma to award season  The Academy should push everybody out of business in terms of the awards Mechanic said Theres one award that matters and thats the only thing to protect Theres nothing else that matters  ABC has more control of the show than ever before  When it comes to the Oscars theres no way to satisfy everyone  As Margolis put it From the fade up from black to the fade out at the end everybody is looking for something to hate during that show  But despite all the negative reviews posted the following day and complaints that go viral that show is still a huge moneymaker for ABC  The network which in 2016 extended its contract to air the Oscars through 2028 has consistently raised the cost of the ad spots that run during the telecast In 2017 it was 191 million per 30second spot last year it was 2 million and this year 3 million  Its a phenomenon thats going on with all live mustsee TV ratings are sliding but brands still believe its worth being there  If youre a sponsor and youre trying to reach any kind of mass appeal you sort of grab at the platforms that can still do that CNN media critic Brian Lowry said The Oscars is in the same way that sports have an advantage if you are really into the Oscars you dont want to DVR it and watch the next day I wouldnt be surprised to see Netflix Amazon or HBO ponying up for some ads during the Oscars because to launch your new spring shows its going to be one of the last big platforms to reach a lot of people Yutong YuanBusiness Insider But ABC is now doing more than just selling ads  The network is through standing back and letting the Academy have full control of the show which is how it had been for decades One of the stipulations in the 2016 contract extension was that ABC now has more say in key creative aspects of the show The choice of host and producer is now a discussion between ABC and the Academy though the Academy has final say This is why in the last two years youve seen a lot more ABCDisney elements on the show like Jimmy Kimmel hosting and using Disney titles in his stunts  Sources told Business Insider that for years ABC has wanted the show to only be three hours long so coming off a year that had the worst ratings ever its safe to say the network has more leverage than ever when it comes to run time Read more The 15 Oscar bestpicture winners that made the most money at the US box office There is going to come a time when ABC expects the Academy to continue to deliver the product that they thought they were buying Feinberg said So far since that contract was extended I dont think they can be all that pleased by what theyve got The Oscars high water mark James Cameron celebrating his best director win for Titanic at the 70th Academy Awards in 1998 which were seen by over 57 million people AP This has to be said nobody does this show to fail Shankman said Everybody goes in wanting desperately to do the best job that they can and to honor the evening and to honor the people that are involved Even the years that have been lowest in the ratings there have been wonderful parts of the show  But it is hard to balance all the forces at play ratings artistic integrity tradition freshness Often what you end up with is a show that satisfies no one  The show has stopped being what its supposed to be which is a way to acknowledge each other Zanuck said Thats why it started as a dinner No one was worried about what someone in Oklahoma thought When it sounds like you need some gimmick to get people to watch its so desperate and I think in a lot of ways that desperate feeling is whats going to take it all down The show has to get its integrity back Winning an Oscar has got to mean something If it keeps with these gasping for air moves I dont know where it can go  The Academy of Motion Picture Arts and Sciences did not respond to Business Insiders numerous requests to comment for this story</t>
+  </si>
+  <si>
+    <t>SAO PAULO Reuters  Brazilian environmental groups on Tuesday blasted President Jair Bolsonaros environment minister after he dismissed the murdered Amazon rain forest defender Chico Mendes as irrelevant I dont know Chico Mendes Environment Minister Ricardo Salles told journalists on an interview show late Monday night when asked about the famous Brazilian rubber tapper union leader and environmentalist who was murdered in 1988 As environment minister Salles oversees the Instituto Chico Mendes which is named after the environmental advocate and oversees Brazils protected conservation areas Bolsonaro downplayed environmental concerns during his 2018 farright presidential campaign threatening to pull Brazil out of the Paris Agreement on climate change and advocating more mining and economic development in the Amazon rainforest Salles told interviewers on TV show Roda Viva that he hears contradictory accounts about Mendes life saying environmentalists praise his work while local farmers claim he used the rubber tappers to advance his own interests It is irrelevant What difference does it make who Chico Mendes is at the moment Salles said His comments fueled criticism of the administrations stance which environmentalists say is excessively probusiness and farm interests Marina Silva a former environment minister who organized alongside Mendes as a teenager in the state of Acre said Salles is misinformed about the activist Despite the ignorance of Salles Chicos struggle lives on she wrote on Twitter Salles also confirmed that he would travel to the Amazon for the first time on Tuesday His press office could not immediately clarify if it was his first visit as minister or his firstever trip to the region Salles also acknowledged that regulatory shortcomings may have led to the rupture of a dam for mining waste owned by Vale SA which released a wave of mud killing at least 165 people and devastating the Paraobepa river Vale the worlds largest iron ore miner knew last year that the dam had a heightened risk of rupturing according to an internal document seen by Reuters on Monday In 2015 a similar failure of a nearby tailings dam at a mine coowned by Vale also in the state of Minas Gerais killed 19 people and damaged the Rio Doce river The minister said the government has been wasting technical and financial resources on licensing and oversight for all types of projects and pledged to introduce policy changes to address the problem He defended a system whereby environmental licenses for less complex projects are issued faster saying he believes this would free up resources to oversee projects of higher complexity including tailings dams Reporting by Ana Mano Editing by David Gregorio</t>
+  </si>
+  <si>
+    <t>SAO PAULO Reuters  Brazilian environmental groups on Tuesday blasted President Jair Bolsonaros environment minister after he dismissed the murdered Amazon rain forest defender Chico Mendes as irrelevant I dont know Chico Mendes Environment Minister Ricardo Salles told journalists on an interview show late Monday night when asked about the famous Brazilian rubber tapper union leader and environmentalist who was murdered in 1988 As environment minister Salles oversees the Instituto Chico Mendes which is named after the environmental advocate and oversees Brazils protected conservation areas Bolsonaro downplayed environmental concerns during his 2018 farright presidential campaign threatening to pull Brazil out of the Paris Agreement on climate change and advocating more mining and economic development in the Amazon rainforest Salles told interviewers on TV show Roda Viva that he hears contradictory accounts about Mendes life saying environmentalists praise his work while local farmers claim he used the rubber tappers to advance his own interests It is irrelevant What difference does it make who Chico Mendes is at the moment Salles said His comments fuelled criticism of the administrations stance which environmentalists say is excessively probusiness and farm interests Marina Silva a former environment minister who organised alongside Mendes as a teenager in the state of Acre said Salles is misinformed about the activist Despite the ignorance of Salles Chicos struggle lives on she wrote on Twitter Salles also confirmed that he would travel to the Amazon for the first time on Tuesday His press office could not immediately clarify if it was his first visit as minister or his firstever trip to the region Salles also acknowledged that regulatory shortcomings may have led to the rupture of a dam for mining waste owned by Vale SA which released a wave of mud killing at least 165 people and devastating the Paraobepa river Vale the worlds largest iron ore miner knew last year that the dam had a heightened risk of rupturing according to an internal document seen by Reuters on Monday In 2015 a similar failure of a nearby tailings dam at a mine coowned by Vale also in the state of Minas Gerais killed 19 people and damaged the Rio Doce river The minister said the government has been wasting technical and financial resources on licensing and oversight for all types of projects and pledged to introduce policy changes to address the problem He defended a system whereby environmental licenses for less complex projects are issued faster saying he believes this would free up resources to oversee projects of higher complexity including tailings dams Reporting by Ana Mano Editing by David Gregorio</t>
+  </si>
+  <si>
+    <t>Are you an Amazon super fan or simply a Seattle area resident looking for a new homeIf so you could buy the West Bellevue house where in 1994 Jeff Bezos lived and started Amazon The price is 149 million considered a relative bargain for the neighborhoodBezos rented the threebedroom oneandthreequarter bathroom house built in 1954 The attached garage served as the original Amazon headquarters The 1540squarefoot house is on the market for the first time in 10 years The listing calls it a slice of history and gives a future owner the opportunity to own the birthplace of Amazon An affordable singlestory slice of history it is While West Bellevue is the most expensive neighborhood in the region according to The Seattle Times it is below the areas median home price of about 2 million The lower price may also reflect a softening regional real estate market where the number of unsold homes has more than double from last yearNevertheless the houses value has climbed considerably in the years since Bezos lived there The Seattle Times reports that while the house was valued at 135000 in 1994 it was bought for 182000 in 1998 In 2009 when the current owners purchased the house they paid 620000less than half of its current asking priceBut prospective buyers be warned the house will not look identical to how it did when Bezos made it his residence In 2001 the house was reportedly extensively remodeled including installing a new roof and bathroomand the garage was remodeled too However it does have the signature oversized mailbox Bezos installed</t>
   </si>
   <si>
     <t>Heisman Trophy winner Kyler Murray has made his decision: He’s choosing football over baseball._x000D_
@@ -2257,17 +2009,6 @@
 "We wanted to create a central space where all these entrepreneurs from engineering or medicine or business or Scarborough or Mississauga, they could come together to share and work together in a space," Damen said.</t>
   </si>
   <si>
-    <t>T. Rowe Price, formerly Tesla's largest institutional shareholder, cut its stake in half in the fourth quarter, a regulatory filing showed on Monday. _x000D_
- The filing showed that T. Rowe had reduced its stake to 5.2% as of the end of December, down from the 10.12% stake it held in September. Prior to the divestiture, T. Rowe was Tesla's second-largest overall shareholder, trailing only CEO Elon Musk. _x000D_
- The move makes Scottish investing giant Baillie Gifford Tesla's biggest institutional stakeholder. _x000D_
- Tesla investors didn't seem particularly perturbed by the development. The company's stock climbed 3.59% on Monday, trading near $316.77 per share. _x000D_
- T. Rowe's withdrawal of investment could be reflective of broader concerns about the company's ability to self-fund its growth ambitions. On January 30, the tech company reported worse-than-expected profits for the fourth quarter, despite achieving two consecutive profitable quarters for the first time. _x000D_
- And while Tesla swore it would be profitable in "all quarters going forward," Morgan Stanley says the company will still need to raise more external capital. _x000D_
- "We forecast Tesla 1Q19 free cash flow to be negative $600 million driven by a sequential decline in profit and working capital leakage," Adam Jonas, an analyst at Morgan Stanley, said recently. He pushed out his forecast of a $2.5 billion equity capital raise to the third quarter of the year. _x000D_
- Tesla is up 3.1% so far this year. _x000D_
-MI</t>
-  </si>
-  <si>
     <t>Joe Skipper/Reuters_x000D_
 Tesla shareholder T. Rowe Price cut its stake in half in the fourth quarter, a regulatory filing showed on Monday. _x000D_
 As of September, prior to the divestiture, T. Rowe was the automaker's second-largest shareholder, trailing only CEO Elon Musk._x000D_
@@ -2281,6 +2022,17 @@
 And while Tesla swore it would be profitable in "all quarters going forward," Morgan Stanley says the company will still need to raise more external capital._x000D_
 "We forecast Tesla 1Q19 free cash flow to be negative $600 million driven by a sequential decline in profit and working capital leakage," Adam Jonas, an analyst at Morgan Stanley, said recently. He pushed out his forecast of a $2.5 billion equity capital raise to the third quarter of the year._x000D_
 Tesla is up 3.1% so far this year._x000D_
+MI</t>
+  </si>
+  <si>
+    <t>T. Rowe Price, formerly Tesla's largest institutional shareholder, cut its stake in half in the fourth quarter, a regulatory filing showed on Monday. _x000D_
+ The filing showed that T. Rowe had reduced its stake to 5.2% as of the end of December, down from the 10.12% stake it held in September. Prior to the divestiture, T. Rowe was Tesla's second-largest overall shareholder, trailing only CEO Elon Musk. _x000D_
+ The move makes Scottish investing giant Baillie Gifford Tesla's biggest institutional stakeholder. _x000D_
+ Tesla investors didn't seem particularly perturbed by the development. The company's stock climbed 3.59% on Monday, trading near $316.77 per share. _x000D_
+ T. Rowe's withdrawal of investment could be reflective of broader concerns about the company's ability to self-fund its growth ambitions. On January 30, the tech company reported worse-than-expected profits for the fourth quarter, despite achieving two consecutive profitable quarters for the first time. _x000D_
+ And while Tesla swore it would be profitable in "all quarters going forward," Morgan Stanley says the company will still need to raise more external capital. _x000D_
+ "We forecast Tesla 1Q19 free cash flow to be negative $600 million driven by a sequential decline in profit and working capital leakage," Adam Jonas, an analyst at Morgan Stanley, said recently. He pushed out his forecast of a $2.5 billion equity capital raise to the third quarter of the year. _x000D_
+ Tesla is up 3.1% so far this year. _x000D_
 MI</t>
   </si>
   <si>
@@ -2676,8 +2428,6 @@
   <si>
     <t>WASHINGTON (AP) Private investigators working for Jeff Bezos have determined the brother of the Amazon CEO's mistress leaked the couple's intimate text messages to the National Enquirer._x000D_
 That's according to a person familiar with the matter who spoke Monday to The Associated Press. The person wasn't authorized to discuss the matter publicly and spoke to AP on condition of anonymity._x000D_
-The new cost for doing business in Tulsa._x000D_
-For those who care about business and this community, we have a deal for you. Start a digital subscription for only $0.99. Sign up now at tulsaworld.com/subscribe._x000D_
 The Enquirer published a story last month that included racy texts between Bezos and former TV anchor Lauren Sanchez. Bezos said the tabloid later threatened to expose his revealing photos if he didn't have his private investigators back off._x000D_
 The person says those investigators identified Michael Sanchez, a California talent manager, as the person who leaked the texts._x000D_
 Sanchez didn't immediately respond to a message seeking comment on Monday._x000D_
@@ -5190,6 +4940,234 @@
  Whole Foods says it isn't pulling away from that initiative. _x000D_
  "We remain committed to continuing to lower prices with Amazon as we deliver on our mission to make high-quality, natural and organic food more affordable and accessible," a Whole Foods spokeswoman said in a statement. _x000D_
  Rising food prices are not a retailer-specific problem. Higher transportation costs fueled by a truck driver shortage have been steadily affecting the price of consumer goods for years now. That forces retailers to either absorb the increased costs or pass them on the consumer.</t>
+  </si>
+  <si>
+    <t>The potential loss of the Amazon headquarters would be more akin to a long-term disaster. During the 20th century, the city lost its two main economic underpinnings: its manufacturing base and its role as the busiest seaport on earth. In 1955, for example, about a million people worked in New York Citys factories, and in its crowded harbor, tramp steamers, ocean liners and tugboats struggled to avoid one another. New York was the leading industrial city in the world._x000D_
+And yet, by 1980, a quarter-century later, the major job centers in the five boroughs had essentially collapsed. In 1900, New York had 90 breweries and was the beer capital of the nation. But by 1976, the last brewery in the city was gone, and Milwaukee and St. Louis were competing for beer supremacy. Similarly, in 1950, New Yorks 300,000 textile workers made most of the womens clothes sold in the United States. The city had no serious rival. But by 2017, only about 20,000 such workers remained. _x000D_
+New Yorks job losses were not only blue-collar. During the 1970s, the city experienced an exodus of Fortune 500 corporations. Dozens of them moved their headquarters and took their executives with them. Some went to suburbs in Connecticut and New Jersey, but many more decamped for Atlanta, Dallas or Houston. The impact on the city was dramatic. Not only did workers laid off from those companies lose their jobs, but their spouses and children suffered as well. Many of them, as demographic statistics reveal, had to move to other states to make a living. Their departure was hidden by the fact that they were often replaced by millions of newcomers from other countries, but those immigrants could not immediately compensate for all those lost jobs._x000D_
+The region now faces a calamity almost as bad as anything that has happened in the past. The loss of Amazon would cost 25,000 jobs directly, and those workers would support up to 82,000 more indirect jobs. The subsidies New York has offered to Amazon would have been given to any company promising so many jobs. And Amazon is expected to pay more than $27 billion in taxes over the next 25 years. Amazon will also build four million square feet of office space in Queens, providing billions more in construction spending. _x000D_
+More important, a new Amazon headquarters on the East River would signal that the future of this metropolis is as great as its past.</t>
+  </si>
+  <si>
+    <t>The Insider Picks team writes about stuff we think you'll like. Business Insider has affiliate partnerships, so we get a share of the revenue from your purchase._x000D_
+ Since you don't have all day to scour the web for noteworthy sales and discounts, we rounded up the best bargains for you to shop in one convenient place. For even more deals and savings across the web, check out our coupons page. _x000D_
+Groupon _x000D_
+Valentine's Day is only two days away and if you don't already have plans set in place, you'll want to figure that out today. Groupon can help you celebrate love however you'd like with deals on couples massages, dinners, chocolate covered strawberries and more. Simply use the promo code "SAVE" at checkout to get up to 25% off. Keep in mind that most Groupons are activated and available for use 24 hours after purchase, so if you want to use it on Valentine's Day, buy it now. For more deals and coupons on Groupon, check out our coupons page here. _x000D_
+Amazon _x000D_
+Compared to the Note 8, the new Samsung Galaxy Note 9 has a longer-lasting battery, twice as much storage space, and faster speeds for streaming. Right now you can buy the unlocked phone on Amazon in three colors and two storage sizes. As an added bonus for Deal of the Day, you'll receive a free 10.5-inch Samsung Galaxy Tab A Tablet with your purchase. _x000D_
+Pluto _x000D_
+Everyone has a different definition of comfort, which is why Pluto Pillow makes custom pillows to suit your needs. Rather than going through the trial and error process with other pillow brands, Pluto personalizes your pillow with data collected from a short quiz about your comfort preferences. From now until February 18, you can save $10 on a custom Pluto Pillow by using the promo code "PRES10" at checkout. One Insider Picks reporter tested the Pluto Pillow and found it to be much better than the pillows from other mattress startups she's tried. You can read her full review here._x000D_
+Sarah Flint _x000D_
+Founded in 2013, Sarah Flint quickly found its way into high-end stores and became a top favorite among many celebrities. Now through February 20, you can automatically save 30% on select styles. Sarah Flint only goes on sale twice a year, so if you're interested in buying a stylish pair of shoes for yourself or as a gift, now is one of your only chances to save. One Insider Picks reporter reviewed the Emma heels and was happy with the overall quality. Read her full review here. _x000D_
+REI _x000D_
+You probably have all the winter gear you need for the rest season already, but REI is having a sale so big you won't want to pass it up. To making room for new spring styles, the brand is selling outdoor winter gear and apparel for up to 50% off. The sale includes clothing, outerwear, footwear, essential camping gear, and more. Whether you actually do need something for this current season or you're planning to hold it for next winter, the deals are worth shopping. _x000D_
+Brooklyn Bedding _x000D_
+Buying a mattress in the store (and figuring out how to get it home) is not fun. Luckily, online mattress startup Brooklyn Bedding makes getting a new bed easier than ever — and it's surprisingly affordable. Today only, you can save 20% on any mattress by using the promo code "WINTER20" at checkout. With a 120-night sleep trial and free returns on all of its mattresses, you'll never get stuck with a bed you don't love. _x000D_
+Cole Haan _x000D_
+In a market where hundreds of footwear brands are vying for your attention, Cole Haan has claimed its place at the top by creating good-looking shoes you actually want to wear without sacrificing comfort. They can sometimes be a bit pricey, but now through February 15, you can save an extra 40% on sale styles by using the promo code "EXTRA40" at checkout. In addition to shoes for men and women, the sale also includes outerwear, bags, and other accessories. _x000D_
+Leesa _x000D_
+If you've been putting off buying a new mattress for a while, this Presidents' Day is the time to buy one. Popular online mattress startup Leesa is having an impressive sale with 15% off mattresses. The deal takes $160 off the original Leesa mattress and $210 off the newer Sapira Hybrid mattress. Regardless of which mattress you choose, you'll also receive two free pillows valued at $75 each.</t>
+  </si>
+  <si>
+    <t>Feb. 12, 2019, 5:23 PM GMT_x000D_
+Its poetically fitting that Sandra Cisneros, the Chicana literary trailblazer and best-selling novelist, plans to donate the cash prize that comes with winning this year's International PEN/Nabokov Award to her assistants so they can buy a home._x000D_
+Home, in the physical and metaphorical sense, has been a central theme for Cisneros since her literary debut in 1980._x000D_
+With money and fame comes responsibility, and the amount is exactly what they need, she said in a phone interview from her home in San Miguel de Allende, the stunning colonial city in central Mexico where she has lived since 2013. Theyve been looking for loans, and the interest in Mexico is 39 percent. I cant describe how happy it makes me to be able to do this for them._x000D_
+For Cisneros, the nature of her success has always been steeped in generosity._x000D_
+"I believe that there is a law in the universe that all the work we do is in service to those we love and it's always going to bring us better rewards and fortune. It puts us in a state of grace when you are in service to your community," she said._x000D_
+Cisneros, born in Chicago in 1954 to Mexican immigrants, is a writer-activist who came of age in 1970s-era of Black Power and the Chicano civil rights movement. She says she writes out of a sense of urgency because the world we live in is a house on fire and the people we love are burning. Writing for her is not just a political act but also a spiritual one._x000D_
+Her 1984 novel "The House on Mango Street catapulted Cisneros to national acclaim. The book, which she has described as a necklace of stories of working-class Mexican-American girls, has sold over 6 million copies, been translated into 20 languages, and is required reading in many high schools and universities._x000D_
+The idea of writing a best-seller was not on my mind when I wrote 'The House on Mango Street,' she said. I wrote it to stop the swelling in my heart from the stories that I was hearing and witnessing._x000D_
+Cisneros made her literary debut in 1980 with "Bad Boys," a book of poems published by Lorna Dee Cervantes and Gary Soto as part of their Chicano Chapbook Series. The book is now considered a collectors item, selling for thousands of dollars._x000D_
+I used to sell that book for a dollar a copy out my backpack while I was still studying for my MFA, she recalls. I never thought Id make money writing._x000D_
+She says she doesnt own a copy of the book, which is basically pages stapled together, but her brother does. He has it locked up with a key in a safe somewhere. It will probably help pay for my nephew's tuition, she laughs._x000D_
+While she now makes a living with her pen, it was not always so easy for her or her Latino/Chicano contemporaries._x000D_
+Author Sandra Cisneros is presented with the National Medal of Arts during an East Room ceremony at the White House on Sept. 22, 2016.Alex Wong / Getty Images file_x000D_
+Latino writers were not being published by the mainstream press, so we had to publish ourselves, she says of the 1980s. I feel it's our responsibility to support young Latino and Latina writers who are probably being discouraged by their families not to write and who are not being published by the big presses. Also, not all the good writers get attention and win awards so I feel I need to give back."_x000D_
+The New York Times Book Review has said that Cisneros is "not only a gifted writer but an absolutely essential one." Her books include a 1987 collection of poetry, "My Wicked Wicked Ways"; a 1991 short-story collection, Woman Hollering Creek and other stories; followed by Loose Woman: Poems; and in 2002, the novel, Caramelo._x000D_
+In 2015 she published a memoir, A House of My Own: Stories from My Life, which she said she completed after moving to her family's ancestral Mexico after living in San Antonio for 30 years._x000D_
+Cisneros also writes childrens books and authored an illustrated book for adults, Have You Seen Marie? which is currently being produced for the stage._x000D_
+'I'm just barely getting started'_x000D_
+Past PEN winners include Phillip Roth, Mario Vargas Llosa and Edna OBrien. In naming Cisneros as this years winner, the judges the authors Alexander Chee, Edwidge Danticat and Valeria Luiselli wrote that Cisneros brings us astounding and lyrical voices from burning, maligned, devastated, as well as reassembled houses, and nations."_x000D_
+"Its hard to imagine navigating our world today without her stories and her voice guiding us toward much needed reclamation and endurance," they wrote._x000D_
+Cisneros admits she was surprised by the award because "it feels premature._x000D_
+At 64, I am just barely getting started, and I say that in all sincerity, Cisneros said. If its about a lifetime award, I feel like I am not done with my lifes work. Ive had such great teachers," whom she calls her "literary ancestors."_x000D_
+"I am never going to fill their chancletas," or sandals, she said. "I have a long way to go._x000D_
+It reminded her of a quote by the Japanese printmaker Hokusai one of her muses who said at 77 that if he could have five more years, only then could he call himself an artist._x000D_
+Moving to Mexico after living in Texas for three decades continues to transform her art and inform her inner life. She describes her time in Mexico as being in a state of joy where she is constantly daydreaming. Life in the quaint town surrounded by mountains is quiet, with little to no distractions._x000D_
+I am less afraid to say that I listen to the spirits who talk to me. I am exploring my spirituality because every piece of art is a spiritual act," she said._x000D_
+Cisneros is also dipping into other forms of artistic expression. Her latest work, "Puro Amor," is a small book of her illustrations._x000D_
+I am exploring and going in directions that I wanted to go all my life. I am not where I want to be," she said. "I have seen what I would like to do, and I have a long way to go."_x000D_
+Cisneros is collaborating with the composer Derek Bermel for an opera based on "The House on Mango Street." "Mango Suite" is set to premiere at Princeton in May._x000D_
+She is working with the Santa Fe-based textile designer Nancy Traugott on a series of texts and textiles called "Trapitos" (rags) and is collaborating with Jose Rubén de León who is adapting Have You Seen Marie?" for the theater. Cisneros is thrilled to be making her acting debut by playing the character of the river when the production previews this summer in Texas._x000D_
+Last year Cisneros received a Ford Foundation Art of Change fellowship and recently completed more than 50 oral histories of undocumented people, a chorus of voices that she hopes will be adapted for the stage. She is presently working on an essay about the Academy Award-nominated film "Roma," told from the gaze of domestic workers._x000D_
+"It's not that I am consciously doing this art it's organic and I am just learning," she said. "This is the path I am on."_x000D_
+Cisneros will receive the PEN award on Feb. 26 in New York. The comedian Hari Kondabulo will host the event._x000D_
+FOLLOW NBC LATINO ON FACEBOOK, TWITTER AND INSTAGRAM._x000D_
+Sandra Guzman is an Emmy-award winning journalist and author. She has written for the New York Post, New York Daily News, Glamour, Woman's Day and was editor of Latina and heart &amp;amp; soul magazines. Her work has appeared on HBO, PBS, CNN and Univision. Follow her on Twitter at @sandrasepigram.</t>
+  </si>
+  <si>
+    <t>BRUSSELS (Reuters) - Europe’s second-highest court will rule on Thursday whether a Belgian tax break which benefited some 35 large companies is illegal state aid, a judgment which could provide clues to other tax cases involving Apple, Starbucks and Fiat Chrysler. _x000D_
+As part of its crackdown on tax avoidance, the European Commission three years ago ordered Belgium to recover some 700 million euros ($790 million) from the group, saying the companies’ “excess profit” tax plan gave them an unfair advantage vis-a-vis smaller firms. _x000D_
+The scheme allowed the companies to claim deductions for economies of scale, reducing their corporate tax base by 50-90 percent. _x000D_
+Dutch industrial company Magnetrol and Belgium subsequently challenged the Commission’s decision at the Luxembourg-based General Court. The largest beneficiaries were Wabco, Cellio, BP, BASF, Atlas Copco and Belgacom. _x000D_
+Judges may also rule whether it qualifies as a scheme or are just individual tax rulings. _x000D_
+The tax avoidance drive has included orders to Ireland to recover some 13 billion euros from iPhone maker Apple and Luxembourg to claw back up to 30 million euros from Fiat Chrysler, 250 million euros from Amazon and about 120 million euros from Engie. _x000D_
+The Netherlands has to recover between 20-30 million euros from Starbucks. _x000D_
+All the major companies have challenged the EU rulings. At stake is whether the Commission is over-stretching its powers by using its state aid tool to address tax fairness concerns. _x000D_
+The United States has criticised the cases against U.S. companies and notably in the Apple ruling it has accused the EU of grabbing revenue intended for U.S. coffers. _x000D_
+The cases are T-131/16 Belgium v Commission and T-263/16 Magnetrol International v Commission. _x000D_
+($1 = 0.8857 euros) _x000D_
+Reporting by Foo Yun Chee; editing by David Evans</t>
+  </si>
+  <si>
+    <t>Amazon, which has disrupted a host of industries and garnered controversy with its facial recognition software, is now causing problems for recycling centers._x000D_
+The online retail behemoth has reportedly been reducing the portion of shipments it puts in cardboard boxes in favor of lighter plastic mailers over the past year, which allows it to pack more packages into trucks and planes._x000D_
+However, according to a Washington Post report, environmental activists and waste experts have said the plastic mailers are having a negative effect._x000D_
+“That Amazon packaging suffers from the same problems as plastic bags, which are not sortable in our recycling system and get caught in the machinery,” Lisa Sepanski, project manager for King County Solid Waste Division, which oversees recycling in King County, Wash., where Amazon is based, told the Post. “It takes labor to cut them out. They have to stop the machinery.”_x000D_
+TINDER, GRINDR AND OTHER APPS FAILED TO PROTECT CHILDREN FROM SEXUAL EXPLOITATION, REPORT CHARGES_x000D_
+Amazon now accounts for about half of all e-commerce in the United States, according to 2018 analysis by research firm eMarketer, so it's the primary source of the plastic containers. Other companies, including Target, also use them._x000D_
+The plastic mailers are responsible for several problems, the Post added. In general, they should be recycled separately, but if they do end up in the normal recycling stream, they prevent larger bundles of materials from being recycled by gumming up the system, the report said._x000D_
+Waste experts consulted by the publication noted that plastic can be better for the environment since they take up less space, thereby making shipping more efficient. Fewer greenhouse gases are emitted in the production and use of plastic film, a senior environmental policy analyst told the Post._x000D_
+BILL GATES SLAMS OCASIO-CORTEZ, SAYS HER TAX POLICY IS 'MISSING THE PICTURE'_x000D_
+Since the plastic mailers also have paper address labels affixed to them, that creates a separate issue since the label must be removed before the mailer can be recycled with other plastic._x000D_
+“We are continually working to improve our packaging and recycling options, and have reduced packaging waste by more than 20 percent globally in 2018,” an Amazon spokesperson told the Post._x000D_
+Fox News has reached out to Amazon for further comment on this story.</t>
+  </si>
+  <si>
+    <t>Since 1929, the Academy Awards ceremony has been the biggest night in Hollywood. But do you really care anymore? _x000D_
+ It feels like the Oscars are at a dire crossroads, from the telecast's sagging ratings to its lack of diversity — which was pushed front-and-center by #OscarsSoWhite in 2015 — to this year's hosting drama, and the stripping of categories from the live broadcast. _x000D_
+ But some within Hollywood believe their big night has been on life support for some time. _x000D_
+ Business Insider spoke to past Oscar show producers, Academy voters, and award show pundits to learn about the numerous attempts over the last two decades to make the Oscars telecast more modern. Despite these attempts, the show always seems to revert back to its more traditional form, and many in the industry think that's a terrible trend. _x000D_
+ "The show needs to change," Bill Mechanic, an Oscar-nominated producer who resigned from the Academy of Motion Picture Arts and Sciences' board of governors last year, told Business Insider. "But not in a way that it's watered down in terms of its artistic measurement, in fact, that should be preserved." _x000D_
+ Here we investigate what has gone wrong with the Academy Awards and what needs to be fixed. _x000D_
+ Where new ideas go to die _x000D_
+ The last time the Oscars didn't have a host was in 1989, and that year will forever be known for having the worst opening in the show's history: an 11 minute-plus musical number that followed Snow White as she navigated through different eras of Hollywood and all its glamour. It ended with her doing a duet with — wait for it — Rob Lowe. _x000D_
+ The backlash was immediate, including Disney suing the Academy for using the likeness of Snow White, and changed the course of the Oscar show forever. A review committee was formed to audit the show from top to bottom, leading to former DGA president Gil Cates producing the show the following year. He brought on Billy Crystal to host, which led to the Oscars' golden years. Gates, who died in 2011, produced the show a record 14 times, including the 70th Academy Awards in 1998 when "Titanic" won best picture, and the show was seen by over 57 million viewers, the most watched in history. _x000D_
+Rob Lowe and actress Eileen Bowman as Snow White performing a song during the opening of the 61st Academy Awards in 1989, marking the last time there has been no Oscar host._x000D_
+ AP _x000D_
+Everything surrounding the 2019 Oscars makes it feel like the show is facing another moment when change is needed. But it can't seem to get out of its own way. _x000D_
+ Following the record-low ratings of last year's show, the Academy's attempt to rebound has been crippled by bad publicity. _x000D_
+ When word hit in August that a popular movie category at the Oscars was being considered, the outrage came from both the public and the industry. Then in early December Kevin Hart walked away from hosting this year's show following an uproar over his past homophobic remarks, leaving the evening without a host. That was followed by a short-lived attempt to control the show's run time by cutting out some of the performances from the best song nominees, and a new plan, announced Monday, to give out some technical awards during commercial breaks. _x000D_
+ The relegation of some awards to commercial breaks has angered many in Hollywood. _x000D_
+ "To be at the show and your award not to be worthy, I think it's somewhat insulting," Lili Fini Zanuck, who produced the 72nd Oscars in 2000 with her husband Richard D. Zanuck (the two produced best picture winner "Driving Miss Daisy"), told Business Insider regarding the decision to not televise live all 24 award categories. _x000D_
+ This kind of erratic maneuvering by the Academy is exactly the reason Bill Mechanic resigned from its board of governors last year. _x000D_
+ In a strongly worded farewell letter that Variety got its hands on, Mechanic — a former Fox executive, producer of the 82nd Oscars in 2010, and producer of best-picture nominee "Hacksaw Ridge" — said they had "failed to move the Oscars into the modern age." He said the show was "long and boring" and that over the past decade, the Academy had "nominated so many smaller independent films that the Oscars feel like they should be handed out in a tent." _x000D_
+Kevin Hart was named host of the 91st Academy Awards, but backed out followed backlash from homophobic tweets and stand-up material._x000D_
+ Kevin Winter/Getty _x000D_
+"All my criticisms of when I quit the board are still valid," Mechanic told Business Insider recently. "The simplest thing about the Academy, which is what got me riled up, is you have the best artists working, period, and that the membership is not being used to the degree that it should be is, to me, wrong ... Every idea should be considered." _x000D_
+ And ideas to make the ceremony more appealing to watch are brought up every year, they usually just don't stick. _x000D_
+ Several former Oscar show producers told Business Insider that suggestions for something like a popular Oscar category, or limiting the number of awards presented during the live telecast, aren't new. They have been kicked around within the Academy for over a decade. But the fact that those ideas are now at the point of serious consideration shows the severity of the situation the telecast is in. _x000D_
+ Zanuck recalled the effort to make the show look modern in the year she and her husband were at the controls in 2000. _x000D_
+ "I felt that it was a television show and the live audience was somewhat irrelevant, because they were there mostly as nominees," she said. "What I wanted to do was make it a broadcast. And to do that you had to look at these other shows that were working at the time, like the MTV Movie Awards and Video Awards. They weren't only interesting but had a speed and a pacing to them." _x000D_
+Garth Brooks performing in front of a giant screens at the 72nd Academy Awards in 2000._x000D_
+ AP _x000D_
+So the Zanucks ditched the old Hollywood sets of previous Oscars and dressed the stage with 35-foot columns consisting of HD monitors stacked atop each other. Throughout the night, the screens would show clips from previous Oscar shows as the presenters took the stage. And instead of a live orchestra playing music through the show, the Zanucks had a pop music score. They also gave the viewers at home a deeper look inside the show by cutting to shots of what was going on backstage. _x000D_
+ It seemed to work. _x000D_
+ The show, hosted by Crystal, took in close to 47 million viewers, a bump from the 46 million that watched it the year before when "Shakespeare in Love" shocked the world and won best picture over "Saving Private Ryan." In fact, it was the highest-rated show in this millennium. The Zanucks seemed to have updated the show in a way that still celebrated its history but was more engaging for viewers watching at home. _x000D_
+ But, outside of the brief shots of the backstage, many of the things done at the 72nd Oscars were not used again. _x000D_
+ "They needed to continue to build on this idea I had that it's a TV show," Zanuck said. "After we did our year they went back to old sets, something from the 1920s, that was just taking you somewhere you had already been. The fact that it became old fashioned again didn't help. There was no freshness to it." _x000D_
+ Mechanic said he had his own popular Oscar idea the year he and producer-director Adam Shankman ("What Men Want") did the Oscars in 2010. He wanted to have a selection of movies nominated for a viewers' choice Oscar. People at home would vote during the show. But he said it "fell on deaf ears." _x000D_
+ "A lot of people in the Academy don't want to change anything and I think they are wrong not from a purist standpoint but from an entertainment standpoint," Mechanic said. _x000D_
+Yutong Yuan/Business Insider _x000D_
+No host is the best thing that could have happened_x000D_
+ Since the Academy is so resistant to change, the Oscars not having a host might be great for this year's telecast, since it forces everyone involved to get out of their comfort zone. _x000D_
+ "If you book presenters properly and they are big enough stars, you don't need a host," said Jeff Margolis, who directed the Oscars telecast eight times, many of them in the show's glory days alongside Cates. _x000D_
+ And Margolis knows a little something about doing the show without a host. The first ever Oscars he directed was in 1989, the last time the show didn't have one. Though that show was infamous because of the Snow White opening, Margolis believes what Allan Carr, that year's producer, did right was booking interesting presenters. _x000D_
+ "Allan called it, 'couples, companions, and compadres,'" Margolis said about how they put together the presenters. "And it really worked." _x000D_
+ The show featured presenters ranging from hot "it" couples of the time (Don Johnson and Melanie Griffith) to legendary duos from the movies ("Vertigo" stars Jimmy Stewart and Kim Novak). _x000D_
+ Shankman, who produced the 82nd Oscars with Mechanic, pulled off the rare two-person-hosted show with Steve Martin and Alec Baldwin (the show was one of the highest-rated in the last decade). But his favorite moment didn't involve the hosts. _x000D_
+ "My year we had Robert Downey Jr. and Tina Fey present original screenplay, and I could have watched them all night, they weren't the hosts," he said. _x000D_
+Tina Fey and Robert Downey Jr. with "Zero Dark Thirty" screenwriter Mark Boal (center) after presenting him with the best original screenplay Oscar at the 82nd Academy Awards in 2010._x000D_
+ AP _x000D_
+Producers who have done major live TV shows other than the Oscars agreed that the lack of a host isn't a big deal. _x000D_
+ "People don't like a host doing shtick anymore," Ron Basile, a producer at AEG Ehrlich, the production company of veteran Grammys producer Kenneth Ehrlich, told Business Insider. _x000D_
+ And Ian Stewart — who has worked on everything from the 2012 Olympics opening ceremonies, to the Victoria's Secret Fashion Show — believes in today's world it's less about finding the right host and more about crafting viral content that can spread on social media. _x000D_
+ "I certainly have a check list on my productions of what are the 10 viral moments that we would hope to facilitate," he said. "I think it's up to us to create those viral moments." _x000D_
+ Is it time to disrupt the bloated award season? _x000D_
+ With some changes coming to this year's Oscars, and some of the biggest blockbusters of the year nominated for best picture ("Black Panther," "Bohemian Rhapsody," "A Star Is Born"), the telecast could be headed for a rebound year. _x000D_
+ But even if the 91st Oscars are produced in a way that keeps viewers engaged, there's still the issue of the time of year the ceremony takes place, which many believe is hurting the show. _x000D_
+ Since the start of the Oscars almost a century ago, many other award shows have sprung up around it. _x000D_
+Read more: The 21 biggest Oscar upsets of all time, ranked_x000D_
+ There are around 14 award ceremonies before the Oscars, from the ones televised (Golden Globes, Screen Actors Guild, Critics Choice Awards, Independent Spirit Awards) to the many more that aren't (Gotham Awards, National Society of Film Critics Awards, Producers Guild, Directors Guild, Screenwriters Guild). And because of social media and the horse-race coverage of the Oscars lead-up, many are burnt out by the time the big night arrives. _x000D_
+ "I love movies, and I'm in the business, and I'm even tired of seeing Hollywood pat themselves on the back so many times," one Academy voter said. _x000D_
+ Many in the Academy believe the Oscars need to happen earlier. The theory: to bring viewer intrigue back to the show, it should no longer be the final act of award season. _x000D_
+ "The cannibalization of the specialness of the evening is probably, in my opinion, been the single worst thing for the Oscars," Shankman said. _x000D_
+Yutong Yuan; Business Insider/Nielsen _x000D_
+And this isn't just a recent issue. Shankman recalled how obsessed everyone on the team was about every aspect of all the award shows leading up to their Oscars in 2010, so they wouldn't repeat anything that happened previously in an award show. _x000D_
+ "We had a giant board with all the shows that happened before the Oscars," he said. "We were just staring at it and it looked like we were in a bookie's office. It had flow charts, who was walking out and presenting what. We were tracking who was showing up at each awards show. I looked at Bill and was like, 'How are we going to make this feel special?'" _x000D_
+ In the dog-eat-dog world that is Hollywood, many feel the biggest dog needs to own the turf better. And it seems the Academy has finally caught on. In 2020, the Oscars will air on February 9, marking the earliest the show has ever been presented. But some think it should be in January. _x000D_
+ "The problem with doing that is voters will not have had enough of a chance to see the movies, and it would essentially be declaring war on all these other shows," The Hollywood Reporter award columnist Scott Feinberg said. _x000D_
+Read more: Here's the complete list of the 2019 Oscar nominations_x000D_
+ "They are going to make everybody else fit in a smaller window," Gold Derby managing editor Chris Beachum said. "These non-televised events, they all rely on that evening being a big moneymaker for themselves — selling programs, advertisements, tables. They can't afford to give up that night. So now you're going to cause all of these award shows to fit into a much smaller window." _x000D_
+ Some aren't as compassionate about this potential dilemma to award season. _x000D_
+ "The Academy should push everybody out of business in terms of the awards," Mechanic said. "There's one award that matters and that's the only thing to protect. There's nothing else that matters." _x000D_
+ ABC has more control of the show than ever before _x000D_
+ When it comes to the Oscars, there's no way to satisfy everyone. _x000D_
+ As Margolis put it, "From the fade up from black to the fade out at the end, everybody is looking for something to hate during that show." _x000D_
+ But despite all the negative reviews posted the following day, and complaints that go viral, that show is still a huge moneymaker for ABC. _x000D_
+ The network, which in 2016 extended its contract to air the Oscars through 2028, has consistently raised the cost of the ad spots that run during the telecast. In 2017, it was $1.91 million per 30-second spot; last year, it was $2 million; and this year, $3 million. _x000D_
+ It's a phenomenon that's going on with all live "must-see" TV: ratings are sliding, but brands still believe it's worth being there. _x000D_
+ "If you're a sponsor and you're trying to reach any kind of mass appeal, you sort of grab at the platforms that can still do that," CNN media critic Brian Lowry said. "The Oscars is in the same way that sports have an advantage, if you are really into the Oscars, you don't want to DVR it and watch the next day. I wouldn't be surprised to see Netflix, Amazon, or HBO ponying up for some ads during the Oscars because to launch your new spring shows it's going to be one of the last big platforms to reach a lot of people." _x000D_
+Yutong Yuan/Business Insider _x000D_
+But ABC is now doing more than just selling ads. _x000D_
+ The network is through standing back and letting the Academy have full control of the show, which is how it had been for decades. One of the stipulations in the 2016 contract extension was that ABC now has more say in key creative aspects of the show. The choice of host and producer is now a discussion between ABC and the Academy (though the Academy has final say). This is why in the last two years you've seen a lot more ABC/Disney elements on the show, like Jimmy Kimmel hosting and using Disney titles in his stunts. _x000D_
+ Sources told Business Insider that for years ABC has wanted the show to only be three hours long, so coming off a year that had the worst ratings ever, it's safe to say the network has more leverage than ever when it comes to run time. _x000D_
+Read more: The 15 Oscar best-picture winners that made the most money at the US box office_x000D_
+ "There is going to come a time when ABC expects the Academy to continue to deliver the product that they thought they were buying," Feinberg said. "So far since that contract was extended I don't think they can be all that pleased by what they've got." _x000D_
+The Oscars' high water mark. James Cameron celebrating his best director win for "Titanic" at the 70th Academy Awards in 1998, which were seen by over 57 million people._x000D_
+ AP _x000D_
+"This has to be said, nobody does this show to fail," Shankman said. "Everybody goes in wanting desperately to do the best job that they can and to honor the evening and to honor the people that are involved. Even the years that have been lowest in the ratings, there have been wonderful parts of the show." _x000D_
+ But it is hard to balance all the forces at play: ratings, artistic integrity, tradition, freshness. Often what you end up with is a show that satisfies no one. _x000D_
+ "The show has stopped being what it's supposed to be, which is a way to acknowledge each other," Zanuck said. "That's why it started as a dinner. No one was worried about what someone in Oklahoma thought. When it sounds like you need some gimmick to get people to watch, it's so desperate and I think in a lot of ways that desperate feeling is what's going to take it all down. The show has to get its integrity back. Winning an Oscar has got to mean something. If it keeps with these gasping for air moves, I don't know where it can go." _x000D_
+ The Academy of Motion Picture Arts and Sciences did not respond to Business Insider's numerous requests to comment for this story.</t>
+  </si>
+  <si>
+    <t>SAO PAULO (Reuters) - Brazilian environmental groups on Tuesday blasted President Jair Bolsonaro’s environment minister after he dismissed the murdered Amazon rain forest defender Chico Mendes as “irrelevant.” _x000D_
+“I don’t know Chico Mendes,” Environment Minister Ricardo Salles told journalists on an interview show late Monday night, when asked about the famous Brazilian rubber tapper, union leader and environmentalist who was murdered in 1988. _x000D_
+As environment minister, Salles oversees the Instituto Chico Mendes, which is named after the environmental advocate and oversees Brazil’s protected conservation areas. _x000D_
+Bolsonaro downplayed environmental concerns during his 2018 far-right presidential campaign, threatening to pull Brazil out of the Paris Agreement on climate change and advocating more mining and economic development in the Amazon rainforest. _x000D_
+Salles told interviewers on TV show Roda Viva that he hears contradictory accounts about Mendes’ life, saying environmentalists praise his work while local farmers claim he “used the rubber tappers to advance his own interests.” _x000D_
+“It is irrelevant. What difference does it make who Chico Mendes is at the moment?” Salles said. _x000D_
+His comments fueled criticism of the administration’s stance, which environmentalists say is excessively pro-business and farm interests. _x000D_
+Marina Silva, a former environment minister who organized alongside Mendes as a teenager in the state of Acre, said Salles is “misinformed” about the activist. _x000D_
+“Despite the ignorance of Salles, Chico’s struggle lives on!” she wrote on Twitter. _x000D_
+Salles also confirmed that he would travel to the Amazon for the first time on Tuesday. _x000D_
+His press office could not immediately clarify if it was his first visit as minister or his first-ever trip to the region. _x000D_
+Salles also acknowledged that regulatory “shortcomings” may have led to the rupture of a dam for mining waste owned by Vale SA, which released a wave of mud killing at least 165 people and devastating the Paraobepa river. _x000D_
+Vale, the world’s largest iron ore miner, knew last year that the dam had a heightened risk of rupturing, according to an internal document seen by Reuters on Monday. _x000D_
+In 2015, a similar failure of a nearby tailings dam at a mine co-owned by Vale, also in the state of Minas Gerais, killed 19 people and damaged the Rio Doce river. _x000D_
+The minister said the government has been wasting technical and financial resources on licensing and oversight for all types of projects, and pledged to introduce policy changes to address the problem. _x000D_
+He defended a system whereby environmental licenses for less complex projects are issued faster, saying he believes this would free up resources to oversee projects of higher complexity, including tailings dams. _x000D_
+Reporting by Ana Mano; Editing by David Gregorio</t>
+  </si>
+  <si>
+    <t>SAO PAULO (Reuters) - Brazilian environmental groups on Tuesday blasted President Jair Bolsonaro’s environment minister after he dismissed the murdered Amazon rain forest defender Chico Mendes as “irrelevant.” _x000D_
+“I don’t know Chico Mendes,” Environment Minister Ricardo Salles told journalists on an interview show late Monday night, when asked about the famous Brazilian rubber tapper, union leader and environmentalist who was murdered in 1988. _x000D_
+As environment minister, Salles oversees the Instituto Chico Mendes, which is named after the environmental advocate and oversees Brazil’s protected conservation areas. _x000D_
+Bolsonaro downplayed environmental concerns during his 2018 far-right presidential campaign, threatening to pull Brazil out of the Paris Agreement on climate change and advocating more mining and economic development in the Amazon rainforest. _x000D_
+Salles told interviewers on TV show Roda Viva that he hears contradictory accounts about Mendes’ life, saying environmentalists praise his work while local farmers claim he “used the rubber tappers to advance his own interests.” _x000D_
+“It is irrelevant. What difference does it make who Chico Mendes is at the moment?” Salles said. _x000D_
+His comments fuelled criticism of the administration’s stance, which environmentalists say is excessively pro-business and farm interests. _x000D_
+Marina Silva, a former environment minister who organised alongside Mendes as a teenager in the state of Acre, said Salles is “misinformed” about the activist. _x000D_
+“Despite the ignorance of Salles, Chico’s struggle lives on!” she wrote on Twitter. _x000D_
+Salles also confirmed that he would travel to the Amazon for the first time on Tuesday. _x000D_
+His press office could not immediately clarify if it was his first visit as minister or his first-ever trip to the region. _x000D_
+Salles also acknowledged that regulatory “shortcomings” may have led to the rupture of a dam for mining waste owned by Vale SA, which released a wave of mud killing at least 165 people and devastating the Paraobepa river. _x000D_
+Vale, the world’s largest iron ore miner, knew last year that the dam had a heightened risk of rupturing, according to an internal document seen by Reuters on Monday. _x000D_
+In 2015, a similar failure of a nearby tailings dam at a mine co-owned by Vale, also in the state of Minas Gerais, killed 19 people and damaged the Rio Doce river. _x000D_
+The minister said the government has been wasting technical and financial resources on licensing and oversight for all types of projects, and pledged to introduce policy changes to address the problem. _x000D_
+He defended a system whereby environmental licenses for less complex projects are issued faster, saying he believes this would free up resources to oversee projects of higher complexity, including tailings dams. _x000D_
+Reporting by Ana Mano; Editing by David Gregorio</t>
+  </si>
+  <si>
+    <t>Are you an Amazon super fan or simply a Seattle area resident looking for a new home?_x000D_
+If so, you could buy the West Bellevue house where in 1994 Jeff Bezos lived and started Amazon. The price is $1.49 million, considered a relative bargain for the neighborhood._x000D_
+Bezos rented the three-bedroom, one-and-three-quarter bathroom house built in 1954. The attached garage served as the original Amazon headquarters. _x000D_
+The 1,540-square-foot house is on the market for the first time in 10 years. The listing calls it a slice of history, and gives a future owner the opportunity to own the birthplace of Amazon. _x000D_
+An affordable, single-story slice of history it is. While West Bellevue is the most expensive neighborhood in the region, according to The Seattle Times, it is below the areas median home price of about $2 million. The lower price may also reflect a softening regional real estate market, where the number of unsold homes has more than double from last year._x000D_
+Nevertheless, the houses value has climbed considerably in the years since Bezos lived there. The Seattle Times reports that while the house was valued at $135,000 in 1994, it was bought for $182,000 in 1998. In 2009, when the current owners purchased the house, they paid $620,000less than half of its current asking price._x000D_
+But prospective buyers be warned: the house will not look identical to how it did when Bezos made it his residence. In 2001, the house was reportedly extensively remodeled, including installing a new roof and bathroomand the garage was remodeled too. However, it does have the signature oversized mailbox Bezos installed.</t>
   </si>
 </sst>
 </file>
@@ -5564,7 +5542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I151"/>
+  <dimension ref="A1:I150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5598,869 +5576,869 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B2">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F2" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="G2" s="3">
-        <v>43507.7266087963</v>
+        <v>43507.75586805555</v>
       </c>
       <c r="H2" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="I2" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>68</v>
+        <v>149</v>
       </c>
       <c r="B3">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F3" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="G3" s="3">
-        <v>43507.72916666666</v>
+        <v>43507.75712962963</v>
       </c>
       <c r="H3" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="I3" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="B4">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F4" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G4" s="3">
-        <v>43507.72997685185</v>
+        <v>43507.75833333333</v>
       </c>
       <c r="H4" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="I4" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>161</v>
+        <v>41</v>
       </c>
       <c r="B5">
-        <v>162</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F5" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="G5" s="3">
-        <v>43507.73125</v>
+        <v>43507.76111111111</v>
       </c>
       <c r="H5" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="I5" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="B6">
-        <v>49</v>
+        <v>127</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F6" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="G6" s="3">
-        <v>43507.73211805556</v>
+        <v>43507.76527777778</v>
       </c>
       <c r="H6" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="I6" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="B7">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="G7" s="3">
-        <v>43507.73760416666</v>
+        <v>43507.76575231482</v>
       </c>
       <c r="H7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="I7" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="B8">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F8" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G8" s="3">
-        <v>43507.73958333334</v>
+        <v>43507.77275462963</v>
       </c>
       <c r="H8" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="I8" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="B9">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F9" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="G9" s="3">
-        <v>43507.74006944444</v>
+        <v>43507.77275462963</v>
       </c>
       <c r="H9" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="I9" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="B10">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F10" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="G10" s="3">
-        <v>43507.74438657407</v>
+        <v>43507.77335648148</v>
       </c>
       <c r="H10" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="I10" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="B11">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F11" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="G11" s="3">
-        <v>43507.74513888889</v>
+        <v>43507.77847222222</v>
       </c>
       <c r="H11" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="I11" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1">
-        <v>133</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F12" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="G12" s="3">
-        <v>43507.75586805555</v>
+        <v>43507.78472222222</v>
       </c>
       <c r="H12" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="I12" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1">
-        <v>152</v>
+        <v>40</v>
       </c>
       <c r="B13">
-        <v>153</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F13" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="G13" s="3">
-        <v>43507.75712962963</v>
+        <v>43507.78853009259</v>
       </c>
       <c r="H13" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="I13" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B14">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F14" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="G14" s="3">
-        <v>43507.75833333333</v>
+        <v>43507.79184027778</v>
       </c>
       <c r="H14" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="I14" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F15" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="G15" s="3">
-        <v>43507.76111111111</v>
+        <v>43507.79236111111</v>
       </c>
       <c r="H15" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="I15" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="B16">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="F16" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G16" s="3">
-        <v>43507.76527777778</v>
+        <v>43507.79918981482</v>
       </c>
       <c r="H16" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="I16" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="B17">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F17" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="G17" s="3">
-        <v>43507.76575231482</v>
+        <v>43507.80636574074</v>
       </c>
       <c r="H17" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="I17" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="B18">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F18" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="G18" s="3">
-        <v>43507.77275462963</v>
+        <v>43507.81208333333</v>
       </c>
       <c r="H18" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="I18" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B19">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C19" t="s">
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F19" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="G19" s="3">
-        <v>43507.77275462963</v>
+        <v>43507.81873842593</v>
       </c>
       <c r="H19" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="I19" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1">
-        <v>132</v>
+        <v>34</v>
       </c>
       <c r="B20">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F20" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="G20" s="3">
-        <v>43507.77335648148</v>
+        <v>43507.8322800926</v>
       </c>
       <c r="H20" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="I20" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B21">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C21" t="s">
         <v>26</v>
       </c>
-      <c r="D21" t="s">
-        <v>170</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F21" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="G21" s="3">
-        <v>43507.77847222222</v>
+        <v>43507.83472222222</v>
       </c>
       <c r="H21" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="I21" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="B22">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="C22" t="s">
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="F22" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="G22" s="3">
-        <v>43507.78472222222</v>
+        <v>43507.83501157408</v>
       </c>
       <c r="H22" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="I22" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="B23">
-        <v>42</v>
+        <v>159</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F23" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G23" s="3">
-        <v>43507.78853009259</v>
+        <v>43507.84344907408</v>
       </c>
       <c r="H23" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="I23" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="B24">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="C24" t="s">
         <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="F24" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="G24" s="3">
-        <v>43507.79184027778</v>
+        <v>43507.84513888889</v>
       </c>
       <c r="H24" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="I24" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1">
-        <v>11</v>
+        <v>152</v>
       </c>
       <c r="B25">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="C25" t="s">
         <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F25" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="G25" s="3">
-        <v>43507.79236111111</v>
+        <v>43507.84861111111</v>
       </c>
       <c r="H25" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="I25" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="B26">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="C26" t="s">
         <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="F26" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="G26" s="3">
-        <v>43507.79918981482</v>
+        <v>43507.86737268518</v>
       </c>
       <c r="H26" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="I26" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1">
-        <v>117</v>
+        <v>163</v>
       </c>
       <c r="B27">
-        <v>118</v>
+        <v>164</v>
       </c>
       <c r="C27" t="s">
         <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F27" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="G27" s="3">
-        <v>43507.80636574074</v>
+        <v>43507.86875</v>
       </c>
       <c r="H27" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="I27" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="B28">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="C28" t="s">
         <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="F28" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G28" s="3">
-        <v>43507.81208333333</v>
+        <v>43507.87145833333</v>
       </c>
       <c r="H28" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="I28" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="B29">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="C29" t="s">
         <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F29" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G29" s="3">
-        <v>43507.81873842593</v>
+        <v>43507.881875</v>
       </c>
       <c r="H29" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="I29" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="B30">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="C30" t="s">
         <v>35</v>
       </c>
       <c r="D30" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="F30" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G30" s="3">
-        <v>43507.8322800926</v>
+        <v>43507.88503472223</v>
       </c>
       <c r="H30" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="I30" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="B31">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
         <v>36</v>
       </c>
+      <c r="D31" t="s">
+        <v>177</v>
+      </c>
       <c r="E31" s="2" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F31" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G31" s="3">
-        <v>43507.83472222222</v>
+        <v>43507.88958333333</v>
       </c>
       <c r="H31" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="I31" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -6474,3464 +6452,3435 @@
         <v>37</v>
       </c>
       <c r="D32" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="F32" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="G32" s="3">
-        <v>43507.83501157408</v>
+        <v>43507.89362268519</v>
       </c>
       <c r="H32" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="I32" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1">
-        <v>159</v>
+        <v>100</v>
       </c>
       <c r="B33">
-        <v>160</v>
+        <v>101</v>
       </c>
       <c r="C33" t="s">
         <v>38</v>
       </c>
       <c r="D33" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F33" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="G33" s="3">
-        <v>43507.84344907408</v>
+        <v>43507.90069444444</v>
       </c>
       <c r="H33" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="I33" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="B34">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="C34" t="s">
         <v>39</v>
       </c>
       <c r="D34" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="F34" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G34" s="3">
-        <v>43507.84513888889</v>
+        <v>43507.90329861111</v>
       </c>
       <c r="H34" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="I34" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="B35">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="C35" t="s">
         <v>40</v>
       </c>
       <c r="D35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F35" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="G35" s="3">
-        <v>43507.84861111111</v>
+        <v>43507.91385416667</v>
       </c>
       <c r="H35" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="I35" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="1">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="B36">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="C36" t="s">
         <v>41</v>
       </c>
       <c r="D36" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="F36" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G36" s="3">
-        <v>43507.86737268518</v>
+        <v>43507.91388888889</v>
       </c>
       <c r="H36" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="I36" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="1">
-        <v>165</v>
+        <v>97</v>
       </c>
       <c r="B37">
-        <v>166</v>
+        <v>98</v>
       </c>
       <c r="C37" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37" t="s">
-        <v>185</v>
+        <v>41</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F37" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="G37" s="3">
-        <v>43507.86875</v>
+        <v>43507.91388888889</v>
       </c>
       <c r="H37" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="I37" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="1">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="B38">
-        <v>115</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D38" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="F38" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G38" s="3">
-        <v>43507.87145833333</v>
+        <v>43507.91857638889</v>
       </c>
       <c r="H38" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="I38" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="1">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c r="B39">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="C39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D39" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F39" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="G39" s="3">
-        <v>43507.881875</v>
+        <v>43507.91961805556</v>
       </c>
       <c r="H39" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="I39" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="1">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B40">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D40" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="F40" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="G40" s="3">
-        <v>43507.88503472223</v>
+        <v>43507.92503472222</v>
       </c>
       <c r="H40" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="I40" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="B41">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="C41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D41" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F41" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="G41" s="3">
-        <v>43507.88958333333</v>
+        <v>43507.92952546296</v>
       </c>
       <c r="H41" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="I41" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="1">
-        <v>151</v>
+        <v>85</v>
       </c>
       <c r="B42">
-        <v>152</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D42" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="F42" t="s">
         <v>450</v>
       </c>
       <c r="G42" s="3">
-        <v>43507.89362268519</v>
+        <v>43507.93028935185</v>
       </c>
       <c r="H42" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="I42" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="1">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="B43">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="C43" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D43" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F43" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="G43" s="3">
-        <v>43507.90069444444</v>
+        <v>43507.9325</v>
       </c>
       <c r="H43" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="I43" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="1">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="B44">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="C44" t="s">
-        <v>49</v>
-      </c>
-      <c r="D44" t="s">
-        <v>192</v>
+        <v>47</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="F44" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="G44" s="3">
-        <v>43507.90329861111</v>
+        <v>43507.93680555555</v>
       </c>
       <c r="H44" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="I44" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="1">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="B45">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="C45" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D45" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F45" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="G45" s="3">
-        <v>43507.91385416667</v>
+        <v>43507.94236111111</v>
       </c>
       <c r="H45" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="I45" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="1">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="B46">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="C46" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D46" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="F46" t="s">
         <v>448</v>
       </c>
       <c r="G46" s="3">
-        <v>43507.91388888889</v>
+        <v>43507.94572916667</v>
       </c>
       <c r="H46" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="I46" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="1">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="B47">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="C47" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="D47" t="s">
+        <v>190</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F47" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="G47" s="3">
-        <v>43507.91388888889</v>
+        <v>43507.95300925926</v>
       </c>
       <c r="H47" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="I47" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1">
-        <v>4</v>
+        <v>119</v>
       </c>
       <c r="B48">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="C48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D48" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="F48" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G48" s="3">
-        <v>43507.91857638889</v>
+        <v>43507.95899305555</v>
       </c>
       <c r="H48" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="I48" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="B49">
-        <v>156</v>
+        <v>96</v>
       </c>
       <c r="C49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D49" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F49" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G49" s="3">
-        <v>43507.91961805556</v>
+        <v>43507.96458333333</v>
       </c>
       <c r="H49" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="I49" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="B50">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="C50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D50" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="F50" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="G50" s="3">
-        <v>43507.92503472222</v>
+        <v>43507.96597222222</v>
       </c>
       <c r="H50" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="I50" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="B51">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="C51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D51" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F51" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="G51" s="3">
-        <v>43507.92952546296</v>
+        <v>43507.96686342593</v>
       </c>
       <c r="H51" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="I51" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="B52">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="C52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D52" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F52" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="G52" s="3">
-        <v>43507.93028935185</v>
+        <v>43507.97644675926</v>
       </c>
       <c r="H52" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="I52" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="B53">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="C53" t="s">
         <v>56</v>
       </c>
       <c r="D53" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F53" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="G53" s="3">
-        <v>43507.9325</v>
+        <v>43507.97703703704</v>
       </c>
       <c r="H53" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="I53" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="B54">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="C54" t="s">
         <v>57</v>
       </c>
+      <c r="D54" t="s">
+        <v>197</v>
+      </c>
       <c r="E54" s="2" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="F54" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="G54" s="3">
-        <v>43507.93680555555</v>
+        <v>43507.98893518518</v>
       </c>
       <c r="H54" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="I54" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1">
-        <v>138</v>
+        <v>50</v>
       </c>
       <c r="B55">
-        <v>139</v>
+        <v>51</v>
       </c>
       <c r="C55" t="s">
         <v>58</v>
       </c>
       <c r="D55" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F55" t="s">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="G55" s="3">
-        <v>43507.94236111111</v>
+        <v>43507.99054398148</v>
       </c>
       <c r="H55" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="I55" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1">
-        <v>118</v>
+        <v>23</v>
       </c>
       <c r="B56">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="C56" t="s">
         <v>59</v>
       </c>
       <c r="D56" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F56" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="G56" s="3">
-        <v>43507.94572916667</v>
+        <v>43507.99305555555</v>
       </c>
       <c r="H56" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="I56" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B57">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C57" t="s">
         <v>60</v>
       </c>
       <c r="D57" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F57" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="G57" s="3">
-        <v>43507.95300925926</v>
+        <v>43507.99777777777</v>
       </c>
       <c r="H57" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="I57" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B58">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C58" t="s">
         <v>61</v>
       </c>
       <c r="D58" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="F58" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="G58" s="3">
-        <v>43507.95899305555</v>
+        <v>43507.99791666667</v>
       </c>
       <c r="H58" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="I58" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B59">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C59" t="s">
         <v>62</v>
       </c>
       <c r="D59" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F59" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G59" s="3">
-        <v>43507.96458333333</v>
+        <v>43508</v>
       </c>
       <c r="H59" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="I59" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="C60" t="s">
         <v>63</v>
       </c>
       <c r="D60" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="F60" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G60" s="3">
-        <v>43507.96597222222</v>
+        <v>43508.04162037037</v>
       </c>
       <c r="H60" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="I60" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="B61">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="C61" t="s">
         <v>64</v>
       </c>
       <c r="D61" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F61" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="G61" s="3">
-        <v>43507.96686342593</v>
+        <v>43508.04342592593</v>
       </c>
       <c r="H61" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="I61" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B62">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C62" t="s">
         <v>65</v>
       </c>
       <c r="D62" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="F62" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="G62" s="3">
-        <v>43507.97644675926</v>
+        <v>43508.05474537037</v>
       </c>
       <c r="H62" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="I62" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="B63">
-        <v>96</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
         <v>66</v>
       </c>
       <c r="D63" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F63" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="G63" s="3">
-        <v>43507.97703703704</v>
+        <v>43508.06134259259</v>
       </c>
       <c r="H63" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="I63" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="B64">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
         <v>67</v>
       </c>
       <c r="D64" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F64" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="G64" s="3">
-        <v>43507.98893518518</v>
+        <v>43508.06170138889</v>
       </c>
       <c r="H64" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="I64" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="B65">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="C65" t="s">
         <v>68</v>
       </c>
       <c r="D65" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="F65" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="G65" s="3">
-        <v>43507.99054398148</v>
+        <v>43508.07774305555</v>
       </c>
       <c r="H65" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="I65" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="1">
-        <v>22</v>
+        <v>156</v>
       </c>
       <c r="B66">
-        <v>23</v>
+        <v>157</v>
       </c>
       <c r="C66" t="s">
         <v>69</v>
       </c>
       <c r="D66" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="F66" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G66" s="3">
-        <v>43507.99305555555</v>
+        <v>43508.11739583333</v>
       </c>
       <c r="H66" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="I66" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="1">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="B67">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="C67" t="s">
         <v>70</v>
       </c>
       <c r="D67" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F67" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="G67" s="3">
-        <v>43507.99777777777</v>
+        <v>43508.12322916667</v>
       </c>
       <c r="H67" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="I67" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="1">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="B68">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="C68" t="s">
         <v>71</v>
       </c>
       <c r="D68" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F68" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="G68" s="3">
-        <v>43507.99791666667</v>
+        <v>43508.16184027777</v>
       </c>
       <c r="H68" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="I68" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="1">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="B69">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="C69" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D69" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="F69" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G69" s="3">
-        <v>43508</v>
+        <v>43508.16190972222</v>
       </c>
       <c r="H69" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="I69" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="1">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="B70">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C70" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D70" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="F70" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="G70" s="3">
-        <v>43508.04162037037</v>
+        <v>43508.16695601852</v>
       </c>
       <c r="H70" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="I70" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="1">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="B71">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C71" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D71" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F71" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G71" s="3">
-        <v>43508.04342592593</v>
+        <v>43508.16700231482</v>
       </c>
       <c r="H71" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="I71" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="1">
-        <v>23</v>
+        <v>160</v>
       </c>
       <c r="B72">
-        <v>24</v>
+        <v>161</v>
       </c>
       <c r="C72" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D72" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="F72" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="G72" s="3">
-        <v>43508.05474537037</v>
+        <v>43508.17880787037</v>
       </c>
       <c r="H72" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="I72" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="1">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="B73">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="C73" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D73" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F73" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="G73" s="3">
-        <v>43508.06134259259</v>
+        <v>43508.27440972222</v>
       </c>
       <c r="H73" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="I73" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="1">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B74">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C74" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D74" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="F74" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="G74" s="3">
-        <v>43508.06170138889</v>
+        <v>43508.28203703704</v>
       </c>
       <c r="H74" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="I74" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="1">
-        <v>150</v>
+        <v>39</v>
       </c>
       <c r="B75">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="C75" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D75" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F75" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="G75" s="3">
-        <v>43508.07774305555</v>
+        <v>43508.31341435185</v>
       </c>
       <c r="H75" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="I75" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="1">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="B76">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="C76" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D76" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="F76" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="G76" s="3">
-        <v>43508.11739583333</v>
+        <v>43508.32862268519</v>
       </c>
       <c r="H76" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="I76" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="1">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="B77">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="C77" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D77" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="F77" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="G77" s="3">
-        <v>43508.12322916667</v>
+        <v>43508.33680555555</v>
       </c>
       <c r="H77" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="I77" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="1">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="B78">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="C78" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D78" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="F78" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G78" s="3">
-        <v>43508.16184027777</v>
+        <v>43508.34508101852</v>
       </c>
       <c r="H78" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="I78" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="1">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="B79">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="C79" t="s">
         <v>81</v>
       </c>
       <c r="D79" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F79" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G79" s="3">
-        <v>43508.16190972222</v>
+        <v>43508.41666666666</v>
       </c>
       <c r="H79" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="I79" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="1">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="B80">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="C80" t="s">
         <v>82</v>
       </c>
       <c r="D80" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="F80" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="G80" s="3">
-        <v>43508.16695601852</v>
+        <v>43508.41677083333</v>
       </c>
       <c r="H80" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="I80" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="1">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="B81">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="C81" t="s">
         <v>83</v>
       </c>
       <c r="D81" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="F81" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="G81" s="3">
-        <v>43508.16700231482</v>
+        <v>43508.41699074074</v>
       </c>
       <c r="H81" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="I81" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="1">
-        <v>162</v>
+        <v>44</v>
       </c>
       <c r="B82">
-        <v>163</v>
+        <v>45</v>
       </c>
       <c r="C82" t="s">
         <v>84</v>
       </c>
       <c r="D82" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="F82" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="G82" s="3">
-        <v>43508.17880787037</v>
+        <v>43508.43657407408</v>
       </c>
       <c r="H82" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="I82" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="1">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="B83">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="C83" t="s">
         <v>85</v>
       </c>
       <c r="D83" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F83" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="G83" s="3">
-        <v>43508.27440972222</v>
+        <v>43508.4375</v>
       </c>
       <c r="H83" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="I83" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="1">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B84">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C84" t="s">
         <v>86</v>
       </c>
       <c r="D84" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="F84" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="G84" s="3">
-        <v>43508.28203703704</v>
+        <v>43508.43888888889</v>
       </c>
       <c r="H84" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="I84" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="1">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="B85">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="C85" t="s">
         <v>87</v>
       </c>
       <c r="D85" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F85" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="G85" s="3">
-        <v>43508.31341435185</v>
+        <v>43508.43917824074</v>
       </c>
       <c r="H85" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="I85" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="1">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="B86">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="C86" t="s">
         <v>88</v>
       </c>
       <c r="D86" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="F86" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="G86" s="3">
-        <v>43508.32862268519</v>
+        <v>43508.44082175926</v>
       </c>
       <c r="H86" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="I86" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="1">
-        <v>147</v>
+        <v>56</v>
       </c>
       <c r="B87">
-        <v>148</v>
+        <v>57</v>
       </c>
       <c r="C87" t="s">
         <v>89</v>
       </c>
       <c r="D87" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="F87" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="G87" s="3">
-        <v>43508.33680555555</v>
+        <v>43508.45837962963</v>
       </c>
       <c r="H87" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="I87" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="1">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B88">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C88" t="s">
         <v>90</v>
       </c>
       <c r="D88" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="F88" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="G88" s="3">
-        <v>43508.34508101852</v>
+        <v>43508.45908564814</v>
       </c>
       <c r="H88" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="I88" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="1">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="B89">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="C89" t="s">
         <v>91</v>
       </c>
-      <c r="D89" t="s">
-        <v>234</v>
-      </c>
       <c r="E89" s="2" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F89" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="G89" s="3">
-        <v>43508.41666666666</v>
+        <v>43508.45961805555</v>
       </c>
       <c r="H89" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="I89" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="1">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B90">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C90" t="s">
         <v>92</v>
       </c>
       <c r="D90" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="F90" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="G90" s="3">
-        <v>43508.41677083333</v>
+        <v>43508.48251157408</v>
       </c>
       <c r="H90" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="I90" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="1">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="B91">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="C91" t="s">
         <v>93</v>
       </c>
       <c r="D91" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F91" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="G91" s="3">
-        <v>43508.41699074074</v>
+        <v>43508.48925925926</v>
       </c>
       <c r="H91" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="I91" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="1">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B92">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C92" t="s">
         <v>94</v>
       </c>
       <c r="D92" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="F92" t="s">
-        <v>463</v>
+        <v>443</v>
       </c>
       <c r="G92" s="3">
-        <v>43508.43657407408</v>
+        <v>43508.49513888889</v>
       </c>
       <c r="H92" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="I92" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="1">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="B93">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="C93" t="s">
         <v>95</v>
       </c>
       <c r="D93" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="F93" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="G93" s="3">
-        <v>43508.4375</v>
+        <v>43508.49722222222</v>
       </c>
       <c r="H93" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="I93" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="1">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="B94">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="C94" t="s">
         <v>96</v>
       </c>
       <c r="D94" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="F94" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G94" s="3">
-        <v>43508.43888888889</v>
+        <v>43508.49805555555</v>
       </c>
       <c r="H94" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="I94" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="1">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="B95">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="C95" t="s">
         <v>97</v>
       </c>
       <c r="D95" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F95" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="G95" s="3">
-        <v>43508.43917824074</v>
+        <v>43508.51170138889</v>
       </c>
       <c r="H95" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="I95" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="1">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B96">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="C96" t="s">
         <v>98</v>
       </c>
       <c r="D96" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="F96" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="G96" s="3">
-        <v>43508.44082175926</v>
+        <v>43508.52487268519</v>
       </c>
       <c r="H96" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="I96" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="1">
+        <v>57</v>
+      </c>
+      <c r="B97">
         <v>58</v>
-      </c>
-      <c r="B97">
-        <v>59</v>
       </c>
       <c r="C97" t="s">
         <v>99</v>
       </c>
       <c r="D97" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="F97" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G97" s="3">
-        <v>43508.45837962963</v>
+        <v>43508.52770833333</v>
       </c>
       <c r="H97" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="I97" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="1">
-        <v>141</v>
+        <v>38</v>
       </c>
       <c r="B98">
-        <v>142</v>
+        <v>39</v>
       </c>
       <c r="C98" t="s">
         <v>100</v>
       </c>
       <c r="D98" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="F98" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="G98" s="3">
-        <v>43508.45908564814</v>
+        <v>43508.52986111111</v>
       </c>
       <c r="H98" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="I98" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="1">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B99">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C99" t="s">
         <v>101</v>
       </c>
+      <c r="D99" t="s">
+        <v>241</v>
+      </c>
       <c r="E99" s="2" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="F99" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="G99" s="3">
-        <v>43508.45961805555</v>
+        <v>43508.53061342592</v>
       </c>
       <c r="H99" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="I99" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="1">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B100">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C100" t="s">
         <v>102</v>
       </c>
       <c r="D100" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="F100" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="G100" s="3">
-        <v>43508.48251157408</v>
+        <v>43508.53586805556</v>
       </c>
       <c r="H100" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="I100" t="s">
-        <v>712</v>
+        <v>556</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="1">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="B101">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="C101" t="s">
         <v>103</v>
       </c>
       <c r="D101" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F101" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G101" s="3">
-        <v>43508.48925925926</v>
+        <v>43508.54166666666</v>
       </c>
       <c r="H101" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="I101" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="1">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="B102">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="C102" t="s">
         <v>104</v>
       </c>
       <c r="D102" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F102" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="G102" s="3">
-        <v>43508.49513888889</v>
+        <v>43508.54236111111</v>
       </c>
       <c r="H102" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="I102" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="1">
-        <v>143</v>
+        <v>37</v>
       </c>
       <c r="B103">
-        <v>144</v>
+        <v>38</v>
       </c>
       <c r="C103" t="s">
         <v>105</v>
       </c>
       <c r="D103" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F103" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="G103" s="3">
-        <v>43508.49722222222</v>
+        <v>43508.54513888889</v>
       </c>
       <c r="H103" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="I103" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="1">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B104">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C104" t="s">
         <v>106</v>
       </c>
       <c r="D104" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F104" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="G104" s="3">
-        <v>43508.49805555555</v>
+        <v>43508.55972222222</v>
       </c>
       <c r="H104" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="I104" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="1">
-        <v>8</v>
+        <v>114</v>
       </c>
       <c r="B105">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="C105" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="D105" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="F105" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G105" s="3">
-        <v>43508.51170138889</v>
+        <v>43508.56013888889</v>
       </c>
       <c r="H105" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="I105" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="1">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="B106">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="C106" t="s">
         <v>107</v>
       </c>
       <c r="D106" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="F106" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="G106" s="3">
-        <v>43508.52487268519</v>
+        <v>43508.56443287037</v>
       </c>
       <c r="H106" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="I106" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="1">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="B107">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C107" t="s">
         <v>108</v>
       </c>
       <c r="D107" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F107" t="s">
-        <v>459</v>
+        <v>440</v>
       </c>
       <c r="G107" s="3">
-        <v>43508.52770833333</v>
+        <v>43508.56686342593</v>
       </c>
       <c r="H107" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="I107" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="1">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="B108">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="C108" t="s">
         <v>109</v>
       </c>
       <c r="D108" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="F108" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="G108" s="3">
-        <v>43508.52986111111</v>
+        <v>43508.57291666666</v>
       </c>
       <c r="H108" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="I108" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="1">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="B109">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="C109" t="s">
         <v>110</v>
       </c>
       <c r="D109" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F109" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G109" s="3">
-        <v>43508.53061342592</v>
+        <v>43508.57788194445</v>
       </c>
       <c r="H109" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="I109" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="1">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B110">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C110" t="s">
         <v>111</v>
       </c>
       <c r="D110" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F110" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="G110" s="3">
-        <v>43508.53586805556</v>
+        <v>43508.5830324074</v>
       </c>
       <c r="H110" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="I110" t="s">
-        <v>572</v>
+        <v>714</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="1">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="B111">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="C111" t="s">
         <v>112</v>
       </c>
       <c r="D111" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F111" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="G111" s="3">
-        <v>43508.54166666666</v>
+        <v>43508.58646990741</v>
       </c>
       <c r="H111" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="I111" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="1">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="B112">
-        <v>45</v>
+        <v>163</v>
       </c>
       <c r="C112" t="s">
         <v>113</v>
       </c>
       <c r="D112" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="F112" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="G112" s="3">
-        <v>43508.54236111111</v>
+        <v>43508.59274305555</v>
       </c>
       <c r="H112" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="I112" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="1">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B113">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C113" t="s">
         <v>114</v>
       </c>
       <c r="D113" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F113" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G113" s="3">
-        <v>43508.54513888889</v>
+        <v>43508.59375</v>
       </c>
       <c r="H113" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="I113" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="1">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B114">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C114" t="s">
         <v>115</v>
       </c>
       <c r="D114" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="F114" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="G114" s="3">
-        <v>43508.55972222222</v>
+        <v>43508.59930555556</v>
       </c>
       <c r="H114" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="I114" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="1">
+        <v>123</v>
+      </c>
+      <c r="B115">
+        <v>124</v>
+      </c>
+      <c r="C115" t="s">
         <v>116</v>
       </c>
-      <c r="B115">
-        <v>117</v>
-      </c>
-      <c r="C115" t="s">
-        <v>115</v>
-      </c>
       <c r="D115" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F115" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="G115" s="3">
-        <v>43508.56013888889</v>
+        <v>43508.60416666666</v>
       </c>
       <c r="H115" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="I115" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="1">
-        <v>64</v>
+        <v>161</v>
       </c>
       <c r="B116">
-        <v>65</v>
+        <v>162</v>
       </c>
       <c r="C116" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D116" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="F116" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="G116" s="3">
-        <v>43508.56443287037</v>
+        <v>43508.60902777778</v>
       </c>
       <c r="H116" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="I116" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="1">
-        <v>7</v>
+        <v>137</v>
       </c>
       <c r="B117">
-        <v>8</v>
+        <v>138</v>
       </c>
       <c r="C117" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D117" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="F117" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="G117" s="3">
-        <v>43508.56686342593</v>
+        <v>43508.61658564815</v>
       </c>
       <c r="H117" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="I117" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="1">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="B118">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="C118" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D118" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="F118" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="G118" s="3">
-        <v>43508.57291666666</v>
+        <v>43508.62430555555</v>
       </c>
       <c r="H118" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="I118" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="1">
-        <v>153</v>
+        <v>36</v>
       </c>
       <c r="B119">
-        <v>154</v>
+        <v>37</v>
       </c>
       <c r="C119" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D119" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="F119" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="G119" s="3">
-        <v>43508.57788194445</v>
+        <v>43508.62430555555</v>
       </c>
       <c r="H119" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="I119" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="1">
-        <v>135</v>
+        <v>89</v>
       </c>
       <c r="B120">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="C120" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D120" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="F120" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="G120" s="3">
-        <v>43508.5830324074</v>
+        <v>43508.62708333333</v>
       </c>
       <c r="H120" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="I120" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="1">
-        <v>142</v>
+        <v>53</v>
       </c>
       <c r="B121">
-        <v>143</v>
+        <v>54</v>
       </c>
       <c r="C121" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D121" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F121" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="G121" s="3">
-        <v>43508.58646990741</v>
+        <v>43508.6274537037</v>
       </c>
       <c r="H121" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="I121" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="1">
-        <v>164</v>
+        <v>28</v>
       </c>
       <c r="B122">
-        <v>165</v>
+        <v>29</v>
       </c>
       <c r="C122" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D122" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="F122" t="s">
-        <v>462</v>
+        <v>440</v>
       </c>
       <c r="G122" s="3">
-        <v>43508.59274305555</v>
+        <v>43508.63381944445</v>
       </c>
       <c r="H122" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="I122" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="1">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="B123">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D123" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="F123" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G123" s="3">
-        <v>43508.59375</v>
+        <v>43508.65416666667</v>
       </c>
       <c r="H123" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="I123" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="1">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="B124">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="C124" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D124" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="F124" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="G124" s="3">
-        <v>43508.59930555556</v>
+        <v>43508.65466435185</v>
       </c>
       <c r="H124" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="I124" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="1">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="B125">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="C125" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D125" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="F125" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="G125" s="3">
-        <v>43508.60416666666</v>
+        <v>43508.65486111111</v>
       </c>
       <c r="H125" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="I125" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="1">
-        <v>163</v>
+        <v>75</v>
       </c>
       <c r="B126">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="C126" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D126" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="F126" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="G126" s="3">
-        <v>43508.60902777778</v>
+        <v>43508.66319444445</v>
       </c>
       <c r="H126" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="I126" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="1">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="B127">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="C127" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D127" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F127" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="G127" s="3">
-        <v>43508.61658564815</v>
+        <v>43508.67291666667</v>
       </c>
       <c r="H127" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="I127" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="1">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="B128">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="C128" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D128" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="F128" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="G128" s="3">
-        <v>43508.62430555555</v>
+        <v>43508.68063657408</v>
       </c>
       <c r="H128" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="I128" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="1">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B129">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C129" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D129" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F129" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="G129" s="3">
-        <v>43508.62430555555</v>
+        <v>43508.68771990741</v>
       </c>
       <c r="H129" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="I129" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="1">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="B130">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="C130" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D130" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="F130" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G130" s="3">
-        <v>43508.62708333333</v>
+        <v>43508.68797453704</v>
       </c>
       <c r="H130" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="I130" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="1">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="B131">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C131" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D131" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F131" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G131" s="3">
-        <v>43508.6274537037</v>
+        <v>43508.69342592593</v>
       </c>
       <c r="H131" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="I131" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="1">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B132">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C132" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D132" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="F132" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G132" s="3">
-        <v>43508.63381944445</v>
+        <v>43508.70134259259</v>
       </c>
       <c r="H132" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="I132" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
     </row>
     <row r="133" spans="1:9">
       <c r="A133" s="1">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="B133">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="C133" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D133" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F133" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="G133" s="3">
-        <v>43508.65416666667</v>
+        <v>43508.70253472222</v>
       </c>
       <c r="H133" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="I133" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" s="1">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="B134">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="C134" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D134" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="F134" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="G134" s="3">
-        <v>43508.65466435185</v>
+        <v>43508.70738425926</v>
       </c>
       <c r="H134" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="I134" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" s="1">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="B135">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="C135" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D135" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="F135" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="G135" s="3">
-        <v>43508.65486111111</v>
+        <v>43508.70885416667</v>
       </c>
       <c r="H135" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="I135" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
     </row>
     <row r="136" spans="1:9">
       <c r="A136" s="1">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="B136">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="C136" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D136" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="F136" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G136" s="3">
-        <v>43508.66319444445</v>
+        <v>43508.71111111111</v>
       </c>
       <c r="H136" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="I136" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
     </row>
     <row r="137" spans="1:9">
       <c r="A137" s="1">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="B137">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="C137" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D137" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="F137" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="G137" s="3">
-        <v>43508.67291666667</v>
+        <v>43508.7125</v>
       </c>
       <c r="H137" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="I137" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="1">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="B138">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="C138" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D138" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="F138" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
       <c r="G138" s="3">
-        <v>43508.68063657408</v>
+        <v>43508.7130787037</v>
       </c>
       <c r="H138" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="I138" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="1">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="B139">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C139" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D139" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="F139" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="G139" s="3">
-        <v>43508.68771990741</v>
+        <v>43508.71319444444</v>
       </c>
       <c r="H139" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="I139" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="1">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="B140">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="C140" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D140" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="F140" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="G140" s="3">
-        <v>43508.68797453704</v>
+        <v>43508.71462962963</v>
       </c>
       <c r="H140" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="I140" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="1">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="B141">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="C141" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D141" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F141" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G141" s="3">
-        <v>43508.69342592593</v>
+        <v>43508.71783564815</v>
       </c>
       <c r="H141" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="I141" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="1">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="B142">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="C142" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D142" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="F142" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G142" s="3">
-        <v>43508.70134259259</v>
+        <v>43508.71925925926</v>
       </c>
       <c r="H142" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="I142" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" s="1">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="B143">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="C143" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D143" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F143" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
       <c r="G143" s="3">
-        <v>43508.70253472222</v>
+        <v>43508.72430555556</v>
       </c>
       <c r="H143" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="I143" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="1">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="B144">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="C144" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D144" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="F144" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="G144" s="3">
-        <v>43508.70738425926</v>
+        <v>43508.72434027777</v>
       </c>
       <c r="H144" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="I144" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" s="1">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B145">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C145" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D145" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="F145" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G145" s="3">
-        <v>43508.70885416667</v>
+        <v>43508.72454861111</v>
       </c>
       <c r="H145" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="I145" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" s="1">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="B146">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="C146" t="s">
         <v>146</v>
       </c>
       <c r="D146" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="F146" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="G146" s="3">
-        <v>43508.71111111111</v>
+        <v>43508.73185185185</v>
       </c>
       <c r="H146" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="I146" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" s="1">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B147">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="C147" t="s">
         <v>147</v>
       </c>
       <c r="D147" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="F147" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G147" s="3">
-        <v>43508.7125</v>
+        <v>43508.73751157407</v>
       </c>
       <c r="H147" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="I147" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
     </row>
     <row r="148" spans="1:9">
       <c r="A148" s="1">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="B148">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C148" t="s">
         <v>148</v>
       </c>
       <c r="D148" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="F148" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="G148" s="3">
-        <v>43508.7130787037</v>
+        <v>43508.73864583333</v>
       </c>
       <c r="H148" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="I148" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
     </row>
     <row r="149" spans="1:9">
       <c r="A149" s="1">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="B149">
-        <v>2</v>
+        <v>151</v>
       </c>
       <c r="C149" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D149" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F149" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="G149" s="3">
-        <v>43508.71319444444</v>
+        <v>43508.74486111111</v>
       </c>
       <c r="H149" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="I149" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
     </row>
     <row r="150" spans="1:9">
       <c r="A150" s="1">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="B150">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="C150" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D150" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="F150" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G150" s="3">
-        <v>43508.71462962963</v>
+        <v>43508.74918981481</v>
       </c>
       <c r="H150" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="I150" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
-      <c r="A151" s="1">
-        <v>32</v>
-      </c>
-      <c r="B151">
-        <v>33</v>
-      </c>
-      <c r="C151" t="s">
-        <v>151</v>
-      </c>
-      <c r="D151" t="s">
-        <v>295</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="F151" t="s">
-        <v>447</v>
-      </c>
-      <c r="G151" s="3">
-        <v>43508.71783564815</v>
-      </c>
-      <c r="H151" t="s">
-        <v>613</v>
-      </c>
-      <c r="I151" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
     </row>
   </sheetData>
@@ -10085,7 +10034,6 @@
     <hyperlink ref="E148" r:id="rId147"/>
     <hyperlink ref="E149" r:id="rId148"/>
     <hyperlink ref="E150" r:id="rId149"/>
-    <hyperlink ref="E151" r:id="rId150"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Scripts/Python Script Versions/Data/cleanedArticles.xlsx
+++ b/Scripts/Python Script Versions/Data/cleanedArticles.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="732">
   <si>
     <t>article_id</t>
   </si>
@@ -40,39 +40,6 @@
     <t>origContent</t>
   </si>
   <si>
-    <t>Kyler Murray chose football right after A's exec Billy Beane said no decision had been made</t>
-  </si>
-  <si>
-    <t>This Quadriga client lost his entire life savings in $560,000 mistake</t>
-  </si>
-  <si>
-    <t>How Bad Is the China Slowdown? U.S. Companies Offer Some Answers - The Wall Street Journal</t>
-  </si>
-  <si>
-    <t>National Enquirer Publisher Asked Justice Department for Advice on Saudi Connection - The Wall Street Journal</t>
-  </si>
-  <si>
-    <t>'This is a union town' — NYC councilman says Amazon's HQ2 is 'antithetical' to our values</t>
-  </si>
-  <si>
-    <t>Staples Canada jumps on the co-working trend, heralding a new era of shared workspaces</t>
-  </si>
-  <si>
-    <t>Tesla's biggest non-Musk shareholder just cut its stake in half — but the stock is still soaring (TSLA)</t>
-  </si>
-  <si>
-    <t>How the sports world reacted to Kyler Murray choosing the NFL over MLB</t>
-  </si>
-  <si>
-    <t>One of Snap's former top execs is going to take on Amazon with his new start-up</t>
-  </si>
-  <si>
-    <t>Apple's new MacBook Air is up to $150 off at Best Buy right now — and it's a great deal at this price</t>
-  </si>
-  <si>
-    <t>‘Flesh and blood robots for Amazon’: They raid clearance aisles and resell it all online for a profit</t>
-  </si>
-  <si>
     <t>Under Armour Analysts Eye Margins for Proof Efforts Paying Off</t>
   </si>
   <si>
@@ -220,7 +187,7 @@
     <t>How Trump Has Hurt the Gun Lobby</t>
   </si>
   <si>
-    <t>The Wall Street Journal: Amazon bolsters smart-home offerings with Eero acquisition</t>
+    <t>Amazon bolsters smart-home offerings with Eero acquisition</t>
   </si>
   <si>
     <t>Bezos' girlfriend shared his texts, photos with friends before Enquirer leak</t>
@@ -466,37 +433,25 @@
     <t>Seattle Area Home Where Jeff Bezos Started Amazon Can Be Yours</t>
   </si>
   <si>
-    <t>Interesting timing.</t>
-  </si>
-  <si>
-    <t>'I wasn't using it for trading — I just wanted to move my money over to my Canadian bank account'</t>
-  </si>
-  <si>
-    <t>How Bad Is the China Slowdown? U.S. Companies Offer Some Answers The Wall Street Journal Fourth-quarter results from U.S. companies indicate that slowing growth in China is modest, but broad. Retailers and other companies catering to Chinese... View full cove…</t>
-  </si>
-  <si>
-    <t>National Enquirer Publisher Asked Justice Department for Advice on Saudi Connection The Wall Street Journal Investigators zero in on Amazon CEO leaker as National Enquirer denies extortion ABC News National Enquirer did blackmail Jeff Bezos: Napolitano Fox Bu…</t>
-  </si>
-  <si>
-    <t>New York City Councilman Jimmy Van Bramer also says he is against Amazon's plans for HQ2 in Queens because of the company's stances on immigration control.</t>
-  </si>
-  <si>
-    <t>The future of co-working might not be in minimalist loft spaces with bottomless espresso bars. It might be in big box stores.</t>
-  </si>
-  <si>
-    <t>Tesla shareholder T. Rowe Price cut its stake in half in the fourth quarter, a regulatory filing showed on Monday. As of September, prior to the divestiture, T. Rowe was the automaker's second-largest shareholder, trailing only CEO Elon Musk. Now, Baillie Gif…</t>
-  </si>
-  <si>
-    <t>Decision made.</t>
-  </si>
-  <si>
-    <t>Imran Khan's new retail venture, Verishop, takes direct aim at Amazon.</t>
-  </si>
-  <si>
-    <t>The Insider Picks team writes about stuff we think you'll like. Business Insider has affiliate partnerships, so we get a share of the revenue from your purchase. Apple's MacBook Air is on sale at Best Buy for up to $150 off its original price as part of the "…</t>
-  </si>
-  <si>
-    <t>For some, retail arbitrage is a lucrative side hustle, but for others it's how they earn a living, with the potential to make thousands a year</t>
+    <t>Google, Amazon Want Smart Devices to Mine Even More of Your Data</t>
+  </si>
+  <si>
+    <t>Excerpts from recent editorials in newspapers in Illinois</t>
+  </si>
+  <si>
+    <t>Arkansas museum moves to temporary home during $99M revamp</t>
+  </si>
+  <si>
+    <t>Everything you need to know about Eero, the fan-favorite WiFi router company that Amazon just bought (AMZN)</t>
+  </si>
+  <si>
+    <t>IBM's Ginni Rometty says she sees no change in CEO confidence since Powell's last fed speech</t>
+  </si>
+  <si>
+    <t>The new CEO of Google Cloud explains the updated master plan for taking on Amazon Web Services (GOOGL)</t>
+  </si>
+  <si>
+    <t>These are the 20 most congested cities in the world</t>
   </si>
   <si>
     <t>Under Armour Inc. will report fourth-quarter financial results pre-market Tuesday. Analysts largely expect the quarterly report and the 2019 forecast to be inline with the forecasts provided at the company’s December 12 investor day. Particular interest will …</t>
@@ -889,40 +844,25 @@
     <t>The Bellevue home that served as the original Amazon HQ is now for sale for a mere $1.49 million.</t>
   </si>
   <si>
-    <t>https://ftw.usatoday.com/2019/02/kyler-murray-billy-beane-football-baseball-nfl</t>
-  </si>
-  <si>
-    <t>https://business.financialpost.com/technology/blockchain/this-quadriga-client-lost-his-entire-life-savings-in-560000-mistake</t>
-  </si>
-  <si>
-    <t>https://www.wsj.com/articles/how-bad-is-the-china-slowdown-u-s-companies-offer-some-answers-11549908754</t>
-  </si>
-  <si>
-    <t>https://www.wsj.com/articles/national-enquirer-publisher-asked-justice-department-for-advice-on-saudi-connection-11549908996</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/2019/02/11/amazon-hq2-is-antithetical-to-our-union-values-nyc-councilman-says.html</t>
-  </si>
-  <si>
-    <t>https://www.cbc.ca/news/canada/toronto/staples-canada-coworking-space-1.5012904</t>
-  </si>
-  <si>
-    <t>https://markets.businessinsider.com/news/stocks/tesla-stock-price-t-rowe-price-large-shareholder-just-cut-stake-in-half-2019-2-1027942200</t>
-  </si>
-  <si>
-    <t>https://www.businessinsider.com/tesla-stock-price-t-rowe-price-large-shareholder-just-cut-stake-in-half-2019-2</t>
-  </si>
-  <si>
-    <t>https://ftw.usatoday.com/2019/02/kyler-murray-mlb-nfl-decision-reaction</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/2019/02/11/imran-khan-announces-plans-to-launch-online-retailer-verishop.html</t>
-  </si>
-  <si>
-    <t>https://www.businessinsider.com/macbook-air-sale-best-buy-2019-2</t>
-  </si>
-  <si>
-    <t>https://business.financialpost.com/news/retail-marketing/flesh-and-blood-robots-for-amazon-they-raid-clearance-aisles-and-resell-it-all-online-for-a-profit</t>
+    <t>Amazon and Google say they collect the data to make it easier for people to manage their home electronics. Automatic status updates reduce the time it takes to process voice commands and lets smart-home hubs present up-to-date information on a screen or smart…</t>
+  </si>
+  <si>
+    <t>February 10, 2019</t>
+  </si>
+  <si>
+    <t>LITTLE ROCK, Ark. (AP) — The Arkansas Arts Center will move into a former Walmart in Little Rock while the downtown museum gets a nearly $99 million makeover.</t>
+  </si>
+  <si>
+    <t>Amazon announced its acquisition of a small company called Eero on Monday for an undisclosed amount. Eero makes mesh WiFi systems, which include devices that are designed to be placed throughout a user's home to deliver fast and strong WiFi, even in areas tha…</t>
+  </si>
+  <si>
+    <t>CEO sentiment has been balanced "between growth and efficiency initiatives" since the Federal Reserve said it would be patient, IBM CEO Ginni Rometty says.</t>
+  </si>
+  <si>
+    <t>In his inaugural appearance as the new CEO of Google Cloud on Tuesday, Thomas Kurian said Google Cloud is revamping its master plan as it chases the leading Amazon Web Services. Rather than go after so-called "digital native" companies, Google Cloud is going …</t>
+  </si>
+  <si>
+    <t>The transportation data firm INRIX Research released on Tuesday its annual rankings of the most congested cities in the world. Cities were ranked based on delays caused by congestion, adjusted for each city's population. Moscow was named the most congested ci…</t>
   </si>
   <si>
     <t>https://www.bloomberg.com/news/articles/2019-02-11/under-armour-analysts-eye-margins-for-proof-efforts-paying-off</t>
@@ -991,12 +931,12 @@
     <t>https://www.washingtonpost.com/weather/2019/02/11/pm-update-some-ice-is-risk-through-early-tuesday-especially-north-west-then-more-rain/</t>
   </si>
   <si>
+    <t>https://www.cnbc.com/2019/02/11/amazon-will-acquire-eero-a-company-that-makes-home-wifi-systems.html</t>
+  </si>
+  <si>
     <t>https://www.cnbc.com/2019/02/11/amazon-is-acquiring-home-wifi-start-up-eero.html</t>
   </si>
   <si>
-    <t>https://www.cnbc.com/2019/02/11/amazon-will-acquire-eero-a-company-that-makes-home-wifi-systems.html</t>
-  </si>
-  <si>
     <t>https://www.businessinsider.com/amazon-acquiring-eero-router-2019-2</t>
   </si>
   <si>
@@ -1336,96 +1276,81 @@
     <t>http://fortune.com/2019/02/12/bezos-bellevue-home-original-amazon-hq-for-sale/</t>
   </si>
   <si>
+    <t>https://www.bloomberg.com/news/articles/2019-02-12/your-smart-light-can-tell-amazon-and-google-when-you-go-to-bed</t>
+  </si>
+  <si>
+    <t>https://apnews.com/1a0371c3dbeb437284d57c3c98218435</t>
+  </si>
+  <si>
+    <t>https://apnews.com/a7c22f79b2b74be0b33cec9932413e93</t>
+  </si>
+  <si>
+    <t>https://www.businessinsider.com/eero-wifi-router-amazon-acquisition-explained-2019-2</t>
+  </si>
+  <si>
+    <t>https://www.cnbc.com/2019/02/12/ibm-ceo-ginni-rometty-no-change-in-ceo-confidence-since-powell-speech.html</t>
+  </si>
+  <si>
+    <t>https://www.businessinsider.com/google-cloud-thomas-kurian-master-plan-2019-2</t>
+  </si>
+  <si>
+    <t>https://www.businessinsider.com/cities-with-worst-traffic-in-the-world-2019-2</t>
+  </si>
+  <si>
+    <t>bloomberg</t>
+  </si>
+  <si>
+    <t>business-insider</t>
+  </si>
+  <si>
+    <t>the-economist</t>
+  </si>
+  <si>
     <t>usa-today</t>
   </si>
   <si>
+    <t>cnbc</t>
+  </si>
+  <si>
+    <t>the-wall-street-journal</t>
+  </si>
+  <si>
+    <t>associated-press</t>
+  </si>
+  <si>
+    <t>the-globe-and-mail</t>
+  </si>
+  <si>
+    <t>reuters</t>
+  </si>
+  <si>
     <t>financial-post</t>
   </si>
   <si>
-    <t>the-wall-street-journal</t>
-  </si>
-  <si>
-    <t>cnbc</t>
+    <t>the-washington-post</t>
+  </si>
+  <si>
+    <t>fortune</t>
+  </si>
+  <si>
+    <t>nbc-news</t>
+  </si>
+  <si>
+    <t>the-new-york-times</t>
+  </si>
+  <si>
+    <t>fox-news</t>
   </si>
   <si>
     <t>cbc-news</t>
   </si>
   <si>
-    <t>business-insider</t>
-  </si>
-  <si>
-    <t>bloomberg</t>
-  </si>
-  <si>
-    <t>the-economist</t>
-  </si>
-  <si>
-    <t>associated-press</t>
-  </si>
-  <si>
-    <t>the-globe-and-mail</t>
-  </si>
-  <si>
-    <t>reuters</t>
-  </si>
-  <si>
-    <t>the-washington-post</t>
-  </si>
-  <si>
-    <t>fortune</t>
-  </si>
-  <si>
-    <t>nbc-news</t>
-  </si>
-  <si>
-    <t>the-new-york-times</t>
-  </si>
-  <si>
-    <t>fox-news</t>
-  </si>
-  <si>
     <t>financial-times</t>
   </si>
   <si>
     <t>cnn</t>
   </si>
   <si>
-    <t>Heisman Trophy winner Kyler Murray has made his decision Hes choosing football over baseballSomeone should tell team vice president Billy BeaneWith pitchers and catchers reporting to Oakland As camp on Monday Beane understandably had to field questions about Murray Beane said that no decision had been made by the Murray camp an hour before Murray announced his decisionBilly Beane wouldnt get too much into detail on Kyler Murray only saying As continue to have private conversations with Murray and his team Wouldnt comment on report of Murray attending combine saying report didnt come from Murray or his representatives pictwittercomZ4iM4vBeMZ Martn Gallegos MartinJGallegos February 11 2019That timing was  interestingBeane saidThings have certainly changed since the draft A Heisman Trophy Hes projected to be an early firstround pick  Weve had ongoing conversations as it relates to the situation and as it relates to Kylers future period Not just with baseball but also potentially other sports So I dont have any answers for you and I probably wont until weve decided on the process All I can tell you is that it hasnt been decided And the conversations will continueThe former Oklahoma quarterback was a firstround pick by the Oakland As in 2018 but was permitted to play his final season of football in Norman The As had the full expectation that hed be back with the team Murray just went on to put up historic numbers and played himself into a likely firstround pick in the NFLIf Murray follows through with this announcement to choose a career in the NFL he would have to pay back and forfeit his 46 million signing bonus to the AsKyler Murray will return 129 million of the 15 million signing bonus money the Oakland As gave him last year He forfeits the remaining 316 million due March 1 The As will put him on the restricted list and retain Murrays rights but they dont get a comp draft pick Jeff Passan JeffPassan February 11 2019Brian Hoyers Amazon and ESPN subscriptions helped the Patriots win Super Bowl 53How Bill Belichick outclassed the NFLs latest genius in Super Bowl 53The Grammys need to stop bringing out athletes as presenters</t>
-  </si>
-  <si>
-    <t>Tong Zou wasnt a stereotypical crypto bro bent on accumulating flashy trophies such as Lamborghinis when he deposited his life savings into Quadriga CXs digital exchangeThe 30yearold software engineer whod been working in California for seven years just wanted to save a few bucks on transfer fees after deciding to move to Vancouver It proved to be a 560000 US422000 mistakeIts all my savings so Im just living on what little I have left and trying to start over Zou said in a phone interview Friday from Vancouver where he has been living out of an AirBnB for the past month It pretty much took everything away from meZou is one of Quadrigas 115000 clients who are out of luck after the sudden death of the firms founder left 190 million in cryptocurrencies protected by his passwords unretrievable The exchange has halted operations and was granted protection from creditors on Feb 5 in Nova Scotia Supreme Court in HalifaxZou considers himself one of the largest affected individual users  according to an affidavit he filed as part of the court proceedings He bought Bitcoin in the US and transferred it over to Quadriga CX and immediately sold it for Canadian dollars which was supposed to be deposited into his Canadian bank account That was in October Hes still waitingI wasnt using it for trading  I just wanted to move my money over to my Canadian bank account Zou said in the interview What I didnt know was that my withdrawal would be pending or incomplete and it never got deposited in my bank account Ive been waiting four months so farA lot of other people are in the same situation as me he saidQuadrigas 115000 clients are out of luck after the sudden death of the firms founder left 190 million in cryptocurrencies protected by his passwords unretrievableChris RatcliffeBloombergThat money was going to help him settle back in Canada after being away for years Zou who grew up in Orillia Ontario had moved to the US after graduating from the University of Toronto in 2011 He spent the next seven years working as a software engineer around San Francisco at companies including BitTorrent Inc Walmart Inc and Spigit IncI was going to use that money for a deposit on an apartment but now I cant do that anymore Zou said And now Im currently searching for a job so its kind of a bad time for meZou has been coordinating with other affected users online and through the Telegram messaging app and turned to Bennett Jones LLP and McInnes Cooper to represent him and others in Quadrigas creditor protection proceedings in HalifaxI just got caught up in this at the wrong time I guessOther affected customers have since come forward filing competing submissions to be represented by other law firms including Miller Thomson LLP working with Cox amp Palmer and Osler Hoskin amp Harcourt LLP working with Patterson Law The matter is scheduled to be heard in Nova Scotia Supreme Court on Feb 14Bloombergcom</t>
-  </si>
-  <si>
-    <t>The factory workhorses are a barometer of the manufacturing sectors fitness Changes in demand can ease or worsen concerns about China The Reading Pa maker of batteries that power forklifts said those sales in China fell in the latest quarter after rising 10 or more earlier in the yearWeve seen a slowdown said Michael Schmidtlein EnerSys finance chief Given that forklifts are a good indicator of economic activity their general economy has slowed and maybe far greater than the authorities are indicatingFourthquarter results from US companies highlight the many and varied ways that Chinas cooling economy affects American business and in turn offer a glimpse of whats happening inside China The indications are that slowing growth there is broad if still modest For US businesses the repercussions extend well beyond slowing sales at companies with the biggest exposure to Chinas vast economyCompanies like EnerSys are struggling with weaker demand from export manufacturers in China which are pulling back amid fears that trade tensions will worsen Retailers and other companies catering to Chinese consumers face signs of weakness among the countrys growing middle class They are buying fewer cars phones and are traveling lessSome analysts expect that Chinas slowing growth and its effects on US companies will worsen in the first quarter A recent businesssentiment survey from Oxford Economics found that many North American and European businesses see elevated risks of a sharp global downturn with many citing Chinas economy and its policy response as significant risksThe expectation is that Q1 is going to be brutal said Brad Setser former deputy assistant Treasury secretary for international economic analysis in the Obama administration and now a senior fellow in international economics at the Council on Foreign RelationsChinese exports slowed in December and are likely to decelerate more sharply in the first quarter Mr Setser said especially if trade tensions with the US arent resolved The question is will the trade truce plus Chinas internal stimulus put Chinas economy back on a stable pathUS and Chinese officials will meet this week for trade negotiations ahead of a March 1 deadline President Trump in early December delayed plans to increase tariffs on 200 billion of Chinese goods to 25 from 10 giving the two sides time to strike a comprehensive trade dealThe uncertainty over the path of Chinas economy has gripped the attention of US executives and Wall Street analysts They mentioned China 225 times during investor conferences and calls for current SampP 500 companies through the first full week of Februarythe most over the same period in at least a decade according to a Wall Street Journal analysis of transcripts from FactSetGeneral Motors Coreported a 25 decline in the number of vehicles it sold in China in the fourth quarter compared with a year earliera grim turn in a year with a 98 sales drop GMs sales shrank faster than those of the industry as a whole which declined 20 in the fourth quarter and about 6 for the yearGM attributed its weaker performance largely to its lowermargin Wuling and Baojun brands in smaller Chinese cities where a softening realestate market has soured consumer sentiment The companys luxury Cadillac brand however rose 17 last year over 2017 driven by sales in Chinas largest and most affluent cities One bright spot comes from continued spending by wealthy buyersEste Lauder Cos said sales in the AsiaPacific market led by China and Hong Kong rose 20 in the second half of last year Chief executive Fabrizio Freda said in an earnings call last week that highend beauty products are a relatively affordable luxury that younger Chinese shoppers keep buying despite a decelerating national economyJewelerTiffany amp Cowhich rings up as much as 30 of its sales from Chinese consumers said sales in China rose by more than 10 in the twomonth holiday period ended Dec 31Outside China the prospects look less cheery Analysts say most of Tiffanys sales to Chinese consumers are from Chinese tourists shopping in Hong Kong Europe and elsewhere That business hasnt held up as well Chinese tourists bought less in the Americas and in Hong Kong in the quarter that ended in late October the company saidTourism sales also slipped over the holiday period Tiffany said in a midJanuary report The company traces softened tourist sales to a stronger dollar which raises travel and overseas shopping costs for Chinese consumers Gene Ma head of China research for the Institute of International Finance in Washington DC said government rules to stem capital outflows including tighter ATM withdrawal limits likely depressed sales to Chinese tourists abroad among other factorsChinas girthDespite slowing China still posted economic growth above 6 last year easily surpassing the US and EuropeThe countrys 14 billion people and rising middle class bought nearly 52 billion worth of iPhones and otherApple Incproducts in the fiscal year that ended on Sept 29 Rapidly expanding megacities such as Shanghai are dotted withStarbuckscoffee shops and new buildings ferry passengers on Otis elevators made byUnited Technologies CorpChinas size and rapid growth in recent years together with the expansion of American businesses within its economy mean even a modest slowdown can be felt along supply chains that stretch worldwide As more companies flagged economic weakness in China in their fourthquarter results investors and analysts have worked to untangle the impact on US companies and economic sectors Many companies disclose sales in Asia and to a lesser extent in China but exposure to the Chinese economy is much broaderCompanies such asMastercard Incfor instance have no direct business within Chinas domestic economy Yet it can see the effect of slowing growth Mastercard CEO Ajay Banga told analysts in a Jan 31 conference call Given the size of the Chinese economy it does impact the global economic pictureAbout a third of companies in the SampP 500 generate no direct revenue from China according to estimates by FactSet based in part on company disclosures Another third generate at least 3 of sales in China About 60 of the biggest US companies generate 10 or more of sales there Many are technology and industrial companies that sell components to manufacturers that make products in China for export elsewhere limiting their exposure to a slowing Chinese economyEverything is built in China but it doesnt necessarily stay in China said Christopher Rolland a semiconductor analyst at Susquehanna International Group Sales numbers he added can be an overrepresentation of true Chinese demandNot all business problems in China are driven by tariffs or slower growth thereTupperware Brands Corp which markets its plastic food containers through a network of individual sellers last month said revenue and profit across several of its units were below internal projections The company in part blamed weakness in China The companys shares fell 27 that day Doug Lane who runs a boutique investment research firm said other direct sellers havent mentioned similar problems in China When companies are reporting numbers below expectations they tend to blame a lot of things he saidTupperware said it generated more than 200 million in revenue in China in 2018 or about 10 of its sales through 6700 independent retail locations It declined to commentUnder pressureEnerSys the Pennsylvaniabased battery maker is feeling pressure from all sides a slowing Chinese economy new government rules and the ChinaUS trade battleThe company generates about 5 of its total sales in China and about 60 come from the Americas But it makes some of its batteries in China and the company competes with Chinese battery makers that sell backup power suppliesEnerSys said sales in Asia in its most recent quarter fell 11 from the prior quarter A government mandate prompted one of its largest Chinese customers to use more recycled batteries In response to slowing sales EnerSys had planned to use a Chinese factory to produce more products for export to the US That idea was scrapped when the US imposed tariffs on batteries imported from China EnerSys says now it will export from its Chinese factory to other countriesThe cooling Chinese economy has driven down the price of raw materials including the lead used to make batteries but it isnt much of a silver lining Our inputs are cheaper but the broad demand for our product is less said Mr Schmidtlein the EnerSys finance chiefOther companies are benefiting from lowerpriced raw materials on the one hand and getting pinched by US tariffs on the other Masco Corp which makes Delta faucets and Hansgrohe shower heads said it was poised to benefit from lower copper and zinc prices in the second half of last year Masco also faces increased costs of about 150 million if the US follows through on its threat to raise some tariffs on Chinese imports to 25 this year the company said in its annual report filed ThursdayIf forklift demand is one rough gauge of economic growth microchips are another Consumer appetite for highprice electronics including smartphones has slowed So has construction which means fewer appliance sales Both are bad news for semiconductor makers whose chips span all those products Is Your Business Affected by TariffsClick here to tell us how The WSJ wants to hear from readers whose business or job is affected by tariffsIndustrial and consumer end markets have been especially weak in greater China Keith Jackson chief executive of ON Semiconductor Corp saidChinese manufacturers are cutting back orders of microchips to avoid being left with unsold goods in case the USChina trade dispute yields higher tariffs and demand for Chinesemade goods faltersTheyre risk averse Theyre not going to take any chances Theyre not going to hold inventory Thad Trent the financial chief at Cypress Semiconductor Corp said Jan 16 at a conference We see customers waiting at the last minute to place ordersChip makers link Chinas slowing growth with the USChina trade fight Trade is the problem why Chinese economy is weakening so much said Steve Sanghi CEO of Microchip Technology Inc which makes microcontrollers used in electronic and industrial componentsSome executives and analysts have said economic softness would dissipate if the trade issues were resolved Others arent so sureThere are some underlying economic and enddemand issues in China that still need to be dealt with and resolved said John Vinh a semiconductors analyst with KeyBanc Capital Markets Inc There is not potentially a quick fix as easy as resolving the tariff conflictWrite to Austen Hufford at austenhuffordwsjcom and Theo Francis at theofranciswsjcom</t>
-  </si>
-  <si>
-    <t>The dustup betweenAmazoncom Inc AMZN 021founder Jeff Bezos and National Enquirer parent American Media LLC has raised questions about the media companys connections to Saudi Arabia American Media has had plenty of contacts with Saudi Arabia in recent years including seeking financial backing from Saudi investors to fund acquisitions and producing a magazine celebrating the countrys new crown prince It also sought advice last year from the US Justice Department over whether the publisher should register as a foreign agent a person familiar with the matter told The Wall Street JournalThe issue of the ties came up last week when Mr Bezos took to the internet to push back against what he said was an extortion attempt by the National Enquirer against him over an extramarital affair that the tabloid reported on last month featuring photos and texts He said he launched his own probe into how the publication obtained his texts as well as its motives and wrote that the Saudi angle seems to hit a particularly sensitive nerveAn attorney for American Media Chief Executive David Pecker on Sunday denied the company had engaged in extortion and said the source of the information for the coverage was not Saudi ArabiaDavid Pecker the publisher of the National Enquirer is facing accusations from Jeff Bezos involving blackmail and political favors WSJs Jason Bellini breaks down the genesis of Peckers recent controversies Photo GettyAdel alJubeir a Saudi government official who was in Washington Friday characterized the dispute between Mr Bezos and American Media as a soap opera Asked whether the kingdom played a role he said as far as I know flat noIn recent years American Media sought Saudi financial backing to finance a failed effort to acquire Time magazine Sports Illustrated Fortune and Money the Journal reported last year American Media confirmed the contacts but said the only deal that has ever been discussed with Saudi investors was the expansion of the Mr Olympia bodybuilding competition which American Media owns into the Middle East and North AfricaThe lawyer for Mr Pecker Elkan Abramowitz on Sunday on ABC said American Media sought financing from the Saudis but never obtained anyAmerican Media also produced a promotional magazine about Saudi Arabia To commemorate Saudi Crown Prince Mohammed bin Salmans visit to the US in March 2018 American Media published 200000 copies of a 97page advertisementfree glossy magazine titled The New Kingdom promoting the country and its young prince then 32 years oldIn a sign American Media was concerned its connection to Saudi Arabia could become an issue the company sought advice from the Justice Department last year about whether it should register as a foreign agenta status under which any organization engaged in public relations under the direction or control of a foreign government may fallaccording to a Justice Department letter to the company responding to its inquiry The publisher wrote to the Justice Department after several news outlets wrote about the publication of the proSaudi magazineThe Justice Department posted its response in redacted form Although American Media isnt named in the letter the details clearly reference the media company A person familiar with the matter confirmed American Media wrote to the Justice Department after publishing the magazine celebrating Prince Mohammed Frankly it was done to kiss his ass when he came to visit in the hopes hed invest in the company and it didnt work the person said of the magazine There was nothing more to it than thatJustice Department officials wouldnt confirm that the redacted entity is American Media and declined to comment beyond what was in their letterThe publisher gave an adviser to Saudi Arabia a draft of the magazine and followed the advisers editorial suggestions according to the letter which was dated July 13 2018American Media said in the past that Saudi officials played no role in the production of the magazine The company told Justice Department officials in the letter that although it followed the editorial and photography suggestions of the adviser it wasnt under any contractual obligation to do so The publisher also told the Justice Department that it didnt receive any foreign money to produce the magazineBased on those assertions the Justice Department said the media company didnt need to register as a foreign agent noting that conclusion could change if the facts in the matter are different in any way from those depicted in your submissionThe magazine which hit US newsstands just ahead of Prince Mohammeds March visit and sold for 1399 drew attention at the time because of the close relationship that Mr Pecker and President Trump had The special issue which remained on sale for three months included a glowing editorial about Saudi Arabia by Kacy Grine a French financial adviser who people familiar with the matter said visited Mr Trump at the White House in July 2017 with Mr Pecker and American Media Chief Content Officer Dylan Howard Mr Grine didnt respond to a request for commentAsked on This Week Sunday if the magazine was published in an attempt to curry favor with Saudi Arabia Mr Abramowitz said it was published for journalistic reasonsAt the July 2017 meeting Mr Trump alluded to the Enquirers positive coverage of his election campaign and presidencyEditor man editor man how many more covers of the Enquirer have I been on than Arnold Schwarzenegger Mr Trump asked Mr Howard according to people familiar with the matterA White House official said that Mr Trump recalled the Oval Office meeting with Mr Pecker and others and that he called the American Media CEO a great guy the Journal reported last yearMr Pecker has admitted buying embarrassing stories about Mr Trump and burying them a practice known as catch and kill In exchange for immunity the publisher and Mr Pecker last year agreed to cooperate with federal prosecutors investigating former Trump lawyer Michael Cohen who arranged payments during the 2016 campaign to silence two women who alleged sexual encounters with Mr Trump Federal prosecutors in Manhattan are examining whether the Enquirers dealings with Mr Bezos violated the nonprosecution agreement according to people familiar with the matterThe crown prince visited Mr Trump at the White House during his March 2018 tripSince the crown princes visit his reputation and the relationship between the US and Saudi Arabia have frayed In October Washington Post columnist Jamal Khashoggi was killed at a Saudi consulate in Turkey which the CIA has concluded was likely ordered by the crown prince The Saudi government has contested the findingsThe Posts essential and unrelenting coverage of the murder of its columnist Jamal Khashoggi is undoubtedly unpopular in certain circles Mr Bezos wrote in his blog post Thursday Mr Bezos owns the Washington PostWrite to Julie Bykowicz at juliebykowiczwsjcom and Lukas I Alpert at lukasalpertwsjcom</t>
-  </si>
-  <si>
-    <t>Amazon has shown that it is antithetical to New York values and the company should not be allowed to build its second headquarters in Queens until it changes its ways City Councilman Jimmy Van Bramer told CNBC on Mondaydiv gt divgroup gt pfirstchildgtBramer deputy leader of the 51member council said one reason he is against the HQ2 deal is because of the online shopping behemoths stance on labor unionsThey remarkably came to the City Council last week and declared not only would they not remain neutral when it came to efforts of their employees  to organize but that they would actually fight to crush any effort of their employees to unionize the Queens borough representative said on Squawk on the Street This is a union town I grew up in a union family Weve got to stand up for our values thereBramer a Democrat also called out Amazons reported ties to federal Immigration and Customs Enforcement agencySome Amazon shareholders have urged the tech giant to stop selling Rekognition its facial recognition technology to some government agencies They have also said that Amazon is planning to pitch the service to ICEObviously were a sanctuary city The mayor and all of us have declared that we want to be a safe haven for all immigrants including the undocumented Bramer said Amazon refuses to budge on that issueThe company has defended selling Rekognition to law enforcementBramer believes Gov Andrew Cuomo and Mayor Bill de Blasio also Democrats botched the deal which includes roughly 3 billion in tax incentives to lure the Seattlebased companys investment The plan is to bring part of its second headquarters and 25000 jobs to the Long Island City neighborhood in QueensAll of those reasons and more lead us to fight this deal because at the end of the day its a bad deal for New York Bramer saidThe Washington Post reported on Friday that Amazon is reconsidering the New York development due to local oppositionIn response to the report Cuomo said we have to make Amazon a reality in New York and that it is irresponsible to allow political opposition to overcome sound government policy He equated such opposition to malpractice because the headquarters would create so many jobs in the cityDe Blasios office has defended tax incentives offered by the city for the project saying it could generate 125 billion in future tax revenuesAmazon did not immediately respond to a request for comment</t>
-  </si>
-  <si>
-    <t>The future of coworking spaces may not be in hip openconcept loftsCoworking in which entrepreneurs and freelancers rent outdesks at a shared workspaceis growing rapidly and big companies are looking to get in on the action as a way tomonetize empty spaceLast month Staples Canada openedStaples Studio at its University Avenue location in downtown Toronto The venture isdescribed by the company as a combination ofcoworking space retail and servicesWhy did we go into coworking Quite frankly our customers were telling us the way they work is changing saidStaples Canada CEO David BooneWith competitors like Amazon and Walmart cutting intoStaples retail business and with its online sales growing faster than instore purchases Boone said repurposing extra space in stores is keyClearly the retail industry is going through a lot of changehe saidAnd those retailers that adapt are going to winGlobal growth of shared workspacesAs workers become more nomadic coworking spaces are an increasingly popular optionAccording to the Global Coworking Unconference Conference a company which produces conferences on coworking there were around 14000 coworking spaces around the world in 2017They expect thatnumber to climb to 30000 spaces by 2022In Toronto a variety of spotshave popped up to fill the need including a parentfriendly coworking spacea space just for female entrepeneurs and a business thatconnects freelancers to empty restaurants where they can sit and workAs of this past December even the federal government is considering gettingin on the actionStaples Studiocoming to a city near youToronto startup Healthy Pets a telemedicine company that connects pet owners and vets relocated its team to Staples Studio after a strenuous search for the right spaceIt was actually a very difficult process because a lot of coworking spaces in the city are either full or very expensive the companys lead software engineer Dennis Turko saidTurko said being at Staples Studio saves his company time because the office was ready to go when they moved inPreviously we havepurchased all of our supplies whether its hardware whether its computers whether its stationary he saidIn that sense having an office with a Staples store so close at hand has been convenient he said the team never wants for office suppliesThats what Boone means when he says Staples Studio offers a complete experience thats unlike other coworking spacesBoone says he plans to take the coworking model to other cities later this yearU of T space now for rentThe push towards coworkingis happening in universities as wellIn 2017 The University of Torontolaunched ONRamp a 15000 square foot office space thats sponsored by RBC and is free to student entrepreneurs and recent alumniU of T Entrepreneurship managing director Keri Damen told CBC Toronto the university also rents out space at a competitive priceWe wanted to create a central space where all these entrepreneurs from engineering or medicine or business or Scarborough or Mississauga they could come together to share and work together in a space Damen said</t>
-  </si>
-  <si>
-    <t>Joe SkipperReutersTesla shareholder T Rowe Price cut its stake in half in the fourth quarter a regulatory filing showed on MondayAs of September prior to the divestitureT Rowe was the automakers secondlargest shareholder trailing only CEO Elon MuskNow Baillie Gifford is Teslas biggest institutional stakeholderWatch Tesla trade liveT Rowe Price formerly Teslas largest institutional shareholdercut its stake in half in the fourth quarter a regulatory filing showed on MondayThe filing showed that T Rowe had reduced its stake to 52 as of the end of December down from the 1012 stake it held in September Prior to the divestiture T Rowe was Teslas secondlargest overall shareholder trailing only CEO Elon MuskThe move makes Scottish investing giant Baillie Gifford Teslas biggest institutional stakeholderTesla investors didnt seem particularly perturbed by the development The companys stock climbed 359 on Monday trading near 31677 per shareT Rowes withdrawal of investment could be reflective of broader concerns about the companys ability to selffund its growth ambitions On January 30 the tech company reported worsethanexpected profits for the fourth quarter despiteachieving two consecutive profitable quarters for the first timeAnd while Tesla swore it would be profitable in all quarters going forward Morgan Stanley says the company will still need to raise more external capitalWe forecast Tesla 1Q19 free cash flow to be negative 600 million driven by a sequential decline in profit and working capital leakage Adam Jonas an analyst at Morgan Stanley said recently He pushed out his forecast of a 25 billion equity capital raise to the third quarter of the yearTesla is up 31 so far this yearMI</t>
-  </si>
-  <si>
-    <t>T Rowe Price formerly Teslas largest institutional shareholder cut its stake in half in the fourth quarter a regulatory filing showed on Monday  The filing showed that T Rowe had reduced its stake to 52 as of the end of December down from the 1012 stake it held in September Prior to the divestiture T Rowe was Teslas secondlargest overall shareholder trailing only CEO Elon Musk  The move makes Scottish investing giant Baillie Gifford Teslas biggest institutional stakeholder  Tesla investors didnt seem particularly perturbed by the development The companys stock climbed 359 on Monday trading near 31677 per share  T Rowes withdrawal of investment could be reflective of broader concerns about the companys ability to selffund its growth ambitions On January 30 the tech company reported worsethanexpected profits for the fourth quarter despite achieving two consecutive profitable quarters for the first time  And while Tesla swore it would be profitable in all quarters going forward Morgan Stanley says the company will still need to raise more external capital  We forecast Tesla 1Q19 free cash flow to be negative 600 million driven by a sequential decline in profit and working capital leakage Adam Jonas an analyst at Morgan Stanley said recently He pushed out his forecast of a 25 billion equity capital raise to the third quarter of the year  Tesla is up 31 so far this year MI</t>
-  </si>
-  <si>
-    <t>The Oakland As had hoped that 2018 firstround pick Kyler Murray would report to spring training but thats clearly not going to happenMurray is choosing footballThe Heisman Trophy winner announced Monday that he will pursue a career as an NFL quarterback over playing baseball for the AsMurray is a projected firstround pick in Aprils draft and will almost certainly become the first athlete to be drafted in the first round of both the NFL and MLBThe former Oklahoma quarterback had been leaning towards football but his announcement  which came right after As exec Billy Beane said no decision had been made  got the sports world buzzingKyler Murray Why Im leaving The Athletics Tom Fornelli TomFornelli February 11 2019Kyler Murray had a choice stay relevant and follow your passion or play baseball and notHe picked the NFL Dov Kleiman NFLDovKleiman February 11 2019From the moment Kyler Murray looked like a Heisman Trophycaliber quarterback the Oakland As knew they were longshots to keep him playing baseball This is a bummer for MLB but it was the likeliest outcome httpstconzhFEJeU3T Jeff Passan JeffPassan February 11 2019I just cant believe Kyler Murray would choose a first round contract and signing bonus in the NFL over letting the notoriously cheap Oakland As manipulate his free agency eligibility for the next half decade Chase Ruttig ChaseRuttig February 11 2019MLB was willing to bend rules to convince a kid who did not have any guarantee of being a star of choosing baseball over football and failed Not a great look for a sport whose narrative is that young people dont want to sit through a game anymore httpstcozUaXutOOG0 Joon Lee joonlee February 11 2019Read more from USA TODAY Sports Kyler Murray chose football right after As exec Billy Beane said no decision had been madeBrian Hoyers Amazon and ESPN subscriptions helped the Patriots win Super Bowl 53How Bill Belichick outclassed the NFLs latest genius in Super Bowl 53</t>
-  </si>
-  <si>
-    <t>Imran Khan a former top exec at Snap has plans to go after Amazondiv gt divgroup gt pfirstchildgtThough details are still scarce Khans new retail company called Verishop said Monday in a post on Medium that it plans to launch an ecommerce platform for vetted brands that brings back to customers the joy of discovering something new that you truly love on the internetWe see an opportunity for an ecommerce company to bring joy back to online shopping and do it at scale with the ease of online purchasing and fast delivery weve all come to expect the blog post said Verishop added that the company has been communicating with upandcoming brands that share frustrations over existing online retail platforms that have counterfeit products or that hurt brand integrityEcommerce was supposed to make shopping easier and for everyday commodity items it has the blog post saidBusinesses that have already agreed to sell on Verishop include beauty retailers Ursa Major and Indie Lee bedding maker Primary Goods and apparel brands JOA Finders Keepers and NPhilanthropy according to a person familiar with these partnerships The person who asked to remain anonymous because the website hasnt launched yet also said Verishop is in discussions with a number of directtoconsumer brands about joining the platformVerishops leadership team includes Khan who spent three years at Snap as chief strategy officer as well as his wife Cate Khan who spent eight years at AmazonThe company said its raised 175 million to date from investors led by Lightspeed Ventures</t>
-  </si>
-  <si>
-    <t>The Insider Picks team writes about stuff we think youll like Business Insider has affiliate partnerships so we get a share of the revenue from your purchase The new MacBook Air is 100 to 150 off at Best Buy as part of the stores Apple Shopping Event Best Buy doesnt say exactly how long this sale is going to last but most deals last about a week at the bigbox retailer  Apples laptop line is a little crowded but the new MacBook Air stands out in a few key ways making it a great buy  especially at this lower price  As its name suggests the Air is thin and light but still powerful enough to handle most tasks you throw at it It has all the processor power memory and storage to handle Microsoft Office or the Google Suite web browsing and HD video streaming without breaking a sweat Its highresolution retina screen also makes it a good choice for light photo and video editing although you might notice some strain if youre working with 4K footage  Apple says that the MacBook Air can get up to 12 hours of battery life which should be more than enough to get you through an average day on a single charge If youre a student or an average computer user who occasionally works with photos videos and audio the MacBook Air is a good choice  Youll notice that two models of the MacBook Air are on sale the only difference between the two of them is the amount of storage inside If you mostly stream your media and work with documents and presentations in the cloud the base model is a good choice for 109999 If you work with highresolution photos and videos more often you should consider the the higherstorage model for 124999  Apple rarely discounts its tech and its unusual to see its gadgets go on sale so soon after release so if youre in the market for a new laptop dont wait too long</t>
-  </si>
-  <si>
-    <t>With their two young kids in tow Juston and Kristen Herbert drove to a Target near their home outside Scottsdale Arizona It was time to get to workThe Herberts were on the hunt for all of the Contigo water bottles the store had in stock and kept the camera rolling for their 6400 YouTube subscribers Within minutes an employee pulled out 32 twopacks  sold on clearance for US5 each  from a back storage room For two people who recently left their jobs in finance the blueandblack plastic bottles might as well have been made of gold The Herberts would resell the twopacks on Amazon for US1995 Subtracting some taxes and fees theyd clear US616 in profit All told the Herberts 10minute Target run earned them US198Juston 30 and Kristen 28 estimate they can reel in US150000 this year from their newest gig retail arbitrage The basic idea is to buy up a bunch of the same item  from water bottles to vacuums to Monopoly boards  and then resell them online for a handsome profitFor some this is just a lucrative side hustle  perhaps to climb out of debt or save up for a Disney World vacation For others it has become their primary way of earning a living And beyond that the Herberts say this work is helping them build up US50000 so they can adopt a childIf were showing that you can come up with big money for an adoption Kristen said you can come up with big money to get yourself out of a hole credit card debt or a house paymentWhile the idea to buy something cheap and sell it at a higher price is ageold the concept of retail arbitrage has emerged in the digital ageIn between stops at different stores the Herbert family often takes breaks to play in the parkDominic Valente  For The Washington PostChris Green wrote one of the goto howto books on the topic titled Retail Arbitrage And hes helped popularize the monikerThe term seems to be having a moment In December according to Google Trends searches for retail arbitrage spiked on YouTube where aficionados post videos of their shopping and reselling sprees One reseller who has more than 52000 YouTube subscribers filmed his 22hour buying binge through 17 Walmarts He filled his trunk with 182 Monopoly games and flipped most of them in one night for US2500In the early 2000s resellers started flipping products on eBay But Greens guide focused on the engine behind many of these small businesses Fulfillment By Amazon or FBAI see money everywhere If I walk into a store its just like a dollar sign sitting on the shelfThrough FBA people can add their own products to Amazons vast online catalogue Sellers package their products and ship them to Amazon warehouses where they are stored until an order comes in Amazon takes it from there  pulling an item off the warehouse shelf and getting it to the customers doorGreen whos been dubbed the godfather of retail arbitrage used to be a sales representative for Bosch Power Tools He started reselling power tools on eBay in the early 2000sThen with the rise of Android and iPhone apps that can scan products and track down major sales Green realized retail arbitrage could work for anyone even those who didnt know the inner workings of an industryI used to teach grandmas to do it Green saidFor Mike Reezy Resells Rezendes retail arbitrage has been a kind of salvation Rezendes said he grew up in a troubled household and was married with a child by 16 As a teenager he noticed commercials for eBay on TV and started selling whatever he could rummage around the house like his Nintendo and its games and controllersNow Rezendes 34 has been reselling items online fulltime for 14 years His YouTube channel Reezy Resells has more than 85000 subscribers Rezendes calls his followers Reezys ninjas He runs his company with his best friend from high school and oversees a small team who buy up goods from stores like Nike Marshalls and RossJuston Herbert fixes his daughters sandal after theyve loaded the carDominic Valente  For The Washington PostLast year the company saw US800000 in gross sales for about US240000 in profit In January he got more than US8000 in ad revenue from YouTubeOne day last month Rezendes had more than 100 pairs of Nike shoes in his garage that he planned to ship to Amazon He was working on a YouTube video breaking down how he bought 100 Nerf guns from Targetcom and flipped them for US1500Rezendes who lives in Santa Cruz California said retail arbitrage has kept him from having to fill a 9to5 desk job But he also knows online resellers and smallbusiness owners like him are crucial to Amazons modelAmazon needs people like me to fill all the holes in the marketplace he saidWere literally fleshandblood robots for Amazon Rezendes saidThe retail giant hasnt shied away from promoting its small businesses In 2018 the number of small and mediumsize businesses that passed US1 million in sales in Amazon stores worldwide grew by 20 per cent Thirdparty sales are growing at a faster rate than firstparty sales online the company said last monthYoull find Shane Myers on YouTube as the Rise N Grind Picker  with 15000 YouTube subscribersAmazon needs people like me to fill all the holes in the marketplaceMike Reezy Resells RezendesThree years ago with US20 in his savings account Myers started reselling thrift store merchandise on eBay He turned to Amazon in August By September Myers had churned out more than US2000 selling used books alone In his first three months back on retail arbitrage hed paid off all his credit card debt and car paymentsMyers 31 pays US30 a month for an app called BrickSeek which helps him find markdowns at bigbox stores like Walmart and Target A few weeks ago Myers hit multiple Walmarts within a 150mile radius and came home with 218 packages of lightbulbs He found them on clearance for US2 each He marked up the price and netted US4 to US5 on each packageThe grand total more than US1100 in profitMyers hopes that within the next year and a half he can move to retail arbitrage full time and will have paid off his house And he hopes hell never miss his daughters birthday again for work like when he was clocking in at his old day job in retailI see money everywhere Myers said If I walk into a store its just like a dollar sign sitting on the shelfThe Washington Post</t>
-  </si>
-  <si>
     <t>Pedestrians and shoppers walk past an Under ArmourstoreUnder Armour Inc will report fourthquarter financial results premarket Tuesday Analysts largely expect the quarterly report and the 2019 forecast to be inline with the forecasts provided at the companys December 12 investor day Particular interest will be paid to commentary around gross margin regional sales results inventory positions new product innovation and the companys promotional cadenceOptions activity is pointing to a volatile reaction into the earnings release which isnt uncommon as shares have moved 149 percent on average over the last eight reports Contracts set to expire on Friday are pricing in a oneday move of 127 percentCurrent implied volatility is elevated trading around 148 percent versus a threemonth average of 61 Twenty percent of total open interest is scheduled to expire and of those contracts calls are outpacing puts by almost two to one indicating a somewhat bullish setupShort interest represented 23 percent of float according to Markit data may add to an active session tomorrowHeres what analysts are watching in the quarterly earnings releaseStifel Jim DuffyExpect UAA to meet or exceed firms 4Q revenue slightly above consensus and consensusmatching adjusted EPS estimates and reiterate 2019 forecasts although Stifel expects upward potential as year progressesFocus will be on 4Q details including regional trends gross margins and inventory positionsRemains bullish particularly on opportunities for gross margin recovery and upside to preliminary expectations for 6080bps yy expansion rate buy price target 30Piper Jaffray Erinn Murphy4Q release will be an opportunity to revisit key themes from the Investor Day improving gross margin dynamics better segmentation return to growth in North America amp innovation particularly in footwearChecks point to lower promotional activity vs last year saw newness hit floors amp online last week Curry 6 was almost completely sold out of the BlackYellow colorway at UAcom and Foot LockerExpects 2019 EPS view of 31c33c to move higher throughout the year and sees room for revenue and operating margin upside rates overweight price target 30What Bloomberg Intelligence is sayingRecent results suggest Under Armour is correcting operational issues of the past two years yet we havent seen evidence that demand for the brand is improving The company debuted footwear for the growing performancerunning segment but high January discounts suggest 2019 began with excess inventory and margin pressureChen GrazutisTelsey Advisory Cristina FernandezFocus will be on 1Q outlook and the flow of sales and operating margin improvement through 2019 in light of product launches and lapping offprice sales last yearOn call looks for update on 2019 product pipeline particularly around planned growth and distribution for the new HOVR footwear line that launched February 1Supply chain initiatives 40 less SKUs fewer promotional days improved product costs and cleaner inventories should aid marginsBut given stocks premium valuation higher North American sales growth is needed for the shares to appreciate from here rates market perform PT 21 William Blair Sharon ZackfiaExpects 4Q sales decline of about 4 in North America a lowdouble digit increase in international directtoconsumer sales should outpace wholesale up low to midsingle digit versus a lowsingledigit decline in wholesaleAdjusted gross margin should expand 170 bps yy to 45 on product cost favorability and lower planned promotional activity partly offset by inventory management actions Expects 2019 guidance will be reiterated for 1Q expects lowsingledigit revenue growth to yield breakeven EPS as improved gross margin will be largely offset by higher SGampA inclusive of increased marketing expensesRates market performBRiley FBR Susan AndersonLack of innovation makes it difficult to drive sales and UAA hasnt shown any major new innovation for 2019UAAs booth at the Outdoor Retailer Show last month did not reveal any new innovation and continued to rely on historical innovation such as Reactor and Cold GearRates sell price target 12 believes UAAs lofty 5year outlook is already more than priced into the stock and skeptical about UAAs ability to deliver on these turnaround goalsJust the Numbers4Q adjusted EPS estimate 4c range 0c7c4Q revenue estimate 138 billion range 134 billion to 143 billion4Q gross margin estimate 447 range 4374521Q adjusted EPS estimate 3c range 2c loss to 4c EPS1Q revenue estimate 121 billion range 117 billion to 126 billion1Q gross margin est 455 range 443462019 adjusted EPS estimate 33c forecast 31c33c Dec 12 2019 revenue estimate up 4 to 537 billion saw up 342019 capex estimate 2228 million says 210 millionDataShares rose after 7 of prior 12 earnings announcementsBeat or met EPS estimates in 10 of past 12 quartersUAA has 8 buys 17 holds 9 sells avg PT 21 Bloomberg dataShort interest 21 of shares outstanding 52week high 37 in April low 21 on Feb 7 Markit dataUAA 53 in past year vs NKE 27 SPX 343TimingBefore its here its on the Bloomberg TerminalLEARN MORE</t>
   </si>
   <si>
@@ -1462,7 +1387,7 @@
     <t>Hedge fund manager Paul Tudor Jones issued a call for more responsible investing saying that the craze over stock buybacks is causing troubling social illsdiv gt divgroup gt pfirstchildgtI think weve got a mania going on in buybacks and a mania going on terms of shareholder primacy Jones told CNBCs Bob Pisani on the sidelines Monday of the Inside ETFs conference in Hollywood Florida He added that the focus solely on shareholder profits has helped cause major wealth disparity and is a departure from the way corporate boards used to behaveThings have been different and can be different again and if theyre not Im really nervous about what the ultimate social consequences are in this country he saidUS companies bought back more than 1 trillion of their own shares in 2018 helping to keep afloat a market that turned in an otherwise lackluster performance as the SampP 500 was off more than 6 percent for the year However the propensity of companies to use the trillions in cash they are holding has caused controversy and calls for legislators to limit the practiceSpecifically Sens Charles Schumer and Bernie Sanders recently proposed requiring companies to meet certain requirements before being allowed to do repurchases Among the standards would be minimum employee pay of 15 an hour along with paid time off and health benefitsJones said he wasnt sure if wanted to go that far He said he has been speaking with Schumer a New York Democrat for over a year on his ideas about socially responsible investingI dont know if I want to see a legislative outcome for this Jones said Id love to see this happen organicallyBefore companies make buybacks board members should ask whether their employees are making living wages and should look into how much the companies are contributing to charity he saidAs part of his push for more ethics in boardrooms Jones touted the Goldman Sachs JUST US Large Cap ETF which focuses on companies that comply with environmental social and governance standards or the socalled ESG investing philosophyThe fund is up more than 8 percent so far in 2019 about in line with the broader stock market performance The fund administrators rank Russell 1000 companies on how they stand regarding ESG metrics then take the top companies and include them in the ETF The top holdings include tech giants Amazon Microsoft and AppleJones is noted for making broad market calls and predicted the 1987 stock market crash More recently he warned at an investor forum in November of a global debt bubble that would be very challenging In June he told CNBC that the stock market could go a lot higher at the end of the year but the opposite happened Stocks fell into a nearbear market to end the year as investors recoiled on fears that the Federal Reserve was going to make a policy mistake and raise rates too aggressively</t>
   </si>
   <si>
-    <t>WASHINGTON AP Private investigators working for Jeff Bezos have determined the brother of the Amazon CEOs mistress leaked the couples intimate text messages to the National EnquirerThats according to a person familiar with the matter who spoke Monday to The Associated Press The person wasnt authorized to discuss the matter publicly and spoke to AP on condition of anonymityThe Enquirer published a story last month that included racy texts between Bezos and former TV anchor Lauren Sanchez Bezos said the tabloid later threatened to expose his revealing photos if he didnt have his private investigators back offThe person says those investigators identified Michael Sanchez a California talent manager as the person who leaked the textsSanchez didnt immediately respond to a message seeking comment on MondayCopyright 2019 The Associated Press All rights reserved This material may not be published broadcast rewritten or redistributed</t>
+    <t>WASHINGTON AP Private investigators working for Jeff Bezos have determined the brother of the Amazon CEOs mistress leaked the couples intimate text messages to the National EnquirerThats according to a person familiar with the matter who spoke Monday to The Associated Press The person wasnt authorized to discuss the matter publicly and spoke to AP on condition of anonymityThe new cost for doing business in TulsaFor those who care about business and this community we have a deal for you Start a digital subscription for only 099 Sign up now at tulsaworldcomsubscribeThe Enquirer published a story last month that included racy texts between Bezos and former TV anchor Lauren Sanchez Bezos said the tabloid later threatened to expose his revealing photos if he didnt have his private investigators back offThe person says those investigators identified Michael Sanchez a California talent manager as the person who leaked the textsSanchez didnt immediately respond to a message seeking comment on MondayCopyright 2019 The Associated Press All rights reserved This material may not be published broadcast rewritten or redistributed</t>
   </si>
   <si>
     <t>The Insider Picks team writes about stuff we think youll like Business Insider has affiliate partnerships so we get a share of the revenue from your purchase When it comes to underwear men get the short end of the stick We have basically three choices for this most intimate piece of apparel  the brief the boxer and the boxer brief  none of which is particularly exciting While womens underwear can be functional fetching or both mens underwear is more or less stuck at function  Recently I found a company that makes boxer briefs that function so well Ive tossed out many of my older pairs  Once you wear Saxx Underwear Co boxer briefs you too will probably thin the ranks in your underwear drawer making room for new favorites The only catch The cheapest pair out there still costs about 25 SAXX Underwear Why the Ballpark Pouch makes all the difference Cleverly albeit crassly named the Ballpark Pouch is the most notable design element of a pair of Saxx boxer briefs so lets start there This is one of those why didnt they think of it before innovations two little flaps of fabric keep a mans legs and his business separated and offer extra support to the latter  The Ballpark Pouch prevents skinonskin contact and reduces friction whether youre playing a heated game of ball out for a jog or just going about your daily routine The pouch also helps prevent the buildup of moisture down there reducing irritation odor and general annoyance You guys know all about this  you probably shifted a bit in your chair just now right  And finally the pouch adds just a bit more lift and support which youll appreciate during athletic activity and leisure time alike SAXX Underwear The fabric blend perfected Lots of boxer briefs are snug and supportive Boxer briefs from Saxx are snug and supportive but also comfortable and nonrestrictive Youll forget youre wearing them after a few seconds thanks to how well the blend of nylon polyester and spandex threads gently adhere to your body The fourway stretch material moves with you staying in place no matter how active you get And it wicks away plenty of sweat too keeping you dry  Flat seams and a wide 14inch waist band finish off the fit securing the underwear and ensuring your comfort  And speaking of fabric I know earlier I said that mens underwear arent that exciting since in terms of styles and cuts and such we really dont have as many options as women But Saxx is at least ensuring that things down there are exciting as far as prints go They offer boxer briefs in wild styles from prints depicting a vibrant coral reef to tiedye to jungle scenes But dont worry you can get striped or monochrome pairs too Read more The best underwear for menBottom line I looked around and cheapest pair of Saxx boxer briefs I could find cost more than 20 And many sell for just over 55  But Ive been wearing my several pairs almost exclusively for months and they are still in perfect shape So for my money theyre worth it You spend all day in these things treat yourself right down there</t>
@@ -1492,12 +1417,12 @@
     <t xml:space="preserve"> Winter weather advisory for northern Fauquier western Loudoun northern Montgomery and northwest Howard counties and to the north and west from 7 pm Monday to 10 am Tuesday Most spots locally saw temperatures edge above freezing by this afternoon but its still near and below 32 in our northernmost suburbs With nightfall we may see readings fall back a few degrees bringing an icy risk back into a larger part of the area Overall the main zones of concern are north and west of the Interstate 95 corridorWashingtons colder areas could see an icy mix again tonight into early TuesdayListen to our daily DC forecasts Apple Podcasts  Amazon Echo  More optionsThrough Tonight As Jason Samenow pointed out earlier the forecast tonight is dependent on a few degrees In general theres an increasing risk of ice and slick spots as one heads north and west from the city The relative good news is that overnight precipitation should be light and spotty compared with todays However heavier and more widespread activity is likely knocking on our doorstep in the predawn period or perhaps as late as around sunrise Lows range from near or just below freezing to the mid30sView the current weather at The Washington PostTomorrow Tuesday Rain persists into Tuesday It may pick up at times and itll probably stay wet all day A storm system is moving by to the west and northwest This also means were on the warm side so temperatures head toward a near 40 to mid40s range locally Winds are out of the south around 10 mph Total rainfall from this system ranges from about half an inch to an inchSee Jason Samenows forecast through the weekend And if you havent already join us on Facebook and follow us on Twitter and Instagram For related traffic news check out GridlockNeverending rain With a wettest year on record in 2018 still fresh in our minds weve now seen rain on six of 11 days so far this month It has been relatively light each time it has fallen in February although thats likely to change once we get through Tuesday Through Sunday the city has picked up 349 inches this year which is not far from normal and in the back half of rainfall totals to date It does seem we are embarking on a wetter pattern ahead though so we may just be getting startedWant our 5 am forecast delivered to your email inbox Subscribe here</t>
   </si>
   <si>
+    <t>Amazon on Monday said that it has acquired Eero a startup that developed home internet routers that can be connected with one another inside homes Terms of the deal werent discloseddiv gt divgroup gt pfirstchildgtGoogle has a competing product called Google WifiWe are incredibly impressed with the eero team and how quickly they invented a WiFi solution that makes connected devices just work Dave Limp senior vice president for Amazon devices and services said in a statement We have a shared vision that the smart home experience can get even easier and were committed to continue innovating on behalf of customersEero was founded in 2014 and had headquarters in San Francisco More than 150 people are listed as Eero employees on LinkedInThis story is developing Please check back for updates</t>
+  </si>
+  <si>
     <t>Amazon on Monday said that it has acquired eero a startup that developed home internet routers that can be connected with one another inside homes Terms of the deal werent discloseddiv gt divgroup gt pfirstchildgtGoogle has a competing product called Google Wifi Apple discontinued AirPort home routers last yearWe are incredibly impressed with the eero team and how quickly they invented a WiFi solution that makes connected devices just work Dave Limp senior vice president for Amazon devices and services said in a statement We have a shared vision that the smart home experience can get even easier and were committed to continue innovating on behalf of customersWhile Amazon is focusing its smart home efforts on the Echo the company is proving willing to acquire where it makes sense Last March Amazon acquired Ring for 1 billion jumping into the market for video doorbellsEero was founded in 2014 and had headquarters in San Francisco More than 150 people are listed as eero employees on LinkedIn Investors include Playground Global Redpoint Ventures and Shasta Ventures The startup laid off onefifth of its employees last year TechCrunch reportedThis is a developing storySubscribe to CNBC on YouTube</t>
   </si>
   <si>
-    <t>Amazon on Monday said that it has acquired Eero a startup that developed home internet routers that can be connected with one another inside homes Terms of the deal werent discloseddiv gt divgroup gt pfirstchildgtGoogle has a competing product called Google WifiWe are incredibly impressed with the eero team and how quickly they invented a WiFi solution that makes connected devices just work Dave Limp senior vice president for Amazon devices and services said in a statement We have a shared vision that the smart home experience can get even easier and were committed to continue innovating on behalf of customersEero was founded in 2014 and had headquarters in San Francisco More than 150 people are listed as Eero employees on LinkedInThis story is developing Please check back for updates</t>
-  </si>
-  <si>
     <t>Amazon is acquiring the home mesh wifi router company Eero the companies announced in a press release Monday  We are incredibly impressed with the eero team and how quickly they invented a WiFi solution that makes connected devices just work said Dave Limp SVP of Amazon Devices and Services said in a statement We have a shared vision that the smart home experience can get even easier and were committed to continue innovating on behalf of customers</t>
   </si>
   <si>
@@ -1837,280 +1762,25 @@
     <t>Are you an Amazon super fan or simply a Seattle area resident looking for a new homeIf so you could buy the West Bellevue house where in 1994 Jeff Bezos lived and started Amazon The price is 149 million considered a relative bargain for the neighborhoodBezos rented the threebedroom oneandthreequarter bathroom house built in 1954 The attached garage served as the original Amazon headquarters The 1540squarefoot house is on the market for the first time in 10 years The listing calls it a slice of history and gives a future owner the opportunity to own the birthplace of Amazon An affordable singlestory slice of history it is While West Bellevue is the most expensive neighborhood in the region according to The Seattle Times it is below the areas median home price of about 2 million The lower price may also reflect a softening regional real estate market where the number of unsold homes has more than double from last yearNevertheless the houses value has climbed considerably in the years since Bezos lived there The Seattle Times reports that while the house was valued at 135000 in 1994 it was bought for 182000 in 1998 In 2009 when the current owners purchased the house they paid 620000less than half of its current asking priceBut prospective buyers be warned the house will not look identical to how it did when Bezos made it his residence In 2001 the house was reportedly extensively remodeled including installing a new roof and bathroomand the garage was remodeled too However it does have the signature oversized mailbox Bezos installed</t>
   </si>
   <si>
-    <t>Heisman Trophy winner Kyler Murray has made his decision: He’s choosing football over baseball._x000D_
-Someone should tell team vice president Billy Beane._x000D_
-With pitchers and catchers reporting to Oakland A’s camp on Monday, Beane understandably had to field questions about Murray. Beane said that no decision had been made by the Murray camp an hour before Murray announced his decision._x000D_
-Billy Beane wouldnt get too much into detail on Kyler Murray, only saying As continue to have private conversations with Murray and his team. Wouldnt comment on report of Murray attending combine, saying report didnt come from Murray or his representatives. pic.twitter.com/Z4iM4vBeMZ_x000D_
-— Martín Gallegos (@MartinJGallegos) February 11, 2019_x000D_
-That timing was … interesting._x000D_
-Beane said:_x000D_
-“Things have certainly changed since the draft. A Heisman Trophy. He’s projected to be an early first-round pick … We’ve had ongoing conversations as it relates to the situation and as it relates to Kyler’s future, period. Not just with baseball but also potentially other sports. So, I don’t have any answers for you, and I probably won’t until we’ve decided on the process. All I can tell you is that it hasn’t been decided. And the conversations will continue.”_x000D_
-The former Oklahoma quarterback was a first-round pick by the Oakland A’s in 2018 but was permitted to play his final season of football in Norman. The A’s had the full expectation that he’d be back with the team. Murray just went on to put up historic numbers and played himself into a likely first-round pick in the NFL._x000D_
-If Murray follows through with this announcement to choose a career in the NFL, he would have to pay back and forfeit his $4.6 million signing bonus to the A’s._x000D_
-Kyler Murray will return $1.29 million of the $1.5 million signing bonus money the Oakland As gave him last year. He forfeits the remaining $3.16 million due March 1. The As will put him on the restricted list and retain Murrays rights, but they dont get a comp draft pick._x000D_
-— Jeff Passan (@JeffPassan) February 11, 2019_x000D_
-Brian Hoyer's Amazon and ESPN+ subscriptions helped the Patriots win Super Bowl 53_x000D_
-How Bill Belichick outclassed the NFL's latest genius in Super Bowl 53_x000D_
-The Grammys need to stop bringing out athletes as presenters</t>
-  </si>
-  <si>
-    <t>Tong Zou wasn’t a stereotypical crypto bro bent on accumulating flashy trophies such as Lamborghinis when he deposited his life savings into Quadriga CX’s digital exchange._x000D_
-The 30-year-old software engineer, who’d been working in California for seven years, just wanted to save a few bucks on transfer fees after deciding to move to Vancouver. It proved to be a $560,000 (US$422,000) mistake._x000D_
-“It’s all my savings, so I’m just living on what little I have left and trying to start over,” Zou said in a phone interview Friday from Vancouver, where he has been living out of an AirBnB for the past month. “It pretty much took everything away from me.”_x000D_
-Zou is one of Quadriga’s 115,000 clients who are out of luck after the sudden death of the firm’s founder left $190 million in cryptocurrencies protected by his passwords unretrievable. The exchange has halted operations and was granted protection from creditors on Feb. 5 in Nova Scotia Supreme Court in Halifax._x000D_
-Zou considers himself “one of the largest affected individual users” — according to an affidavit he filed as part of the court proceedings. He bought Bitcoin in the U.S. and transferred it over to Quadriga CX and immediately sold it for Canadian dollars, which was supposed to be deposited into his Canadian bank account. That was in October. He’s still waiting._x000D_
-“I wasn’t using it for trading — I just wanted to move my money over to my Canadian bank account,” Zou said in the interview. “What I didn’t know was that my withdrawal would be pending or incomplete and it never got deposited in my bank account. I’ve been waiting four months so far.”_x000D_
-“A lot of other people are in the same situation as me,” he said._x000D_
-Quadrigas 115,000 clients are out of luck after the sudden death of the firms founder left $190 million in cryptocurrencies protected by his passwords unretrievable.Chris Ratcliffe/Bloomberg_x000D_
-That money was going to help him settle back in Canada, after being away for years. Zou, who grew up in Orillia, Ontario, had moved to the U.S. after graduating from the University of Toronto in 2011. He spent the next seven years working as a software engineer around San Francisco at companies including BitTorrent Inc., Walmart Inc. and Spigit Inc._x000D_
-“I was going to use that money for a deposit on an apartment, but now I can’t do that anymore,” Zou said. “And now I’m currently searching for a job, so it’s kind of a bad time for me.”_x000D_
-Zou has been coordinating with other affected users online and through the Telegram messaging app, and turned to Bennett Jones LLP and McInnes Cooper to represent him and others in Quadriga’s creditor protection proceedings in Halifax._x000D_
-“I just got caught up in this at the wrong time, I guess.”_x000D_
-Other affected customers have since come forward, filing competing submissions to be represented by other law firms including Miller Thomson LLP working with Cox &amp;amp; Palmer, and Osler, Hoskin &amp;amp; Harcourt LLP working with Patterson Law. The matter is scheduled to be heard in Nova Scotia Supreme Court on Feb. 14._x000D_
-Bloomberg.com</t>
-  </si>
-  <si>
-    <t>The factory workhorses are a barometer of the manufacturing sectors fitness. Changes in demand can ease or worsen concerns about China. The Reading, Pa., maker of batteries that power forklifts said those sales in China fell in the latest quarter after rising 10% or more earlier in the year.Weve seen a slowdown, said Michael Schmidtlein, EnerSys finance chief. Given that forklifts are a good indicator of economic activity, their general economy has slowed, and maybe far greater than the authorities are indicating._x000D_
-Fourth-quarter results from U.S. companies highlight the many and varied ways that Chinas cooling economy affects American business, and, in turn, offer a glimpse of whats happening inside China. The indications are that slowing growth there is broad, if still modest. _x000D_
-For U.S. businesses, the repercussions extend well beyond slowing sales at companies with the biggest exposure to Chinas vast economy._x000D_
-Companies like EnerSys are struggling with weaker demand from export manufacturers in China, which are pulling back amid fears that trade tensions will worsen. Retailers and other companies catering to Chinese consumers face signs of weakness among the countrys growing middle class. They are buying fewer cars, phones and are traveling less._x000D_
-Some analysts expect that Chinas slowing growth, and its effects on U.S. companies, will worsen in the first quarter. A recent business-sentiment survey from Oxford Economics found that many North American and European businesses see elevated risks of a sharp global downturn, with many citing Chinas economy and its policy response as significant risks._x000D_
-The expectation is that Q1 is going to be brutal, said Brad Setser, former deputy assistant Treasury secretary for international economic analysis in the Obama administration, and now a senior fellow in international economics at the Council on Foreign Relations._x000D_
-Chinese exports slowed in December and are likely to decelerate more sharply in the first quarter, Mr. Setser said, especially if trade tensions with the U.S. arent resolved: The question is, will the trade truce plus Chinas internal stimulus put Chinas economy back on a stable path?_x000D_
-U.S. and Chinese officials will meet this week for trade negotiations ahead of a March 1 deadline. President Trump in early December delayed plans to increase tariffs on $200 billion of Chinese goods to 25% from 10%, giving the two sides time to strike a comprehensive trade deal._x000D_
-The uncertainty over the path of Chinas economy has gripped the attention of U.S. executives and Wall Street analysts. They mentioned China 225 times during investor conferences and calls for current S&amp;amp;P 500 companies through the first full week of Februarythe most over the same period in at least a decade, according to a Wall Street Journal analysis of transcripts from FactSet._x000D_
-General Motors Co._x000D_
-reported a 25% decline in the number of vehicles it sold in China in the fourth quarter compared with a year earliera grim turn in a year with a 9.8% sales drop. GMs sales shrank faster than those of the industry as a whole, which declined 20% in the fourth quarter and about 6% for the year._x000D_
-GM attributed its weaker performance largely to its lower-margin Wuling and Baojun brands in smaller Chinese cities, where a softening real-estate market has soured consumer sentiment. The companys luxury Cadillac brand, however, rose 17% last year over 2017, driven by sales in Chinas largest and most affluent cities. _x000D_
-One bright spot comes from continued spending by wealthy buyers._x000D_
-Estée Lauder Co_x000D_
-s. said sales in the Asia-Pacific market, led by China and Hong Kong, rose 20% in the second half of last year. Chief executive Fabrizio Freda said in an earnings call last week that high-end beauty products are a relatively affordable luxury that younger Chinese shoppers keep buying, despite a decelerating national economy._x000D_
-Jeweler_x000D_
-﻿Tiffany &amp;amp; Co.,_x000D_
-which rings up as much as 30% of its sales from Chinese consumers, said sales in China rose by more than 10% in the two-month holiday period ended Dec. 31._x000D_
-Outside China, the prospects look less cheery. Analysts say most of Tiffanys sales to Chinese consumers are from Chinese tourists shopping in Hong Kong, Europe and elsewhere. That business hasnt held up as well. Chinese tourists bought less in the Americas and in Hong Kong in the quarter that ended in late October, the company said._x000D_
-Tourism sales also slipped over the holiday period, Tiffany said in a mid-January report. The company traces softened tourist sales to a stronger dollar, which raises travel and overseas shopping costs for Chinese consumers._x000D_
- Gene Ma, head of China research for the Institute of International Finance in Washington, D.C., said government rules to stem capital outflows, including tighter ATM withdrawal limits, likely depressed sales to Chinese tourists abroad, among other factors._x000D_
-Chinas girth_x000D_
-Despite slowing, China still posted economic growth above 6% last year, easily surpassing the U.S. and Europe._x000D_
-The countrys 1.4 billion people and rising middle class bought nearly $52 billion worth of iPhones and other_x000D_
-Apple Inc._x000D_
-products in the fiscal year that ended on Sept. 29. Rapidly expanding megacities such as Shanghai are dotted with_x000D_
-Starbucks_x000D_
-coffee shops, and new buildings ferry passengers on Otis elevators made by_x000D_
-United Technologies Corp._x000D_
-Chinas size and rapid growth in recent years, together with the expansion of American businesses within its economy, mean even a modest slowdown can be felt along supply chains that stretch world-wide._x000D_
- As more companies flagged economic weakness in China in their fourth-quarter results, investors and analysts have worked to untangle the impact on U.S. companies and economic sectors. Many companies disclose sales in Asia, and to a lesser extent in China, but exposure to the Chinese economy is much broader._x000D_
-Companies such as_x000D_
-Mastercard Inc.,_x000D_
-for instance, have no direct business within Chinas domestic economy. Yet it can see the effect of slowing growth, Mastercard CEO Ajay Banga told analysts in a Jan. 31 conference call. Given the size of the Chinese economy, it does impact the global economic picture._x000D_
-About a third of companies in the S&amp;amp;P 500 generate no direct revenue from China, according to estimates by FactSet, based in part on company disclosures. Another third generate at least 3% of sales in China. About 60 of the biggest U.S. companies generate 10% or more of sales there. _x000D_
-Many are technology and industrial companies that sell components to manufacturers that make products in China for export elsewhere, limiting their exposure to a slowing Chinese economy._x000D_
-Everything is built in China but it doesnt necessarily stay in China, said Christopher Rolland, a semiconductor analyst at Susquehanna International Group. Sales numbers, he added, can be an overrepresentation of true Chinese demand._x000D_
-Not all business problems in China are driven by tariffs or slower growth there._x000D_
-Tupperware Brands Corp._x000D_
-, which markets its plastic food containers through a network of individual sellers, last month said revenue and profit across several of its units were below internal projections. The company, in part, blamed weakness in China. The companys shares fell 27% that day._x000D_
- Doug Lane, who runs a boutique investment research firm, said other direct sellers havent mentioned similar problems in China. When companies are reporting numbers below expectations, they tend to blame a lot of things, he said._x000D_
-Tupperware said it generated more than $200 million in revenue in China in 2018, or about 10% of its sales, through 6,700 independent retail locations. It declined to comment._x000D_
-Under pressure_x000D_
-EnerSys, the Pennsylvania-based battery maker, is feeling pressure from all sides: a slowing Chinese economy, new government rules and the China-U.S. trade battle._x000D_
-The company generates about 5% of its total sales in China and about 60% come from the Americas. But it makes some of its batteries in China, and the company competes with Chinese battery makers that sell backup power supplies._x000D_
-EnerSys said sales in Asia in its most recent quarter fell 11% from the prior quarter. A government mandate prompted one of its largest Chinese customers to use more recycled batteries. _x000D_
-In response to slowing sales, EnerSys had planned to use a Chinese factory to produce more products for export to the U.S. That idea was scrapped when the U.S. imposed tariffs on batteries imported from China. EnerSys says now it will export from its Chinese factory to other countries._x000D_
-The cooling Chinese economy has driven down the price of raw materials, including the lead used to make batteries, but it isnt much of a silver lining. _x000D_
-Our inputs are cheaper but the broad demand for our product is less, said Mr. Schmidtlein, the EnerSys finance chief._x000D_
-Other companies are benefiting from lower-priced raw materials on the one hand, and getting pinched by U.S. tariffs on the other. _x000D_
-Masco Corp._x000D_
-, which makes Delta faucets and Hansgrohe shower heads, said it was poised to benefit from lower copper and zinc prices in the second half of last year. Masco also faces increased costs of about $150 million if the U.S. follows through on its threat to raise some tariffs on Chinese imports to 25% this year, the company said in its annual report filed Thursday._x000D_
-If forklift demand is one rough gauge of economic growth, microchips are another. Consumer appetite for high-price electronics, including smartphones, has slowed. So has construction, which means fewer appliance sales. Both are bad news for semiconductor makers, whose chips span all those products. _x000D_
-Is Your Business Affected by Tariffs?_x000D_
-Click here to tell us how. The WSJ wants to hear from readers whose business or job is affected by tariffs._x000D_
-Industrial and consumer end markets have been especially weak in greater China, Keith Jackson, chief executive of ON Semiconductor Corp., said._x000D_
-Chinese manufacturers are cutting back orders of microchips to avoid being left with unsold goods, in case the U.S.-China trade dispute yields higher tariffs, and demand for Chinese-made goods falters._x000D_
-Theyre risk averse. Theyre not going to take any chances. Theyre not going to hold inventory, Thad Trent, the financial chief at Cypress Semiconductor Corp., said Jan. 16 at a conference. We see customers waiting at the last minute to place orders._x000D_
-Chip makers link Chinas slowing growth with the U.S.-China trade fight. Trade is the problem why Chinese economy is weakening so much, said Steve Sanghi, CEO of Microchip Technology Inc., which makes microcontrollers used in electronic and industrial components._x000D_
-Some executives and analysts have said economic softness would dissipate if the trade issues were resolved. Others arent so sure._x000D_
-There are some underlying economic and end-demand issues in China that still need to be dealt with and resolved, said John Vinh, a semiconductors analyst with KeyBanc Capital Markets Inc. There is not potentially a quick fix as easy as resolving the tariff conflict._x000D_
-Write to Austen Hufford at austen.hufford@wsj.com and Theo Francis at theo.francis@wsj.com</t>
-  </si>
-  <si>
-    <t>The dust-up between_x000D_
-Amazon.com Inc._x000D_
- AMZN 0.21%_x000D_
-founder Jeff Bezos and National Enquirer parent American Media LLC has raised questions about the media companys connections to Saudi Arabia. American Media has had plenty of contacts with Saudi Arabia in recent years, including seeking financial backing from Saudi investors to fund acquisitions and producing a magazine celebrating the countrys new crown prince. It also sought advice last year from the U.S. Justice Department over whether the publisher should register as a foreign agent, a person familiar with the matter told The Wall Street Journal._x000D_
-The issue of the ties came up last week when Mr. Bezos took to the internet to push back against what he said was an extortion attempt by the National Enquirer against him over an extramarital affair that the tabloid reported on last month featuring photos and texts. He said he launched his own probe into how the publication obtained his texts as well as its motives and wrote that the Saudi angle seems to hit a particularly sensitive nerve._x000D_
-An attorney for American Media Chief Executive David Pecker on Sunday denied the company had engaged in extortion and said the source of the information for the coverage was not Saudi Arabia._x000D_
-David Pecker, the publisher of the National Enquirer, is facing accusations from Jeff Bezos involving blackmail and political favors. WSJs Jason Bellini breaks down the genesis of Pecker's recent controversies. Photo: Getty_x000D_
-Adel al-Jubeir, a Saudi government official who was in Washington Friday, characterized the dispute between Mr. Bezos and American Media as a soap opera, Asked whether the kingdom played a role, he said, as far as I know: flat no._x000D_
-In recent years, American Media sought Saudi financial backing to finance a failed effort to acquire Time magazine, Sports Illustrated, Fortune and Money, the Journal reported last year. _x000D_
-American Media confirmed the contacts but said the only deal that has ever been discussed with Saudi investors was the expansion of the Mr. Olympia bodybuilding competition, which American Media owns, into the Middle East and North Africa._x000D_
-The lawyer for Mr. Pecker, Elkan Abramowitz, on Sunday on ABC said American Media sought financing from the Saudis, but never obtained any._x000D_
-American Media also produced a promotional magazine about Saudi Arabia. To commemorate Saudi Crown Prince Mohammed bin Salmans visit to the U.S. in March 2018, American Media published 200,000 copies of a 97-page, advertisement-free glossy magazine titled The New Kingdom, promoting the country and its young prince, then 32 years old._x000D_
-In a sign American Media was concerned its connection to Saudi Arabia could become an issue, the company sought advice from the Justice Department last year about whether it should register as a foreign agenta status under which any organization engaged in public relations under the direction or control of a foreign government may fallaccording to a Justice Department letter to the company responding to its inquiry. The publisher wrote to the Justice Department after several news outlets wrote about the publication of the pro-Saudi magazine._x000D_
-The Justice Department posted its response in redacted form. Although American Media isnt named in the letter, the details clearly reference the media company. _x000D_
-A person familiar with the matter confirmed American Media wrote to the Justice Department after publishing the magazine celebrating Prince Mohammed. Frankly, it was done to kiss his ass when he came to visit in the hopes hed invest in the company and it didnt work, the person said of the magazine. There was nothing more to it than that._x000D_
-Justice Department officials wouldnt confirm that the redacted entity is American Media and declined to comment beyond what was in their letter._x000D_
-The publisher gave an adviser to Saudi Arabia a draft of the magazine and followed the advisers editorial suggestions, according to the letter, which was dated July 13, 2018._x000D_
-American Media said in the past that Saudi officials played no role in the production of the magazine. _x000D_
-The company told Justice Department officials in the letter that although it followed the editorial and photography suggestions of the adviser, it wasnt under any contractual obligation to do so. The publisher also told the Justice Department that it didnt receive any foreign money to produce the magazine._x000D_
-Based on those assertions, the Justice Department said the media company didnt need to register as a foreign agent, noting that conclusion could change if the facts in the matter are different in any way from those depicted in your submission._x000D_
-The magazine, which hit U.S. newsstands just ahead of Prince Mohammeds March visit and sold for $13.99, drew attention at the time because of the close relationship that Mr. Pecker and President Trump had. The special issue, which remained on sale for three months, included a glowing editorial about Saudi Arabia by Kacy Grine, a French financial adviser who people familiar with the matter said visited Mr. Trump at the White House in July 2017 with Mr. Pecker and American Media Chief Content Officer Dylan Howard. Mr. Grine didnt respond to a request for comment._x000D_
-Asked on This Week Sunday if the magazine was published in an attempt to curry favor with Saudi Arabia, Mr. Abramowitz said it was published for journalistic reasons._x000D_
-At the July 2017 meeting, Mr. Trump alluded to the Enquirers positive coverage of his election campaign and presidency._x000D_
-Editor man, editor man, how many more covers of the Enquirer have I been on than Arnold Schwarzenegger? Mr. Trump asked Mr. Howard, according to people familiar with the matter._x000D_
-A White House official said that Mr. Trump recalled the Oval Office meeting with Mr. Pecker and others and that he called the American Media CEO a great guy, the Journal reported last year._x000D_
-Mr. Pecker has admitted buying embarrassing stories about Mr. Trump and burying them, a practice known as catch and kill. In exchange for immunity, the publisher and Mr. Pecker last year agreed to cooperate with federal prosecutors investigating former Trump lawyer Michael Cohen, who arranged payments during the 2016 campaign to silence two women who alleged sexual encounters with Mr. Trump. Federal prosecutors in Manhattan are examining whether the Enquirers dealings with Mr. Bezos violated the nonprosecution agreement, according to people familiar with the matter_x000D_
-The crown prince visited Mr. Trump at the White House during his March 2018 trip._x000D_
-Since the crown princes visit, his reputation and the relationship between the U.S. and Saudi Arabia have frayed. In October, Washington Post columnist Jamal Khashoggi was killed at a Saudi consulate in Turkey, which the CIA has concluded was likely ordered by the crown prince. The Saudi government has contested the findings._x000D_
-The Posts essential and unrelenting coverage of the murder of its columnist Jamal Khashoggi is undoubtedly unpopular in certain circles, Mr. Bezos wrote in his blog post Thursday. Mr. Bezos owns the Washington Post._x000D_
-Write to Julie Bykowicz at julie.bykowicz@wsj.com and Lukas I. Alpert at lukas.alpert@wsj.com</t>
-  </si>
-  <si>
-    <t>Amazon has shown that it is "antithetical" to New York values, and the company should not be allowed to build its second headquarters in Queens until it changes its ways, City Councilman Jimmy Van Bramer told CNBC on Monday._x000D_
-div &amp;gt; div.group &amp;gt; p:first-child"&amp;gt;_x000D_
-Bramer, deputy leader of the 51-member council, said one reason he is against the HQ2 deal is because of the online shopping behemoth's stance on labor unions._x000D_
-"They remarkably came to the City Council last week and declared not only would they not remain neutral when it came to efforts of their employees ... to organize but that they would actually fight to crush any effort of their employees to unionize," the Queens borough representative said on "Squawk on the Street." "This is a union town. I grew up in a union family. We've got to stand up for our values there."_x000D_
-Bramer, a Democrat, also called out Amazon's reported ties to federal Immigration and Customs Enforcement agency._x000D_
-Some Amazon shareholders have urged the tech giant to stop selling Rekognition, its facial recognition technology, to some government agencies. They have also said that Amazon is planning to pitch the service to ICE._x000D_
-"Obviously we're a sanctuary city. The mayor and all of us have declared that we want to be a safe haven for all immigrants, including the undocumented," Bramer said. "Amazon refuses to budge on that issue."_x000D_
-The company has defended selling Rekognition to law enforcement._x000D_
-Bramer believes Gov. Andrew Cuomo and Mayor Bill de Blasio, also Democrats, "botched" the deal, which includes roughly $3 billion in tax incentives, to lure the Seattle-based company's investment. The plan is to bring part of its second headquarters and 25,000 jobs to the Long Island City neighborhood in Queens._x000D_
-"All of those reasons and more lead us to fight this deal because at the end of the day, it's a bad deal for New York," Bramer said._x000D_
-The Washington Post reported on Friday that Amazon is reconsidering the New York development due to local opposition._x000D_
-In response to the report, Cuomo said "we have to make Amazon a reality" in New York and that "it is irresponsible to allow political opposition to overcome sound government policy." He equated such opposition to "malpractice" because the headquarters would create so many jobs in the city._x000D_
-De Blasio's office has defended tax incentives offered by the city for the project, saying it could generate $12.5 billion in future tax revenues._x000D_
-Amazon did not immediately respond to a request for comment.</t>
-  </si>
-  <si>
-    <t>The future of co-working spaces may not be in hip open-concept lofts.   _x000D_
-Co-working in which entrepreneurs and freelancers rent out desks at a shared workspace  is growing rapidly, and big companies are looking to get in on the action as a way to monetize empty space. _x000D_
-Last month, Staples Canada opened Staples Studio at its University Avenue location in downtown Toronto. The venture is described by the company as a combination of co-working space, retail, and services. _x000D_
-"Why did we go into co-working? Quite frankly, our customers were telling us the way they work is changing," said Staples Canada CEO David Boone. _x000D_
-With competitors like Amazon and Walmart cutting into Staples' retail business, and with its online sales growing faster than in-store purchases, Boone said re-purposing extra space in stores is key. _x000D_
-"Clearly, the retail industry is going through a lot of change," he said. "And those retailers that adapt are going to win."_x000D_
-Global growth of shared workspaces_x000D_
-As workers become more nomadic, co-working spaces are an increasingly popular option. _x000D_
-According to the Global Coworking Unconference Conference, a company which produces conferences on co-working, there were around 14,000 co-working spaces around the world in 2017._x000D_
-They expect that number to climb to 30,000 spaces by 2022._x000D_
-In Toronto, a variety of spots have popped up to fill the need, including a parent-friendly co-working space, a space just for female entrepeneurs, and a business that connects freelancers to empty restaurants where they can sit and work. _x000D_
-As of this past December, even the federal government is considering getting in on the action. _x000D_
-Staples Studio coming to a city near you_x000D_
-Toronto startup Healthy Pets, a telemedicine company that connects pet owners and vets, relocated its team to Staples Studio after a strenuous search for the right space. _x000D_
-"It was actually a very difficult process because a lot of co-working spaces in the city are either full or very expensive," the company's lead software engineer Dennis Turko said._x000D_
-Turko said being at Staples Studio saves his company time because the office was ready to go when they moved in. _x000D_
-"Previously, we have... purchased all of our supplies, whether it's hardware, whether it's computers, whether it's stationary," he said._x000D_
-In that sense, having an office with a Staples store so close at hand has been convenient, he said the team never wants for office supplies. _x000D_
-That's what Boone means when he says Staples Studio offers a "complete experience" that's unlike other co-working spaces. _x000D_
-Boone says he plans to take the co-working model to other cities later this year._x000D_
-U of T space now for rent _x000D_
-The push towards co-working is happening in universities as well. _x000D_
-In 2017, The University of Toronto launched ONRamp, a 15,000 square foot office space that's sponsored by RBC and is free to student entrepreneurs and recent alumni.  _x000D_
-U of T Entrepreneurship managing director Keri Damen told CBC Toronto the university also rents out space at a "competitive" price._x000D_
-"We wanted to create a central space where all these entrepreneurs from engineering or medicine or business or Scarborough or Mississauga, they could come together to share and work together in a space," Damen said.</t>
-  </si>
-  <si>
-    <t>Joe Skipper/Reuters_x000D_
-Tesla shareholder T. Rowe Price cut its stake in half in the fourth quarter, a regulatory filing showed on Monday. _x000D_
-As of September, prior to the divestiture, T. Rowe was the automaker's second-largest shareholder, trailing only CEO Elon Musk._x000D_
-Now, Baillie Gifford is Tesla's biggest institutional stakeholder._x000D_
-Watch Tesla trade live._x000D_
-T. Rowe Price, formerly Tesla's largest institutional shareholder, cut its stake in half in the fourth quarter, a regulatory filing showed on Monday. _x000D_
-The filing showed that T. Rowe had reduced its stake to 5.2% as of the end of December, down from the 10.12% stake it held in September. Prior to the divestiture, T. Rowe was Tesla's second-largest overall shareholder, trailing only CEO Elon Musk._x000D_
-The move makes Scottish investing giant Baillie Gifford Tesla's biggest institutional stakeholder._x000D_
-Tesla investors didn't seem particularly perturbed by the development. The company's stock climbed 3.59% on Monday, trading near $316.77 per share._x000D_
-T. Rowe's withdrawal of investment could be reflective of broader concerns about the company's ability to self-fund its growth ambitions. On January 30, the tech company reported worse-than-expected profits for the fourth quarter, despite achieving two consecutive profitable quarters for the first time._x000D_
-And while Tesla swore it would be profitable in "all quarters going forward," Morgan Stanley says the company will still need to raise more external capital._x000D_
-"We forecast Tesla 1Q19 free cash flow to be negative $600 million driven by a sequential decline in profit and working capital leakage," Adam Jonas, an analyst at Morgan Stanley, said recently. He pushed out his forecast of a $2.5 billion equity capital raise to the third quarter of the year._x000D_
-Tesla is up 3.1% so far this year._x000D_
-MI</t>
-  </si>
-  <si>
-    <t>T. Rowe Price, formerly Tesla's largest institutional shareholder, cut its stake in half in the fourth quarter, a regulatory filing showed on Monday. _x000D_
- The filing showed that T. Rowe had reduced its stake to 5.2% as of the end of December, down from the 10.12% stake it held in September. Prior to the divestiture, T. Rowe was Tesla's second-largest overall shareholder, trailing only CEO Elon Musk. _x000D_
- The move makes Scottish investing giant Baillie Gifford Tesla's biggest institutional stakeholder. _x000D_
- Tesla investors didn't seem particularly perturbed by the development. The company's stock climbed 3.59% on Monday, trading near $316.77 per share. _x000D_
- T. Rowe's withdrawal of investment could be reflective of broader concerns about the company's ability to self-fund its growth ambitions. On January 30, the tech company reported worse-than-expected profits for the fourth quarter, despite achieving two consecutive profitable quarters for the first time. _x000D_
- And while Tesla swore it would be profitable in "all quarters going forward," Morgan Stanley says the company will still need to raise more external capital. _x000D_
- "We forecast Tesla 1Q19 free cash flow to be negative $600 million driven by a sequential decline in profit and working capital leakage," Adam Jonas, an analyst at Morgan Stanley, said recently. He pushed out his forecast of a $2.5 billion equity capital raise to the third quarter of the year. _x000D_
- Tesla is up 3.1% so far this year. _x000D_
-MI</t>
-  </si>
-  <si>
-    <t>The Oakland A’s had hoped that 2018 first-round pick Kyler Murray would report to spring training, but that’s clearly not going to happen._x000D_
-Murray is choosing football._x000D_
-The Heisman Trophy winner announced Monday that he will pursue a career as an NFL quarterback over playing baseball for the A’s._x000D_
-Murray is a projected first-round pick in April’s draft and will almost certainly become the first athlete to be drafted in the first round of both the NFL and MLB._x000D_
-The former Oklahoma quarterback had been leaning towards football, but his announcement — which came right after A’s exec Billy Beane said no decision had been made — got the sports world buzzing._x000D_
-Kyler Murray: Why Im leaving The Athletics_x000D_
-— Tom Fornelli (@TomFornelli) February 11, 2019_x000D_
-Kyler Murray had a choice, stay relevant and follow your passion, or play baseball and… not._x000D_
-He picked the NFL._x000D_
-— Dov Kleiman (@NFL_DovKleiman) February 11, 2019_x000D_
-From the moment Kyler Murray looked like a Heisman Trophy-caliber quarterback, the Oakland As knew they were longshots to keep him playing baseball. This is a bummer for MLB, but it was the likeliest outcome. https://t.co/nzhFEJeU3T_x000D_
-— Jeff Passan (@JeffPassan) February 11, 2019_x000D_
-I just cant believe Kyler Murray would choose a first round contract and signing bonus in the NFL over letting the notoriously cheap Oakland As manipulate his free agency eligibility for the next half decade._x000D_
-— Chase Ruttig (@ChaseRuttig) February 11, 2019_x000D_
-MLB was willing to bend rules to convince a kid, who did not have any guarantee of being a star, of choosing baseball over football and failed. Not a great look for a sport whose narrative is that young people dont want to sit through a game anymore. https://t.co/zUaXutOOG0_x000D_
-— Joon Lee (@joonlee) February 11, 2019_x000D_
-Read more from USA TODAY Sports. _x000D_
-Kyler Murray chose football right after A's exec Billy Beane said no decision had been made_x000D_
-Brian Hoyer's Amazon and ESPN+ subscriptions helped the Patriots win Super Bowl 53_x000D_
-How Bill Belichick outclassed the NFL's latest genius in Super Bowl 53</t>
-  </si>
-  <si>
-    <t>Imran Khan, a former top exec at Snap, has plans to go after Amazon._x000D_
-div &amp;gt; div.group &amp;gt; p:first-child"&amp;gt;_x000D_
-Though details are still scarce, Khan's new retail company, called Verishop, said Monday in a post on Medium that it plans to launch an e-commerce platform for vetted brands that brings back to customers the "joy of discovering something new that you truly love" on the internet._x000D_
-"We see an opportunity for an e-commerce company to bring joy back to online shopping and do it at scale with the ease of online purchasing and fast delivery we've all come to expect," the blog post said. Verishop added that the company has been communicating with up-and-coming brands that share frustrations over existing online retail platforms that have counterfeit products or that hurt brand integrity._x000D_
-"E-commerce was supposed to make shopping easier, and for everyday commodity items, it has," the blog post said._x000D_
-Businesses that have already agreed to sell on Verishop include beauty retailers Ursa Major and Indie Lee, bedding maker Primary Goods, and apparel brands J.O.A, Finders Keepers and N:Philanthropy, according to a person familiar with these partnerships. The person, who asked to remain anonymous because the website hasn't launched yet, also said Verishop is in discussions with a number of direct-to-consumer brands about joining the platform._x000D_
-Verishop's leadership team includes Khan, who spent three years at Snap as chief strategy officer, as well as his wife Cate Khan, who spent eight years at Amazon._x000D_
-The company said it's raised $17.5 million to date from investors, led by Lightspeed Ventures.</t>
-  </si>
-  <si>
-    <t>The Insider Picks team writes about stuff we think you'll like. Business Insider has affiliate partnerships, so we get a share of the revenue from your purchase. The new MacBook Air is $100 to $150 off at Best Buy as part of the store's "Apple Shopping Event." Best Buy doesn't say exactly how long this sale is going to last, but most deals last about a week at the big-box retailer. _x000D_
- Apple's laptop line is a little crowded, but the new MacBook Air stands out in a few key ways, making it a great buy — especially at this lower price. _x000D_
- As its name suggests, the Air is thin and light, but still powerful enough to handle most tasks you throw at it. It has all the processor power, memory, and storage to handle Microsoft Office or the Google Suite, web browsing, and HD video streaming without breaking a sweat. Its high-resolution, "retina" screen also makes it a good choice for light photo and video editing, although you might notice some strain if you're working with 4K footage. _x000D_
- Apple says that the MacBook Air can get up to 12 hours of battery life, which should be more than enough to get you through an average day on a single charge. If you're a student or an average computer user who occasionally works with photos, videos, and audio, the MacBook Air is a good choice. _x000D_
- You'll notice that two models of the MacBook Air are on sale, the only difference between the two of them is the amount of storage inside. If you mostly stream your media and work with documents and presentations in the cloud, the base model is a good choice for $1,099.99. If you work with high-resolution photos and videos more often, you should consider the the higher-storage model for $1,249.99. _x000D_
- Apple rarely discounts its tech, and it's unusual to see its gadgets go on sale so soon after release, so if you're in the market for a new laptop, don't wait too long.</t>
-  </si>
-  <si>
-    <t>With their two young kids in tow, Juston and Kristen Herbert drove to a Target near their home outside Scottsdale, Arizona. It was time to get to work._x000D_
-The Herberts were on the hunt for all of the Contigo water bottles the store had in stock, and kept the camera rolling for their 6,400 YouTube subscribers. Within minutes, an employee pulled out 32 two-packs — sold on clearance for US$5 each — from a back storage room. For two people who recently left their jobs in finance, the blue-and-black plastic bottles might as well have been made of gold. The Herberts would resell the two-packs on Amazon for US$19.95. Subtracting some taxes and fees, they’d clear US$6.16 in profit. All told, the Herbert’s 10-minute Target run earned them US$198._x000D_
-Juston, 30, and Kristen, 28, estimate they can reel in US$150,000 this year from their newest gig: retail arbitrage. The basic idea is to buy up a bunch of the same item — from water bottles to vacuums to Monopoly boards — and then resell them online for a handsome profit._x000D_
-For some, this is just a lucrative side hustle — perhaps to climb out of debt or save up for a Disney World vacation. For others, it has become their primary way of earning a living. And beyond that, the Herberts say, this work is helping them build up US$50,000 so they can adopt a child._x000D_
-“If we’re showing that you can come up with big money for an adoption,” Kristen said, “you can come up with big money to get yourself out of a hole, credit card debt or a house payment.”_x000D_
-While the idea to buy something cheap and sell it at a higher price is age-old, the concept of retail arbitrage has emerged in the digital age._x000D_
-In between stops at different stores, the Herbert family often takes breaks to play in the park.Dominic Valente / _x000D_
-For The Washington Post_x000D_
-Chris Green wrote one of the go-to how-to books on the topic, titled “Retail Arbitrage.” And he’s helped popularize the moniker._x000D_
-The term seems to be having a moment. In December, according to Google Trends, searches for “retail arbitrage” spiked on YouTube, where aficionados post videos of their shopping and reselling sprees. (One reseller, who has more than 52,000 YouTube subscribers, filmed his 22-hour buying binge through 17 Walmarts. He filled his trunk with 182 Monopoly games and flipped most of them in one night for US$2,500.)_x000D_
-In the early 2000s, resellers started flipping products on eBay. But Green’s guide focused on the engine behind many of these small businesses: Fulfillment By Amazon, or FBA._x000D_
-I see money everywhere. If I walk into a store, it's just like a dollar sign sitting on the shelf_x000D_
-Through FBA, people can add their own products to Amazon’s vast online catalogue. Sellers package their products and ship them to Amazon warehouses, where they are stored until an order comes in. Amazon takes it from there — pulling an item off the warehouse shelf and getting it to the customer’s door._x000D_
-Green, who’s been dubbed the “godfather of retail arbitrage,” used to be a sales representative for Bosch Power Tools. He started reselling power tools on eBay in the early 2000s._x000D_
-Then, with the rise of Android and iPhone apps that can scan products and track down major sales, Green realized retail arbitrage could work for anyone, even those who didn’t know the inner workings of an industry._x000D_
-“I used to teach grandmas to do it,” Green said._x000D_
-For Mike “Reezy Resells” Rezendes, retail arbitrage has been a kind of salvation. Rezendes said he grew up in a troubled household and was married with a child by 16. As a teenager, he noticed commercials for eBay on TV and started selling whatever he could rummage around the house, like his Nintendo and its games and controllers._x000D_
-Now, Rezendes, 34, has been reselling items online full-time for 14 years. His YouTube channel, “Reezy Resells,” has more than 85,000 subscribers (Rezendes calls his followers “Reezy’s ninjas.”) He runs his company with his best friend from high school and oversees a small team who buy up goods from stores like Nike, Marshalls and Ross._x000D_
-Juston Herbert fixes his daughters sandal after theyve loaded the car.Dominic Valente / _x000D_
-For The Washington Post_x000D_
-Last year, the company saw US$800,000 in gross sales for about US$240,000 in profit. In January, he got more than US$8,000 in ad revenue from YouTube._x000D_
-One day last month, Rezendes had more than 100 pairs of Nike shoes in his garage that he planned to ship to Amazon. He was working on a YouTube video breaking down how he bought 100 Nerf guns from Target.com and flipped them for US$1,500._x000D_
-Rezendes, who lives in Santa Cruz, California, said retail arbitrage has kept him from having to fill a 9-to-5 desk job. But he also knows online resellers and small-business owners like him are crucial to Amazon’s model._x000D_
-Amazon “needs people like me to fill all the holes in the marketplace,” he said._x000D_
-“We’re literally flesh-and-blood robots for Amazon,” Rezendes said._x000D_
-The retail giant hasn’t shied away from promoting its small businesses: In 2018, the number of small and medium-size businesses that passed US$1 million in sales in Amazon stores worldwide grew by 20 per cent. Third-party sales are growing at a faster rate than first-party sales online, the company said last month._x000D_
-You’ll find Shane Myers on YouTube as the “Rise N Grind Picker” — with 15,000 YouTube subscribers._x000D_
-(Amazon) needs people like me to fill all the holes in the marketplace_x000D_
-Mike 'Reezy Resells' Rezendes_x000D_
-Three years ago, with US$20 in his savings account, Myers started reselling thrift store merchandise on eBay. He turned to Amazon in August. By September, Myers had churned out more than US$2,000 selling used books alone. In his first three months back on retail arbitrage, he’d paid off all his credit card debt and car payments._x000D_
-Myers, 31, pays US$30 a month for an app called BrickSeek, which helps him find markdowns at big-box stores like Walmart and Target. A few weeks ago, Myers hit multiple Walmarts within a 150-mile radius and came home with 218 packages of lightbulbs. He found them on clearance for US$2 each. He marked up the price and netted US$4 to US$5 on each package._x000D_
-The grand total: more than US$1,100 in profit._x000D_
-Myers hopes that within the next year and a half he can move to retail arbitrage full time and will have paid off his house. And he hopes he’ll never miss his daughter’s birthday again for work, like when he was clocking in at his old day job in retail._x000D_
-“I see money everywhere,” Myers said. “If I walk into a store, it’s just like a dollar sign sitting on the shelf.”_x000D_
-The Washington Post</t>
+    <t>Bloomberg  As Amazoncom Incand Google work to place their smart speakers at the center of the internetconnected home both technology giants are expanding the amount of data they gather about customers who use their voice software to control other gadgetsFor several years Amazon and Google have collected data every time someone used a smart speaker to turn on a light or lock a door Now theyreaskingsmarthome gadget makers such as Logitech and Hunter Fan Co to send a continuous stream of informationIn other words after you connect a light fixture to Alexa Amazon wants to know every time the light is turned on or off regardless of whether you asked Alexa to toggle the switch Televisions must report the channel theyre set to Smart locks must keep the company apprised whether or not the front door bolt is engagedThis information may seem mundane compared with smartphone geolocation software that follows you around or the trove ofpersonal data Facebook Incvacuums up based on your activity But even gadgets as simple as light bulbs could enable tech companies to fill in blanks about their customers and use the data for marketing purposesHaving already amassed a digital record of activity in public spaces critics saytech companies are now bent on establishing a beachhead in the homeYou can learn the behaviors of a household based on their patternssays Brad Russell who tracks smart home products for researcher Parks Associates Inc One of the most foundational things is occupancy Theres a lot they could do with thatSome device makers are pushing back saying automatic device updates dont give users enough control over what data they share or how it can be used Public guidelines published by Amazon and Google dont appear to set limits on what the companies can do with the information they glean about how people use appliancesAmazon and Google say they collect the data to make it easier for people to manage their home electronics Automatic status updates reduce the time it takes to process voice commands and lets smarthome hubs present uptodate information on a screen or smartphone app Greater awareness of whats going on also lets them proactively suggest helpful uses for their voice assistants and develop new onesSmart speakers are among the fastest growing categories of consumer electronics led by Amazons Echo and Googles Home devices Thats pushed the companies and their Alexa and Assistant software deeper into debates about the tradeoffs between useful services and the harvesting of personal data Both have had public pratfalls around privacy of voice commands either recording private messages in error or sending them to othersThe commercial success of voice assistants has bolstered dozens of companies working to build interest in internetenabled televisions kitchen appliancesand other devices Many people first start tinkering with connected appliances after buying a smart speaker Surveys show about a quarter of US smart speaker owners regularly use them to control something else a percentage analysts expect to riseWhen smart speakers first hit the market using them to command another device worked like this After receiving the command Alexa turn on the lightthe software would ask the light bulb makers servers for the current status of the bulb After a reply came back confirming the switch was off Alexa would instruct the light to turn onNow in a push that accelerated last year Amazon and Google are recommendingand in some cases requiringthat smart home makers tweak their code to reverse that relationship Instead the light bulb must report in to the hub with its status at all timesOversharing for the sake of oversharing is probably never a good thingsays Ian Crowe a senior director with Logitech International SA a builder of computer and home electronics accessories We should have a good reason and our users should agree its a good reasonbefore sharing dataLogitech has tried to meet Amazon and Google halfway Rather than tell smart speakers what each device connected to Logitechs Harmony remote controls were doing Crowe says Logitech reports back with broad descriptions specifying that a user is watching television instead of passing on information about their choice of channel for instanceThere are very relevant concerns about how much the system knows he saysCrowe says Logitech has had conversations about status reporting with Amazon and Google but declined to detail them Executives at two other smart device makers speaking on the condition of anonymity to protect business relationships say theyve asked for concessions from Amazon and Google related to user privacy or transparency and guarantees about use of the data but been rebuffedAn Amazon spokesman says the company doesnt sell user dataand doesnt use information it gets from status reports for advertising Status reports he says are designed to enable useful features for customers He declined to comment on how long Amazon stores the data A Google spokesman declined to comment on the companys implementation of status updatesRussell the analyst with Parks Associates callsstatus reporting a bit of a Trojan Horse request Amazon and Google he says are suggesting Hey help us help you by giving us the status of your device and make everyones life easierBut what theyre not saying is Gee we can do a lot with that dataEven light fixtures in elaborate setups are a map of home life When do you get home When does the light in your childs bedroom usually go off What days do you burn the midnight oilStill the nascent smarthome market is fiercely contested and some critics acknowledge their worries about data collection are partly motivated by concerns that Amazon and Google will use their central position to muscle out rivals and dictate terms to the rest of the market Moreover some other smarthome companies themselves gather status reports though they lack the scale or billiondollar advertising businesses of the tech giantsMeanwhile plenty of companies say they are onboard with status reporting Matt McPherson an engineering manager with Hunter Fan Co says that before the advent of status reports device sometimes shut down without answering the users command Do I think these guys are intentionally grabbing data in order to find some way of advertising he asksAt this moment I dont think so but I can see something of that nature happening in the futureSome say Amazon and Google would do well to be more transparent by telling users outside of the confines of lengthy privacy policies what data theyre collecting and offering more finegrained options for managing it Amazon and Google let users delete accumulated smarthome data but neither offers an option to stop collecting it from specific devices in the first place Currently the only way customers can disable data sharing for a specific device is to unplug it from the systemWe know that there are consumer concerns deeper than whats been written about about how much listening is really going on by any voice systemsays Martin Plaehn who runsControl4 Corp a manufacturer of home automation technologyPeople intuitively understand that by asking a voice assistant to control a device theyre giving that company information about that action he says Its less likely they know that linking a television to the system begins a process of transmitting updates when someone changes the channel or turns it on or offThere isnt an implicit permission of Go ahead and take all my data whenever something changes Plaehn says And we think that if the world really knew that was going on it would create a real kerfuffle</t>
+  </si>
+  <si>
+    <t>February 10 2019Chicago TribuneMeasles surges again as it finds a weak spot Antivax parentsIf a disease were striking children causing rash and fever and sometimes escalating to brain swelling pneumonia and even death there would be a public demand to do something about itAmerica did and measles was declared eradicated here in 2000Now the malady is back in Illinois and at least nine other states with two cases in downstate Champaign and an alarming breakout in the Pacific Northwest where the governor of Washington has declared a state of emergencyBlame a stubbornly resistant antivaccine movement driven by dangerous pseudoscience and the worst impulses of obsessive overparenting I know whats best for my child antivax parents say and measles spreadsThe World Health Organization warned Thursday of a dramatic rise in measles cases globally as parents reject vaccines for their children In Europe measles cases reached their highest level in a decade in 2018 Outbreaks have hit the Philippines and Madagascar In a world of global travel these arent distant concerns A monthslong series of cases in New York has been traced to an unvaccinated child who caught the disease on a trip to IsraelMeasles can cause lifelong effects including deafness It is ugly with its blotchy fevered spots some of which leave permanent scars Its highly contagious and miserable to experienceA worried antivaccinations parent posted on Facebook to ask whether there were any precautions she could take to protect her 3yearold from a measles outbreak Ah yes if only there were a way She was rightly given a social media spankingMeasles vaccine is 97 percent effective after two doses which usually also protect against mumps rubella and sometimes varicella or chickenpox according to the US Centers for Disease Control and Prevention A wellvaccinated population takes on a herd immunity that hinders outbreaks Some states including Washington allow parents wide latitude in skipping the vaccine The Washington legislature is now rethinking thatThankfully we live in a highly immunized community Julie Pryde administrator of the ChampaignUrbana Public Health District told the local NewsGazette Thats why it doesnt go wild like a brush fireWatching plump pure baby flesh pierced and feeling trepidation about how the childs system will react can be legitimately nervewracking for a parent Thats no license to avoid a medical necessity that protects child and community The right to resist comes with a corresponding responsibility to back up that impulse with rigorous researchOnce more Both studies that purported to find a link between vaccines and autism have been thoroughly discredited There is no evidence connecting the twoSeeking a second opinion may sometimes be wise Opting out of sound medicine and public health policy in favor of conspiracy theories is notAll schoolchildren who have not yet had a measles immunization should beg their parents to arrange for them to have one as soon as possible childrens author Roald Dahl wrote in a 1980s essay promoting vaccination His daughter Olivia to whom he dedicated James and the Giant Peach died of measlesinduced encephalitis at age 7Dahl was onto something Illinois is among states that allow mature minors a voice in their own medical care Children of antivax parents are visiting websites like Reddit to seek advice on how to get vaccines all by themselvesNow thats some healthy skepticism of unwise parentingFebruary 10 2019The Champaign NewsGazetteIllinois is betting big that gambling is an unadulterated goodChange is coming to Illinois a higher minimum wage first soon to be followed by the legalization of marijuanaThen there is sports gambling which is an option due to a ruling last year by the US Supreme Court In addition to action in many of the 50 states federal legislation may be forthcomingIllinois of course is already up to its neck in legalized gambling that includes casinos video gambling the lottery and race tracks Those activities generate substantial income but not as much as some predicted Further it seems that placing videogambling parlors on virtually every street corner is diminishing the amount of gambling that once was done at the states 10 casinosSports betting would be a whole new wrinkle on the gambling front a governmentoverseen entertainment that would replace an illegal underground marketplaceA recent study indicates that legalized gambling in Illinois would generate 12 billion in wagers create 2500 jobs and generate up to 100 million in tax revenueThe authors of the study have their reasons for making that assessmentBut one ought to be careful about embracing predictions on a practice that is still a gleam in the eye of the revenuehungry Gov JB Pritzker and members of the General AssemblyFurther its important not to get caught up in the rush to pass legislationEver since the Supreme Court ruling gambling hustlers have been urging legislators in Illinois and other states to be among the first to pass legislation allowing sports gamblingThe theory is that those who strike first will reap the largest rewardsThere is merit to swift action but not at the expense of making careful and thoughtful decisions about whats to be doneLegislation authorizing casino gambling was rushed to passage as was that creating the videogambling frenzy In retrospect it looks as though state officials would have been better served to adopt a more deliberate and careful approachInstead they acted in haste and as various reports have suggested now repent in leisureThe state has historically had a hard time passing gambling legislation because it turns into a scrum of conflicting interests all of whom are looking to get rich at the others expenseFurther those who gained gambling privileges in one round of legislation take the casino owners vigorously resist proposals for new venues that would compete with their existing venuesDoes anyone think that the owners of casinos in Joliet and Des Plaines want to see another casino or two or three in Chicago Absolutely not and theyre willing to spread plenty of money around in campaign donations or other forms of remuneration to see that it doesnt happenAdding sports betting to the gambling field ensures a major conflagration But the impending battle will be less about the specifics of operations than it will be about who makes the big money from this new businessIllinois is a huge state that has the capacity to make sportsbook owners a whole lot of money But which ones will it be And what will the cost of the entry fee for those competing for the privilege of taking gamblers moneyTen states already have legalized sports gambling none of them in the MidwestIf Illinois follows it will be a gamechanger in terms of social mores one not necessarily for the better People will just have to wait and see what followsBut dont buy the hype that another expansion of gambling will represent some kind of financial panacea for our financially challenged stateLegal gambling generates revenue but it also generates costs including a fraying of the social fabric of society After all everyone cant be a winnerFebruary 10 2019Decatur Herald amp ReviewWe support legalizing marijuana Here are the hurdles we seeThe climate is rightHigh on the list of changes planned by Gov JB Pritzker is the statewide legalization of recreational marijuana The timing for this legislation is even more favorable now than before the electionLegalizing marijuana has been tried and tested by states before Illinois There are substantial benefits that could help the state navigate budget problems and funding issues It has the potential to infuse revenue at the ground level as the retail market develops and helps stimulate the local economy It has a proven record of reducing the impact of the opioid epidemicIn November the Illinois Economic Policy Institute published The Financial Impact of Legalizing Marijuana in Illinois The report noted taxation and regulation of marijuana in Illinois could create nearly 24000 new jobs Legalization would boost the states economy by 1 billion per year and generate in excess of 500 million in new state and local tax revenueOne of the most compelling reasons to move forward with legislation is the impact it has on the opioid crisis According to the Center for Disease Control deaths attributed to opioid overdose totaled 70237 nationwide in 2017 In Illinois there were 2778 in 2017 which followed 2411 in 2016 and 1835 in 2015 In states that have already legalized marijuana for recreation the number of opioid deaths is dropping In some states fatalities have fallen as much as 33 percent Its a number we have to take seriouslyThe climate is right in Illinois to take the next step in marijuana legalization but that alone doesnt warrant charging ahead blindly With other states having gone before us there is no excuse for not moving methodically and purposefully in preparing to make this significant change There is time to do it rightThough Gov Pritzker has made it clear that revenue through taxes is a priority the predominance of the plan seems to focus on creating opportunities for minority businesses and benefits to communities affected by drug crime There does not seem to be however a thorough analysis pondering through what system that revenue stream is built If economics is one of the key reasons justifying legalization thats a question that needs to be addressed sooner rather than laterThe process of legalizing a once illegal substance is challenging It does not just involve taxes and licenses It requires a transition from a prelegal state to a postlegal one Going from a high demandhigh cost product with minimal market infrastructure to a lower demandlower cost product once the market develops and stabilizesColorado gained initial revenue simply by being a pioneer in legalization As the market stabilized production costs came down reducing the tax revenue with it California meanwhile taxes both by weight and by prices leaving at least part of the revenue not dependent upon supply or increased demand to drive tax revenue upAs a state were closer than weve ever been to legalized recreational marijuana There are plenty of reasons to proceed and plenty of reasons we should answer some important implementation questions before we finalize itCopyright 2019 The Associated Press All rights reserved This material may not be published broadcast rewritten or redistributed</t>
+  </si>
+  <si>
+    <t>LITTLE ROCK Ark AP The Arkansas Arts Center will move into a former Walmart in Little Rock while the downtown museum gets a nearly 99 million makeoverMuseum officials said Monday that the old Walmart Neighborhood Market will begin housing its staff art classes and childrens theater rehearsals in September The Arkansas DemocratGazette reports that the move comes about a month before crews are scheduled to break ground on the centers more than twoyear renovation projectThe museums nonprofit foundation didnt disclose the lease termsThe museums interim executive director Laine Harber says the deal allows the center to keep staff employed maintain daily programming and continue museum school classes for its roughly 3000 studentsThe museum in November announced a partnership with the Central Arkansas Library System to display some of its artworkInformation from Arkansas DemocratGazette httpwwwarkansasonlinecomCopyright 2019 The Associated Press All rights reserved This material may not be published broadcast rewritten or redistributed</t>
+  </si>
+  <si>
+    <t>Anyone whos used a traditional WiFi extender will know that you sometimes need to manually switch your devices to the extenders own WiFi network when youre too far from your main WiFi router Thats mostly because WiFi extenders have their own network name thats slightly different to your main WiFi networks name For example an extenders network name might be your main networks name with the letters EXT tagged on to indicate that its your extenders WiFi network  Mesh systems like Eero on the other hand help your devices automatically switch to the nearest Eero and each Eero broadcasts the same WiFi network name  Eero will also automatically connect your devices to the appropriate WiFi band  24GHz and 5Ghz  depending on their needs If your devices need better range Eero will automatically connect your devices to the longerrange 24GHz band If youre close enough to an Eero router itll connect your devices to the 5GHz band which offers faster speeds but has less range than the 24GHz band  To be fair some recent extenders give options to keep your main WiFi networks name and bands to make switching easier and automatic At the same time you might need to go into the extenders settings to enable that feature which can be complicated for a lot of users</t>
+  </si>
+  <si>
+    <t>CEO confidence has been flat since Federal Reserve Chairman Jerome Powell announced last month that the agency would be patient in determining future interest rate hikes IBMs Ginni Rometty told CNBC Tuesdaydiv gt divgroup gt pfirstchildgtI think its been fairly steady and I hear from all of my colleagues that everyone is still planning  both ways whether for growth or efficiency Rometty said on Squawk on the Street during a sit down with CNBCs Jon Fortt from the Think 2019 conference in San FranciscoMany investors have been uncertain about the prospects of the markets this year Some are bracing for the bull rally to continue running while others are preparing for stocks to fall the other way Earlier last month Powell said the central bank would keep an eye on economic growth throughout the year and adjust monetary policy if growth slowsThats left Wall Street watchers and company executives in limbo who are adjusting their own plans to Fed policy Markets began to swing up after Powells comments but CEO sentiment has remained the same said Rometty who is also chair and president of IBMOver a curve over time  you wouldve seen more toward the growth side she said But I see that balance now between growth and efficiency initiatives and I actually see that staying very firmRometty also announced that IBM would open its Watson artificial intelligence service to all cloud platforms not just IBMs cloud The move will give IBM customers capability to manage and run data under the clouds run by providers like Microsoft and AmazonWatson can run on your premise it can run on any cloud and it can connect between them Rometty said This is a big piece not just of Watson a big piece of hybrid cloud she said referring to the idea of mixing onpremises software with services from multiple cloud providers We think thats a trillion dollar market and well be number 1 in itShares of IBM are trading about 14 percent higher as of midday The stock is up almost 20 percent this year</t>
+  </si>
+  <si>
+    <t>Thomas Kurian the new CEO of Google Cloud says that the search giant is revamping its strategy a little bit as it chases after the marketleading Amazon Web Services  Rather than focus on socalled digital native companies  largely startups that began their lives in the cloud  Google Cloud is going to go after established companies in established industries like retail or finance  Historically people have thought Google has a strong presence in the digital native community Kurian said onstage Over the last 12 months weve shifted our strategy to go after more traditional industriesYou will see us continue to focus our gotomarket effort in going after the largest customers  Kurians remarks  his first since replacing Diane Greene as CEO in January came at the Goldman Sachs Technology and Internet Conference on Tuesday Kurian came to Google following a long career at Oracle  Kurian says that he plans to significantly expand Google Clouds sales teams and train them to target traditional industries like retail manufacturing automotive finance and others  Were going to specialize our sales team to talk to specific industries in the language of the industry Kurian said You will see us competing much more aggressively going forward he continued  Similarly Kurian plans on expanding Google Clouds customer support teams  potentially fixing a major customer complaint with the platform  In order to serve a large corporation well its important for those organizations to have a person to talk to Kurian said Read moreStartup execs were shocked when Diane Greene left Google Cloud and they say new boss Thomas Kurian has his work cut out for him More broadly Kurian says Google Cloud is taking a new philisophy called Customers for Life This involves not only acquiring and retaining customers but converting them into advocates for Google Cloud  Right now Google Cloud is considered the number 3 cloud on the market lagging behind Amazon Web Services and Microsoft Azure Analysts say Google needs to step up its ability to sell into the largest customers Kurians gameplan here could help plug that gap and make it more competitive as he inherits  At the same time though Kurian says that customers believe that Google Cloud has come a long way  and that it still has a competitive edge  I talked to the largest customers and asked Why did you choose Google Kurian said Uniformly the feedback I got was Its by far the best technology in the market  Meanwhile Google Cloud is already working to acquire prominent customers Last week Google Cloud partnership with the Golden State Warriors on Wednesday to bring advanced data analytics to the franchise Insiders also say that Kurian is likely to lead Google Cloud in making aggressive acquisitions</t>
+  </si>
+  <si>
+    <t>The transportation data firm INRIX Research released on Tuesday its annual rankings of the most congested cities in the world  The company measured the amount of time lost per capita in 2018 due to the difference between traffic at the busiest and least busy commuting times each day Cities were ranked based on delays caused by congestion adjusted for each citys population  Moscow was named the most congested city in the world for the second year in a row and Europe had more cities in the top20 than any other continent  These are the most congested cities in the world</t>
   </si>
   <si>
     <t>Pedestrians and shoppers walk past an Under Armour store._x000D_
@@ -2428,6 +2098,8 @@
   <si>
     <t>WASHINGTON (AP) Private investigators working for Jeff Bezos have determined the brother of the Amazon CEO's mistress leaked the couple's intimate text messages to the National Enquirer._x000D_
 That's according to a person familiar with the matter who spoke Monday to The Associated Press. The person wasn't authorized to discuss the matter publicly and spoke to AP on condition of anonymity._x000D_
+The new cost for doing business in Tulsa._x000D_
+For those who care about business and this community, we have a deal for you. Start a digital subscription for only $0.99. Sign up now at tulsaworld.com/subscribe._x000D_
 The Enquirer published a story last month that included racy texts between Bezos and former TV anchor Lauren Sanchez. Bezos said the tabloid later threatened to expose his revealing photos if he didn't have his private investigators back off._x000D_
 The person says those investigators identified Michael Sanchez, a California talent manager, as the person who leaked the texts._x000D_
 Sanchez didn't immediately respond to a message seeking comment on Monday._x000D_
@@ -2599,6 +2271,13 @@
 Want our 5 a.m. forecast delivered to your email inbox? Subscribe here.</t>
   </si>
   <si>
+    <t>Amazon on Monday said that it has acquired Eero, a start-up that developed home internet routers that can be connected with one another inside homes. Terms of the deal weren't disclosed._x000D_
+div &amp;gt; div.group &amp;gt; p:first-child"&amp;gt;_x000D_
+Google has a competing product called Google Wifi._x000D_
+"We are incredibly impressed with the eero team and how quickly they invented a WiFi solution that makes connected devices just work," Dave Limp, senior vice president for Amazon devices and services, said in a statement. "We have a shared vision that the smart home experience can get even easier, and we're committed to continue innovating on behalf of customers."_x000D_
+Eero was founded in 2014 and had headquarters in San Francisco. More than 150 people are listed as Eero employees on LinkedIn.This story is developing. Please check back for updates.</t>
+  </si>
+  <si>
     <t>Amazon on Monday said that it has acquired eero, a start-up that developed home internet routers that can be connected with one another inside homes. Terms of the deal weren't disclosed._x000D_
 div &amp;gt; div.group &amp;gt; p:first-child"&amp;gt;_x000D_
 Google has a competing product called Google Wifi. Apple discontinued AirPort home routers last year._x000D_
@@ -2607,13 +2286,6 @@
 Eero was founded in 2014 and had headquarters in San Francisco. More than 150 people are listed as eero employees on LinkedIn. Investors include Playground Global, Redpoint Ventures and Shasta Ventures. The start-up laid off one-fifth of its employees last year, TechCrunch reported._x000D_
 This is a developing story._x000D_
 Subscribe to CNBC on YouTube.</t>
-  </si>
-  <si>
-    <t>Amazon on Monday said that it has acquired Eero, a start-up that developed home internet routers that can be connected with one another inside homes. Terms of the deal weren't disclosed._x000D_
-div &amp;gt; div.group &amp;gt; p:first-child"&amp;gt;_x000D_
-Google has a competing product called Google Wifi._x000D_
-"We are incredibly impressed with the eero team and how quickly they invented a WiFi solution that makes connected devices just work," Dave Limp, senior vice president for Amazon devices and services, said in a statement. "We have a shared vision that the smart home experience can get even easier, and we're committed to continue innovating on behalf of customers."_x000D_
-Eero was founded in 2014 and had headquarters in San Francisco. More than 150 people are listed as Eero employees on LinkedIn.This story is developing. Please check back for updates.</t>
   </si>
   <si>
     <t>Amazon is acquiring the home mesh wi-fi router company Eero, the companies announced in a press release Monday. _x000D_
@@ -5168,6 +4840,139 @@
 An affordable, single-story slice of history it is. While West Bellevue is the most expensive neighborhood in the region, according to The Seattle Times, it is below the areas median home price of about $2 million. The lower price may also reflect a softening regional real estate market, where the number of unsold homes has more than double from last year._x000D_
 Nevertheless, the houses value has climbed considerably in the years since Bezos lived there. The Seattle Times reports that while the house was valued at $135,000 in 1994, it was bought for $182,000 in 1998. In 2009, when the current owners purchased the house, they paid $620,000less than half of its current asking price._x000D_
 But prospective buyers be warned: the house will not look identical to how it did when Bezos made it his residence. In 2001, the house was reportedly extensively remodeled, including installing a new roof and bathroomand the garage was remodeled too. However, it does have the signature oversized mailbox Bezos installed.</t>
+  </si>
+  <si>
+    <t>(Bloomberg) -- As Amazon.com Inc. and Google work to place their smart speakers at the center of the internet-connected home, both technology giants are expanding the amount of data they gather about customers who use their voice software to control other gadgets._x000D_
+For several years, Amazon and Google have collected data every time someone used a smart speaker to turn on a light or lock a door. Now they’re asking smart-home gadget makers such as Logitech and Hunter Fan Co. to send a continuous stream of information._x000D_
+In other words, after you connect a light fixture to Alexa, Amazon wants to know every time the light is turned on or off, regardless of whether you asked Alexa to toggle the switch. Televisions must report the channel they’re set to. Smart locks must keep the company apprised whether or not the front door bolt is engaged._x000D_
+This information may seem mundane compared with smartphone geolocation software that follows you around or the trove of personal data Facebook Inc. vacuums up based on your activity. But even gadgets as simple as light bulbs could enable tech companies to fill in blanks about their customers and use the data for marketing purposes. Having already amassed a digital record of activity in public spaces, critics say, tech companies are now bent on establishing a beachhead in the home._x000D_
+“You can learn the behaviors of a household based on their patterns,” says Brad Russell, who tracks smart home products for researcher Parks Associates Inc. “One of the most foundational things is occupancy. There’s a lot they could do with that.”_x000D_
+Some device makers are pushing back, saying automatic device updates don’t give users enough control over what data they share, or how it can be used. Public guidelines published by Amazon and Google don’t appear to set limits on what the companies can do with the information they glean about how people use appliances._x000D_
+Amazon and Google say they collect the data to make it easier for people to manage their home electronics. Automatic status updates reduce the time it takes to process voice commands and lets smart-home hubs present up-to-date information on a screen or smartphone app. Greater awareness of what’s going on also lets them proactively suggest helpful uses for their voice assistants, and develop new ones._x000D_
+Smart speakers are among the fastest growing categories of consumer electronics, led by Amazon’s Echo and Google’s Home devices. That’s pushed the companies and their Alexa and Assistant software deeper into debates about the tradeoffs between useful services and the harvesting of personal data. Both have had public pratfalls around privacy of voice commands, either recording private messages in error or sending them to others._x000D_
+The commercial success of voice assistants has bolstered dozens of companies working to build interest in internet-enabled televisions, kitchen appliances and other devices. Many people first start tinkering with connected appliances after buying a smart speaker. Surveys show about a quarter of U.S. smart speaker owners regularly use them to control something else, a percentage analysts expect to rise._x000D_
+When smart speakers first hit the market, using them to command another device worked like this. After receiving the command “Alexa, turn on the light,” the software would ask the light bulb maker’s servers for the current status of the bulb. After a reply came back confirming the switch was off, Alexa would instruct the light to turn on._x000D_
+Now, in a push that accelerated last year, Amazon and Google are recommending—and, in some cases, requiring—that smart home makers tweak their code to reverse that relationship. Instead, the light bulb must report in to the hub with its status at all times._x000D_
+“Oversharing for the sake of oversharing is probably never a good thing,” says Ian Crowe, a senior director with Logitech International S.A., a builder of computer and home electronics accessories. “We should have a good reason, and our users should agree it’s a good reason,” before sharing data._x000D_
+Logitech has tried to meet Amazon and Google halfway. Rather than tell smart speakers what each device connected to Logitech's Harmony remote controls were doing, Crowe says Logitech reports back with broad descriptions, specifying that a user is watching television instead of passing on information about their choice of channel, for instance._x000D_
+“There are very relevant concerns about how much the system knows,” he says._x000D_
+Crowe says Logitech has had conversations about status reporting with Amazon and Google, but declined to detail them. Executives at two other smart device makers, speaking on the condition of anonymity to protect business relationships, say they’ve asked for concessions from Amazon and Google related to user privacy or transparency and guarantees about use of the data, but been rebuffed._x000D_
+An Amazon spokesman says the company doesn’t sell user data and doesn’t use information it gets from status reports for advertising. Status reports, he says, are designed to enable useful features for customers. He declined to comment on how long Amazon stores the data. A Google spokesman declined to comment on the company’s implementation of status updates._x000D_
+Russell, the analyst with Parks Associates, calls status reporting “a bit of a Trojan Horse request.” Amazon and Google, he says, are suggesting “‘Hey, help us help you by giving us the status of your device, and make everyone’s life easier.’ But what they’re not saying is, ‘Gee, we can do a lot with that data.”_x000D_
+Even light fixtures, in elaborate setups, are a map of home life: When do you get home? When does the light in your child’s bedroom usually go off? What days do you burn the midnight oil?_x000D_
+Still, the nascent smart-home market is fiercely contested, and some critics acknowledge their worries about data collection are partly motivated by concerns that Amazon and Google will use their central position to muscle out rivals and dictate terms to the rest of the market. Moreover, some other smart-home companies themselves gather status reports, though they lack the scale or billion-dollar advertising businesses of the tech giants._x000D_
+Meanwhile, plenty of companies say they are on-board with status reporting. Matt McPherson, an engineering manager with Hunter Fan Co., says that before the advent of status reports, device sometimes shut down without answering the user's command. “Do I think these guys are intentionally grabbing data in order to find some way of advertising?” he asks. “At this moment I don’t think so, but I can see something of that nature happening in the future.”_x000D_
+Some say Amazon and Google would do well to be more transparent by telling users, outside of the confines of lengthy privacy policies, what data they’re collecting and offering more fine-grained options for managing it. Amazon and Google let users delete accumulated smart-home data, but neither offers an option to stop collecting it from specific devices in the first place. Currently, the only way customers can disable data sharing for a specific device is to unplug it from the system._x000D_
+“We know that there are consumer concerns, deeper than what’s been written about, about how much listening is really going on by any voice system,” says Martin Plaehn, who runs Control4 Corp., a manufacturer of home automation technology._x000D_
+People intuitively understand that by asking a voice assistant to control a device, they’re giving that company information about that action, he says. It’s less likely they know that linking a television to the system begins a process of transmitting updates when someone changes the channel or turns it on or off._x000D_
+“There isn’t an implicit permission of, ‘Go ahead and take all my data whenever [something] changes,’” Plaehn says. “And we think that if the world really knew that was going on, it would create a real kerfuffle.”</t>
+  </si>
+  <si>
+    <t>February 10, 2019_x000D_
+Chicago Tribune_x000D_
+Measles surges again as it finds a weak spot: Anti-vax parents_x000D_
+If a disease were striking children, causing rash and fever and sometimes escalating to brain swelling, pneumonia and even death, there would be a public demand to do something about it._x000D_
+America did, and measles was declared eradicated here in 2000._x000D_
+Now the malady is back in Illinois and at least nine other states, with two cases in downstate Champaign and an alarming breakout in the Pacific Northwest, where the governor of Washington has declared a state of emergency._x000D_
+Blame a stubbornly resistant anti-vaccine movement driven by dangerous pseudoscience and the worst impulses of obsessive overparenting. "I know what's best for my child!" anti-vax parents say, and measles spreads._x000D_
+The World Health Organization warned Thursday of a dramatic rise in measles cases globally as parents reject vaccines for their children. In Europe, measles cases reached their highest level in a decade in 2018. Outbreaks have hit the Philippines and Madagascar. In a world of global travel, these aren't distant concerns. A monthslong series of cases in New York has been traced to an unvaccinated child who caught the disease on a trip to Israel._x000D_
+Measles can cause lifelong effects including deafness. It is ugly, with its blotchy, fevered spots, some of which leave permanent scars. It's highly contagious and miserable to experience._x000D_
+A worried anti-vaccinations parent posted on Facebook to ask whether there were any precautions she could take to protect her 3-year-old from a measles outbreak. Ah yes, if only there were a way. She was rightly given a social media spanking._x000D_
+Measles vaccine is 97 percent effective after two doses, which usually also protect against mumps, rubella and sometimes varicella, or chickenpox, according to the U.S. Centers for Disease Control and Prevention. A well-vaccinated population takes on a "herd immunity" that hinders outbreaks. Some states, including Washington, allow parents wide latitude in skipping the vaccine. The Washington legislature is now rethinking that._x000D_
+"Thankfully, we live in a highly immunized community," Julie Pryde, administrator of the Champaign-Urbana Public Health District, told the local News-Gazette. "That's why it doesn't go wild like a brush fire."_x000D_
+Watching plump, pure baby flesh pierced and feeling trepidation about how the child's system will react can be legitimately nerve-wracking for a parent. That's no license to avoid a medical necessity that protects child and community. The right to resist comes with a corresponding responsibility to back up that impulse with rigorous research._x000D_
+Once more: Both studies that purported to find a link between vaccines and autism have been thoroughly discredited. There is no evidence connecting the two._x000D_
+Seeking a second opinion may sometimes be wise. Opting out of sound medicine and public health policy in favor of conspiracy theories is not._x000D_
+"All school-children who have not yet had a measles immunization should beg their parents to arrange for them to have one as soon as possible," children's author Roald Dahl wrote in a 1980s essay promoting vaccination. His daughter Olivia, to whom he dedicated "James and the Giant Peach," died of measles-induced encephalitis at age 7._x000D_
+Dahl was onto something. Illinois is among states that allow "mature minors" a voice in their own medical care. Children of anti-vax parents are visiting websites like Reddit to seek advice on how to get vaccines all by themselves._x000D_
+Now that's some healthy skepticism of unwise parenting._x000D_
+February 10, 2019_x000D_
+The (Champaign) News-Gazette_x000D_
+Illinois is betting big that gambling is an unadulterated good._x000D_
+Change is coming to Illinois a higher minimum wage first, soon to be followed by the legalization of marijuana._x000D_
+Then there is sports gambling, which is an option due to a ruling last year by the U.S. Supreme Court. In addition to action in many of the 50 states, federal legislation may be forthcoming._x000D_
+Illinois, of course, is already up to its neck in legalized gambling that includes casinos, video gambling, the lottery and race tracks. Those activities generate substantial income, but not as much as some predicted. Further, it seems that placing video-gambling parlors on virtually every street corner is diminishing the amount of gambling that once was done at the state's 10 casinos._x000D_
+Sports betting would be a whole new wrinkle on the gambling front, a government-overseen entertainment that would replace an illegal underground marketplace._x000D_
+A recent study indicates that legalized gambling in Illinois would generate $12 billion in wagers, create 2,500 jobs and generate up to $100 million in tax revenue._x000D_
+The authors of the study have their reasons for making that assessment._x000D_
+But one ought to be careful about embracing predictions on a practice that is still a gleam in the eye of the revenue-hungry Gov. J.B. Pritzker and members of the General Assembly._x000D_
+Further, it's important not to get caught up in the rush to pass legislation._x000D_
+Ever since the Supreme Court ruling, gambling hustlers have been urging legislators in Illinois and other states to be among the first to pass legislation allowing sports gambling._x000D_
+The theory is that those who strike first will reap the largest rewards._x000D_
+There is merit to swift action, but not at the expense of making careful and thoughtful decisions about what's to be done._x000D_
+Legislation authorizing casino gambling was rushed to passage, as was that creating the video-gambling frenzy. In retrospect, it looks as though state officials would have been better served to adopt a more deliberate and careful approach._x000D_
+Instead, they acted in haste, and, as various reports have suggested, now repent in leisure._x000D_
+The state has, historically, had a hard time passing gambling legislation because it turns into a scrum of conflicting interests, all of whom are looking to get rich at the others' expense._x000D_
+Further, those who gained gambling privileges in one round of legislation take the casino owners vigorously resist proposals for new venues that would compete with their existing venues._x000D_
+Does anyone think that the owners of casinos in Joliet and Des Plaines want to see another casino or two or three in Chicago? Absolutely not, and they're willing to spread plenty of money around in campaign donations or other forms of remuneration to see that it doesn't happen._x000D_
+Adding sports betting to the gambling field ensures a major conflagration. But the impending battle will be less about the specifics of operations than it will be about who makes the big money from this new business._x000D_
+Illinois is a huge state that has the capacity to make sports-book owners a whole lot of money. But which ones will it be? And what will the cost of the entry fee for those competing for the privilege of taking gamblers' money?_x000D_
+Ten states already have legalized sports gambling, none of them in the Midwest._x000D_
+If Illinois follows, it will be a game-changer in terms of social mores, one not necessarily for the better. People will just have to wait and see what follows._x000D_
+But don't buy the hype that another expansion of gambling will represent some kind of financial panacea for our financially challenged state._x000D_
+Legal gambling generates revenue, but it also generates costs, including a fraying of the social fabric of society. After all, everyone can't be a winner._x000D_
+February 10, 2019_x000D_
+(Decatur) Herald &amp;amp; Review_x000D_
+We support legalizing marijuana. Here are the hurdles we see._x000D_
+The climate is right._x000D_
+High on the list of changes planned by Gov. J.B. Pritzker is the state-wide legalization of recreational marijuana. The timing for this legislation is even more favorable now than before the election._x000D_
+Legalizing marijuana has been tried and tested by states before Illinois. There are substantial benefits that could help the state navigate budget problems and funding issues. It has the potential to infuse revenue at the ground level, as the retail market develops and helps stimulate the local economy. It has a proven record of reducing the impact of the opioid epidemic._x000D_
+In November, the Illinois Economic Policy Institute published "The Financial Impact of Legalizing Marijuana in Illinois." The report noted taxation and regulation of marijuana in Illinois could create nearly 24,000 new jobs. Legalization would boost the state's economy by $1 billion per year and generate in excess of $500 million in new state and local tax revenue._x000D_
+One of the most compelling reasons to move forward with legislation is the impact it has on the opioid crisis. According to the Center for Disease Control, deaths attributed to opioid overdose totaled 70,237 nationwide in 2017. In Illinois, there were 2,778 in 2017, which followed 2,411 in 2016 and 1,835 in 2015. In states that have already legalized marijuana for recreation, the number of opioid deaths is dropping. In some states, fatalities have fallen as much as 33 percent. It's a number we have to take seriously._x000D_
+The climate is right in Illinois to take the next step in marijuana legalization, but that alone doesn't warrant charging ahead blindly. With other states having gone before us, there is no excuse for not moving methodically and purposefully in preparing to make this significant change. There is time to do it right._x000D_
+Though Gov. Pritzker has made it clear that revenue through taxes is a priority, the predominance of the plan seems to focus on creating opportunities for minority businesses and benefits to communities affected by drug crime. There does not seem to be, however, a thorough analysis pondering through what system that revenue stream is built. If economics is one of the key reasons justifying legalization, that's a question that needs to be addressed sooner rather than later._x000D_
+The process of legalizing a once illegal substance is challenging. It does not just involve taxes and licenses. It requires a transition from a pre-legal state to a post-legal one. Going from a high demand-high cost product with minimal market infrastructure to a lower demand-lower cost product once the market develops and stabilizes._x000D_
+Colorado gained initial revenue simply by being a pioneer in legalization. As the market stabilized, production costs came down, reducing the tax revenue with it. California, meanwhile, taxes both by weight and by prices, leaving at least part of the revenue not dependent upon supply or increased demand to drive tax revenue up._x000D_
+As a state, we're closer than we've ever been to legalized recreational marijuana. There are plenty of reasons to proceed, and plenty of reasons we should answer some important implementation questions before we finalize it._x000D_
+Copyright 2019 The Associated Press. All rights reserved. This material may not be published, broadcast, rewritten or redistributed.</t>
+  </si>
+  <si>
+    <t>LITTLE ROCK, Ark. (AP) The Arkansas Arts Center will move into a former Walmart in Little Rock while the downtown museum gets a nearly $99 million makeover._x000D_
+Museum officials said Monday that the old Walmart Neighborhood Market will begin housing its staff, art classes and children's theater rehearsals in September. The Arkansas Democrat-Gazette reports that the move comes about a month before crews are scheduled to break ground on the center's more than two-year renovation project._x000D_
+The museum's nonprofit foundation didn't disclose the lease terms._x000D_
+The museum's interim executive director, Laine Harber, says the deal allows the center to keep staff employed, maintain daily programming and continue museum school classes for its roughly 3,000 students._x000D_
+The museum in November announced a partnership with the Central Arkansas Library System to display some of its artwork._x000D_
+Information from: Arkansas Democrat-Gazette, http://www.arkansasonline.com_x000D_
+Copyright 2019 The Associated Press. All rights reserved. This material may not be published, broadcast, rewritten or redistributed.</t>
+  </si>
+  <si>
+    <t>Anyone who's used a traditional WiFi extender will know that you sometimes need to manually switch your devices to the extender's own WiFi network when you're too far from your main WiFi router. That's mostly because WiFi extenders have their own network name that's slightly different to your main WiFi network's name. For example, an extender's network name might be your main network's name with the letters "EXT" tagged on, to indicate that it's your extender's WiFi network. _x000D_
+ Mesh systems like Eero, on the other hand, help your devices automatically switch to the nearest Eero, and each Eero broadcasts the same WiFi network name. _x000D_
+ Eero will also automatically connect your devices to the appropriate WiFi band — 2.4GHz and 5Ghz — depending on their needs. If your devices need better range, Eero will automatically connect your devices to the longer-range 2.4GHz band. If you're close enough to an Eero router, it'll connect your devices to the 5GHz band, which offers faster speeds, but has less range than the 2.4GHz band. _x000D_
+ To be fair, some recent extenders give options to keep your main WiFi network's name and bands to make switching easier and automatic. At the same time, you might need to go into the extender's settings to enable that feature, which can be complicated for a lot of users.</t>
+  </si>
+  <si>
+    <t>CEO confidence has been flat since Federal Reserve Chairman Jerome Powell announced last month that the agency would be "patient" in determining future interest rate hikes, IBM's Ginni Rometty told CNBC Tuesday._x000D_
+div &amp;gt; div.group &amp;gt; p:first-child"&amp;gt;_x000D_
+"I think it's been fairly steady and I hear from all of my colleagues that everyone is still planning ... both ways" whether for "growth or efficiency," Rometty said on "Squawk on the Street" during a sit down with CNBC's Jon Fortt from the Think 2019 conference in San Francisco._x000D_
+Many investors have been uncertain about the prospects of the markets this year. Some are bracing for the bull rally to continue running while others are preparing for stocks to fall the other way. Earlier last month, Powell said the central bank would keep an eye on economic growth throughout the year and adjust monetary policy if growth slows._x000D_
+That's left Wall Street watchers and company executives in limbo, who are adjusting their own plans to Fed policy. Markets began to swing up after Powell's comments, but CEO sentiment has remained the same, said Rometty, who is also chair and president of IBM._x000D_
+"Over a curve over time ... you would've seen more toward the growth side," she said. But "I see that balance now between growth and efficiency initiatives and I actually see that staying very firm."_x000D_
+Rometty also announced that IBM would open its Watson artificial intelligence service to all cloud platforms, not just IBM's cloud. The move will give IBM customers capability to manage and run data under the clouds run by providers like Microsoft and Amazon._x000D_
+"Watson can run on your premise it can run on any cloud and it can connect between them," Rometty said. "This is a big piece not just of Watson a big piece of hybrid cloud," she said, referring to the idea of mixing on-premises software with services from multiple cloud providers. "We think that's a trillion dollar market and we'll be number 1 in it."_x000D_
+Shares of IBM are trading about 1.4 percent higher as of midday. The stock is up almost 20 percent this year.</t>
+  </si>
+  <si>
+    <t>Thomas Kurian, the new CEO of Google Cloud, says that the search giant is revamping its strategy a little bit as it chases after the market-leading Amazon Web Services. _x000D_
+ Rather than focus on so-called digital native companies — largely startups that began their lives in the cloud — Google Cloud is going to go after established companies in established industries like retail or finance. _x000D_
+ "Historically, people have thought Google has a strong presence in the digital native community," Kurian said onstage. "Over the last 12 months, we've shifted our strategy to go after more traditional industries...You will see us continue to focus our go-to-market effort in going after the largest customers." _x000D_
+ Kurian's remarks — his first since replacing Diane Greene as CEO in January— came at the Goldman Sachs Technology and Internet Conference on Tuesday. Kurian came to Google following a long career at Oracle. _x000D_
+ Kurian says that he plans to "significantly" expand Google Cloud's sales teams, and train them to target traditional industries like retail, manufacturing, automotive, finance, and others. _x000D_
+ "We're going to specialize our sales team to talk to specific industries in the language of the industry," Kurian said. "You will see us competing much more aggressively going forward," he continued. _x000D_
+ Similarly, Kurian plans on expanding Google Cloud's customer support teams — potentially fixing a major customer complaint with the platform. _x000D_
+ "In order to serve a large corporation well, it's important for those organizations to have a person to talk to," Kurian said. _x000D_
+Read more:Startup execs were shocked when Diane Greene left Google Cloud, and they say new boss Thomas Kurian has his work cut out for him_x000D_
+ More broadly, Kurian says, Google Cloud is taking a new philisophy called "Customers for Life." This involves not only acquiring and retaining customers, but converting them into advocates for Google Cloud. _x000D_
+ Right now, Google Cloud is considered the number 3 cloud on the market, lagging behind Amazon Web Services and Microsoft Azure. Analysts say Google needs to step up its ability to sell into the largest customers. Kurian's gameplan here could help plug that gap and make it more competitive, as he inherits _x000D_
+ At the same time, though, Kurian says that customers believe that Google Cloud has come a long way — and that it still has a competitive edge. _x000D_
+ "I talked to the largest customers and asked, 'Why did you choose Google?' Kurian said. "Uniformly, the feedback I got was, 'It's by far the best technology in the market.'" _x000D_
+ Meanwhile, Google Cloud is already working to acquire prominent customers. Last week, Google Cloud partnership with the Golden State Warriors on Wednesday to bring advanced data analytics to the franchise. Insiders also say that Kurian is likely to lead Google Cloud in making aggressive acquisitions.</t>
+  </si>
+  <si>
+    <t>The transportation data firm INRIX Research released on Tuesday its annual rankings of the most congested cities in the world. _x000D_
+ The company measured the amount of time lost per capita in 2018 due to the difference between traffic at the busiest and least busy commuting times each day. Cities were ranked based on delays caused by congestion, adjusted for each city's population. _x000D_
+ Moscow was named the most congested city in the world for the second year in a row, and Europe had more cities in the top-20 than any other continent. _x000D_
+ These are the most congested cities in the world.</t>
   </si>
 </sst>
 </file>
@@ -5542,7 +5347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I150"/>
+  <dimension ref="A1:I145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5576,4311 +5381,4166 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="B2">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="F2" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="G2" s="3">
-        <v>43507.75586805555</v>
+        <v>43507.79184027778</v>
       </c>
       <c r="H2" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="I2" t="s">
-        <v>607</v>
+        <v>589</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="B3">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="F3" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="G3" s="3">
-        <v>43507.75712962963</v>
+        <v>43507.79236111111</v>
       </c>
       <c r="H3" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="I3" t="s">
-        <v>608</v>
+        <v>590</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>87</v>
+        <v>152</v>
       </c>
       <c r="B4">
-        <v>88</v>
+        <v>153</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F4" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="G4" s="3">
-        <v>43507.75833333333</v>
+        <v>43507.79918981482</v>
       </c>
       <c r="H4" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="I4" t="s">
-        <v>609</v>
+        <v>591</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="B5">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="F5" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="G5" s="3">
-        <v>43507.76111111111</v>
+        <v>43507.80636574074</v>
       </c>
       <c r="H5" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="I5" t="s">
-        <v>610</v>
+        <v>592</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>126</v>
+        <v>50</v>
       </c>
       <c r="B6">
-        <v>127</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="F6" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="G6" s="3">
-        <v>43507.76527777778</v>
+        <v>43507.81208333333</v>
       </c>
       <c r="H6" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="I6" t="s">
-        <v>611</v>
+        <v>593</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="B7">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="F7" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="G7" s="3">
-        <v>43507.76575231482</v>
+        <v>43507.81873842593</v>
       </c>
       <c r="H7" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="I7" t="s">
-        <v>612</v>
+        <v>594</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="B8">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F8" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="G8" s="3">
-        <v>43507.77275462963</v>
+        <v>43507.8322800926</v>
       </c>
       <c r="H8" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="I8" t="s">
-        <v>613</v>
+        <v>595</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="B9">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>156</v>
+        <v>15</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="F9" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="G9" s="3">
-        <v>43507.77275462963</v>
+        <v>43507.83472222222</v>
       </c>
       <c r="H9" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="I9" t="s">
-        <v>614</v>
+        <v>596</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B10">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="F10" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="G10" s="3">
-        <v>43507.77335648148</v>
+        <v>43507.83501157408</v>
       </c>
       <c r="H10" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="I10" t="s">
-        <v>615</v>
+        <v>597</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>96</v>
+        <v>153</v>
       </c>
       <c r="B11">
-        <v>97</v>
+        <v>154</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="F11" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="G11" s="3">
-        <v>43507.77847222222</v>
+        <v>43507.84344907408</v>
       </c>
       <c r="H11" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="I11" t="s">
-        <v>616</v>
+        <v>598</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="B12">
+        <v>91</v>
+      </c>
+      <c r="C12" t="s">
         <v>18</v>
       </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
       <c r="D12" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="F12" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="G12" s="3">
-        <v>43507.78472222222</v>
+        <v>43507.84513888889</v>
       </c>
       <c r="H12" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="I12" t="s">
-        <v>617</v>
+        <v>599</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="B13">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F13" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="G13" s="3">
-        <v>43507.78853009259</v>
+        <v>43507.84861111111</v>
       </c>
       <c r="H13" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="I13" t="s">
-        <v>618</v>
+        <v>600</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="B14">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F14" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="G14" s="3">
-        <v>43507.79184027778</v>
+        <v>43507.86737268518</v>
       </c>
       <c r="H14" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="I14" t="s">
-        <v>619</v>
+        <v>601</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="F15" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="G15" s="3">
-        <v>43507.79236111111</v>
+        <v>43507.86875</v>
       </c>
       <c r="H15" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="I15" t="s">
-        <v>620</v>
+        <v>602</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="B16">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="F16" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="G16" s="3">
-        <v>43507.79918981482</v>
+        <v>43507.87145833333</v>
       </c>
       <c r="H16" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="I16" t="s">
-        <v>621</v>
+        <v>603</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="B17">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F17" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="G17" s="3">
-        <v>43507.80636574074</v>
+        <v>43507.881875</v>
       </c>
       <c r="H17" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="I17" t="s">
-        <v>622</v>
+        <v>604</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="B18">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F18" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G18" s="3">
-        <v>43507.81208333333</v>
+        <v>43507.88503472223</v>
       </c>
       <c r="H18" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="I18" t="s">
-        <v>623</v>
+        <v>605</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="B19">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="F19" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G19" s="3">
-        <v>43507.81873842593</v>
+        <v>43507.88958333333</v>
       </c>
       <c r="H19" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="I19" t="s">
-        <v>624</v>
+        <v>606</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1">
-        <v>34</v>
+        <v>143</v>
       </c>
       <c r="B20">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="F20" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G20" s="3">
-        <v>43507.8322800926</v>
+        <v>43507.89362268519</v>
       </c>
       <c r="H20" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="I20" t="s">
-        <v>625</v>
+        <v>607</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B21">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>164</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F21" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="G21" s="3">
-        <v>43507.83472222222</v>
+        <v>43507.90069444444</v>
       </c>
       <c r="H21" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="I21" t="s">
-        <v>626</v>
+        <v>608</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="B22">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="F22" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G22" s="3">
-        <v>43507.83501157408</v>
+        <v>43507.90329861111</v>
       </c>
       <c r="H22" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="I22" t="s">
-        <v>627</v>
+        <v>609</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="B23">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="F23" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G23" s="3">
-        <v>43507.84344907408</v>
+        <v>43507.91385416667</v>
       </c>
       <c r="H23" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="I23" t="s">
-        <v>628</v>
+        <v>610</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B24">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" t="s">
-        <v>170</v>
+        <v>30</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="F24" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="G24" s="3">
-        <v>43507.84513888889</v>
+        <v>43507.91388888889</v>
       </c>
       <c r="H24" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="I24" t="s">
-        <v>629</v>
+        <v>611</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1">
-        <v>152</v>
+        <v>48</v>
       </c>
       <c r="B25">
-        <v>153</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
         <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="F25" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="G25" s="3">
-        <v>43507.84861111111</v>
+        <v>43507.91388888889</v>
       </c>
       <c r="H25" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="I25" t="s">
-        <v>630</v>
+        <v>612</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1">
-        <v>125</v>
+        <v>6</v>
       </c>
       <c r="B26">
-        <v>126</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
         <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="F26" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="G26" s="3">
-        <v>43507.86737268518</v>
+        <v>43507.91857638889</v>
       </c>
       <c r="H26" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="I26" t="s">
-        <v>631</v>
+        <v>613</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="B27">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="C27" t="s">
         <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="F27" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="G27" s="3">
-        <v>43507.86875</v>
+        <v>43507.91961805556</v>
       </c>
       <c r="H27" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="I27" t="s">
-        <v>632</v>
+        <v>614</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="B28">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="C28" t="s">
         <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="F28" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="G28" s="3">
-        <v>43507.87145833333</v>
+        <v>43507.92503472222</v>
       </c>
       <c r="H28" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="I28" t="s">
-        <v>633</v>
+        <v>615</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="B29">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
         <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="F29" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="G29" s="3">
-        <v>43507.881875</v>
+        <v>43507.92952546296</v>
       </c>
       <c r="H29" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="I29" t="s">
-        <v>634</v>
+        <v>616</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="B30">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="F30" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="G30" s="3">
-        <v>43507.88503472223</v>
+        <v>43507.93028935185</v>
       </c>
       <c r="H30" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="I30" t="s">
-        <v>635</v>
+        <v>617</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B31">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D31" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="F31" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="G31" s="3">
-        <v>43507.88958333333</v>
+        <v>43507.9325</v>
       </c>
       <c r="H31" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="I31" t="s">
-        <v>636</v>
+        <v>618</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="B32">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" t="s">
-        <v>178</v>
+        <v>36</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="F32" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="G32" s="3">
-        <v>43507.89362268519</v>
+        <v>43507.93680555555</v>
       </c>
       <c r="H32" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="I32" t="s">
-        <v>637</v>
+        <v>619</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="B33">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D33" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="F33" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G33" s="3">
-        <v>43507.90069444444</v>
+        <v>43507.94236111111</v>
       </c>
       <c r="H33" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="I33" t="s">
-        <v>638</v>
+        <v>620</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="B34">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D34" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F34" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="G34" s="3">
-        <v>43507.90329861111</v>
+        <v>43507.94572916667</v>
       </c>
       <c r="H34" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="I34" t="s">
-        <v>639</v>
+        <v>621</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="B35">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D35" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="F35" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="G35" s="3">
-        <v>43507.91385416667</v>
+        <v>43507.95300925926</v>
       </c>
       <c r="H35" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="I35" t="s">
-        <v>640</v>
+        <v>622</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="1">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="B36">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="C36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D36" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="F36" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="G36" s="3">
-        <v>43507.91388888889</v>
+        <v>43507.95899305555</v>
       </c>
       <c r="H36" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="I36" t="s">
-        <v>641</v>
+        <v>623</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="1">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B37">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C37" t="s">
         <v>41</v>
       </c>
+      <c r="D37" t="s">
+        <v>177</v>
+      </c>
       <c r="E37" s="2" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="F37" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="G37" s="3">
-        <v>43507.91388888889</v>
+        <v>43507.96458333333</v>
       </c>
       <c r="H37" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="I37" t="s">
-        <v>642</v>
+        <v>624</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="1">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="B38">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="C38" t="s">
         <v>42</v>
       </c>
       <c r="D38" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="F38" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="G38" s="3">
-        <v>43507.91857638889</v>
+        <v>43507.96597222222</v>
       </c>
       <c r="H38" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="I38" t="s">
-        <v>643</v>
+        <v>625</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="1">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="B39">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="C39" t="s">
         <v>43</v>
       </c>
       <c r="D39" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="F39" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="G39" s="3">
-        <v>43507.91961805556</v>
+        <v>43507.96686342593</v>
       </c>
       <c r="H39" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="I39" t="s">
-        <v>644</v>
+        <v>626</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="1">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C40" t="s">
         <v>44</v>
       </c>
       <c r="D40" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="F40" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="G40" s="3">
-        <v>43507.92503472222</v>
+        <v>43507.97644675926</v>
       </c>
       <c r="H40" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="I40" t="s">
-        <v>645</v>
+        <v>627</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="B41">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C41" t="s">
         <v>45</v>
       </c>
       <c r="D41" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="F41" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="G41" s="3">
-        <v>43507.92952546296</v>
+        <v>43507.97703703704</v>
       </c>
       <c r="H41" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="I41" t="s">
-        <v>646</v>
+        <v>628</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="1">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="B42">
-        <v>86</v>
+        <v>142</v>
       </c>
       <c r="C42" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D42" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="F42" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="G42" s="3">
-        <v>43507.93028935185</v>
+        <v>43507.98893518518</v>
       </c>
       <c r="H42" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="I42" t="s">
-        <v>647</v>
+        <v>629</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="1">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D43" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="F43" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="G43" s="3">
-        <v>43507.9325</v>
+        <v>43507.99054398148</v>
       </c>
       <c r="H43" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="I43" t="s">
-        <v>648</v>
+        <v>630</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="1">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="B44">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="C44" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="D44" t="s">
+        <v>184</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="F44" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G44" s="3">
-        <v>43507.93680555555</v>
+        <v>43507.99305555555</v>
       </c>
       <c r="H44" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="I44" t="s">
-        <v>649</v>
+        <v>631</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="1">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="B45">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D45" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="F45" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="G45" s="3">
-        <v>43507.94236111111</v>
+        <v>43507.99777777777</v>
       </c>
       <c r="H45" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="I45" t="s">
-        <v>650</v>
+        <v>632</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="1">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B46">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D46" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="F46" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="G46" s="3">
-        <v>43507.94572916667</v>
+        <v>43507.99791666667</v>
       </c>
       <c r="H46" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="I46" t="s">
-        <v>651</v>
+        <v>633</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="1">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="B47">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="C47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D47" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="F47" t="s">
-        <v>454</v>
+        <v>428</v>
       </c>
       <c r="G47" s="3">
-        <v>43507.95300925926</v>
+        <v>43508</v>
       </c>
       <c r="H47" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="I47" t="s">
-        <v>652</v>
+        <v>634</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="B48">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="C48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D48" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F48" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="G48" s="3">
-        <v>43507.95899305555</v>
+        <v>43508.04162037037</v>
       </c>
       <c r="H48" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="I48" t="s">
-        <v>653</v>
+        <v>635</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="C49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D49" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="F49" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="G49" s="3">
-        <v>43507.96458333333</v>
+        <v>43508.04342592593</v>
       </c>
       <c r="H49" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="I49" t="s">
-        <v>654</v>
+        <v>636</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="B50">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="C50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D50" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="F50" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G50" s="3">
-        <v>43507.96597222222</v>
+        <v>43508.05474537037</v>
       </c>
       <c r="H50" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="I50" t="s">
-        <v>655</v>
+        <v>637</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1">
-        <v>113</v>
+        <v>4</v>
       </c>
       <c r="B51">
-        <v>114</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D51" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="F51" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="G51" s="3">
-        <v>43507.96686342593</v>
+        <v>43508.06134259259</v>
       </c>
       <c r="H51" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="I51" t="s">
-        <v>656</v>
+        <v>638</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="B52">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D52" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="F52" t="s">
         <v>440</v>
       </c>
       <c r="G52" s="3">
-        <v>43507.97644675926</v>
+        <v>43508.06170138889</v>
       </c>
       <c r="H52" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="I52" t="s">
-        <v>657</v>
+        <v>639</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="B53">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="C53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D53" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="F53" t="s">
-        <v>455</v>
+        <v>432</v>
       </c>
       <c r="G53" s="3">
-        <v>43507.97703703704</v>
+        <v>43508.07774305555</v>
       </c>
       <c r="H53" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="I53" t="s">
-        <v>658</v>
+        <v>640</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B54">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D54" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="F54" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G54" s="3">
-        <v>43507.98893518518</v>
+        <v>43508.11739583333</v>
       </c>
       <c r="H54" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="I54" t="s">
-        <v>659</v>
+        <v>641</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B55">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="C55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D55" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="F55" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="G55" s="3">
-        <v>43507.99054398148</v>
+        <v>43508.12322916667</v>
       </c>
       <c r="H55" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="I55" t="s">
-        <v>660</v>
+        <v>642</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="B56">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="C56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D56" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="F56" t="s">
-        <v>453</v>
+        <v>430</v>
       </c>
       <c r="G56" s="3">
-        <v>43507.99305555555</v>
+        <v>43508.16184027777</v>
       </c>
       <c r="H56" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="I56" t="s">
-        <v>661</v>
+        <v>643</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="B57">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="C57" t="s">
         <v>60</v>
       </c>
       <c r="D57" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="F57" t="s">
-        <v>452</v>
+        <v>433</v>
       </c>
       <c r="G57" s="3">
-        <v>43507.99777777777</v>
+        <v>43508.16190972222</v>
       </c>
       <c r="H57" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="I57" t="s">
-        <v>662</v>
+        <v>644</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="B58">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="C58" t="s">
         <v>61</v>
       </c>
       <c r="D58" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="F58" t="s">
         <v>443</v>
       </c>
       <c r="G58" s="3">
-        <v>43507.99791666667</v>
+        <v>43508.16695601852</v>
       </c>
       <c r="H58" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="I58" t="s">
-        <v>663</v>
+        <v>645</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="B59">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="C59" t="s">
         <v>62</v>
       </c>
       <c r="D59" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="F59" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G59" s="3">
-        <v>43508</v>
+        <v>43508.16700231482</v>
       </c>
       <c r="H59" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="I59" t="s">
-        <v>664</v>
+        <v>646</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="B60">
-        <v>64</v>
+        <v>156</v>
       </c>
       <c r="C60" t="s">
         <v>63</v>
       </c>
       <c r="D60" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="F60" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="G60" s="3">
-        <v>43508.04162037037</v>
+        <v>43508.17880787037</v>
       </c>
       <c r="H60" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="I60" t="s">
-        <v>665</v>
+        <v>647</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B61">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C61" t="s">
         <v>64</v>
       </c>
       <c r="D61" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="F61" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="G61" s="3">
-        <v>43508.04342592593</v>
+        <v>43508.27440972222</v>
       </c>
       <c r="H61" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="I61" t="s">
-        <v>666</v>
+        <v>648</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B62">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C62" t="s">
         <v>65</v>
       </c>
       <c r="D62" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="F62" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="G62" s="3">
-        <v>43508.05474537037</v>
+        <v>43508.28203703704</v>
       </c>
       <c r="H62" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="I62" t="s">
-        <v>667</v>
+        <v>649</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B63">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="C63" t="s">
         <v>66</v>
       </c>
       <c r="D63" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="F63" t="s">
-        <v>454</v>
+        <v>428</v>
       </c>
       <c r="G63" s="3">
-        <v>43508.06134259259</v>
+        <v>43508.31341435185</v>
       </c>
       <c r="H63" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="I63" t="s">
-        <v>668</v>
+        <v>650</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B64">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C64" t="s">
         <v>67</v>
       </c>
       <c r="D64" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="F64" t="s">
-        <v>454</v>
+        <v>428</v>
       </c>
       <c r="G64" s="3">
-        <v>43508.06170138889</v>
+        <v>43508.32862268519</v>
       </c>
       <c r="H64" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="I64" t="s">
-        <v>669</v>
+        <v>651</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="B65">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c r="C65" t="s">
         <v>68</v>
       </c>
       <c r="D65" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="F65" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="G65" s="3">
-        <v>43508.07774305555</v>
+        <v>43508.33680555555</v>
       </c>
       <c r="H65" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="I65" t="s">
-        <v>670</v>
+        <v>652</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="1">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="B66">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="C66" t="s">
         <v>69</v>
       </c>
       <c r="D66" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="F66" t="s">
-        <v>455</v>
+        <v>435</v>
       </c>
       <c r="G66" s="3">
-        <v>43508.11739583333</v>
+        <v>43508.34508101852</v>
       </c>
       <c r="H66" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="I66" t="s">
-        <v>671</v>
+        <v>653</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="1">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B67">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C67" t="s">
         <v>70</v>
       </c>
       <c r="D67" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="F67" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G67" s="3">
-        <v>43508.12322916667</v>
+        <v>43508.41666666666</v>
       </c>
       <c r="H67" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="I67" t="s">
-        <v>672</v>
+        <v>654</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="1">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="B68">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="C68" t="s">
         <v>71</v>
       </c>
       <c r="D68" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="F68" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G68" s="3">
-        <v>43508.16184027777</v>
+        <v>43508.41677083333</v>
       </c>
       <c r="H68" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="I68" t="s">
-        <v>673</v>
+        <v>655</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="1">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="B69">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D69" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="F69" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G69" s="3">
-        <v>43508.16190972222</v>
+        <v>43508.41699074074</v>
       </c>
       <c r="H69" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="I69" t="s">
-        <v>674</v>
+        <v>656</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="1">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="B70">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="C70" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D70" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="F70" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="G70" s="3">
-        <v>43508.16695601852</v>
+        <v>43508.43657407408</v>
       </c>
       <c r="H70" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="I70" t="s">
-        <v>675</v>
+        <v>657</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="1">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B71">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C71" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D71" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="F71" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
       <c r="G71" s="3">
-        <v>43508.16700231482</v>
+        <v>43508.4375</v>
       </c>
       <c r="H71" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="I71" t="s">
-        <v>676</v>
+        <v>658</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="1">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="B72">
-        <v>161</v>
+        <v>31</v>
       </c>
       <c r="C72" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D72" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="F72" t="s">
-        <v>455</v>
+        <v>432</v>
       </c>
       <c r="G72" s="3">
-        <v>43508.17880787037</v>
+        <v>43508.43888888889</v>
       </c>
       <c r="H72" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="I72" t="s">
-        <v>677</v>
+        <v>659</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="1">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D73" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="F73" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="G73" s="3">
-        <v>43508.27440972222</v>
+        <v>43508.43917824074</v>
       </c>
       <c r="H73" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="I73" t="s">
-        <v>678</v>
+        <v>660</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="1">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="B74">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="C74" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D74" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="F74" t="s">
-        <v>457</v>
+        <v>438</v>
       </c>
       <c r="G74" s="3">
-        <v>43508.28203703704</v>
+        <v>43508.44082175926</v>
       </c>
       <c r="H74" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="I74" t="s">
-        <v>679</v>
+        <v>661</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="1">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B75">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C75" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D75" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="F75" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="G75" s="3">
-        <v>43508.31341435185</v>
+        <v>43508.45837962963</v>
       </c>
       <c r="H75" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="I75" t="s">
-        <v>680</v>
+        <v>662</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="1">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="B76">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="C76" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D76" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="F76" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="G76" s="3">
-        <v>43508.32862268519</v>
+        <v>43508.45908564814</v>
       </c>
       <c r="H76" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="I76" t="s">
-        <v>681</v>
+        <v>663</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="1">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="B77">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="C77" t="s">
-        <v>79</v>
-      </c>
-      <c r="D77" t="s">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="F77" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G77" s="3">
-        <v>43508.33680555555</v>
+        <v>43508.45961805555</v>
       </c>
       <c r="H77" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="I77" t="s">
-        <v>682</v>
+        <v>664</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="1">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B78">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C78" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D78" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F78" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="G78" s="3">
-        <v>43508.34508101852</v>
+        <v>43508.48251157408</v>
       </c>
       <c r="H78" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="I78" t="s">
-        <v>683</v>
+        <v>665</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="1">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="B79">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="C79" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D79" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="F79" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="G79" s="3">
-        <v>43508.41666666666</v>
+        <v>43508.48925925926</v>
       </c>
       <c r="H79" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="I79" t="s">
-        <v>684</v>
+        <v>666</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="1">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="B80">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="C80" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D80" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F80" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="G80" s="3">
-        <v>43508.41677083333</v>
+        <v>43508.49513888889</v>
       </c>
       <c r="H80" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="I80" t="s">
-        <v>685</v>
+        <v>667</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="1">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="B81">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="C81" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D81" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="F81" t="s">
-        <v>453</v>
+        <v>431</v>
       </c>
       <c r="G81" s="3">
-        <v>43508.41699074074</v>
+        <v>43508.49722222222</v>
       </c>
       <c r="H81" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="I81" t="s">
-        <v>686</v>
+        <v>668</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="1">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="B82">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="C82" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D82" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="F82" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
       <c r="G82" s="3">
-        <v>43508.43657407408</v>
+        <v>43508.49805555555</v>
       </c>
       <c r="H82" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="I82" t="s">
-        <v>687</v>
+        <v>669</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B83">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C83" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D83" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="F83" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="G83" s="3">
-        <v>43508.4375</v>
+        <v>43508.51170138889</v>
       </c>
       <c r="H83" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="I83" t="s">
-        <v>688</v>
+        <v>670</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="1">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="B84">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="C84" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D84" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="F84" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="G84" s="3">
-        <v>43508.43888888889</v>
+        <v>43508.52487268519</v>
       </c>
       <c r="H84" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="I84" t="s">
-        <v>689</v>
+        <v>671</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="1">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="B85">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C85" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D85" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="F85" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="G85" s="3">
-        <v>43508.43917824074</v>
+        <v>43508.52770833333</v>
       </c>
       <c r="H85" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="I85" t="s">
-        <v>690</v>
+        <v>672</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="1">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="B86">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="C86" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D86" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="F86" t="s">
-        <v>452</v>
+        <v>431</v>
       </c>
       <c r="G86" s="3">
-        <v>43508.44082175926</v>
+        <v>43508.52986111111</v>
       </c>
       <c r="H86" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="I86" t="s">
-        <v>691</v>
+        <v>673</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="1">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="B87">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="C87" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D87" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="F87" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="G87" s="3">
-        <v>43508.45837962963</v>
+        <v>43508.53061342592</v>
       </c>
       <c r="H87" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="I87" t="s">
-        <v>692</v>
+        <v>674</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="1">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="B88">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="C88" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D88" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="F88" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G88" s="3">
-        <v>43508.45908564814</v>
+        <v>43508.53586805556</v>
       </c>
       <c r="H88" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="I88" t="s">
-        <v>693</v>
+        <v>531</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="1">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="C89" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="D89" t="s">
+        <v>228</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="F89" t="s">
-        <v>457</v>
+        <v>428</v>
       </c>
       <c r="G89" s="3">
-        <v>43508.45961805555</v>
+        <v>43508.54166666666</v>
       </c>
       <c r="H89" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="I89" t="s">
-        <v>694</v>
+        <v>675</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="1">
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="B90">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="C90" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D90" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="F90" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="G90" s="3">
-        <v>43508.48251157408</v>
+        <v>43508.54236111111</v>
       </c>
       <c r="H90" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="I90" t="s">
-        <v>695</v>
+        <v>676</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="1">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B91">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C91" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D91" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="F91" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="G91" s="3">
-        <v>43508.48925925926</v>
+        <v>43508.54513888889</v>
       </c>
       <c r="H91" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="I91" t="s">
-        <v>696</v>
+        <v>677</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="1">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="B92">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C92" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D92" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="F92" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="G92" s="3">
-        <v>43508.49513888889</v>
+        <v>43508.55972222222</v>
       </c>
       <c r="H92" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="I92" t="s">
-        <v>697</v>
+        <v>678</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="1">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="B93">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="C93" t="s">
         <v>95</v>
       </c>
       <c r="D93" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="F93" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="G93" s="3">
-        <v>43508.49722222222</v>
+        <v>43508.56013888889</v>
       </c>
       <c r="H93" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="I93" t="s">
-        <v>698</v>
+        <v>679</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="1">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B94">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C94" t="s">
         <v>96</v>
       </c>
       <c r="D94" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="F94" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="G94" s="3">
-        <v>43508.49805555555</v>
+        <v>43508.56443287037</v>
       </c>
       <c r="H94" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="I94" t="s">
-        <v>699</v>
+        <v>680</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="1">
+        <v>9</v>
+      </c>
+      <c r="B95">
         <v>10</v>
-      </c>
-      <c r="B95">
-        <v>11</v>
       </c>
       <c r="C95" t="s">
         <v>97</v>
       </c>
       <c r="D95" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="F95" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="G95" s="3">
-        <v>43508.51170138889</v>
+        <v>43508.56686342593</v>
       </c>
       <c r="H95" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="I95" t="s">
-        <v>700</v>
+        <v>681</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="1">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="B96">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="C96" t="s">
         <v>98</v>
       </c>
       <c r="D96" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="F96" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="G96" s="3">
-        <v>43508.52487268519</v>
+        <v>43508.57291666666</v>
       </c>
       <c r="H96" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="I96" t="s">
-        <v>701</v>
+        <v>682</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="1">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="B97">
-        <v>58</v>
+        <v>146</v>
       </c>
       <c r="C97" t="s">
         <v>99</v>
       </c>
       <c r="D97" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="F97" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="G97" s="3">
-        <v>43508.52770833333</v>
+        <v>43508.57788194445</v>
       </c>
       <c r="H97" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="I97" t="s">
-        <v>702</v>
+        <v>683</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="1">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="B98">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="C98" t="s">
         <v>100</v>
       </c>
       <c r="D98" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="F98" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="G98" s="3">
-        <v>43508.52986111111</v>
+        <v>43508.5830324074</v>
       </c>
       <c r="H98" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="I98" t="s">
-        <v>703</v>
+        <v>684</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="1">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="B99">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="C99" t="s">
         <v>101</v>
       </c>
       <c r="D99" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="F99" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="G99" s="3">
-        <v>43508.53061342592</v>
+        <v>43508.58646990741</v>
       </c>
       <c r="H99" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="I99" t="s">
-        <v>704</v>
+        <v>685</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="1">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="B100">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="C100" t="s">
         <v>102</v>
       </c>
       <c r="D100" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="F100" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="G100" s="3">
-        <v>43508.53586805556</v>
+        <v>43508.59274305555</v>
       </c>
       <c r="H100" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="I100" t="s">
-        <v>556</v>
+        <v>686</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="1">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="B101">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="C101" t="s">
         <v>103</v>
       </c>
       <c r="D101" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="F101" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="G101" s="3">
-        <v>43508.54166666666</v>
+        <v>43508.59375</v>
       </c>
       <c r="H101" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="I101" t="s">
-        <v>705</v>
+        <v>687</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="1">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="B102">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="C102" t="s">
         <v>104</v>
       </c>
       <c r="D102" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="F102" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="G102" s="3">
-        <v>43508.54236111111</v>
+        <v>43508.59930555556</v>
       </c>
       <c r="H102" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="I102" t="s">
-        <v>706</v>
+        <v>688</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="1">
-        <v>37</v>
+        <v>120</v>
       </c>
       <c r="B103">
-        <v>38</v>
+        <v>121</v>
       </c>
       <c r="C103" t="s">
         <v>105</v>
       </c>
       <c r="D103" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="F103" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="G103" s="3">
-        <v>43508.54513888889</v>
+        <v>43508.60416666666</v>
       </c>
       <c r="H103" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="I103" t="s">
-        <v>707</v>
+        <v>689</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="1">
-        <v>79</v>
+        <v>156</v>
       </c>
       <c r="B104">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="C104" t="s">
         <v>106</v>
       </c>
       <c r="D104" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="F104" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G104" s="3">
-        <v>43508.55972222222</v>
+        <v>43508.60902777778</v>
       </c>
       <c r="H104" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="I104" t="s">
-        <v>708</v>
+        <v>690</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="1">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B105">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="C105" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D105" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="F105" t="s">
-        <v>450</v>
+        <v>428</v>
       </c>
       <c r="G105" s="3">
-        <v>43508.56013888889</v>
+        <v>43508.61658564815</v>
       </c>
       <c r="H105" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="I105" t="s">
-        <v>709</v>
+        <v>691</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="1">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="B106">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="C106" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D106" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F106" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="G106" s="3">
-        <v>43508.56443287037</v>
+        <v>43508.62430555555</v>
       </c>
       <c r="H106" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="I106" t="s">
-        <v>710</v>
+        <v>692</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="1">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B107">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C107" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D107" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="F107" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G107" s="3">
-        <v>43508.56686342593</v>
+        <v>43508.62430555555</v>
       </c>
       <c r="H107" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="I107" t="s">
-        <v>711</v>
+        <v>693</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="1">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="B108">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="C108" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D108" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="F108" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="G108" s="3">
-        <v>43508.57291666666</v>
+        <v>43508.62708333333</v>
       </c>
       <c r="H108" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="I108" t="s">
-        <v>712</v>
+        <v>694</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="1">
-        <v>151</v>
+        <v>52</v>
       </c>
       <c r="B109">
-        <v>152</v>
+        <v>53</v>
       </c>
       <c r="C109" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D109" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="F109" t="s">
-        <v>451</v>
+        <v>428</v>
       </c>
       <c r="G109" s="3">
-        <v>43508.57788194445</v>
+        <v>43508.6274537037</v>
       </c>
       <c r="H109" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="I109" t="s">
-        <v>713</v>
+        <v>695</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="1">
-        <v>132</v>
+        <v>28</v>
       </c>
       <c r="B110">
-        <v>133</v>
+        <v>29</v>
       </c>
       <c r="C110" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D110" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="F110" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="G110" s="3">
-        <v>43508.5830324074</v>
+        <v>43508.63381944445</v>
       </c>
       <c r="H110" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="I110" t="s">
-        <v>714</v>
+        <v>696</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="1">
-        <v>139</v>
+        <v>7</v>
       </c>
       <c r="B111">
-        <v>140</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D111" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="F111" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G111" s="3">
-        <v>43508.58646990741</v>
+        <v>43508.65416666667</v>
       </c>
       <c r="H111" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="I111" t="s">
-        <v>715</v>
+        <v>697</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="1">
-        <v>162</v>
+        <v>15</v>
       </c>
       <c r="B112">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="C112" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D112" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="F112" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="G112" s="3">
-        <v>43508.59274305555</v>
+        <v>43508.65466435185</v>
       </c>
       <c r="H112" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="I112" t="s">
-        <v>716</v>
+        <v>698</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="1">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="B113">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="C113" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D113" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="F113" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="G113" s="3">
-        <v>43508.59375</v>
+        <v>43508.65486111111</v>
       </c>
       <c r="H113" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="I113" t="s">
-        <v>717</v>
+        <v>699</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="1">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B114">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="C114" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D114" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="F114" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="G114" s="3">
-        <v>43508.59930555556</v>
+        <v>43508.66319444445</v>
       </c>
       <c r="H114" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="I114" t="s">
-        <v>718</v>
+        <v>700</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="1">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B115">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C115" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D115" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="F115" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="G115" s="3">
-        <v>43508.60416666666</v>
+        <v>43508.67291666667</v>
       </c>
       <c r="H115" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="I115" t="s">
-        <v>719</v>
+        <v>701</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="1">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="B116">
-        <v>162</v>
+        <v>46</v>
       </c>
       <c r="C116" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D116" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="F116" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="G116" s="3">
-        <v>43508.60902777778</v>
+        <v>43508.68063657408</v>
       </c>
       <c r="H116" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="I116" t="s">
-        <v>720</v>
+        <v>702</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="1">
-        <v>137</v>
+        <v>53</v>
       </c>
       <c r="B117">
-        <v>138</v>
+        <v>54</v>
       </c>
       <c r="C117" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D117" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="F117" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="G117" s="3">
-        <v>43508.61658564815</v>
+        <v>43508.68771990741</v>
       </c>
       <c r="H117" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="I117" t="s">
-        <v>721</v>
+        <v>703</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="1">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="B118">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="C118" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D118" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="F118" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="G118" s="3">
-        <v>43508.62430555555</v>
+        <v>43508.68797453704</v>
       </c>
       <c r="H118" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="I118" t="s">
-        <v>722</v>
+        <v>704</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="1">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="B119">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="C119" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D119" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="F119" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="G119" s="3">
-        <v>43508.62430555555</v>
+        <v>43508.69342592593</v>
       </c>
       <c r="H119" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="I119" t="s">
-        <v>723</v>
+        <v>705</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="1">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="B120">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="C120" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D120" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="F120" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="G120" s="3">
-        <v>43508.62708333333</v>
+        <v>43508.70134259259</v>
       </c>
       <c r="H120" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="I120" t="s">
-        <v>724</v>
+        <v>706</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="1">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B121">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C121" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D121" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="F121" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G121" s="3">
-        <v>43508.6274537037</v>
+        <v>43508.70253472222</v>
       </c>
       <c r="H121" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="I121" t="s">
-        <v>725</v>
+        <v>707</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="1">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="B122">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="C122" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D122" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="F122" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="G122" s="3">
-        <v>43508.63381944445</v>
+        <v>43508.70738425926</v>
       </c>
       <c r="H122" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="I122" t="s">
-        <v>726</v>
+        <v>708</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="1">
-        <v>7</v>
+        <v>130</v>
       </c>
       <c r="B123">
-        <v>8</v>
+        <v>131</v>
       </c>
       <c r="C123" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D123" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="F123" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="G123" s="3">
-        <v>43508.65416666667</v>
+        <v>43508.70885416667</v>
       </c>
       <c r="H123" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="I123" t="s">
-        <v>727</v>
+        <v>709</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="1">
+        <v>14</v>
+      </c>
+      <c r="B124">
         <v>15</v>
       </c>
-      <c r="B124">
-        <v>16</v>
-      </c>
       <c r="C124" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D124" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="F124" t="s">
-        <v>455</v>
+        <v>428</v>
       </c>
       <c r="G124" s="3">
-        <v>43508.65466435185</v>
+        <v>43508.71111111111</v>
       </c>
       <c r="H124" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="I124" t="s">
-        <v>728</v>
+        <v>710</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="1">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="C125" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D125" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="F125" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="G125" s="3">
-        <v>43508.65486111111</v>
+        <v>43508.7125</v>
       </c>
       <c r="H125" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="I125" t="s">
-        <v>729</v>
+        <v>711</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="1">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="B126">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="C126" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D126" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="F126" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="G126" s="3">
-        <v>43508.66319444445</v>
+        <v>43508.7130787037</v>
       </c>
       <c r="H126" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="I126" t="s">
-        <v>730</v>
+        <v>712</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="1">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="B127">
-        <v>123</v>
+        <v>4</v>
       </c>
       <c r="C127" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D127" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="F127" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="G127" s="3">
-        <v>43508.67291666667</v>
+        <v>43508.71319444444</v>
       </c>
       <c r="H127" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="I127" t="s">
-        <v>731</v>
+        <v>713</v>
       </c>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="1">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="B128">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="C128" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D128" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="F128" t="s">
-        <v>456</v>
+        <v>430</v>
       </c>
       <c r="G128" s="3">
-        <v>43508.68063657408</v>
+        <v>43508.71462962963</v>
       </c>
       <c r="H128" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="I128" t="s">
-        <v>732</v>
+        <v>714</v>
       </c>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="1">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="B129">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="C129" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D129" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="F129" t="s">
-        <v>452</v>
+        <v>428</v>
       </c>
       <c r="G129" s="3">
-        <v>43508.68771990741</v>
+        <v>43508.71783564815</v>
       </c>
       <c r="H129" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="I129" t="s">
-        <v>733</v>
+        <v>715</v>
       </c>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="1">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B130">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C130" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D130" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="F130" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="G130" s="3">
-        <v>43508.68797453704</v>
+        <v>43508.71925925926</v>
       </c>
       <c r="H130" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="I130" t="s">
-        <v>734</v>
+        <v>716</v>
       </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="1">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="B131">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="C131" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D131" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="F131" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="G131" s="3">
-        <v>43508.69342592593</v>
+        <v>43508.72430555556</v>
       </c>
       <c r="H131" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="I131" t="s">
-        <v>735</v>
+        <v>717</v>
       </c>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="1">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="B132">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="C132" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D132" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="F132" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="G132" s="3">
-        <v>43508.70134259259</v>
+        <v>43508.72434027777</v>
       </c>
       <c r="H132" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="I132" t="s">
-        <v>736</v>
+        <v>718</v>
       </c>
     </row>
     <row r="133" spans="1:9">
       <c r="A133" s="1">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="B133">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="C133" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="D133" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="F133" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
       <c r="G133" s="3">
-        <v>43508.70253472222</v>
+        <v>43508.72454861111</v>
       </c>
       <c r="H133" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="I133" t="s">
-        <v>737</v>
+        <v>719</v>
       </c>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" s="1">
-        <v>59</v>
+        <v>150</v>
       </c>
       <c r="B134">
-        <v>60</v>
+        <v>151</v>
       </c>
       <c r="C134" t="s">
         <v>135</v>
       </c>
       <c r="D134" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="F134" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="G134" s="3">
-        <v>43508.70738425926</v>
+        <v>43508.73185185185</v>
       </c>
       <c r="H134" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="I134" t="s">
-        <v>738</v>
+        <v>720</v>
       </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" s="1">
-        <v>136</v>
+        <v>65</v>
       </c>
       <c r="B135">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c r="C135" t="s">
         <v>136</v>
       </c>
       <c r="D135" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="F135" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G135" s="3">
-        <v>43508.70885416667</v>
+        <v>43508.73751157407</v>
       </c>
       <c r="H135" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="I135" t="s">
-        <v>739</v>
+        <v>721</v>
       </c>
     </row>
     <row r="136" spans="1:9">
       <c r="A136" s="1">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="B136">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="C136" t="s">
         <v>137</v>
       </c>
       <c r="D136" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="F136" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="G136" s="3">
-        <v>43508.71111111111</v>
+        <v>43508.73864583333</v>
       </c>
       <c r="H136" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="I136" t="s">
-        <v>740</v>
+        <v>722</v>
       </c>
     </row>
     <row r="137" spans="1:9">
       <c r="A137" s="1">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="B137">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="C137" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D137" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="F137" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="G137" s="3">
-        <v>43508.7125</v>
+        <v>43508.74486111111</v>
       </c>
       <c r="H137" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="I137" t="s">
-        <v>741</v>
+        <v>723</v>
       </c>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="1">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="B138">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="C138" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D138" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="F138" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="G138" s="3">
-        <v>43508.7130787037</v>
+        <v>43508.74918981481</v>
       </c>
       <c r="H138" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="I138" t="s">
-        <v>742</v>
+        <v>724</v>
       </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="1">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B139">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C139" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D139" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="F139" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="G139" s="3">
-        <v>43508.71319444444</v>
+        <v>43508.75613425926</v>
       </c>
       <c r="H139" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="I139" t="s">
-        <v>743</v>
+        <v>725</v>
       </c>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="1">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="B140">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="C140" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D140" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="F140" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="G140" s="3">
-        <v>43508.71462962963</v>
+        <v>43508.75642361111</v>
       </c>
       <c r="H140" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="I140" t="s">
-        <v>744</v>
+        <v>726</v>
       </c>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="1">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="B141">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="C141" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D141" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="F141" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="G141" s="3">
-        <v>43508.71783564815</v>
+        <v>43508.7691087963</v>
       </c>
       <c r="H141" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="I141" t="s">
-        <v>745</v>
+        <v>727</v>
       </c>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="1">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="B142">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="C142" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D142" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="F142" t="s">
-        <v>454</v>
+        <v>428</v>
       </c>
       <c r="G142" s="3">
-        <v>43508.71925925926</v>
+        <v>43508.77494212963</v>
       </c>
       <c r="H142" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="I142" t="s">
-        <v>746</v>
+        <v>728</v>
       </c>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" s="1">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="B143">
-        <v>3</v>
+        <v>133</v>
       </c>
       <c r="C143" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D143" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="F143" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="G143" s="3">
-        <v>43508.72430555556</v>
+        <v>43508.77777777778</v>
       </c>
       <c r="H143" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="I143" t="s">
-        <v>747</v>
+        <v>729</v>
       </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="1">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="B144">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="C144" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D144" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="F144" t="s">
-        <v>453</v>
+        <v>428</v>
       </c>
       <c r="G144" s="3">
-        <v>43508.72434027777</v>
+        <v>43508.78001157408</v>
       </c>
       <c r="H144" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="I144" t="s">
-        <v>748</v>
+        <v>730</v>
       </c>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" s="1">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="B145">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="C145" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="D145" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="F145" t="s">
-        <v>450</v>
+        <v>428</v>
       </c>
       <c r="G145" s="3">
-        <v>43508.72454861111</v>
+        <v>43508.78457175926</v>
       </c>
       <c r="H145" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="I145" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
-      <c r="A146" s="1">
-        <v>155</v>
-      </c>
-      <c r="B146">
-        <v>156</v>
-      </c>
-      <c r="C146" t="s">
-        <v>146</v>
-      </c>
-      <c r="D146" t="s">
-        <v>287</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="F146" t="s">
-        <v>455</v>
-      </c>
-      <c r="G146" s="3">
-        <v>43508.73185185185</v>
-      </c>
-      <c r="H146" t="s">
-        <v>602</v>
-      </c>
-      <c r="I146" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
-      <c r="A147" s="1">
-        <v>66</v>
-      </c>
-      <c r="B147">
-        <v>67</v>
-      </c>
-      <c r="C147" t="s">
-        <v>147</v>
-      </c>
-      <c r="D147" t="s">
-        <v>288</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="F147" t="s">
-        <v>445</v>
-      </c>
-      <c r="G147" s="3">
-        <v>43508.73751157407</v>
-      </c>
-      <c r="H147" t="s">
-        <v>603</v>
-      </c>
-      <c r="I147" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
-      <c r="A148" s="1">
-        <v>77</v>
-      </c>
-      <c r="B148">
-        <v>78</v>
-      </c>
-      <c r="C148" t="s">
-        <v>148</v>
-      </c>
-      <c r="D148" t="s">
-        <v>289</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="F148" t="s">
-        <v>450</v>
-      </c>
-      <c r="G148" s="3">
-        <v>43508.73864583333</v>
-      </c>
-      <c r="H148" t="s">
-        <v>604</v>
-      </c>
-      <c r="I148" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
-      <c r="A149" s="1">
-        <v>150</v>
-      </c>
-      <c r="B149">
-        <v>151</v>
-      </c>
-      <c r="C149" t="s">
-        <v>148</v>
-      </c>
-      <c r="D149" t="s">
-        <v>289</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="F149" t="s">
-        <v>450</v>
-      </c>
-      <c r="G149" s="3">
-        <v>43508.74486111111</v>
-      </c>
-      <c r="H149" t="s">
-        <v>605</v>
-      </c>
-      <c r="I149" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
-      <c r="A150" s="1">
-        <v>55</v>
-      </c>
-      <c r="B150">
-        <v>56</v>
-      </c>
-      <c r="C150" t="s">
-        <v>149</v>
-      </c>
-      <c r="D150" t="s">
-        <v>290</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="F150" t="s">
-        <v>452</v>
-      </c>
-      <c r="G150" s="3">
-        <v>43508.74918981481</v>
-      </c>
-      <c r="H150" t="s">
-        <v>606</v>
-      </c>
-      <c r="I150" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
     </row>
   </sheetData>
@@ -10029,11 +9689,6 @@
     <hyperlink ref="E143" r:id="rId142"/>
     <hyperlink ref="E144" r:id="rId143"/>
     <hyperlink ref="E145" r:id="rId144"/>
-    <hyperlink ref="E146" r:id="rId145"/>
-    <hyperlink ref="E147" r:id="rId146"/>
-    <hyperlink ref="E148" r:id="rId147"/>
-    <hyperlink ref="E149" r:id="rId148"/>
-    <hyperlink ref="E150" r:id="rId149"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
